--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -4718,11 +4718,6 @@
           <t>Contact Name</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="15" t="inlineStr">
@@ -4755,11 +4750,6 @@
           <t>Contact Role</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" s="15" t="inlineStr">
@@ -4792,11 +4782,6 @@
           <t>Mimimum Response Duration</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="11" ht="43.5" customHeight="1">
       <c r="A11" s="15" t="inlineStr">
@@ -4827,11 +4812,6 @@
       <c r="F11" s="14" t="inlineStr">
         <is>
           <t>Background treatment</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>No result</t>
         </is>
       </c>
     </row>
@@ -4858,11 +4838,6 @@
           <t>Data Monitoring Committee Indicator</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="13" ht="43.5" customHeight="1">
       <c r="A13" s="15" t="inlineStr">
@@ -4895,11 +4870,6 @@
           <t>Dosage Levels</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="14" ht="43.5" customHeight="1">
       <c r="A14" s="15" t="inlineStr">
@@ -4932,11 +4902,6 @@
           <t>Dose Form</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="15" ht="43.5" customHeight="1">
       <c r="A15" s="15" t="inlineStr">
@@ -4969,11 +4934,6 @@
           <t>Administration Frequency</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="16" ht="43.5" customHeight="1">
       <c r="A16" s="15" t="inlineStr">
@@ -5004,11 +4964,6 @@
       <c r="F16" s="14" t="inlineStr">
         <is>
           <t>Dosage Units</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>No result</t>
         </is>
       </c>
     </row>
@@ -5035,11 +4990,6 @@
           <t>Extension Trial Indicator</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="18" ht="29" customHeight="1">
       <c r="A18" s="15" t="inlineStr">
@@ -5066,11 +5016,6 @@
       <c r="F18" s="14" t="inlineStr">
         <is>
           <t>Planned Country of Investigational Sites</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>No result</t>
         </is>
       </c>
     </row>
@@ -5097,11 +5042,6 @@
           <t>Healthy Subject Indicator Study Population</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="20" ht="29" customHeight="1">
       <c r="A20" s="15" t="inlineStr">
@@ -5126,11 +5066,6 @@
           <t>Healthy Subject Indicator Study Cohort</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="21" ht="58" customHeight="1">
       <c r="A21" s="15" t="inlineStr">
@@ -5260,11 +5195,6 @@
           <t>Trial Duration Value + Units</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="25" ht="29" customHeight="1">
       <c r="A25" s="15" t="inlineStr">
@@ -5289,11 +5219,6 @@
           <t>Multiple Site Eu Site Trial Indicator</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="26" ht="29" customHeight="1">
       <c r="A26" s="15" t="inlineStr">
@@ -5347,11 +5272,6 @@
           <t>Number of Groups/Cohorts</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="28" ht="29" customHeight="1">
       <c r="A28" s="15" t="inlineStr">
@@ -5376,11 +5296,6 @@
           <t>Number of Trial Sites EU State</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="29" ht="43.5" customHeight="1">
       <c r="A29" s="15" t="inlineStr">
@@ -5521,11 +5436,6 @@
           <t>Observational Model</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="33" ht="29" customHeight="1">
       <c r="A33" s="15" t="inlineStr">
@@ -5550,11 +5460,6 @@
           <t>Observational Time Perspective</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="34" ht="29" customHeight="1">
       <c r="A34" s="15" t="inlineStr">
@@ -5579,11 +5484,6 @@
           <t>Observational Study Population Description</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="35" ht="29" customHeight="1">
       <c r="A35" s="15" t="inlineStr">
@@ -5608,11 +5508,6 @@
           <t>Observational Study Sampling Method</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="36" ht="29" customHeight="1">
       <c r="A36" s="15" t="inlineStr">
@@ -5645,11 +5540,6 @@
           <t>Exploratory Outcome Measure</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="37" ht="29" customHeight="1">
       <c r="A37" s="15" t="inlineStr">
@@ -5682,11 +5572,6 @@
           <t>Primary Outcome Measure</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="38" ht="29" customHeight="1">
       <c r="A38" s="15" t="inlineStr">
@@ -5719,11 +5604,6 @@
           <t>Secondary Outcome Measure</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="39" ht="43.5" customHeight="1">
       <c r="A39" s="15" t="inlineStr">
@@ -5750,11 +5630,6 @@
       <c r="F39" s="14" t="inlineStr">
         <is>
           <t>Pharmacologic Class</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>No result</t>
         </is>
       </c>
     </row>
@@ -5781,11 +5656,6 @@
           <t>Pediatric Investigation Plan Indicator</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="41" ht="72.5" customHeight="1">
       <c r="A41" s="15" t="inlineStr">
@@ -5843,11 +5713,6 @@
           <t>Planned Duration of Intervention Value + Unit</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="15" t="inlineStr">
@@ -5872,11 +5737,6 @@
           <t>Randomized Indicator</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="15" t="inlineStr">
@@ -5901,11 +5761,6 @@
           <t>Rare disease indicator</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="45" ht="43.5" customHeight="1">
       <c r="A45" s="15" t="inlineStr">
@@ -5938,11 +5793,6 @@
           <t>Registry Identifier</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="46" ht="43.5" customHeight="1">
       <c r="A46" s="15" t="inlineStr">
@@ -5975,11 +5825,6 @@
           <t>Route of Administration</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="47" ht="58" customHeight="1">
       <c r="A47" s="15" t="inlineStr">
@@ -6010,11 +5855,6 @@
       <c r="F47" s="14" t="inlineStr">
         <is>
           <t>Retained Biospecimen Description</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>No result</t>
         </is>
       </c>
     </row>
@@ -6041,11 +5881,6 @@
           <t>Sex of Participants</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="49" ht="29" customHeight="1">
       <c r="A49" s="15" t="inlineStr">
@@ -6075,11 +5910,6 @@
           <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="50" ht="29" customHeight="1">
       <c r="A50" s="15" t="inlineStr">
@@ -6106,11 +5936,6 @@
       <c r="F50" s="14" t="inlineStr">
         <is>
           <t>Sponsor's Study Reference ID</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>No result</t>
         </is>
       </c>
     </row>
@@ -6137,11 +5962,6 @@
           <t>Single Site Eu State Trial Indicator</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="52" ht="29" customHeight="1">
       <c r="A52" s="15" t="inlineStr">
@@ -6166,11 +5986,6 @@
           <t>Study Type</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="53" ht="87" customHeight="1">
       <c r="A53" s="15" t="inlineStr">
@@ -6229,11 +6044,6 @@
           <t>Intervention Control Type</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="15" t="inlineStr">
@@ -6258,11 +6068,6 @@
           <t>Therapeutic Area</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="56" ht="29" customHeight="1">
       <c r="A56" s="15" t="inlineStr">
@@ -6289,11 +6094,6 @@
       <c r="F56" s="14" t="inlineStr">
         <is>
           <t>Trial Intent Types</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>No result</t>
         </is>
       </c>
     </row>
@@ -6391,11 +6191,6 @@
           <t>Investigational Intervention</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="15" t="inlineStr">
@@ -6418,11 +6213,6 @@
       <c r="F60" s="14" t="inlineStr">
         <is>
           <t>Trial Type</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>No result</t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -4417,7 +4417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E28" zoomScale="182" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="G1" s="30" t="inlineStr">
         <is>
-          <t>JSONATA</t>
+          <t>Mapping Result</t>
         </is>
       </c>
     </row>
@@ -4497,11 +4497,6 @@
       </c>
       <c r="G2" s="34" t="inlineStr">
         <is>
-          <t>$exists(study.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Y</t>
         </is>
       </c>
@@ -4531,12 +4526,6 @@
       </c>
       <c r="G3" s="34" t="inlineStr">
         <is>
-          <t>$min([study.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
-study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode &amp; " " &amp; study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t xml:space="preserve">18 ["Year","Year"] </t>
         </is>
       </c>
@@ -4566,12 +4555,6 @@
       </c>
       <c r="G4" s="31" t="inlineStr">
         <is>
-          <t>$max([study.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
-study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode &amp; " " &amp; study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t xml:space="preserve">100 ["Year","Year"] </t>
         </is>
       </c>
@@ -4609,7 +4592,7 @@
       </c>
       <c r="G5" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.biospecimenRetentions.includesDNA</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4646,7 +4629,7 @@
       </c>
       <c r="G6" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.biospecimenRetentions.isRetained</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4683,7 +4666,7 @@
       </c>
       <c r="G7" s="31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4718,6 +4701,11 @@
           <t>Contact Name</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="15" t="inlineStr">
@@ -4750,6 +4738,11 @@
           <t>Contact Role</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" s="15" t="inlineStr">
@@ -4782,6 +4775,11 @@
           <t>Mimimum Response Duration</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="43.5" customHeight="1">
       <c r="A11" s="15" t="inlineStr">
@@ -4812,6 +4810,11 @@
       <c r="F11" s="14" t="inlineStr">
         <is>
           <t>Background treatment</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4838,6 +4841,11 @@
           <t>Data Monitoring Committee Indicator</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="43.5" customHeight="1">
       <c r="A13" s="15" t="inlineStr">
@@ -4870,6 +4878,11 @@
           <t>Dosage Levels</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="43.5" customHeight="1">
       <c r="A14" s="15" t="inlineStr">
@@ -4902,6 +4915,11 @@
           <t>Dose Form</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="43.5" customHeight="1">
       <c r="A15" s="15" t="inlineStr">
@@ -4934,6 +4952,11 @@
           <t>Administration Frequency</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="43.5" customHeight="1">
       <c r="A16" s="15" t="inlineStr">
@@ -4964,6 +4987,11 @@
       <c r="F16" s="14" t="inlineStr">
         <is>
           <t>Dosage Units</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4990,6 +5018,11 @@
           <t>Extension Trial Indicator</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="29" customHeight="1">
       <c r="A18" s="15" t="inlineStr">
@@ -5016,6 +5049,11 @@
       <c r="F18" s="14" t="inlineStr">
         <is>
           <t>Planned Country of Investigational Sites</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5042,6 +5080,11 @@
           <t>Healthy Subject Indicator Study Population</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="29" customHeight="1">
       <c r="A20" s="15" t="inlineStr">
@@ -5066,6 +5109,11 @@
           <t>Healthy Subject Indicator Study Cohort</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="58" customHeight="1">
       <c r="A21" s="15" t="inlineStr">
@@ -5121,11 +5169,6 @@
       </c>
       <c r="G22" s="32" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.decode</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
           <t>PARALLEL</t>
         </is>
       </c>
@@ -5162,11 +5205,6 @@
         </is>
       </c>
       <c r="G23" s="31" t="inlineStr">
-        <is>
-          <t>study.versions.studyInterventions.type.decode</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
         <is>
           <t>Pharmacologic Substance</t>
         </is>
@@ -5195,6 +5233,11 @@
           <t>Trial Duration Value + Units</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="29" customHeight="1">
       <c r="A25" s="15" t="inlineStr">
@@ -5219,6 +5262,11 @@
           <t>Multiple Site Eu Site Trial Indicator</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="29" customHeight="1">
       <c r="A26" s="15" t="inlineStr">
@@ -5272,6 +5320,11 @@
           <t>Number of Groups/Cohorts</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="29" customHeight="1">
       <c r="A28" s="15" t="inlineStr">
@@ -5296,6 +5349,11 @@
           <t>Number of Trial Sites EU State</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="43.5" customHeight="1">
       <c r="A29" s="15" t="inlineStr">
@@ -5330,7 +5388,7 @@
       </c>
       <c r="G29" s="33" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C163559"].text</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5366,11 +5424,6 @@
         </is>
       </c>
       <c r="G30" s="33" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C85826"].text</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
         <is>
           <t>•	To evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.</t>
         </is>
@@ -5436,6 +5489,11 @@
           <t>Observational Model</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="29" customHeight="1">
       <c r="A33" s="15" t="inlineStr">
@@ -5460,6 +5518,11 @@
           <t>Observational Time Perspective</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="29" customHeight="1">
       <c r="A34" s="15" t="inlineStr">
@@ -5484,6 +5547,11 @@
           <t>Observational Study Population Description</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="29" customHeight="1">
       <c r="A35" s="15" t="inlineStr">
@@ -5508,6 +5576,11 @@
           <t>Observational Study Sampling Method</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="29" customHeight="1">
       <c r="A36" s="15" t="inlineStr">
@@ -5540,6 +5613,11 @@
           <t>Exploratory Outcome Measure</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="29" customHeight="1">
       <c r="A37" s="15" t="inlineStr">
@@ -5572,6 +5650,11 @@
           <t>Primary Outcome Measure</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="29" customHeight="1">
       <c r="A38" s="15" t="inlineStr">
@@ -5604,6 +5687,11 @@
           <t>Secondary Outcome Measure</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="43.5" customHeight="1">
       <c r="A39" s="15" t="inlineStr">
@@ -5630,6 +5718,11 @@
       <c r="F39" s="14" t="inlineStr">
         <is>
           <t>Pharmacologic Class</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5656,6 +5749,11 @@
           <t>Pediatric Investigation Plan Indicator</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="72.5" customHeight="1">
       <c r="A41" s="15" t="inlineStr">
@@ -5682,7 +5780,7 @@
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
-          <t xml:space="preserve">study.versions.studyDesigns.population.plannedEnrollmentNumber.value </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5711,6 +5809,11 @@
       <c r="F42" s="14" t="inlineStr">
         <is>
           <t>Planned Duration of Intervention Value + Unit</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5737,6 +5840,11 @@
           <t>Randomized Indicator</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="15" t="inlineStr">
@@ -5761,6 +5869,11 @@
           <t>Rare disease indicator</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="43.5" customHeight="1">
       <c r="A45" s="15" t="inlineStr">
@@ -5793,6 +5906,11 @@
           <t>Registry Identifier</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="43.5" customHeight="1">
       <c r="A46" s="15" t="inlineStr">
@@ -5825,6 +5943,11 @@
           <t>Route of Administration</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="58" customHeight="1">
       <c r="A47" s="15" t="inlineStr">
@@ -5855,6 +5978,11 @@
       <c r="F47" s="14" t="inlineStr">
         <is>
           <t>Retained Biospecimen Description</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5881,6 +6009,11 @@
           <t>Sex of Participants</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="29" customHeight="1">
       <c r="A49" s="15" t="inlineStr">
@@ -5907,7 +6040,7 @@
       </c>
       <c r="G49" s="32" t="inlineStr">
         <is>
-          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5936,6 +6069,11 @@
       <c r="F50" s="14" t="inlineStr">
         <is>
           <t>Sponsor's Study Reference ID</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5962,6 +6100,11 @@
           <t>Single Site Eu State Trial Indicator</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="29" customHeight="1">
       <c r="A52" s="15" t="inlineStr">
@@ -5986,6 +6129,11 @@
           <t>Study Type</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="87" customHeight="1">
       <c r="A53" s="15" t="inlineStr">
@@ -6012,11 +6160,6 @@
       </c>
       <c r="G53" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.decode</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
           <t>Double Blind Study</t>
         </is>
       </c>
@@ -6044,6 +6187,11 @@
           <t>Intervention Control Type</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="15" t="inlineStr">
@@ -6068,6 +6216,11 @@
           <t>Therapeutic Area</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="29" customHeight="1">
       <c r="A56" s="15" t="inlineStr">
@@ -6094,6 +6247,11 @@
       <c r="F56" s="14" t="inlineStr">
         <is>
           <t>Trial Intent Types</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6122,11 +6280,6 @@
       </c>
       <c r="G57" s="31" t="inlineStr">
         <is>
-          <t>study.versions.titles[type.code="C207616"].text</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
           <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer's Disease</t>
         </is>
       </c>
@@ -6156,7 +6309,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.decode</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6189,6 +6342,11 @@
       <c r="F59" s="14" t="inlineStr">
         <is>
           <t>Investigational Intervention</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6213,6 +6371,11 @@
       <c r="F60" s="14" t="inlineStr">
         <is>
           <t>Trial Type</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -4592,7 +4592,7 @@
       </c>
       <c r="G5" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="G6" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="G7" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G21" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.indications.label</t>
+          <t>["Parkinson's disease", "Parkinson's disease"]</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="G26" s="31" t="inlineStr">
         <is>
-          <t>$count(study.versions.studyDesigns.arms)</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="G29" s="33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
+          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="G49" s="32" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6218,7 +6218,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t> </t>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -4468,7 +4468,7 @@
       </c>
       <c r="G1" s="30" t="inlineStr">
         <is>
-          <t>Mapping Result</t>
+          <t>Mapping Results</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="G49" s="32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6218,7 +6218,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38040" yWindow="-10920" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,24 +104,6 @@
       <family val="2"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="7"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color rgb="FF0000C0"/>
-      <sz val="7"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color rgb="FFA00000"/>
-      <sz val="7"/>
     </font>
   </fonts>
   <fills count="7">
@@ -399,9 +381,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4419,8 +4399,8 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="182" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="182" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -4592,7 +4572,7 @@
       </c>
       <c r="G5" s="31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4629,7 +4609,7 @@
       </c>
       <c r="G6" s="31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4666,7 +4646,7 @@
       </c>
       <c r="G7" s="31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5388,7 +5368,7 @@
       </c>
       <c r="G29" s="33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5425,7 +5405,7 @@
       </c>
       <c r="G30" s="33" t="inlineStr">
         <is>
-          <t>•	To evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.</t>
+          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.'}</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5440,7 @@
           <t>Secondary Objective</t>
         </is>
       </c>
-      <c r="G31" s="39" t="inlineStr">
+      <c r="G31" s="33" t="inlineStr">
         <is>
           <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
         </is>
@@ -5489,9 +5469,9 @@
           <t>Observational Model</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G32" s="39" t="inlineStr">
+        <is>
+          <t>COHORT</t>
         </is>
       </c>
     </row>
@@ -5518,9 +5498,9 @@
           <t>Observational Time Perspective</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G33" s="32" t="inlineStr">
+        <is>
+          <t>PROSPECTIVE</t>
         </is>
       </c>
     </row>
@@ -5547,7 +5527,7 @@
           <t>Observational Study Population Description</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" s="32" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5576,7 +5556,7 @@
           <t>Observational Study Sampling Method</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" s="32" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5613,7 +5593,7 @@
           <t>Exploratory Outcome Measure</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G36" s="31" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5650,9 +5630,9 @@
           <t>Primary Outcome Measure</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G37" s="31" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -5687,9 +5667,9 @@
           <t>Secondary Outcome Measure</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G38" s="31" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5760,7 @@
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6309,7 +6289,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t> </t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38040" yWindow="-10920" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-12030" yWindow="-21600" windowWidth="30435" windowHeight="20985" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,9 @@
     <sheet name="TS" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="TS Parameters" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'TS Parameters'!$A$1:$G$60</definedName>
+  </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -348,12 +350,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -363,12 +359,10 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -381,7 +375,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -982,7 +982,7 @@
       <c r="C1" s="41" t="n"/>
       <c r="D1" s="41" t="n"/>
       <c r="E1" s="42" t="n"/>
-      <c r="F1" s="38" t="inlineStr">
+      <c r="F1" s="36" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
@@ -1778,7 +1778,7 @@
       <c r="C1" s="41" t="n"/>
       <c r="D1" s="41" t="n"/>
       <c r="E1" s="42" t="n"/>
-      <c r="F1" s="38" t="inlineStr">
+      <c r="F1" s="36" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
@@ -2364,7 +2364,7 @@
       <c r="C1" s="41" t="n"/>
       <c r="D1" s="41" t="n"/>
       <c r="E1" s="42" t="n"/>
-      <c r="F1" s="38" t="inlineStr">
+      <c r="F1" s="36" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
@@ -3093,7 +3093,7 @@
       <c r="C1" s="41" t="n"/>
       <c r="D1" s="41" t="n"/>
       <c r="E1" s="42" t="n"/>
-      <c r="F1" s="38" t="inlineStr">
+      <c r="F1" s="36" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
@@ -3706,141 +3706,114 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col width="14.6328125" customWidth="1" style="16" min="1" max="5"/>
-    <col width="21.453125" customWidth="1" style="16" min="6" max="7"/>
-    <col width="39" customWidth="1" style="16" min="8" max="8"/>
-    <col width="21.453125" customWidth="1" style="16" min="9" max="10"/>
-    <col width="32.6328125" customWidth="1" style="16" min="11" max="12"/>
-    <col width="21.453125" customWidth="1" style="16" min="13" max="15"/>
-    <col width="17.36328125" customWidth="1" style="29" min="16" max="16"/>
-    <col width="8.6328125" customWidth="1" style="16" min="17" max="16384"/>
+    <col width="19.7265625" bestFit="1" customWidth="1" style="16" min="1" max="1"/>
+    <col width="19" bestFit="1" customWidth="1" style="16" min="2" max="2"/>
+    <col width="7.6328125" bestFit="1" customWidth="1" style="16" min="3" max="3"/>
+    <col width="14.6328125" customWidth="1" style="16" min="4" max="5"/>
+    <col width="21.453125" customWidth="1" style="16" min="6" max="6"/>
+    <col width="26.6328125" customWidth="1" style="16" min="7" max="7"/>
+    <col width="29.81640625" customWidth="1" style="16" min="8" max="8"/>
+    <col width="8.6328125" customWidth="1" style="16" min="9" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="40" t="inlineStr">
-        <is>
-          <t>SDTM</t>
-        </is>
-      </c>
-      <c r="B1" s="41" t="n"/>
-      <c r="C1" s="41" t="n"/>
-      <c r="D1" s="41" t="n"/>
-      <c r="E1" s="42" t="n"/>
-      <c r="F1" s="38" t="inlineStr">
-        <is>
-          <t>USDM</t>
-        </is>
-      </c>
-      <c r="G1" s="41" t="n"/>
-      <c r="H1" s="41" t="n"/>
-      <c r="I1" s="41" t="n"/>
-      <c r="J1" s="41" t="n"/>
-      <c r="K1" s="41" t="n"/>
-      <c r="L1" s="41" t="n"/>
-      <c r="M1" s="41" t="n"/>
-      <c r="N1" s="41" t="n"/>
-      <c r="O1" s="41" t="n"/>
-      <c r="P1" s="42" t="n"/>
-    </row>
-    <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Variable Name </t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Variable Label </t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Type </t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Core </t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="G2" s="11" t="inlineStr">
-        <is>
-          <t>Attribute</t>
-        </is>
-      </c>
-      <c r="H2" s="11" t="inlineStr">
-        <is>
-          <t>Overall Notes</t>
-        </is>
-      </c>
-      <c r="I2" s="11" t="inlineStr">
-        <is>
-          <t>Target Path</t>
-        </is>
-      </c>
-      <c r="J2" s="11" t="inlineStr">
-        <is>
-          <t>Target Notes</t>
-        </is>
-      </c>
-      <c r="K2" s="11" t="inlineStr">
-        <is>
-          <t>Condition Path</t>
-        </is>
-      </c>
-      <c r="L2" s="11" t="inlineStr">
-        <is>
-          <t>Condition Notes</t>
-        </is>
-      </c>
-      <c r="M2" s="11" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Mapping Name</t>
         </is>
       </c>
-      <c r="N2" s="11" t="inlineStr">
-        <is>
-          <t>Mapping Category</t>
-        </is>
-      </c>
-      <c r="O2" s="11" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="P2" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4.0 Change </t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1">
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>JSONATA</t>
+        </is>
+      </c>
+      <c r="H1" s="28" t="inlineStr">
+        <is>
+          <t>Fixed content</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="93" customHeight="1">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>STUDYID</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>Study Identifier</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Sponsor Study Identifier</t>
+        </is>
+      </c>
+      <c r="G2" s="37" t="inlineStr">
+        <is>
+          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];
+studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
+        </is>
+      </c>
+      <c r="H2" s="39" t="n"/>
+    </row>
+    <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>STUDYID</t>
+          <t>DOMAIN</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>Study Identifier</t>
+          <t>Domain Abbreviation</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
@@ -3858,403 +3831,271 @@
           <t>Req</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>StudyIdentifier</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="6" t="inlineStr">
-        <is>
-          <t>StudyVersion/@studyIdentifiers/StudyIdentifier/@text</t>
-        </is>
-      </c>
-      <c r="J3" s="6" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>StudyRole/@code/Code/@code="C70793" | 
-StudyRole/@organizations | 
-StudyVersion/@studyIdentifiers/StudyIdentifier/@scope</t>
-        </is>
-      </c>
-      <c r="L3" s="6" t="inlineStr">
-        <is>
-          <t>Identifies the sponsor role | 
-Identifies the sponsor organization from the role | 
-Identifies the sponsor organization from the study identifier</t>
-        </is>
-      </c>
-      <c r="M3" s="6" t="inlineStr">
-        <is>
-          <t>Sponsor Study Identifier</t>
-        </is>
-      </c>
-      <c r="N3" s="6" t="inlineStr">
-        <is>
-          <t>Study Identifier</t>
-        </is>
-      </c>
-      <c r="O3" s="6" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P3" s="26" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="29" customHeight="1">
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="38" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>DOMAIN</t>
+          <t>TSSEQ</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>Domain Abbreviation</t>
+          <t>Sequence Number</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
+          <t>Num</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="n"/>
+      <c r="G4" s="38" t="n"/>
+      <c r="H4" s="39" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>TSGRPID</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Group ID</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
           <t>Char</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>Identifier</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>Perm</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="38" t="n"/>
+      <c r="H5" s="39" t="n"/>
+    </row>
+    <row r="6" ht="43.5" customHeight="1">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>TSPARMCD</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>Trial Summary Parameter Short Name</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>Req</t>
         </is>
       </c>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="9" t="inlineStr">
-        <is>
-          <t>Set to "TS"</t>
-        </is>
-      </c>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="n"/>
-      <c r="M4" s="5" t="n"/>
-      <c r="N4" s="5" t="n"/>
-      <c r="O4" s="5" t="n"/>
-      <c r="P4" s="28" t="n"/>
-    </row>
-    <row r="5" ht="29" customHeight="1">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t>TSSEQ</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>Sequence Number</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>Num</t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="F6" s="12" t="n"/>
+      <c r="G6" s="38" t="n"/>
+      <c r="H6" s="39" t="n"/>
+    </row>
+    <row r="7" ht="29" customHeight="1">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>TSPARM</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>Trial Summary Parameter</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>Synonym Qualifier</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>Req</t>
         </is>
       </c>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="12" t="n"/>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Will be mapped per trial summary parameter </t>
-        </is>
-      </c>
-      <c r="I5" s="12" t="n"/>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="4" t="n"/>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="12" t="n"/>
-      <c r="N5" s="5" t="n"/>
-      <c r="O5" s="5" t="n"/>
-      <c r="P5" s="28" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>TSGRPID</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>Group ID</t>
-        </is>
-      </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="F7" s="12" t="n"/>
+      <c r="G7" s="38" t="n"/>
+      <c r="H7" s="39" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>TSVAL</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>Parameter Value</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Char</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>Result Qualifier</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="n"/>
+      <c r="G8" s="38" t="n"/>
+      <c r="H8" s="39" t="n"/>
+    </row>
+    <row r="9" ht="29" customHeight="1">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>TSVALNF</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>Parameter Value Null Flavor</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Result Qualifier</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Perm</t>
         </is>
       </c>
-      <c r="F6" s="12" t="n"/>
-      <c r="G6" s="12" t="n"/>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Will be mapped per trial summary parameter </t>
-        </is>
-      </c>
-      <c r="I6" s="12" t="n"/>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="5" t="n"/>
-      <c r="M6" s="12" t="n"/>
-      <c r="N6" s="5" t="n"/>
-      <c r="O6" s="5" t="n"/>
-      <c r="P6" s="28" t="n"/>
-    </row>
-    <row r="7" ht="43.5" customHeight="1">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>TSPARMCD</t>
-        </is>
-      </c>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>Trial Summary Parameter Short Name</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="F9" s="12" t="n"/>
+      <c r="G9" s="38" t="n"/>
+      <c r="H9" s="39" t="n"/>
+    </row>
+    <row r="10" ht="29" customHeight="1">
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>TSVALCD</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>Parameter Value Code</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Char</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>Topic</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="n"/>
-      <c r="G7" s="12" t="n"/>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Will be mapped per trial summary parameter </t>
-        </is>
-      </c>
-      <c r="I7" s="12" t="n"/>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="4" t="n"/>
-      <c r="L7" s="5" t="n"/>
-      <c r="M7" s="12" t="n"/>
-      <c r="N7" s="5" t="n"/>
-      <c r="O7" s="5" t="n"/>
-      <c r="P7" s="28" t="n"/>
-    </row>
-    <row r="8" ht="29" customHeight="1">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>TSPARM</t>
-        </is>
-      </c>
-      <c r="B8" s="9" t="inlineStr">
-        <is>
-          <t>Trial Summary Parameter</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Result Qualifier</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="n"/>
+      <c r="G10" s="38" t="n"/>
+      <c r="H10" s="39" t="n"/>
+    </row>
+    <row r="11" ht="29" customHeight="1">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>TSVCDREF</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Name of Reference Terminology</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>Char</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>Synonym Qualifier</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="n"/>
-      <c r="G8" s="12" t="n"/>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Will be mapped per trial summary parameter </t>
-        </is>
-      </c>
-      <c r="I8" s="12" t="n"/>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="4" t="n"/>
-      <c r="L8" s="5" t="n"/>
-      <c r="M8" s="12" t="n"/>
-      <c r="N8" s="5" t="n"/>
-      <c r="O8" s="5" t="n"/>
-      <c r="P8" s="28" t="n"/>
-    </row>
-    <row r="9" ht="87" customHeight="1">
-      <c r="A9" s="9" t="inlineStr">
-        <is>
-          <t>TSVAL</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>Parameter Value</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>Result Qualifier</t>
         </is>
       </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>Exp</t>
         </is>
       </c>
-      <c r="F9" s="12" t="n"/>
-      <c r="G9" s="12" t="n"/>
-      <c r="H9" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Will be mapped per trial summary parameter. When the mapping resolved to Yes or No values, then the corresponding CDISC CT codes need to be used; TSVAL="Y" and TSVALCD="C49488" or TSVAL="N" and TSVALCD="C49487" </t>
-        </is>
-      </c>
-      <c r="I9" s="12" t="n"/>
-      <c r="J9" s="5" t="n"/>
-      <c r="K9" s="5" t="n"/>
-      <c r="L9" s="5" t="n"/>
-      <c r="M9" s="12" t="n"/>
-      <c r="N9" s="5" t="n"/>
-      <c r="O9" s="5" t="n"/>
-      <c r="P9" s="28" t="n"/>
-    </row>
-    <row r="10" ht="43.5" customHeight="1">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>TSVALNF</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="inlineStr">
-        <is>
-          <t>Parameter Value Null Flavor</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Result Qualifier</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="n"/>
-      <c r="G10" s="12" t="n"/>
-      <c r="H10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Will be mapped per trial summary parameter </t>
-        </is>
-      </c>
-      <c r="I10" s="12" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="4" t="n"/>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="12" t="n"/>
-      <c r="N10" s="5" t="n"/>
-      <c r="O10" s="5" t="n"/>
-      <c r="P10" s="28" t="n"/>
-    </row>
-    <row r="11" ht="87" customHeight="1">
-      <c r="A11" s="9" t="inlineStr">
-        <is>
-          <t>TSVALCD</t>
-        </is>
-      </c>
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Parameter Value Code</t>
-        </is>
-      </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Result Qualifier</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="F11" s="12" t="n"/>
-      <c r="G11" s="12" t="n"/>
-      <c r="H11" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Will be mapped per trial summary parameter. When the mapping resolved to Yes or No values, then the corresponding CDISC CT codes need to be used; TSVAL="Y" and TSVALCD="C49488" or TSVAL="N" and TSVALCD="C49487" </t>
-        </is>
-      </c>
-      <c r="I11" s="12" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="4" t="n"/>
-      <c r="L11" s="5" t="n"/>
-      <c r="M11" s="12" t="n"/>
-      <c r="N11" s="5" t="n"/>
-      <c r="O11" s="5" t="n"/>
-      <c r="P11" s="28" t="n"/>
+      <c r="F11" s="12" t="inlineStr">
+        <is>
+          <t>Name of Reference Terminology</t>
+        </is>
+      </c>
+      <c r="G11" s="38" t="inlineStr">
+        <is>
+          <t>..code.codeSystem</t>
+        </is>
+      </c>
+      <c r="H11" s="39" t="n"/>
     </row>
     <row r="12" ht="43.5" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
         <is>
-          <t>TSVCDREF</t>
+          <t>TSVCDVER</t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>Name of Reference Terminology</t>
+          <t>Version of the Reference Terminology</t>
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr">
@@ -4274,119 +4115,17 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="G12" s="12" t="inlineStr">
-        <is>
-          <t>codeSystem</t>
-        </is>
-      </c>
-      <c r="H12" s="12" t="n"/>
-      <c r="I12" s="12" t="inlineStr">
-        <is>
-          <t>code/@codeSystem</t>
-        </is>
-      </c>
-      <c r="J12" s="5" t="inlineStr">
-        <is>
-          <t>Align path to the corresponding code or decode mapped for the specific code item it refers to.</t>
-        </is>
-      </c>
-      <c r="K12" s="4" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="12" t="inlineStr">
-        <is>
-          <t>Name of Reference Terminology</t>
-        </is>
-      </c>
-      <c r="N12" s="5" t="inlineStr">
-        <is>
-          <t>Study Design</t>
-        </is>
-      </c>
-      <c r="O12" s="5" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P12" s="28" t="n"/>
-    </row>
-    <row r="13" ht="43.5" customHeight="1">
-      <c r="A13" s="9" t="inlineStr">
-        <is>
-          <t>TSVCDVER</t>
-        </is>
-      </c>
-      <c r="B13" s="9" t="inlineStr">
-        <is>
-          <t>Version of the Reference Terminology</t>
-        </is>
-      </c>
-      <c r="C13" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Result Qualifier</t>
-        </is>
-      </c>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>codeSystemVersion</t>
-        </is>
-      </c>
-      <c r="H13" s="12" t="n"/>
-      <c r="I13" s="12" t="inlineStr">
-        <is>
-          <t>code/@codeSystemVersion</t>
-        </is>
-      </c>
-      <c r="J13" s="5" t="inlineStr">
-        <is>
-          <t>Align path to the corresponding code or decode mapped for the specific code item it refers to.</t>
-        </is>
-      </c>
-      <c r="K13" s="4" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="12" t="inlineStr">
-        <is>
           <t>Version of Reference Terminology</t>
         </is>
       </c>
-      <c r="N13" s="5" t="inlineStr">
-        <is>
-          <t>Study Design</t>
-        </is>
-      </c>
-      <c r="O13" s="5" t="inlineStr">
-        <is>
-          <t>Mapped</t>
-        </is>
-      </c>
-      <c r="P13" s="28" t="n"/>
+      <c r="G12" s="38" t="inlineStr">
+        <is>
+          <t>..code.codeSystemVersion</t>
+        </is>
+      </c>
+      <c r="H12" s="39" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I12" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I13" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4399,8 +4138,8 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="182" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -4446,7 +4185,7 @@
           <t>Mapping Name</t>
         </is>
       </c>
-      <c r="G1" s="30" t="inlineStr">
+      <c r="G1" s="28" t="inlineStr">
         <is>
           <t>Mapping Results</t>
         </is>
@@ -4475,7 +4214,7 @@
           <t>Adaptive Design Indicator</t>
         </is>
       </c>
-      <c r="G2" s="34" t="inlineStr">
+      <c r="G2" s="31" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4504,7 +4243,7 @@
           <t>Study Minimum Age + Unit Study Population</t>
         </is>
       </c>
-      <c r="G3" s="34" t="inlineStr">
+      <c r="G3" s="31" t="inlineStr">
         <is>
           <t xml:space="preserve">18 ["Year","Year"] </t>
         </is>
@@ -4533,7 +4272,7 @@
           <t>Study Maximum Age + Unit Study Population</t>
         </is>
       </c>
-      <c r="G4" s="31" t="inlineStr">
+      <c r="G4" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">100 ["Year","Year"] </t>
         </is>
@@ -4570,7 +4309,7 @@
           <t>Biospecimen retention contains DNA indicator</t>
         </is>
       </c>
-      <c r="G5" s="31" t="inlineStr">
+      <c r="G5" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4607,7 +4346,7 @@
           <t>Biospecimen retention indicator</t>
         </is>
       </c>
-      <c r="G6" s="31" t="inlineStr">
+      <c r="G6" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4639,12 +4378,8 @@
           <t>If applicable, combine with the corresponding intervention variables by a common unique tsgrpid</t>
         </is>
       </c>
-      <c r="F7" s="14" t="inlineStr">
-        <is>
-          <t>(International) Non Proprietary Comparator Drug Name</t>
-        </is>
-      </c>
-      <c r="G7" s="31" t="inlineStr">
+      <c r="F7" s="14" t="n"/>
+      <c r="G7" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4752,12 +4487,12 @@
       </c>
       <c r="F10" s="14" t="inlineStr">
         <is>
-          <t>Mimimum Response Duration</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>Minimum Response Duration</t>
+        </is>
+      </c>
+      <c r="G10" s="29" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '1 Day'}</t>
         </is>
       </c>
     </row>
@@ -4792,7 +4527,7 @@
           <t>Background treatment</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4858,9 +4593,9 @@
           <t>Dosage Levels</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G13" s="29" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 20}</t>
         </is>
       </c>
     </row>
@@ -4895,9 +4630,9 @@
           <t>Dose Form</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G14" s="29" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'TABLET'}</t>
         </is>
       </c>
     </row>
@@ -4932,9 +4667,9 @@
           <t>Administration Frequency</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G15" s="29" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'BID'}</t>
         </is>
       </c>
     </row>
@@ -4969,9 +4704,9 @@
           <t>Dosage Units</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G16" s="29" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Milligram'}</t>
         </is>
       </c>
     </row>
@@ -5118,7 +4853,7 @@
           <t>Study design Diagnosis or Condition</t>
         </is>
       </c>
-      <c r="G21" s="31" t="inlineStr">
+      <c r="G21" s="29" t="inlineStr">
         <is>
           <t>["Parkinson's disease", "Parkinson's disease"]</t>
         </is>
@@ -5147,7 +4882,7 @@
           <t>Intervention Model</t>
         </is>
       </c>
-      <c r="G22" s="32" t="inlineStr">
+      <c r="G22" s="30" t="inlineStr">
         <is>
           <t>PARALLEL</t>
         </is>
@@ -5184,9 +4919,9 @@
           <t>Intervention Type</t>
         </is>
       </c>
-      <c r="G23" s="31" t="inlineStr">
-        <is>
-          <t>Pharmacologic Substance</t>
+      <c r="G23" s="29" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5006,7 @@
           <t>Number of Arms</t>
         </is>
       </c>
-      <c r="G26" s="31" t="inlineStr">
+      <c r="G26" s="29" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -5366,7 +5101,7 @@
           <t>Exploratory Objective</t>
         </is>
       </c>
-      <c r="G29" s="33" t="inlineStr">
+      <c r="G29" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5403,7 +5138,7 @@
           <t>Primary Objective</t>
         </is>
       </c>
-      <c r="G30" s="33" t="inlineStr">
+      <c r="G30" s="29" t="inlineStr">
         <is>
           <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.'}</t>
         </is>
@@ -5440,7 +5175,7 @@
           <t>Secondary Objective</t>
         </is>
       </c>
-      <c r="G31" s="33" t="inlineStr">
+      <c r="G31" s="29" t="inlineStr">
         <is>
           <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
         </is>
@@ -5469,7 +5204,7 @@
           <t>Observational Model</t>
         </is>
       </c>
-      <c r="G32" s="39" t="inlineStr">
+      <c r="G32" s="32" t="inlineStr">
         <is>
           <t>COHORT</t>
         </is>
@@ -5498,7 +5233,7 @@
           <t>Observational Time Perspective</t>
         </is>
       </c>
-      <c r="G33" s="32" t="inlineStr">
+      <c r="G33" s="30" t="inlineStr">
         <is>
           <t>PROSPECTIVE</t>
         </is>
@@ -5527,7 +5262,7 @@
           <t>Observational Study Population Description</t>
         </is>
       </c>
-      <c r="G34" s="32" t="inlineStr">
+      <c r="G34" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5556,7 +5291,7 @@
           <t>Observational Study Sampling Method</t>
         </is>
       </c>
-      <c r="G35" s="32" t="inlineStr">
+      <c r="G35" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5593,7 +5328,7 @@
           <t>Exploratory Outcome Measure</t>
         </is>
       </c>
-      <c r="G36" s="31" t="inlineStr">
+      <c r="G36" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5630,7 +5365,7 @@
           <t>Primary Outcome Measure</t>
         </is>
       </c>
-      <c r="G37" s="31" t="inlineStr">
+      <c r="G37" s="29" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -5667,7 +5402,7 @@
           <t>Secondary Outcome Measure</t>
         </is>
       </c>
-      <c r="G38" s="31" t="inlineStr">
+      <c r="G38" s="29" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -5758,7 +5493,7 @@
           <t>Target Enrollment Number</t>
         </is>
       </c>
-      <c r="G41" s="31" t="inlineStr">
+      <c r="G41" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5791,9 +5526,9 @@
           <t>Planned Duration of Intervention Value + Unit</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G42" s="30" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '14 Day'}</t>
         </is>
       </c>
     </row>
@@ -6018,7 +5753,7 @@
           <t>Sponsor Name - Organization</t>
         </is>
       </c>
-      <c r="G49" s="32" t="inlineStr">
+      <c r="G49" s="30" t="inlineStr">
         <is>
           <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
         </is>
@@ -6138,13 +5873,13 @@
           <t>Blinding Schema</t>
         </is>
       </c>
-      <c r="G53" s="31" t="inlineStr">
+      <c r="G53" s="29" t="inlineStr">
         <is>
           <t>Double Blind Study</t>
         </is>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="29" customHeight="1">
       <c r="A54" s="15" t="inlineStr">
         <is>
           <t>Control Type</t>
@@ -6167,9 +5902,9 @@
           <t>Intervention Control Type</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G54" s="30" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -6258,9 +5993,9 @@
           <t>Full Title</t>
         </is>
       </c>
-      <c r="G57" s="31" t="inlineStr">
-        <is>
-          <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer's Disease</t>
+      <c r="G57" s="29" t="inlineStr">
+        <is>
+          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6022,7 @@
           <t>Trial Phase</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G58" s="32" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6324,9 +6059,9 @@
           <t>Investigational Intervention</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G59" s="29" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'LY900018'}</t>
         </is>
       </c>
     </row>
@@ -6360,6 +6095,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G60"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3706,7 +3706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
@@ -3727,42 +3727,57 @@
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Name </t>
+          <t>STUDYID</t>
         </is>
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Label </t>
+          <t>DOMAIN</t>
         </is>
       </c>
       <c r="C1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type </t>
+          <t>TSSEQ</t>
         </is>
       </c>
       <c r="D1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>TSGRPID</t>
         </is>
       </c>
       <c r="E1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Core </t>
+          <t>TSPARMCD</t>
         </is>
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Mapping Name</t>
+          <t>TSPARM</t>
         </is>
       </c>
       <c r="G1" s="10" t="inlineStr">
         <is>
-          <t>JSONATA</t>
+          <t>TSVAL</t>
         </is>
       </c>
       <c r="H1" s="28" t="inlineStr">
         <is>
-          <t>Fixed content</t>
+          <t>TSVALNF</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>TSVALCD</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>TSVCDREF</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>TSVCDVER</t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-12030" yWindow="-21600" windowWidth="30435" windowHeight="20985" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10875" yWindow="-18885" windowWidth="26010" windowHeight="16860" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -363,6 +363,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -375,13 +379,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -982,7 +982,7 @@
       <c r="C1" s="41" t="n"/>
       <c r="D1" s="41" t="n"/>
       <c r="E1" s="42" t="n"/>
-      <c r="F1" s="36" t="inlineStr">
+      <c r="F1" s="38" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
@@ -1778,7 +1778,7 @@
       <c r="C1" s="41" t="n"/>
       <c r="D1" s="41" t="n"/>
       <c r="E1" s="42" t="n"/>
-      <c r="F1" s="36" t="inlineStr">
+      <c r="F1" s="38" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
@@ -2364,7 +2364,7 @@
       <c r="C1" s="41" t="n"/>
       <c r="D1" s="41" t="n"/>
       <c r="E1" s="42" t="n"/>
-      <c r="F1" s="36" t="inlineStr">
+      <c r="F1" s="38" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
@@ -3093,7 +3093,7 @@
       <c r="C1" s="41" t="n"/>
       <c r="D1" s="41" t="n"/>
       <c r="E1" s="42" t="n"/>
-      <c r="F1" s="36" t="inlineStr">
+      <c r="F1" s="38" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
@@ -3706,10 +3706,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -3789,36 +3789,39 @@
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>Study Identifier</t>
+          <t>"TS"</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t>ADAPT</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>Sponsor Study Identifier</t>
-        </is>
-      </c>
-      <c r="G2" s="37" t="inlineStr">
-        <is>
-          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];
-studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
-        </is>
-      </c>
-      <c r="H2" s="39" t="n"/>
+          <t>Adaptive Design</t>
+        </is>
+      </c>
+      <c r="G2" s="39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H2" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
@@ -3828,29 +3831,37 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>Domain Abbreviation</t>
+          <t>"TS"</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="38" t="n"/>
+          <t>AGEMIN</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Planned Minimum Age of Subjects</t>
+        </is>
+      </c>
+      <c r="G3" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 ["Year","Year"] </t>
+        </is>
+      </c>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -3862,27 +3873,39 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>Sequence Number</t>
+          <t>"TS"</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>Num</t>
+          <t> </t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F4" s="12" t="n"/>
-      <c r="G4" s="38" t="n"/>
-      <c r="H4" s="39" t="n"/>
+          <t>AGEMAX</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>Planned Minimum Age of Subjects</t>
+        </is>
+      </c>
+      <c r="G4" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100 ["Year","Year"] </t>
+        </is>
+      </c>
+      <c r="H4" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="inlineStr">
@@ -3892,27 +3915,39 @@
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>Group ID</t>
+          <t>"TS"</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="38" t="n"/>
-      <c r="H5" s="39" t="n"/>
+          <t>BRDNAIND</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>Biospecimen Retention contains DNA Ind</t>
+        </is>
+      </c>
+      <c r="G5" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H5" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
@@ -3922,27 +3957,39 @@
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>Trial Summary Parameter Short Name</t>
+          <t>"TS"</t>
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>Topic</t>
+          <t> </t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F6" s="12" t="n"/>
-      <c r="G6" s="38" t="n"/>
-      <c r="H6" s="39" t="n"/>
+          <t>BRIND</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>Biospecimen Retention indicator</t>
+        </is>
+      </c>
+      <c r="G6" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H6" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="29" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
@@ -3952,27 +3999,39 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>Trial Summary Parameter</t>
+          <t>"TS"</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>Synonym Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="n"/>
-      <c r="G7" s="38" t="n"/>
-      <c r="H7" s="39" t="n"/>
+          <t>COMPTRT</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>Comparative Treatment Name</t>
+        </is>
+      </c>
+      <c r="G7" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H7" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
@@ -3982,27 +4041,39 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>Parameter Value</t>
+          <t>"TS"</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="n"/>
-      <c r="G8" s="38" t="n"/>
-      <c r="H8" s="39" t="n"/>
+          <t>CONNAME</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>Contact Name</t>
+        </is>
+      </c>
+      <c r="G8" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H8" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
@@ -4012,27 +4083,39 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>Parameter Value Null Flavor</t>
+          <t>"TS"</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="n"/>
-      <c r="G9" s="38" t="n"/>
-      <c r="H9" s="39" t="n"/>
+          <t>CONROLE</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>Contact Role</t>
+        </is>
+      </c>
+      <c r="G9" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H9" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="29" customHeight="1">
       <c r="A10" s="9" t="inlineStr">
@@ -4042,27 +4125,39 @@
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>Parameter Value Code</t>
+          <t>"TS"</t>
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D10" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="n"/>
-      <c r="G10" s="38" t="n"/>
-      <c r="H10" s="39" t="n"/>
+          <t>CRMDUR</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="inlineStr">
+        <is>
+          <t>Confirmed Response Minimum Duration</t>
+        </is>
+      </c>
+      <c r="G10" s="33" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '1 Day'}</t>
+        </is>
+      </c>
+      <c r="H10" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="29" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
@@ -4072,35 +4167,39 @@
       </c>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>Name of Reference Terminology</t>
+          <t>"TS"</t>
         </is>
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>CURTRT</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Name of Reference Terminology</t>
-        </is>
-      </c>
-      <c r="G11" s="38" t="inlineStr">
-        <is>
-          <t>..code.codeSystem</t>
-        </is>
-      </c>
-      <c r="H11" s="39" t="n"/>
+          <t>Current Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G11" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H11" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="43.5" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
@@ -4110,35 +4209,1815 @@
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>Version of the Reference Terminology</t>
+          <t>"TS"</t>
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>DMCIND</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Version of Reference Terminology</t>
-        </is>
-      </c>
-      <c r="G12" s="38" t="inlineStr">
-        <is>
-          <t>..code.codeSystemVersion</t>
-        </is>
-      </c>
-      <c r="H12" s="39" t="n"/>
+          <t>Data Monitoring Committee Indicator</t>
+        </is>
+      </c>
+      <c r="G12" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H12" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DOSE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dose Level; Dose per Administration</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 20}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DOSFRM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dose Form</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'TABLET'}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DOSFRQ</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dosing Frequency</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'BID'}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DOSU</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Dose Units</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Milligram'}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>EXTTIND</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Extension Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FCNTRY</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Planned Country of Investigational Sites</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HLTSUBJI</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Healthy Subject Indicator</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HLTSUBJI</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Healthy Subject Indicator</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INDIC</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>["Parkinson's disease", "Parkinson's disease"]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>INTMODEL</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Intervention Model</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>PARALLEL</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>INTTYPE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Intervention Type</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LENGTH</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Trial Length</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MSEUTIND</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Multiple Site EU Site Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NARMS</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Planned Number of Arms</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NCOHORT</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Number of Groups/Cohorts</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NUMSEUST</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Number of Trial Sites EU State</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>OBJEXP</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Trial Exploratory Objective</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>OBJPRIM</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Study Primary Objective; Trial Primary Objective</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.'}</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>OBJSEC</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>OBSMODEL</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Observational Model</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>COHORT</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>OBSTIMP</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Observational Time Perspective</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>PROSPECTIVE</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>OBSTPOPD</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Obs Study Population Description</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>OBSTSMM</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Observational Study Sampling Method</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>OUTMSEXP</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Exploratory Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>OUTMSPRI</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Primary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>OUTMSSEC</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>PCLAS</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Pharmacologic Class</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>PIPIND</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Pediatric Investigation Plan Indicator</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>PLANSUB</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>PTRTDUR</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Planned Treatment Duration</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '14 Day'}</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RANDOM</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Trial is Randomized</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>RDIND</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Rare Disease Indicator</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>REGID</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Registry Identifier</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>RTSPCDES</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Retained Biospecimen Description</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SEXPOP</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sex of Participants</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SPONSOR</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SPREFID</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sponsor's Study Reference ID</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SSEUTIND</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Single Site EU State Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>STYPE</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Study Type; Study Type Classification</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>TBLIND</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Double Blind Study</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>TCNTRL</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Control Type</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>THERAREA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Therapeutic Area</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>TINDTP</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Trial Intent Type</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Official Study Title; Study Title; Trial Title</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TPHASE</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Trial Phase; Trial Phase Classification</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Investigational Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'LY900018'}</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>"TS"</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>TTYPE</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Trial Scope; Trial Type</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4153,8 +6032,8 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3784,7 +3784,7 @@
     <row r="2" ht="93" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>STUDYID</t>
+          <t> </t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
@@ -3826,7 +3826,7 @@
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>DOMAIN</t>
+          <t> </t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
@@ -3868,7 +3868,7 @@
     <row r="4">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>TSSEQ</t>
+          <t> </t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
@@ -3910,7 +3910,7 @@
     <row r="5">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>TSGRPID</t>
+          <t> </t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
@@ -3952,7 +3952,7 @@
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>TSPARMCD</t>
+          <t> </t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
@@ -3994,7 +3994,7 @@
     <row r="7" ht="29" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>TSPARM</t>
+          <t> </t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
@@ -4036,7 +4036,7 @@
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>TSVAL</t>
+          <t> </t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
@@ -4078,7 +4078,7 @@
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>TSVALNF</t>
+          <t> </t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
@@ -4120,7 +4120,7 @@
     <row r="10" ht="29" customHeight="1">
       <c r="A10" s="9" t="inlineStr">
         <is>
-          <t>TSVALCD</t>
+          <t> </t>
         </is>
       </c>
       <c r="B10" s="9" t="inlineStr">
@@ -4162,7 +4162,7 @@
     <row r="11" ht="29" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>TSVCDREF</t>
+          <t> </t>
         </is>
       </c>
       <c r="B11" s="9" t="inlineStr">
@@ -4204,7 +4204,7 @@
     <row r="12" ht="43.5" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
         <is>
-          <t>TSVCDVER</t>
+          <t> </t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
@@ -4244,6 +4244,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4281,6 +4286,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4318,6 +4328,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4355,6 +4370,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4392,6 +4412,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4429,6 +4454,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4466,6 +4496,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4503,6 +4538,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4540,6 +4580,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4577,6 +4622,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4614,6 +4664,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4651,6 +4706,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4688,6 +4748,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4725,6 +4790,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4762,6 +4832,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4799,6 +4874,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4836,6 +4916,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4873,6 +4958,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4910,6 +5000,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4947,6 +5042,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -4984,6 +5084,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5021,6 +5126,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5058,6 +5168,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5095,6 +5210,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5132,6 +5252,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5169,6 +5294,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5206,6 +5336,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5243,6 +5378,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5280,6 +5420,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5317,6 +5462,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5354,6 +5504,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5391,6 +5546,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5428,6 +5588,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5465,6 +5630,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5502,6 +5672,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5539,6 +5714,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5576,6 +5756,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5613,6 +5798,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5650,6 +5840,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5687,6 +5882,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5724,6 +5924,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5761,6 +5966,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5798,6 +6008,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5835,6 +6050,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5872,6 +6092,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5909,6 +6134,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5946,6 +6176,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>"TS"</t>
@@ -5983,6 +6218,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>"TS"</t>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3706,7 +3706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -3784,7 +3784,7 @@
     <row r="2" ht="93" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
@@ -3826,7 +3826,7 @@
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
@@ -3868,7 +3868,7 @@
     <row r="4">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
@@ -3910,7 +3910,7 @@
     <row r="5">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
@@ -3930,17 +3930,17 @@
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>BRDNAIND</t>
+          <t>CRMDUR</t>
         </is>
       </c>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>Biospecimen Retention contains DNA Ind</t>
+          <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
       <c r="G5" s="33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '1 Day'}</t>
         </is>
       </c>
       <c r="H5" s="34" t="inlineStr">
@@ -3952,7 +3952,7 @@
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
@@ -3972,17 +3972,17 @@
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>BRIND</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>Biospecimen Retention indicator</t>
+          <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
       <c r="G6" s="33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 20}</t>
         </is>
       </c>
       <c r="H6" s="34" t="inlineStr">
@@ -3994,7 +3994,7 @@
     <row r="7" ht="29" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
@@ -4014,17 +4014,17 @@
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>COMPTRT</t>
+          <t>DOSFRM</t>
         </is>
       </c>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>Comparative Treatment Name</t>
+          <t>Dose Form</t>
         </is>
       </c>
       <c r="G7" s="33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'TABLET'}</t>
         </is>
       </c>
       <c r="H7" s="34" t="inlineStr">
@@ -4036,7 +4036,7 @@
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
@@ -4056,17 +4056,17 @@
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>CONNAME</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>Contact Name</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G8" s="33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'BID'}</t>
         </is>
       </c>
       <c r="H8" s="34" t="inlineStr">
@@ -4078,7 +4078,7 @@
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
@@ -4098,17 +4098,17 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>CONROLE</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F9" s="12" t="inlineStr">
         <is>
-          <t>Contact Role</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G9" s="33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'Milligram'}</t>
         </is>
       </c>
       <c r="H9" s="34" t="inlineStr">
@@ -4120,7 +4120,7 @@
     <row r="10" ht="29" customHeight="1">
       <c r="A10" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B10" s="9" t="inlineStr">
@@ -4140,17 +4140,17 @@
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>CRMDUR</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="F10" s="12" t="inlineStr">
         <is>
-          <t>Confirmed Response Minimum Duration</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="G10" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day'}</t>
+          <t>["Parkinson's disease", "Parkinson's disease"]</t>
         </is>
       </c>
       <c r="H10" s="34" t="inlineStr">
@@ -4162,7 +4162,7 @@
     <row r="11" ht="29" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B11" s="9" t="inlineStr">
@@ -4182,17 +4182,17 @@
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>CURTRT</t>
+          <t>INTMODEL</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Current Therapy or Treatment</t>
+          <t>Intervention Model</t>
         </is>
       </c>
       <c r="G11" s="33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PARALLEL</t>
         </is>
       </c>
       <c r="H11" s="34" t="inlineStr">
@@ -4204,7 +4204,7 @@
     <row r="12" ht="43.5" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
@@ -4224,17 +4224,17 @@
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>DMCIND</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Data Monitoring Committee Indicator</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G12" s="33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
         </is>
       </c>
       <c r="H12" s="34" t="inlineStr">
@@ -4246,7 +4246,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4266,17 +4266,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>NARMS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dose Level; Dose per Administration</t>
+          <t>Planned Number of Arms</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 20}</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4288,7 +4288,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4308,17 +4308,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DOSFRM</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dose Form</t>
+          <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'TABLET'}</t>
+          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.'}</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4330,7 +4330,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4350,17 +4350,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DOSFRQ</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dosing Frequency</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'BID'}</t>
+          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4372,7 +4372,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4392,17 +4392,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DOSU</t>
+          <t>OBSMODEL</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dose Units</t>
+          <t>Observational Model</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram'}</t>
+          <t>COHORT</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -4414,7 +4414,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4434,17 +4434,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EXTTIND</t>
+          <t>OBSTIMP</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Extension Trial Indicator</t>
+          <t>Observational Time Perspective</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t> </t>
+          <t>PROSPECTIVE</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4456,7 +4456,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4476,17 +4476,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FCNTRY</t>
+          <t>OUTMSPRI</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Planned Country of Investigational Sites</t>
+          <t>Primary Outcome Measure</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{}</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4498,7 +4498,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4518,17 +4518,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>HLTSUBJI</t>
+          <t>OUTMSSEC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Healthy Subject Indicator</t>
+          <t>Secondary Outcome Measure</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{}</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4540,7 +4540,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4560,17 +4560,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>HLTSUBJI</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Healthy Subject Indicator</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '14 Day'}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4582,7 +4582,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4602,17 +4602,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>INDIC</t>
+          <t>SPONSOR</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>["Parkinson's disease", "Parkinson's disease"]</t>
+          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4624,7 +4624,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4644,17 +4644,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>INTMODEL</t>
+          <t>TBLIND</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PARALLEL</t>
+          <t>Double Blind Study</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4666,7 +4666,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4686,17 +4686,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>TCNTRL</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Control Type</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4708,7 +4708,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4728,17 +4728,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>LENGTH</t>
+          <t>TITLE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trial Length</t>
+          <t>Official Study Title; Study Title; Trial Title</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4750,7 +4750,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t> </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4770,1490 +4770,20 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MSEUTIND</t>
+          <t>TRT</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Multiple Site EU Site Trial Indicator</t>
+          <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'LY900018'}</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NARMS</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Planned Number of Arms</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NCOHORT</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Number of Groups/Cohorts</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NUMSEUST</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Number of Trial Sites EU State</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>OBJEXP</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Trial Exploratory Objective</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>OBJPRIM</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.'}</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>OBJSEC</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>OBSMODEL</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Observational Model</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>COHORT</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>OBSTIMP</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Observational Time Perspective</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>PROSPECTIVE</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>OBSTPOPD</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Obs Study Population Description</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>OBSTSMM</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Observational Study Sampling Method</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>OUTMSEXP</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Exploratory Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>OUTMSPRI</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Primary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>OUTMSSEC</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Secondary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>PCLAS</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Pharmacologic Class</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>PIPIND</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Pediatric Investigation Plan Indicator</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>PLANSUB</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>PTRTDUR</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Planned Treatment Duration</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '14 Day'}</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>RANDOM</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Trial is Randomized</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>RDIND</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Rare Disease Indicator</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>REGID</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Registry Identifier</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ROUTE</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Route of Administration</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>RTSPCDES</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Retained Biospecimen Description</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>SEXPOP</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sex of Participants</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>SPONSOR</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>SPREFID</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sponsor's Study Reference ID</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>SSEUTIND</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Single Site EU State Trial Indicator</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>STYPE</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Study Type; Study Type Classification</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>TBLIND</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Double Blind Study</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>TCNTRL</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Control Type</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>THERAREA</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Therapeutic Area</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>TINDTP</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Trial Intent Type</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>TITLE</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Official Study Title; Study Title; Trial Title</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>TPHASE</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Trial Phase; Trial Phase Classification</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>TRT</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Investigational Therapy or Treatment</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'LY900018'}</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>"TS"</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>TTYPE</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Trial Scope; Trial Type</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
         <is>
           <t> </t>
         </is>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10875" yWindow="-18885" windowWidth="26010" windowHeight="16860" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-11805" yWindow="-18525" windowWidth="26010" windowHeight="16860" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -145,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -245,6 +245,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -269,7 +278,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -367,6 +376,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -379,8 +391,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -973,30 +985,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="40" t="inlineStr">
+      <c r="A1" s="41" t="inlineStr">
         <is>
           <t>SDTM</t>
         </is>
       </c>
-      <c r="B1" s="41" t="n"/>
-      <c r="C1" s="41" t="n"/>
-      <c r="D1" s="41" t="n"/>
-      <c r="E1" s="42" t="n"/>
-      <c r="F1" s="38" t="inlineStr">
+      <c r="B1" s="42" t="n"/>
+      <c r="C1" s="42" t="n"/>
+      <c r="D1" s="42" t="n"/>
+      <c r="E1" s="43" t="n"/>
+      <c r="F1" s="39" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
       </c>
-      <c r="G1" s="41" t="n"/>
-      <c r="H1" s="41" t="n"/>
-      <c r="I1" s="41" t="n"/>
-      <c r="J1" s="41" t="n"/>
-      <c r="K1" s="41" t="n"/>
-      <c r="L1" s="41" t="n"/>
-      <c r="M1" s="41" t="n"/>
-      <c r="N1" s="41" t="n"/>
-      <c r="O1" s="41" t="n"/>
-      <c r="P1" s="42" t="n"/>
+      <c r="G1" s="42" t="n"/>
+      <c r="H1" s="42" t="n"/>
+      <c r="I1" s="42" t="n"/>
+      <c r="J1" s="42" t="n"/>
+      <c r="K1" s="42" t="n"/>
+      <c r="L1" s="42" t="n"/>
+      <c r="M1" s="42" t="n"/>
+      <c r="N1" s="42" t="n"/>
+      <c r="O1" s="42" t="n"/>
+      <c r="P1" s="43" t="n"/>
     </row>
     <row r="2" ht="21" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -1769,30 +1781,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="40" t="inlineStr">
+      <c r="A1" s="41" t="inlineStr">
         <is>
           <t>SDTM</t>
         </is>
       </c>
-      <c r="B1" s="41" t="n"/>
-      <c r="C1" s="41" t="n"/>
-      <c r="D1" s="41" t="n"/>
-      <c r="E1" s="42" t="n"/>
-      <c r="F1" s="38" t="inlineStr">
+      <c r="B1" s="42" t="n"/>
+      <c r="C1" s="42" t="n"/>
+      <c r="D1" s="42" t="n"/>
+      <c r="E1" s="43" t="n"/>
+      <c r="F1" s="39" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
       </c>
-      <c r="G1" s="41" t="n"/>
-      <c r="H1" s="41" t="n"/>
-      <c r="I1" s="41" t="n"/>
-      <c r="J1" s="41" t="n"/>
-      <c r="K1" s="41" t="n"/>
-      <c r="L1" s="41" t="n"/>
-      <c r="M1" s="41" t="n"/>
-      <c r="N1" s="41" t="n"/>
-      <c r="O1" s="41" t="n"/>
-      <c r="P1" s="42" t="n"/>
+      <c r="G1" s="42" t="n"/>
+      <c r="H1" s="42" t="n"/>
+      <c r="I1" s="42" t="n"/>
+      <c r="J1" s="42" t="n"/>
+      <c r="K1" s="42" t="n"/>
+      <c r="L1" s="42" t="n"/>
+      <c r="M1" s="42" t="n"/>
+      <c r="N1" s="42" t="n"/>
+      <c r="O1" s="42" t="n"/>
+      <c r="P1" s="43" t="n"/>
     </row>
     <row r="2" ht="21" customHeight="1">
       <c r="A2" s="10" t="inlineStr">
@@ -2355,30 +2367,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="40" t="inlineStr">
+      <c r="A1" s="41" t="inlineStr">
         <is>
           <t>SDTM</t>
         </is>
       </c>
-      <c r="B1" s="41" t="n"/>
-      <c r="C1" s="41" t="n"/>
-      <c r="D1" s="41" t="n"/>
-      <c r="E1" s="42" t="n"/>
-      <c r="F1" s="38" t="inlineStr">
+      <c r="B1" s="42" t="n"/>
+      <c r="C1" s="42" t="n"/>
+      <c r="D1" s="42" t="n"/>
+      <c r="E1" s="43" t="n"/>
+      <c r="F1" s="39" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
       </c>
-      <c r="G1" s="41" t="n"/>
-      <c r="H1" s="41" t="n"/>
-      <c r="I1" s="41" t="n"/>
-      <c r="J1" s="41" t="n"/>
-      <c r="K1" s="41" t="n"/>
-      <c r="L1" s="41" t="n"/>
-      <c r="M1" s="41" t="n"/>
-      <c r="N1" s="41" t="n"/>
-      <c r="O1" s="41" t="n"/>
-      <c r="P1" s="42" t="n"/>
+      <c r="G1" s="42" t="n"/>
+      <c r="H1" s="42" t="n"/>
+      <c r="I1" s="42" t="n"/>
+      <c r="J1" s="42" t="n"/>
+      <c r="K1" s="42" t="n"/>
+      <c r="L1" s="42" t="n"/>
+      <c r="M1" s="42" t="n"/>
+      <c r="N1" s="42" t="n"/>
+      <c r="O1" s="42" t="n"/>
+      <c r="P1" s="43" t="n"/>
     </row>
     <row r="2" ht="21" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -3084,30 +3096,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="40" t="inlineStr">
+      <c r="A1" s="41" t="inlineStr">
         <is>
           <t>SDTM</t>
         </is>
       </c>
-      <c r="B1" s="41" t="n"/>
-      <c r="C1" s="41" t="n"/>
-      <c r="D1" s="41" t="n"/>
-      <c r="E1" s="42" t="n"/>
-      <c r="F1" s="38" t="inlineStr">
+      <c r="B1" s="42" t="n"/>
+      <c r="C1" s="42" t="n"/>
+      <c r="D1" s="42" t="n"/>
+      <c r="E1" s="43" t="n"/>
+      <c r="F1" s="39" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
       </c>
-      <c r="G1" s="41" t="n"/>
-      <c r="H1" s="41" t="n"/>
-      <c r="I1" s="41" t="n"/>
-      <c r="J1" s="41" t="n"/>
-      <c r="K1" s="41" t="n"/>
-      <c r="L1" s="41" t="n"/>
-      <c r="M1" s="41" t="n"/>
-      <c r="N1" s="41" t="n"/>
-      <c r="O1" s="41" t="n"/>
-      <c r="P1" s="42" t="n"/>
+      <c r="G1" s="42" t="n"/>
+      <c r="H1" s="42" t="n"/>
+      <c r="I1" s="42" t="n"/>
+      <c r="J1" s="42" t="n"/>
+      <c r="K1" s="42" t="n"/>
+      <c r="L1" s="42" t="n"/>
+      <c r="M1" s="42" t="n"/>
+      <c r="N1" s="42" t="n"/>
+      <c r="O1" s="42" t="n"/>
+      <c r="P1" s="43" t="n"/>
     </row>
     <row r="2" ht="21" customHeight="1">
       <c r="A2" s="10" t="inlineStr">
@@ -3706,10 +3718,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -3750,7 +3762,7 @@
           <t>TSPARMCD</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>TSPARM</t>
         </is>
@@ -3765,17 +3777,17 @@
           <t>TSVALNF</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="28" t="inlineStr">
         <is>
           <t>TSVALCD</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="28" t="inlineStr">
         <is>
           <t>TSVCDREF</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="28" t="inlineStr">
         <is>
           <t>TSVCDVER</t>
         </is>
@@ -3789,7 +3801,7 @@
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
@@ -3812,7 +3824,7 @@
           <t>Adaptive Design</t>
         </is>
       </c>
-      <c r="G2" s="39" t="inlineStr">
+      <c r="G2" s="35" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3831,7 +3843,7 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
@@ -3873,7 +3885,7 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
@@ -3915,7 +3927,7 @@
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
@@ -3957,7 +3969,7 @@
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr">
@@ -3999,7 +4011,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
@@ -4041,7 +4053,7 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
@@ -4083,7 +4095,7 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
@@ -4125,7 +4137,7 @@
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr">
@@ -4167,7 +4179,7 @@
       </c>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C11" s="9" t="inlineStr">
@@ -4209,7 +4221,7 @@
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr">
@@ -4251,7 +4263,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4293,7 +4305,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4308,19 +4320,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OBJPRIM</t>
+          <t>NCOHORT</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.'}</t>
-        </is>
-      </c>
+          <t>Number of Groups/Cohorts</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t> </t>
@@ -4335,7 +4343,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4350,17 +4358,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
+          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.'}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4377,7 +4385,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4392,17 +4400,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OBSMODEL</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Observational Model</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>COHORT</t>
+          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -4419,7 +4427,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4434,17 +4442,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OBSTIMP</t>
+          <t>OBSMODEL</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Observational Time Perspective</t>
+          <t>Observational Model</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PROSPECTIVE</t>
+          <t>COHORT</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4461,7 +4469,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4476,17 +4484,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OUTMSPRI</t>
+          <t>OBSTIMP</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Primary Outcome Measure</t>
+          <t>Observational Time Perspective</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>PROSPECTIVE</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4503,7 +4511,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4518,12 +4526,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OUTMSSEC</t>
+          <t>OUTMSPRI</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Secondary Outcome Measure</t>
+          <t>Primary Outcome Measure</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4545,7 +4553,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4560,17 +4568,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PTRTDUR</t>
+          <t>OUTMSSEC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Planned Treatment Duration</t>
+          <t>Secondary Outcome Measure</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '14 Day'}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4587,7 +4595,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4602,17 +4610,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SPONSOR</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
+          <t>{'StudyIntervention_1': '14 Day'}</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4629,7 +4637,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4644,17 +4652,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TBLIND</t>
+          <t>ROUTE</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+          <t>Route of Administration</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Double Blind Study</t>
+          <t>{'StudyIntervention_1': 'ORAL'}</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4671,7 +4679,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4686,17 +4694,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TCNTRL</t>
+          <t>SPONSOR</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Control Type</t>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4713,7 +4721,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4728,17 +4736,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>TBLIND</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Official Study Title; Study Title; Trial Title</t>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
+          <t>Double Blind Study</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4755,7 +4763,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"TS"</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4770,20 +4778,104 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>TCNTRL</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Control Type</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Official Study Title; Study Title; Trial Title</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>TRT</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'LY900018'}</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4800,10 +4892,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -4815,7 +4907,10 @@
     <col width="33.81640625" customWidth="1" min="5" max="5"/>
     <col width="32.453125" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="85.54296875" customWidth="1" min="7" max="7"/>
-    <col width="52.453125" customWidth="1" min="8" max="8"/>
+    <col width="27.7265625" customWidth="1" min="8" max="8"/>
+    <col width="30.26953125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="43.453125" customWidth="1" min="10" max="10"/>
+    <col width="35.1796875" bestFit="1" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
@@ -4844,7 +4939,7 @@
           <t>TSGRPID</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="28" t="inlineStr">
         <is>
           <t>Mapping Name</t>
         </is>
@@ -4852,6 +4947,26 @@
       <c r="G1" s="28" t="inlineStr">
         <is>
           <t>Mapping Results</t>
+        </is>
+      </c>
+      <c r="H1" s="28" t="inlineStr">
+        <is>
+          <t>TSVALNF if empty</t>
+        </is>
+      </c>
+      <c r="I1" s="28" t="inlineStr">
+        <is>
+          <t>TSVALCD JSONATA map</t>
+        </is>
+      </c>
+      <c r="J1" s="28" t="inlineStr">
+        <is>
+          <t>TSVALCDREF JSONATA map</t>
+        </is>
+      </c>
+      <c r="K1" s="28" t="inlineStr">
+        <is>
+          <t>TSVALCDVER JSONATA map</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5415,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="43.5" customHeight="1">
+    <row r="15" ht="58" customHeight="1">
       <c r="A15" s="15" t="inlineStr">
         <is>
           <t>Dosing Frequency</t>
@@ -5336,8 +5451,23 @@
           <t>{'StudyIntervention_1': 'BID'}</t>
         </is>
       </c>
-    </row>
-    <row r="16" ht="43.5" customHeight="1">
+      <c r="I15" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.code}</t>
+        </is>
+      </c>
+      <c r="J15" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystem}</t>
+        </is>
+      </c>
+      <c r="K15" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystemVersion}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="58" customHeight="1">
       <c r="A16" s="15" t="inlineStr">
         <is>
           <t>Dose Units</t>
@@ -5371,6 +5501,21 @@
       <c r="G16" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Milligram'}</t>
+        </is>
+      </c>
+      <c r="I16" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.code}</t>
+        </is>
+      </c>
+      <c r="J16" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystem}</t>
+        </is>
+      </c>
+      <c r="K16" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -5523,7 +5668,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="29" customHeight="1">
+    <row r="22" ht="43.5" customHeight="1">
       <c r="A22" s="15" t="inlineStr">
         <is>
           <t>Intervention Model</t>
@@ -5551,6 +5696,21 @@
           <t>PARALLEL</t>
         </is>
       </c>
+      <c r="I22" s="30" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.code</t>
+        </is>
+      </c>
+      <c r="J22" s="30" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystem</t>
+        </is>
+      </c>
+      <c r="K22" s="30" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystemVersion</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="43.5" customHeight="1">
       <c r="A23" s="15" t="inlineStr">
@@ -5588,8 +5748,23 @@
           <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
         </is>
       </c>
-    </row>
-    <row r="24">
+      <c r="I23" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: type.code}</t>
+        </is>
+      </c>
+      <c r="J23" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: type.codeSystem}</t>
+        </is>
+      </c>
+      <c r="K23" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: type.codeSystemVersion}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="58" customHeight="1">
       <c r="A24" s="15" t="inlineStr">
         <is>
           <t>Trial Length</t>
@@ -5612,9 +5787,14 @@
           <t>Trial Duration Value + Units</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G24" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NI</t>
         </is>
       </c>
     </row>
@@ -5699,11 +5879,7 @@
           <t>Number of Groups/Cohorts</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G27" s="30" t="inlineStr"/>
     </row>
     <row r="28" ht="29" customHeight="1">
       <c r="A28" s="15" t="inlineStr">
@@ -5873,8 +6049,23 @@
           <t>COHORT</t>
         </is>
       </c>
-    </row>
-    <row r="33" ht="29" customHeight="1">
+      <c r="I32" s="32" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.code</t>
+        </is>
+      </c>
+      <c r="J32" s="32" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystem</t>
+        </is>
+      </c>
+      <c r="K32" s="32" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystemVersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="43.5" customHeight="1">
       <c r="A33" s="15" t="inlineStr">
         <is>
           <t>Observational Time Perspective</t>
@@ -5902,6 +6093,21 @@
           <t>PROSPECTIVE</t>
         </is>
       </c>
+      <c r="I33" s="30" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
+        </is>
+      </c>
+      <c r="J33" s="30" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystem</t>
+        </is>
+      </c>
+      <c r="K33" s="30" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystemVersion</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="29" customHeight="1">
       <c r="A34" s="15" t="inlineStr">
@@ -5932,7 +6138,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="29" customHeight="1">
+    <row r="35" ht="43.5" customHeight="1">
       <c r="A35" s="15" t="inlineStr">
         <is>
           <t>Observational Study Sampling Method</t>
@@ -5960,6 +6166,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I35" s="30" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
+        </is>
+      </c>
+      <c r="J35" s="30" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystem</t>
+        </is>
+      </c>
+      <c r="K35" s="30" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystemVersion</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="29" customHeight="1">
       <c r="A36" s="15" t="inlineStr">
@@ -6162,6 +6383,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="43.5" customHeight="1">
       <c r="A42" s="15" t="inlineStr">
@@ -6193,6 +6419,11 @@
       <c r="G42" s="30" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '14 Day'}</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NI</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6522,7 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="43.5" customHeight="1">
+    <row r="46" ht="58" customHeight="1">
       <c r="A46" s="15" t="inlineStr">
         <is>
           <t>Route of Administration</t>
@@ -6322,9 +6553,24 @@
           <t>Route of Administration</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G46" s="29" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'ORAL'}</t>
+        </is>
+      </c>
+      <c r="I46" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.code}</t>
+        </is>
+      </c>
+      <c r="J46" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystem}</t>
+        </is>
+      </c>
+      <c r="K46" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -6542,8 +6788,23 @@
           <t>Double Blind Study</t>
         </is>
       </c>
-    </row>
-    <row r="54" ht="29" customHeight="1">
+      <c r="I53" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.code</t>
+        </is>
+      </c>
+      <c r="J53" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystem</t>
+        </is>
+      </c>
+      <c r="K53" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystemVersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="72.5" customHeight="1">
       <c r="A54" s="15" t="inlineStr">
         <is>
           <t>Control Type</t>
@@ -6571,6 +6832,21 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="I54" s="30" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
+        </is>
+      </c>
+      <c r="J54" s="30" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystem : role[code="C68609"].codeSystem}</t>
+        </is>
+      </c>
+      <c r="K54" s="30" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystemVersion : role[code="C68609"].codeSystemVersion}</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="15" t="inlineStr">
@@ -6691,6 +6967,26 @@
           <t> </t>
         </is>
       </c>
+      <c r="H58" s="40" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I58" s="32" t="inlineStr">
+        <is>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.code</t>
+        </is>
+      </c>
+      <c r="J58" s="32" t="inlineStr">
+        <is>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystem</t>
+        </is>
+      </c>
+      <c r="K58" s="32" t="inlineStr">
+        <is>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystemVersion</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="43.5" customHeight="1">
       <c r="A59" s="15" t="inlineStr">
@@ -6726,6 +7022,11 @@
       <c r="G59" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'LY900018'}</t>
+        </is>
+      </c>
+      <c r="H59" s="40" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3718,7 +3718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -3829,11 +3829,7 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="H2" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H2" s="34" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
@@ -3871,11 +3867,7 @@
           <t xml:space="preserve">18 ["Year","Year"] </t>
         </is>
       </c>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H3" s="9" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="inlineStr">
@@ -3913,11 +3905,7 @@
           <t xml:space="preserve">100 ["Year","Year"] </t>
         </is>
       </c>
-      <c r="H4" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H4" s="34" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="inlineStr">
@@ -3942,24 +3930,20 @@
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>CRMDUR</t>
+          <t>BRDNAIND</t>
         </is>
       </c>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>Confirmed Response Minimum Duration</t>
+          <t>Biospecimen Retention contains DNA Ind</t>
         </is>
       </c>
       <c r="G5" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day'}</t>
-        </is>
-      </c>
-      <c r="H5" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H5" s="34" t="n"/>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
@@ -3984,24 +3968,20 @@
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>BRIND</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>Dose Level; Dose per Administration</t>
+          <t>Biospecimen Retention indicator</t>
         </is>
       </c>
       <c r="G6" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 20}</t>
-        </is>
-      </c>
-      <c r="H6" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H6" s="34" t="n"/>
     </row>
     <row r="7" ht="29" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
@@ -4026,24 +4006,20 @@
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>DOSFRM</t>
+          <t>COMPTRT</t>
         </is>
       </c>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>Dose Form</t>
+          <t>Comparative Treatment Name</t>
         </is>
       </c>
       <c r="G7" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'TABLET'}</t>
-        </is>
-      </c>
-      <c r="H7" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H7" s="34" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
@@ -4068,24 +4044,20 @@
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>DOSFRQ</t>
+          <t>CONNAME</t>
         </is>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>Dosing Frequency</t>
+          <t>Contact Name</t>
         </is>
       </c>
       <c r="G8" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'BID'}</t>
-        </is>
-      </c>
-      <c r="H8" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H8" s="34" t="n"/>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
@@ -4110,24 +4082,20 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>DOSU</t>
+          <t>CONROLE</t>
         </is>
       </c>
       <c r="F9" s="12" t="inlineStr">
         <is>
-          <t>Dose Units</t>
+          <t>Contact Role</t>
         </is>
       </c>
       <c r="G9" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram'}</t>
-        </is>
-      </c>
-      <c r="H9" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H9" s="34" t="n"/>
     </row>
     <row r="10" ht="29" customHeight="1">
       <c r="A10" s="9" t="inlineStr">
@@ -4152,24 +4120,20 @@
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>INDIC</t>
+          <t>CRMDUR</t>
         </is>
       </c>
       <c r="F10" s="12" t="inlineStr">
         <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+          <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
       <c r="G10" s="33" t="inlineStr">
         <is>
-          <t>["Parkinson's disease", "Parkinson's disease"]</t>
-        </is>
-      </c>
-      <c r="H10" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>{'StudyIntervention_1': '1 Day'}</t>
+        </is>
+      </c>
+      <c r="H10" s="34" t="n"/>
     </row>
     <row r="11" ht="29" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
@@ -4194,24 +4158,20 @@
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>INTMODEL</t>
+          <t>CURTRT</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
+          <t>Current Therapy or Treatment</t>
         </is>
       </c>
       <c r="G11" s="33" t="inlineStr">
         <is>
-          <t>PARALLEL</t>
-        </is>
-      </c>
-      <c r="H11" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H11" s="34" t="n"/>
     </row>
     <row r="12" ht="43.5" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
@@ -4236,24 +4196,20 @@
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>DMCIND</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Data Monitoring Committee Indicator</t>
         </is>
       </c>
       <c r="G12" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
-        </is>
-      </c>
-      <c r="H12" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H12" s="34" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4278,22 +4234,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NARMS</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Planned Number of Arms</t>
+          <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 20}</t>
         </is>
       </c>
     </row>
@@ -4320,18 +4271,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NCOHORT</t>
+          <t>DOSFRM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Number of Groups/Cohorts</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>Dose Form</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'TABLET'}</t>
         </is>
       </c>
     </row>
@@ -4358,22 +4308,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OBJPRIM</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.'}</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'BID'}</t>
         </is>
       </c>
     </row>
@@ -4400,22 +4345,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'Milligram'}</t>
         </is>
       </c>
     </row>
@@ -4442,20 +4382,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OBSMODEL</t>
+          <t>EXTTIND</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Observational Model</t>
+          <t>Extension Trial Indicator</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>COHORT</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4484,20 +4419,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OBSTIMP</t>
+          <t>FCNTRY</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Observational Time Perspective</t>
+          <t>Planned Country of Investigational Sites</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>PROSPECTIVE</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4526,20 +4456,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OUTMSPRI</t>
+          <t>HLTSUBJI</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Primary Outcome Measure</t>
+          <t>Healthy Subject Indicator</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4568,20 +4493,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>OUTMSSEC</t>
+          <t>HLTSUBJI</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Secondary Outcome Measure</t>
+          <t>Healthy Subject Indicator</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4610,22 +4530,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PTRTDUR</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Planned Treatment Duration</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '14 Day'}</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>["Parkinson's disease", "Parkinson's disease"]</t>
         </is>
       </c>
     </row>
@@ -4652,22 +4567,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ROUTE</t>
+          <t>INTMODEL</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
+          <t>Intervention Model</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'ORAL'}</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>PARALLEL</t>
         </is>
       </c>
     </row>
@@ -4694,22 +4604,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SPONSOR</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
         </is>
       </c>
     </row>
@@ -4736,22 +4641,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TBLIND</t>
+          <t>LENGTH</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+          <t>Trial Length</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Double Blind Study</t>
+          <t> </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
     </row>
@@ -4778,20 +4683,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TCNTRL</t>
+          <t>MSEUTIND</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Control Type</t>
+          <t>Multiple Site EU Site Trial Indicator</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4820,22 +4720,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>NARMS</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Official Study Title; Study Title; Trial Title</t>
+          <t>Planned Number of Arms</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4862,20 +4757,1252 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>NCOHORT</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Number of Groups/Cohorts</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NUMSEUST</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Number of Trial Sites EU State</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>OBJEXP</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Trial Exploratory Objective</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>OBJPRIM</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Study Primary Objective; Trial Primary Objective</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>OBJSEC</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>OBSMODEL</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Observational Model</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>COHORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>OBSTIMP</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Observational Time Perspective</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>PROSPECTIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>OBSTPOPD</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Obs Study Population Description</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>OBSTSMM</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Observational Study Sampling Method</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>OUTMSEXP</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Exploratory Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>OUTMSPRI</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Primary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>OUTMSSEC</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>PCLAS</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Pharmacologic Class</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>PIPIND</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Pediatric Investigation Plan Indicator</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>PLANSUB</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>PTRTDUR</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Planned Treatment Duration</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '14 Day'}</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RANDOM</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Trial is Randomized</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>RDIND</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Rare Disease Indicator</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>REGID</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Registry Identifier</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'ORAL'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>RTSPCDES</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Retained Biospecimen Description</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SEXPOP</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sex of Participants</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SPONSOR</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SPREFID</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sponsor's Study Reference ID</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SSEUTIND</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Single Site EU State Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>STYPE</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Study Type; Study Type Classification</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>TBLIND</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Double Blind Study</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>TCNTRL</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Control Type</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>THERAREA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Therapeutic Area</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>TINDTP</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Trial Intent Type</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Official Study Title; Study Title; Trial Title</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TPHASE</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Trial Phase; Trial Phase Classification</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>TRT</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'LY900018'}</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>TTYPE</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Trial Scope; Trial Type</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t> </t>
         </is>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3829,7 +3829,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="H2" s="34" t="n"/>
+      <c r="H2" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
@@ -3867,7 +3871,11 @@
           <t xml:space="preserve">18 ["Year","Year"] </t>
         </is>
       </c>
-      <c r="H3" s="9" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 ["Year","Year"] </t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="inlineStr">
@@ -3905,7 +3913,11 @@
           <t xml:space="preserve">100 ["Year","Year"] </t>
         </is>
       </c>
-      <c r="H4" s="34" t="n"/>
+      <c r="H4" s="34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100 ["Year","Year"] </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="inlineStr">
@@ -3943,7 +3955,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="H5" s="34" t="n"/>
+      <c r="H5" s="34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
@@ -3981,7 +3997,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="H6" s="34" t="n"/>
+      <c r="H6" s="34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="29" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
@@ -4019,7 +4039,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="H7" s="34" t="n"/>
+      <c r="H7" s="34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
@@ -4057,7 +4081,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="H8" s="34" t="n"/>
+      <c r="H8" s="34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
@@ -4095,7 +4123,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="H9" s="34" t="n"/>
+      <c r="H9" s="34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="29" customHeight="1">
       <c r="A10" s="9" t="inlineStr">
@@ -4133,7 +4165,11 @@
           <t>{'StudyIntervention_1': '1 Day'}</t>
         </is>
       </c>
-      <c r="H10" s="34" t="n"/>
+      <c r="H10" s="34" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '1 Day'}</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="29" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
@@ -4171,7 +4207,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="H11" s="34" t="n"/>
+      <c r="H11" s="34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="43.5" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
@@ -4209,7 +4249,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="H12" s="34" t="n"/>
+      <c r="H12" s="34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4247,6 +4291,11 @@
           <t>{'StudyIntervention_1': 20}</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 20}</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4284,6 +4333,11 @@
           <t>{'StudyIntervention_1': 'TABLET'}</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'TABLET'}</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4321,6 +4375,11 @@
           <t>{'StudyIntervention_1': 'BID'}</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'BID'}</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4358,6 +4417,11 @@
           <t>{'StudyIntervention_1': 'Milligram'}</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Milligram'}</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4395,6 +4459,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Milligram'}</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4432,6 +4501,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Milligram'}</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4469,6 +4543,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Milligram'}</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4506,6 +4585,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Milligram'}</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4543,6 +4627,11 @@
           <t>["Parkinson's disease", "Parkinson's disease"]</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>["Parkinson's disease", "Parkinson's disease"]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4580,6 +4669,11 @@
           <t>PARALLEL</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>PARALLEL</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4617,6 +4711,11 @@
           <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4656,7 +4755,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4696,6 +4795,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4733,6 +4837,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4766,6 +4875,7 @@
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4803,6 +4913,7 @@
           <t> </t>
         </is>
       </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4840,6 +4951,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4877,6 +4993,11 @@
           <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.'}</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson’s disease.'}</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4914,6 +5035,11 @@
           <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson’s disease.'}</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4951,6 +5077,11 @@
           <t>COHORT</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>COHORT</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4988,6 +5119,11 @@
           <t>PROSPECTIVE</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>PROSPECTIVE</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5025,6 +5161,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5062,6 +5203,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5099,6 +5245,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5136,6 +5287,11 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5173,6 +5329,11 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5210,6 +5371,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5247,6 +5413,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5286,7 +5457,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5328,7 +5499,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t>{'StudyIntervention_1': '14 Day'}</t>
         </is>
       </c>
     </row>
@@ -5368,6 +5539,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '14 Day'}</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5405,6 +5581,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '14 Day'}</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5442,6 +5623,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '14 Day'}</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5479,6 +5665,11 @@
           <t>{'StudyIntervention_1': 'ORAL'}</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'ORAL'}</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5516,6 +5707,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'ORAL'}</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5553,6 +5749,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'ORAL'}</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5590,6 +5791,11 @@
           <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'ORAL'}</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5627,6 +5833,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'ORAL'}</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5664,6 +5875,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'ORAL'}</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5701,6 +5917,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'ORAL'}</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5738,6 +5959,11 @@
           <t>Double Blind Study</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Double Blind Study</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5775,6 +6001,11 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5812,6 +6043,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5849,6 +6085,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5886,6 +6127,11 @@
           <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5925,7 +6171,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5967,7 +6213,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>{'StudyIntervention_1': 'LY900018'}</t>
         </is>
       </c>
     </row>
@@ -6005,6 +6251,11 @@
       <c r="G60" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'LY900018'}</t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3779,7 +3779,7 @@
       </c>
       <c r="I1" s="28" t="inlineStr">
         <is>
-          <t>TSVALCD</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J1" s="28" t="inlineStr">
@@ -3831,7 +3831,12 @@
       </c>
       <c r="H2" s="34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 ["Year","Year"] </t>
         </is>
       </c>
     </row>
@@ -3873,7 +3878,12 @@
       </c>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 ["Year","Year"] </t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100 ["Year","Year"] </t>
         </is>
       </c>
     </row>
@@ -3913,9 +3923,10 @@
           <t xml:space="preserve">100 ["Year","Year"] </t>
         </is>
       </c>
-      <c r="H4" s="34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100 ["Year","Year"] </t>
+      <c r="H4" s="34" t="n"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -3955,9 +3966,10 @@
           <t> </t>
         </is>
       </c>
-      <c r="H5" s="34" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="H5" s="34" t="n"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -3997,9 +4009,10 @@
           <t> </t>
         </is>
       </c>
-      <c r="H6" s="34" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="H6" s="34" t="n"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4039,9 +4052,10 @@
           <t> </t>
         </is>
       </c>
-      <c r="H7" s="34" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="H7" s="34" t="n"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4081,9 +4095,10 @@
           <t> </t>
         </is>
       </c>
-      <c r="H8" s="34" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="H8" s="34" t="n"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4123,9 +4138,10 @@
           <t> </t>
         </is>
       </c>
-      <c r="H9" s="34" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="H9" s="34" t="n"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '1 Day'}</t>
         </is>
       </c>
     </row>
@@ -4165,9 +4181,10 @@
           <t>{'StudyIntervention_1': '1 Day'}</t>
         </is>
       </c>
-      <c r="H10" s="34" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '1 Day'}</t>
+      <c r="H10" s="34" t="n"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4207,9 +4224,10 @@
           <t> </t>
         </is>
       </c>
-      <c r="H11" s="34" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="H11" s="34" t="n"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4249,9 +4267,10 @@
           <t> </t>
         </is>
       </c>
-      <c r="H12" s="34" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="H12" s="34" t="n"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 20}</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4312,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 20}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'TABLET'}</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4359,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'TABLET'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'BID'}</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4406,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'BID'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Milligram'}</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4451,7 @@
           <t>{'StudyIntervention_1': 'Milligram'}</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Milligram'}</t>
         </is>
@@ -4459,7 +4493,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Milligram'}</t>
         </is>
@@ -4501,7 +4535,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Milligram'}</t>
         </is>
@@ -4543,7 +4577,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Milligram'}</t>
         </is>
@@ -4585,9 +4619,9 @@
           <t> </t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'Milligram'}</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>["Parkinson's disease", "Parkinson's disease"]</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4663,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>["Parkinson's disease", "Parkinson's disease"]</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>PARALLEL</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4710,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>PARALLEL</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4757,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4753,7 +4802,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4795,9 +4844,9 @@
           <t> </t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4839,9 +4888,10 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4875,7 +4925,7 @@
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4913,7 +4963,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4951,9 +5005,9 @@
           <t> </t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson’s disease.'}</t>
         </is>
       </c>
     </row>
@@ -4995,7 +5049,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson’s disease.'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson’s disease.'}</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5096,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson’s disease.'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>COHORT</t>
         </is>
       </c>
     </row>
@@ -5079,7 +5143,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>COHORT</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>PROSPECTIVE</t>
         </is>
       </c>
     </row>
@@ -5119,9 +5188,9 @@
           <t>PROSPECTIVE</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PROSPECTIVE</t>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5161,9 +5230,9 @@
           <t> </t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5203,9 +5272,9 @@
           <t> </t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5245,9 +5314,9 @@
           <t> </t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -5289,6 +5358,11 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>{}</t>
         </is>
       </c>
@@ -5329,7 +5403,7 @@
           <t>{}</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -5371,7 +5445,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -5415,7 +5489,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5457,7 +5536,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '14 Day'}</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5581,7 @@
           <t>{'StudyIntervention_1': '14 Day'}</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '14 Day'}</t>
         </is>
@@ -5539,7 +5623,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '14 Day'}</t>
         </is>
@@ -5581,7 +5665,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': '14 Day'}</t>
         </is>
@@ -5623,9 +5707,9 @@
           <t> </t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '14 Day'}</t>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'ORAL'}</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5749,7 @@
           <t>{'StudyIntervention_1': 'ORAL'}</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'ORAL'}</t>
         </is>
@@ -5707,7 +5791,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'ORAL'}</t>
         </is>
@@ -5749,7 +5833,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'ORAL'}</t>
         </is>
@@ -5791,7 +5875,7 @@
           <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'ORAL'}</t>
         </is>
@@ -5833,7 +5917,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'ORAL'}</t>
         </is>
@@ -5875,7 +5959,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'ORAL'}</t>
         </is>
@@ -5917,9 +6001,9 @@
           <t> </t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'ORAL'}</t>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Double Blind Study</t>
         </is>
       </c>
     </row>
@@ -5961,7 +6045,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Double Blind Study</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6090,7 @@
           <t>{}</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -6043,7 +6132,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -6085,9 +6174,9 @@
           <t> </t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>{}</t>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6218,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6171,7 +6265,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'LY900018'}</t>
         </is>
       </c>
     </row>
@@ -6211,7 +6310,7 @@
           <t>{'StudyIntervention_1': 'LY900018'}</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'LY900018'}</t>
         </is>
@@ -6253,7 +6352,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'LY900018'}</t>
         </is>
@@ -6329,7 +6428,7 @@
       </c>
       <c r="H1" s="28" t="inlineStr">
         <is>
-          <t>TSVALNF if empty</t>
+          <t> </t>
         </is>
       </c>
       <c r="I1" s="28" t="inlineStr">
@@ -6376,6 +6475,11 @@
           <t>Y</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="58" customHeight="1">
       <c r="A3" s="15" t="inlineStr">
@@ -6405,6 +6509,11 @@
           <t xml:space="preserve">18 ["Year","Year"] </t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="58" customHeight="1">
       <c r="A4" s="15" t="inlineStr">
@@ -6434,6 +6543,11 @@
           <t xml:space="preserve">100 ["Year","Year"] </t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="58" customHeight="1">
       <c r="A5" s="15" t="inlineStr">
@@ -6471,6 +6585,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="58" customHeight="1">
       <c r="A6" s="15" t="inlineStr">
@@ -6508,6 +6627,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="15" t="inlineStr">
@@ -6541,6 +6665,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="15" t="inlineStr">
@@ -6578,6 +6707,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="15" t="inlineStr">
@@ -6615,6 +6749,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" s="15" t="inlineStr">
@@ -6652,6 +6791,11 @@
           <t>{'StudyIntervention_1': '1 Day'}</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="43.5" customHeight="1">
       <c r="A11" s="15" t="inlineStr">
@@ -6685,6 +6829,11 @@
         </is>
       </c>
       <c r="G11" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6718,6 +6867,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="43.5" customHeight="1">
       <c r="A13" s="15" t="inlineStr">
@@ -6755,6 +6909,11 @@
           <t>{'StudyIntervention_1': 20}</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="43.5" customHeight="1">
       <c r="A14" s="15" t="inlineStr">
@@ -6792,6 +6951,11 @@
           <t>{'StudyIntervention_1': 'TABLET'}</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="58" customHeight="1">
       <c r="A15" s="15" t="inlineStr">
@@ -6829,6 +6993,11 @@
           <t>{'StudyIntervention_1': 'BID'}</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I15" s="29" t="inlineStr">
         <is>
           <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.code}</t>
@@ -6879,6 +7048,11 @@
       <c r="G16" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Milligram'}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I16" s="29" t="inlineStr">
@@ -6925,6 +7099,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="29" customHeight="1">
       <c r="A18" s="15" t="inlineStr">
@@ -6954,6 +7133,11 @@
         </is>
       </c>
       <c r="G18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6987,6 +7171,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="29" customHeight="1">
       <c r="A20" s="15" t="inlineStr">
@@ -7016,6 +7205,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="58" customHeight="1">
       <c r="A21" s="15" t="inlineStr">
@@ -7045,6 +7239,11 @@
           <t>["Parkinson's disease", "Parkinson's disease"]</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="43.5" customHeight="1">
       <c r="A22" s="15" t="inlineStr">
@@ -7074,6 +7273,11 @@
           <t>PARALLEL</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I22" s="30" t="inlineStr">
         <is>
           <t>study.versions.studyDesigns[studyType.code="C98388"].model.code</t>
@@ -7124,6 +7328,11 @@
       <c r="G23" s="29" t="inlineStr">
         <is>
           <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I23" s="29" t="inlineStr">
@@ -7172,7 +7381,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7204,6 +7413,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="29" customHeight="1">
       <c r="A26" s="15" t="inlineStr">
@@ -7233,6 +7447,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="29" customHeight="1">
       <c r="A27" s="15" t="inlineStr">
@@ -7258,6 +7477,11 @@
         </is>
       </c>
       <c r="G27" s="30" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="29" customHeight="1">
       <c r="A28" s="15" t="inlineStr">
@@ -7287,6 +7511,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="43.5" customHeight="1">
       <c r="A29" s="15" t="inlineStr">
@@ -7324,6 +7553,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="43.5" customHeight="1">
       <c r="A30" s="15" t="inlineStr">
@@ -7361,6 +7595,11 @@
           <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.'}</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="43.5" customHeight="1">
       <c r="A31" s="15" t="inlineStr">
@@ -7396,6 +7635,11 @@
       <c r="G31" s="29" t="inlineStr">
         <is>
           <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7427,6 +7671,11 @@
           <t>COHORT</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I32" s="32" t="inlineStr">
         <is>
           <t>study.versions.studyDesigns[studyType.code="C16084"].model.code</t>
@@ -7471,6 +7720,11 @@
           <t>PROSPECTIVE</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I33" s="30" t="inlineStr">
         <is>
           <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
@@ -7515,6 +7769,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="43.5" customHeight="1">
       <c r="A35" s="15" t="inlineStr">
@@ -7544,6 +7803,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I35" s="30" t="inlineStr">
         <is>
           <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
@@ -7596,6 +7860,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="29" customHeight="1">
       <c r="A37" s="15" t="inlineStr">
@@ -7633,6 +7902,11 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="29" customHeight="1">
       <c r="A38" s="15" t="inlineStr">
@@ -7670,6 +7944,11 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="43.5" customHeight="1">
       <c r="A39" s="15" t="inlineStr">
@@ -7699,6 +7978,11 @@
         </is>
       </c>
       <c r="G39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7732,6 +8016,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="72.5" customHeight="1">
       <c r="A41" s="15" t="inlineStr">
@@ -7763,7 +8052,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7801,7 +8090,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7833,6 +8122,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="15" t="inlineStr">
@@ -7862,6 +8156,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="43.5" customHeight="1">
       <c r="A45" s="15" t="inlineStr">
@@ -7899,6 +8198,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="58" customHeight="1">
       <c r="A46" s="15" t="inlineStr">
@@ -7936,6 +8240,11 @@
           <t>{'StudyIntervention_1': 'ORAL'}</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I46" s="29" t="inlineStr">
         <is>
           <t>study.versions.studyInterventions{id: administrations.route.standardCode.code}</t>
@@ -7984,6 +8293,11 @@
         </is>
       </c>
       <c r="G47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8017,6 +8331,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="29" customHeight="1">
       <c r="A49" s="15" t="inlineStr">
@@ -8046,6 +8365,11 @@
           <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="29" customHeight="1">
       <c r="A50" s="15" t="inlineStr">
@@ -8075,6 +8399,11 @@
         </is>
       </c>
       <c r="G50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8108,6 +8437,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="29" customHeight="1">
       <c r="A52" s="15" t="inlineStr">
@@ -8137,6 +8471,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="87" customHeight="1">
       <c r="A53" s="15" t="inlineStr">
@@ -8166,6 +8505,11 @@
           <t>Double Blind Study</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I53" s="29" t="inlineStr">
         <is>
           <t>study.versions.studyDesigns.blindingSchema.standardCode.code</t>
@@ -8210,6 +8554,11 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I54" s="30" t="inlineStr">
         <is>
           <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
@@ -8254,6 +8603,11 @@
           <t> </t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="29" customHeight="1">
       <c r="A56" s="15" t="inlineStr">
@@ -8283,6 +8637,11 @@
         </is>
       </c>
       <c r="G56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8316,6 +8675,11 @@
           <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="29" customHeight="1">
       <c r="A58" s="15" t="inlineStr">
@@ -8347,7 +8711,7 @@
       </c>
       <c r="H58" s="40" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I58" s="32" t="inlineStr">
@@ -8404,7 +8768,7 @@
       </c>
       <c r="H59" s="40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t> </t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3777,11 +3777,7 @@
           <t>TSVALNF</t>
         </is>
       </c>
-      <c r="I1" s="28" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I1" s="28" t="inlineStr"/>
       <c r="J1" s="28" t="inlineStr">
         <is>
           <t>TSVCDREF</t>
@@ -3794,11 +3790,7 @@
       </c>
     </row>
     <row r="2" ht="93" customHeight="1">
-      <c r="A2" s="9" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
+      <c r="A2" s="9" t="n"/>
       <c r="B2" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -3824,11 +3816,7 @@
           <t>Adaptive Design</t>
         </is>
       </c>
-      <c r="G2" s="35" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="G2" s="35" t="inlineStr"/>
       <c r="H2" s="34" t="inlineStr">
         <is>
           <t> </t>
@@ -3836,16 +3824,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 ["Year","Year"] </t>
+          <t>18  ["Year","Year"]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
+      <c r="A3" s="9" t="n"/>
       <c r="B3" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -3873,7 +3857,7 @@
       </c>
       <c r="G3" s="33" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 ["Year","Year"] </t>
+          <t>18  ["Year","Year"]</t>
         </is>
       </c>
       <c r="H3" s="9" t="inlineStr">
@@ -3883,16 +3867,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ["Year","Year"] </t>
+          <t>70  ["Year","Year"]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
+      <c r="A4" s="9" t="n"/>
       <c r="B4" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -3920,7 +3900,7 @@
       </c>
       <c r="G4" s="33" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ["Year","Year"] </t>
+          <t>70  ["Year","Year"]</t>
         </is>
       </c>
       <c r="H4" s="34" t="n"/>
@@ -3931,11 +3911,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
+      <c r="A5" s="9" t="n"/>
       <c r="B5" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -3974,11 +3950,7 @@
       </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
+      <c r="A6" s="9" t="n"/>
       <c r="B6" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4017,11 +3989,7 @@
       </c>
     </row>
     <row r="7" ht="29" customHeight="1">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
+      <c r="A7" s="9" t="n"/>
       <c r="B7" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4060,11 +4028,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
+      <c r="A8" s="9" t="n"/>
       <c r="B8" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4103,11 +4067,7 @@
       </c>
     </row>
     <row r="9" ht="29" customHeight="1">
-      <c r="A9" s="9" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4141,16 +4101,12 @@
       <c r="H9" s="34" t="n"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day'}</t>
+          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
         </is>
       </c>
     </row>
     <row r="10" ht="29" customHeight="1">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4178,7 +4134,7 @@
       </c>
       <c r="G10" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day'}</t>
+          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
         </is>
       </c>
       <c r="H10" s="34" t="n"/>
@@ -4189,11 +4145,7 @@
       </c>
     </row>
     <row r="11" ht="29" customHeight="1">
-      <c r="A11" s="9" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4232,11 +4184,7 @@
       </c>
     </row>
     <row r="12" ht="43.5" customHeight="1">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="9" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4270,16 +4218,11 @@
       <c r="H12" s="34" t="n"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 20}</t>
+          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4307,7 +4250,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 20}</t>
+          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4317,16 +4260,11 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'TABLET'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4354,7 +4292,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'TABLET'}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4364,16 +4302,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'BID'}</t>
+          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4401,7 +4334,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'BID'}</t>
+          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4411,16 +4344,11 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram'}</t>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4448,21 +4376,16 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram'}</t>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram'}</t>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4495,16 +4418,11 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram'}</t>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4537,16 +4455,11 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram'}</t>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4579,16 +4492,11 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram'}</t>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4621,16 +4529,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>["Parkinson's disease", "Parkinson's disease"]</t>
+          <t>['T1DM', 'T2DM']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4658,7 +4561,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>["Parkinson's disease", "Parkinson's disease"]</t>
+          <t>['T1DM', 'T2DM']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4668,16 +4571,11 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>PARALLEL</t>
+          <t>Parallel Study</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4705,7 +4603,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PARALLEL</t>
+          <t>Parallel Study</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4715,16 +4613,11 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4752,7 +4645,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4767,11 +4660,6 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4809,11 +4697,6 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4851,11 +4734,6 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4891,14 +4769,13 @@
           <t> </t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4924,15 +4801,18 @@
           <t>Number of Groups/Cohorts</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>TS</t>
@@ -4965,16 +4845,11 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>TS</t>
@@ -5002,21 +4877,21 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson’s disease.'}</t>
+          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>TS</t>
@@ -5044,7 +4919,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.'}</t>
+          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5054,16 +4929,11 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson’s disease.'}</t>
+          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>TS</t>
@@ -5091,26 +4961,16 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>COHORT</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>TS</t>
@@ -5138,26 +4998,16 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>COHORT</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>PROSPECTIVE</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>TS</t>
@@ -5185,7 +5035,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PROSPECTIVE</t>
+          <t> </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -5195,11 +5045,6 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>TS</t>
@@ -5237,11 +5082,6 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>TS</t>
@@ -5274,16 +5114,11 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t> </t>
+          <t>[{}, {}]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>TS</t>
@@ -5311,6 +5146,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
+          <t>[{}, {}]</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -5321,11 +5161,6 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>TS</t>
@@ -5363,970 +5198,850 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
+          <t>[{}, {}, {}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>OUTMSSEC</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[{}, {}, {}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[{}, {}, {}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>PCLAS</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Pharmacologic Class</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[{}, {}, {}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>PIPIND</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Pediatric Investigation Plan Indicator</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>PLANSUB</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>PTRTDUR</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Planned Treatment Duration</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RANDOM</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Trial is Randomized</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>RDIND</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Rare Disease Indicator</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>REGID</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Registry Identifier</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>RTSPCDES</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Retained Biospecimen Description</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SEXPOP</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sex of Participants</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SPONSOR</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SPREFID</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sponsor's Study Reference ID</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SSEUTIND</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Single Site EU State Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>STYPE</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Study Type; Study Type Classification</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Open Label Study</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>TBLIND</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Open Label Study</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>{}</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
+    <row r="54">
+      <c r="B54" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>OUTMSSEC</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Secondary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>TCNTRL</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Control Type</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
+    <row r="55">
+      <c r="B55" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>PCLAS</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Pharmacologic Class</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>THERAREA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Therapeutic Area</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
+    <row r="56">
+      <c r="B56" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>PIPIND</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Pediatric Investigation Plan Indicator</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>TINDTP</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Trial Intent Type</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Official Study Title; Study Title; Trial Title</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>NI</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>PLANSUB</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TPHASE</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Trial Phase; Trial Phase Classification</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>NI</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '14 Day'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>PTRTDUR</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Planned Treatment Duration</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '14 Day'}</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '14 Day'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Investigational Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
         <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>RANDOM</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Trial is Randomized</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '14 Day'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>RDIND</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Rare Disease Indicator</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '14 Day'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>REGID</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Registry Identifier</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'ORAL'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ROUTE</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Route of Administration</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'ORAL'}</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'ORAL'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>RTSPCDES</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Retained Biospecimen Description</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'ORAL'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>SEXPOP</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sex of Participants</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'ORAL'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>SPONSOR</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'ORAL'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>SPREFID</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sponsor's Study Reference ID</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'ORAL'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>SSEUTIND</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Single Site EU State Trial Indicator</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'ORAL'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>STYPE</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Study Type; Study Type Classification</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Double Blind Study</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>TBLIND</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Double Blind Study</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>TCNTRL</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Control Type</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>THERAREA</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Therapeutic Area</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>TINDTP</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Trial Intent Type</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>TITLE</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Official Study Title; Study Title; Trial Title</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>TPHASE</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Trial Phase; Trial Phase Classification</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'LY900018'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>TRT</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Investigational Therapy or Treatment</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'LY900018'}</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'LY900018'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t> </t>
@@ -6354,7 +6069,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'LY900018'}</t>
+          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
         </is>
       </c>
     </row>
@@ -6470,11 +6185,7 @@
           <t>Adaptive Design Indicator</t>
         </is>
       </c>
-      <c r="G2" s="31" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="G2" s="31" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t> </t>
@@ -6506,7 +6217,7 @@
       </c>
       <c r="G3" s="31" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 ["Year","Year"] </t>
+          <t>18  ["Year","Year"]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6540,7 +6251,7 @@
       </c>
       <c r="G4" s="29" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ["Year","Year"] </t>
+          <t>70  ["Year","Year"]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6788,7 +6499,7 @@
       </c>
       <c r="G10" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day'}</t>
+          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6906,7 +6617,7 @@
       </c>
       <c r="G13" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 20}</t>
+          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -6948,7 +6659,7 @@
       </c>
       <c r="G14" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'TABLET'}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -6990,7 +6701,7 @@
       </c>
       <c r="G15" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'BID'}</t>
+          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7047,7 +6758,7 @@
       </c>
       <c r="G16" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram'}</t>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7236,7 +6947,7 @@
       </c>
       <c r="G21" s="29" t="inlineStr">
         <is>
-          <t>["Parkinson's disease", "Parkinson's disease"]</t>
+          <t>['T1DM', 'T2DM']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7270,7 +6981,7 @@
       </c>
       <c r="G22" s="30" t="inlineStr">
         <is>
-          <t>PARALLEL</t>
+          <t>Parallel Study</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7327,7 +7038,7 @@
       </c>
       <c r="G23" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7476,7 +7187,11 @@
           <t>Number of Groups/Cohorts</t>
         </is>
       </c>
-      <c r="G27" s="30" t="inlineStr"/>
+      <c r="G27" s="30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t> </t>
@@ -7550,7 +7265,7 @@
       </c>
       <c r="G29" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -7592,7 +7307,7 @@
       </c>
       <c r="G30" s="29" t="inlineStr">
         <is>
-          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.'}</t>
+          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -7634,7 +7349,7 @@
       </c>
       <c r="G31" s="29" t="inlineStr">
         <is>
-          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
+          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -7668,7 +7383,7 @@
       </c>
       <c r="G32" s="32" t="inlineStr">
         <is>
-          <t>COHORT</t>
+          <t> </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -7717,7 +7432,7 @@
       </c>
       <c r="G33" s="30" t="inlineStr">
         <is>
-          <t>PROSPECTIVE</t>
+          <t> </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -7857,7 +7572,7 @@
       </c>
       <c r="G36" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>[{}, {}]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -7941,7 +7656,7 @@
       </c>
       <c r="G38" s="29" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>[{}, {}, {}]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -8047,7 +7762,7 @@
       </c>
       <c r="G41" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -8085,7 +7800,7 @@
       </c>
       <c r="G42" s="30" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '14 Day'}</t>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -8237,7 +7952,7 @@
       </c>
       <c r="G46" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'ORAL'}</t>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8502,7 +8217,7 @@
       </c>
       <c r="G53" s="29" t="inlineStr">
         <is>
-          <t>Double Blind Study</t>
+          <t>Open Label Study</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -8672,7 +8387,7 @@
       </c>
       <c r="G57" s="29" t="inlineStr">
         <is>
-          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
+          <t> </t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -8763,7 +8478,7 @@
       </c>
       <c r="G59" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'LY900018'}</t>
+          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
         </is>
       </c>
       <c r="H59" s="40" t="inlineStr">

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3777,7 +3777,11 @@
           <t>TSVALNF</t>
         </is>
       </c>
-      <c r="I1" s="28" t="inlineStr"/>
+      <c r="I1" s="28" t="inlineStr">
+        <is>
+          <t>TSVALCD</t>
+        </is>
+      </c>
       <c r="J1" s="28" t="inlineStr">
         <is>
           <t>TSVCDREF</t>
@@ -3822,11 +3826,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>18  ["Year","Year"]</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n"/>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>70  ["Year","Year"]</t>
+          <t>18  ["Year","Year"]</t>
         </is>
       </c>
     </row>
@@ -3903,10 +3903,14 @@
           <t>70  ["Year","Year"]</t>
         </is>
       </c>
-      <c r="H4" s="34" t="n"/>
+      <c r="H4" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t> </t>
+          <t>70  ["Year","Year"]</t>
         </is>
       </c>
     </row>
@@ -3929,23 +3933,27 @@
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>BRDNAIND</t>
+          <t>CRMDUR</t>
         </is>
       </c>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>Biospecimen Retention contains DNA Ind</t>
+          <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
       <c r="G5" s="33" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H5" s="34" t="n"/>
+          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
+        </is>
+      </c>
+      <c r="H5" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t> </t>
+          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
         </is>
       </c>
     </row>
@@ -3968,23 +3976,27 @@
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>BRIND</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>Biospecimen Retention indicator</t>
+          <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
       <c r="G6" s="33" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H6" s="34" t="n"/>
+          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
+        </is>
+      </c>
+      <c r="H6" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
         </is>
       </c>
     </row>
@@ -4007,23 +4019,27 @@
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>COMPTRT</t>
+          <t>DOSFRM</t>
         </is>
       </c>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>Comparative Treatment Name</t>
+          <t>Dose Form</t>
         </is>
       </c>
       <c r="G7" s="33" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H7" s="34" t="n"/>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H7" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -4046,23 +4062,27 @@
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>CONNAME</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>Contact Name</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G8" s="33" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H8" s="34" t="n"/>
+          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
+        </is>
+      </c>
+      <c r="H8" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
         </is>
       </c>
     </row>
@@ -4085,23 +4105,27 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>CONROLE</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F9" s="12" t="inlineStr">
         <is>
-          <t>Contact Role</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G9" s="33" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H9" s="34" t="n"/>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+        </is>
+      </c>
+      <c r="H9" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
         </is>
       </c>
     </row>
@@ -4124,23 +4148,27 @@
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>CRMDUR</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="F10" s="12" t="inlineStr">
         <is>
-          <t>Confirmed Response Minimum Duration</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="G10" s="33" t="inlineStr">
         <is>
-          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
-        </is>
-      </c>
-      <c r="H10" s="34" t="n"/>
+          <t>['T1DM', 'T2DM']</t>
+        </is>
+      </c>
+      <c r="H10" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t> </t>
+          <t>['T1DM', 'T2DM']</t>
         </is>
       </c>
     </row>
@@ -4163,23 +4191,27 @@
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>CURTRT</t>
+          <t>INTMODEL</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Current Therapy or Treatment</t>
+          <t>Intervention Model</t>
         </is>
       </c>
       <c r="G11" s="33" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H11" s="34" t="n"/>
+          <t>Parallel Study</t>
+        </is>
+      </c>
+      <c r="H11" s="34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Parallel Study</t>
         </is>
       </c>
     </row>
@@ -4202,23 +4234,27 @@
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>DMCIND</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Data Monitoring Committee Indicator</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G12" s="33" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H12" s="34" t="n"/>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
+        </is>
+      </c>
+      <c r="H12" s="34" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
         </is>
       </c>
     </row>
@@ -4240,17 +4276,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>LENGTH</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dose Level; Dose per Administration</t>
+          <t>Trial Length</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4260,7 +4296,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4282,17 +4318,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DOSFRM</t>
+          <t>NARMS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dose Form</t>
+          <t>Planned Number of Arms</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4302,7 +4338,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4324,17 +4360,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DOSFRQ</t>
+          <t>NCOHORT</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dosing Frequency</t>
+          <t>Number of Groups/Cohorts</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4344,7 +4380,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4366,22 +4402,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DOSU</t>
+          <t>OBJEXP</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dose Units</t>
+          <t>Trial Exploratory Objective</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
         </is>
       </c>
     </row>
@@ -4403,22 +4444,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EXTTIND</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Extension Trial Indicator</t>
+          <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
         </is>
       </c>
     </row>
@@ -4440,22 +4486,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FCNTRY</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Planned Country of Investigational Sites</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
         </is>
       </c>
     </row>
@@ -4477,22 +4528,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>HLTSUBJI</t>
+          <t>OUTMSEXP</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Healthy Subject Indicator</t>
+          <t>Exploratory Outcome Measure</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>[{}, {}]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+          <t>[{}, {}]</t>
         </is>
       </c>
     </row>
@@ -4514,22 +4570,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>HLTSUBJI</t>
+          <t>OUTMSPRI</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Healthy Subject Indicator</t>
+          <t>Primary Outcome Measure</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>['T1DM', 'T2DM']</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -4551,17 +4612,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>INDIC</t>
+          <t>OUTMSSEC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+          <t>Secondary Outcome Measure</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['T1DM', 'T2DM']</t>
+          <t>[{}, {}, {}]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4571,7 +4632,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Parallel Study</t>
+          <t>[{}, {}, {}]</t>
         </is>
       </c>
     </row>
@@ -4593,17 +4654,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>INTMODEL</t>
+          <t>PLANSUB</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Parallel Study</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4613,7 +4674,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
+          <t>75.0</t>
         </is>
       </c>
     </row>
@@ -4635,27 +4696,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
         </is>
       </c>
     </row>
@@ -4677,22 +4738,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>LENGTH</t>
+          <t>ROUTE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trial Length</t>
+          <t>Route of Administration</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
         </is>
       </c>
     </row>
@@ -4714,22 +4780,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MSEUTIND</t>
+          <t>SPONSOR</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Multiple Site EU Site Trial Indicator</t>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
         </is>
       </c>
     </row>
@@ -4751,17 +4822,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NARMS</t>
+          <t>TBLIND</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Planned Number of Arms</t>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Open Label Study</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4771,7 +4842,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Open Label Study</t>
         </is>
       </c>
     </row>
@@ -4793,22 +4864,27 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NCOHORT</t>
+          <t>TCNTRL</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Number of Groups/Cohorts</t>
+          <t>Control Type</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NI</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -4830,12 +4906,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NUMSEUST</t>
+          <t>TPHASE</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Number of Trial Sites EU State</t>
+          <t>Trial Phase; Trial Phase Classification</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -4843,9 +4919,14 @@
           <t> </t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4867,17 +4948,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>OBJEXP</t>
+          <t>TRT</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Trial Exploratory Objective</t>
+          <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
+          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4887,120 +4968,25 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="I30" t="inlineStr">
+        <is>
           <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>OBJPRIM</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
+    <row r="31">
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>OBJSEC</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
     <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>OBSMODEL</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Observational Model</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t> </t>
@@ -5008,36 +4994,6 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>OBSTIMP</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Observational Time Perspective</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t> </t>
@@ -5045,36 +5001,6 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>OBSTPOPD</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Obs Study Population Description</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t> </t>
@@ -5082,875 +5008,160 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>OBSTSMM</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Observational Study Sampling Method</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="I36" t="inlineStr">
+        <is>
           <t>[{}, {}]</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>OUTMSEXP</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Exploratory Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>[{}, {}]</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
+    <row r="37">
+      <c r="I37" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>OUTMSPRI</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Primary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
+    <row r="38">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[{}, {}, {}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[{}, {}, {}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[{}, {}, {}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Open Label Study</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="I54" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>[{}, {}, {}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>OUTMSSEC</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Secondary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>[{}, {}, {}]</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>[{}, {}, {}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>PCLAS</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Pharmacologic Class</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>[{}, {}, {}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>PIPIND</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Pediatric Investigation Plan Indicator</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>PLANSUB</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>PTRTDUR</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Planned Treatment Duration</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>RANDOM</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Trial is Randomized</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>RDIND</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Rare Disease Indicator</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>REGID</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Registry Identifier</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ROUTE</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Route of Administration</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>RTSPCDES</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Retained Biospecimen Description</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>SEXPOP</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sex of Participants</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>SPONSOR</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>SPREFID</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sponsor's Study Reference ID</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>SSEUTIND</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Single Site EU State Trial Indicator</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>STYPE</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Study Type; Study Type Classification</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Open Label Study</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>TBLIND</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Open Label Study</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
+    </row>
+    <row r="55">
+      <c r="I55" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>TCNTRL</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Control Type</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
+    <row r="56">
+      <c r="I56" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>THERAREA</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Therapeutic Area</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>TINDTP</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Trial Intent Type</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>TITLE</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Official Study Title; Study Title; Trial Title</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t> </t>
@@ -5958,115 +5169,20 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>TPHASE</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Trial Phase; Trial Phase Classification</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
       <c r="I58" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="I59" t="inlineStr">
+        <is>
           <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>TRT</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Investigational Therapy or Treatment</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
-        </is>
-      </c>
-    </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>TTYPE</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Trial Scope; Trial Type</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I60" t="inlineStr">
         <is>
           <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
@@ -6143,7 +5259,7 @@
       </c>
       <c r="H1" s="28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TSVALNF if empty</t>
         </is>
       </c>
       <c r="I1" s="28" t="inlineStr">
@@ -8511,6 +7627,11 @@
         </is>
       </c>
       <c r="G60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t> </t>
         </is>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3820,13 +3820,31 @@
           <t>Adaptive Design</t>
         </is>
       </c>
-      <c r="G2" s="35" t="inlineStr"/>
+      <c r="G2" s="35" t="inlineStr">
+        <is>
+          <t>Error in expression for Adaptive Design: $exists(study.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
+        </is>
+      </c>
       <c r="H2" s="34" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n"/>
@@ -3857,7 +3875,8 @@
       </c>
       <c r="G3" s="33" t="inlineStr">
         <is>
-          <t>18  ["Year","Year"]</t>
+          <t>Error in expression for Planned Minimum Age of Subjects: $min([study.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
+study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode &amp; " " &amp; study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode</t>
         </is>
       </c>
       <c r="H3" s="9" t="inlineStr">
@@ -3867,7 +3886,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>18  ["Year","Year"]</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -3900,7 +3929,8 @@
       </c>
       <c r="G4" s="33" t="inlineStr">
         <is>
-          <t>70  ["Year","Year"]</t>
+          <t>Error in expression for Planned Minimum Age of Subjects: $max([study.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
+study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode &amp; " " &amp; study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode</t>
         </is>
       </c>
       <c r="H4" s="34" t="inlineStr">
@@ -3910,7 +3940,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>70  ["Year","Year"]</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -3933,17 +3973,17 @@
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>CRMDUR</t>
+          <t>BRDNAIND</t>
         </is>
       </c>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>Confirmed Response Minimum Duration</t>
+          <t>Biospecimen Retention contains DNA Ind</t>
         </is>
       </c>
       <c r="G5" s="33" t="inlineStr">
         <is>
-          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
+          <t>Error in expression for Biospecimen Retention contains DNA Ind: study.versions.studyDesigns.biospecimenRetentions.includesDNA</t>
         </is>
       </c>
       <c r="H5" s="34" t="inlineStr">
@@ -3953,7 +3993,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -3976,17 +4026,17 @@
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>BRIND</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>Dose Level; Dose per Administration</t>
+          <t>Biospecimen Retention indicator</t>
         </is>
       </c>
       <c r="G6" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
+          <t>Error in expression for Biospecimen Retention indicator: study.versions.studyDesigns.biospecimenRetentions.isRetained</t>
         </is>
       </c>
       <c r="H6" s="34" t="inlineStr">
@@ -3996,7 +4046,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4019,17 +4079,17 @@
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>DOSFRM</t>
+          <t>COMPTRT</t>
         </is>
       </c>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>Dose Form</t>
+          <t>Comparative Treatment Name</t>
         </is>
       </c>
       <c r="G7" s="33" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>Error in expression for Comparative Treatment Name: study.versions.studyInterventions[role.code="C68609"].{id: label}</t>
         </is>
       </c>
       <c r="H7" s="34" t="inlineStr">
@@ -4039,7 +4099,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4062,17 +4132,17 @@
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>DOSFRQ</t>
+          <t>CRMDUR</t>
         </is>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>Dosing Frequency</t>
+          <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
       <c r="G8" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
+          <t>Error in expression for Confirmed Response Minimum Duration: study.versions.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
         </is>
       </c>
       <c r="H8" s="34" t="inlineStr">
@@ -4082,7 +4152,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4105,17 +4185,17 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>DOSU</t>
+          <t>CURTRT</t>
         </is>
       </c>
       <c r="F9" s="12" t="inlineStr">
         <is>
-          <t>Dose Units</t>
+          <t>Current Therapy or Treatment</t>
         </is>
       </c>
       <c r="G9" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+          <t>Error in expression for Current Therapy or Treatment: study.versions.studyInterventions[role.code="C165822"].{id: label}</t>
         </is>
       </c>
       <c r="H9" s="34" t="inlineStr">
@@ -4125,7 +4205,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4148,17 +4238,17 @@
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>INDIC</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F10" s="12" t="inlineStr">
         <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+          <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
       <c r="G10" s="33" t="inlineStr">
         <is>
-          <t>['T1DM', 'T2DM']</t>
+          <t>Error in expression for Dose Level; Dose per Administration: study.versions.studyInterventions{id: administrations.dose.value}</t>
         </is>
       </c>
       <c r="H10" s="34" t="inlineStr">
@@ -4168,7 +4258,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['T1DM', 'T2DM']</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4191,17 +4291,17 @@
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>INTMODEL</t>
+          <t>DOSFRM</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
+          <t>Dose Form</t>
         </is>
       </c>
       <c r="G11" s="33" t="inlineStr">
         <is>
-          <t>Parallel Study</t>
+          <t>Error in expression for Dose Form: study.versions.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
         </is>
       </c>
       <c r="H11" s="34" t="inlineStr">
@@ -4211,7 +4311,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Parallel Study</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4234,27 +4344,37 @@
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G12" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
+          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
         </is>
       </c>
       <c r="H12" s="34" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
+          <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -4276,17 +4396,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LENGTH</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trial Length</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4296,7 +4416,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -4318,17 +4448,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NARMS</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Planned Number of Arms</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Error in expression for Trial Disease/Condition Indication; Trial Disease/Condition Indication Description: study.versions.studyDesigns.indications.label</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4338,7 +4468,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4360,17 +4500,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NCOHORT</t>
+          <t>INTMODEL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Number of Groups/Cohorts</t>
+          <t>Intervention Model</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Parallel Study</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4380,7 +4520,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>C82639</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4402,17 +4552,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OBJEXP</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trial Exploratory Objective</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -4422,7 +4572,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
+          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -4444,17 +4604,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OBJPRIM</t>
+          <t>LENGTH</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
+          <t>Trial Length</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
+          <t>Error in expression for Trial Length: study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4464,7 +4624,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4486,17 +4656,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>NARMS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Planned Number of Arms</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
+          <t>Error in expression for Planned Number of Arms: $count(study.versions.studyDesigns.arms)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4506,7 +4676,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4528,17 +4708,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OUTMSEXP</t>
+          <t>NCOHORT</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Exploratory Outcome Measure</t>
+          <t>Number of Groups/Cohorts</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[{}, {}]</t>
+          <t>Error in expression for Number of Groups/Cohorts: $exists(study.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4548,7 +4728,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[{}, {}]</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4570,17 +4760,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>OUTMSPRI</t>
+          <t>OBJEXP</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Primary Outcome Measure</t>
+          <t>Trial Exploratory Objective</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>Error in expression for Trial Exploratory Objective: study.versions.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4590,7 +4780,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4612,17 +4812,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OUTMSSEC</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Secondary Outcome Measure</t>
+          <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[{}, {}, {}]</t>
+          <t>Error in expression for Study Primary Objective; Trial Primary Objective: study.versions.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4632,7 +4832,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[{}, {}, {}]</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4654,17 +4864,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PLANSUB</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>Error in expression for Study Secondary Objective; Trial Secondary Objective: study.versions.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4674,7 +4884,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4696,17 +4916,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PTRTDUR</t>
+          <t>OBSTPOPD</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Planned Treatment Duration</t>
+          <t>Obs Study Population Description</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+          <t>Error in expression for Obs Study Population Description: study.versions.studyDesigns[studyType.code="C16084"].populations.description</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4716,7 +4936,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4738,17 +4968,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ROUTE</t>
+          <t>OUTMSEXP</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
+          <t>Exploratory Outcome Measure</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+          <t>Error in expression for Exploratory Outcome Measure: study.versions.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4758,7 +4988,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4780,17 +5020,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SPONSOR</t>
+          <t>OUTMSPRI</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+          <t>Primary Outcome Measure</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
+          <t>Error in expression for Primary Outcome Measure: study.versions.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4800,7 +5040,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4822,17 +5072,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TBLIND</t>
+          <t>OUTMSSEC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+          <t>Secondary Outcome Measure</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Open Label Study</t>
+          <t>Error in expression for Secondary Outcome Measure: study.versions.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4842,7 +5092,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Open Label Study</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4864,27 +5124,37 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TCNTRL</t>
+          <t>PLANSUB</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Control Type</t>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t xml:space="preserve">Error in expression for Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment: study.versions.studyDesigns.population.plannedEnrollmentNumber.value </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4906,25 +5176,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TPHASE</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Trial Phase; Trial Phase Classification</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Error in expression for Planned Treatment Duration: study.versions.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4948,67 +5228,347 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SPONSOR</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>TBLIND</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Open Label Study</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>C49659</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>TCNTRL</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Control Type</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Official Study Title; Study Title; Trial Title</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Error in expression for Official Study Title; Study Title; Trial Title: study.versions.titles[type.code="C207616"].text</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>TPHASE</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Trial Phase; Trial Phase Classification</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>TRT</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="I32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="I33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="I34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Error in expression for Investigational Therapy or Treatment: study.versions.studyInterventions[role.code="C41161"].{id: label}</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5017,126 +5577,306 @@
     <row r="36">
       <c r="I36" t="inlineStr">
         <is>
-          <t>[{}, {}]</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="I37" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="I38" t="inlineStr">
         <is>
-          <t>[{}, {}, {}]</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="I39" t="inlineStr">
         <is>
-          <t>[{}, {}, {}]</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="I40" t="inlineStr">
         <is>
-          <t>[{}, {}, {}]</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="I41" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="I42" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="I43" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="I44" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="I45" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="I46" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="I47" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="I48" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="I49" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="I50" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="I51" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="I52" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="I53" t="inlineStr">
         <is>
-          <t>Open Label Study</t>
+          <t>C49659</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -5146,18 +5886,48 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="I55" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="I56" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5167,6 +5937,16 @@
           <t> </t>
         </is>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="I58" t="inlineStr">
@@ -5174,18 +5954,48 @@
           <t> </t>
         </is>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="I59" t="inlineStr">
         <is>
-          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="I60" t="inlineStr">
         <is>
-          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5301,7 +6111,11 @@
           <t>Adaptive Design Indicator</t>
         </is>
       </c>
-      <c r="G2" s="31" t="inlineStr"/>
+      <c r="G2" s="31" t="inlineStr">
+        <is>
+          <t>Error in expression for Adaptive Design: $exists(study.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t> </t>
@@ -5333,7 +6147,8 @@
       </c>
       <c r="G3" s="31" t="inlineStr">
         <is>
-          <t>18  ["Year","Year"]</t>
+          <t>Error in expression for Planned Minimum Age of Subjects: $min([study.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
+study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode &amp; " " &amp; study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -5367,7 +6182,8 @@
       </c>
       <c r="G4" s="29" t="inlineStr">
         <is>
-          <t>70  ["Year","Year"]</t>
+          <t>Error in expression for Planned Minimum Age of Subjects: $max([study.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
+study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode &amp; " " &amp; study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -5409,7 +6225,7 @@
       </c>
       <c r="G5" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Error in expression for Biospecimen Retention contains DNA Ind: study.versions.studyDesigns.biospecimenRetentions.includesDNA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -5451,7 +6267,7 @@
       </c>
       <c r="G6" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Error in expression for Biospecimen Retention indicator: study.versions.studyDesigns.biospecimenRetentions.isRetained</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -5489,7 +6305,7 @@
       <c r="F7" s="14" t="n"/>
       <c r="G7" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Error in expression for Comparative Treatment Name: study.versions.studyInterventions[role.code="C68609"].{id: label}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -5615,7 +6431,7 @@
       </c>
       <c r="G10" s="29" t="inlineStr">
         <is>
-          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
+          <t>Error in expression for Confirmed Response Minimum Duration: study.versions.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -5657,7 +6473,7 @@
       </c>
       <c r="G11" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Error in expression for Current Therapy or Treatment: study.versions.studyInterventions[role.code="C165822"].{id: label}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -5733,7 +6549,7 @@
       </c>
       <c r="G13" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
+          <t>Error in expression for Dose Level; Dose per Administration: study.versions.studyInterventions{id: administrations.dose.value}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -5775,7 +6591,7 @@
       </c>
       <c r="G14" s="29" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>Error in expression for Dose Form: study.versions.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -6063,7 +6879,7 @@
       </c>
       <c r="G21" s="29" t="inlineStr">
         <is>
-          <t>['T1DM', 'T2DM']</t>
+          <t>Error in expression for Trial Disease/Condition Indication; Trial Disease/Condition Indication Description: study.versions.studyDesigns.indications.label</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -6203,7 +7019,7 @@
       </c>
       <c r="G24" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Error in expression for Trial Length: study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -6271,7 +7087,7 @@
       </c>
       <c r="G26" s="29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Error in expression for Planned Number of Arms: $count(study.versions.studyDesigns.arms)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -6305,7 +7121,7 @@
       </c>
       <c r="G27" s="30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Error in expression for Number of Groups/Cohorts: $exists(study.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -6381,7 +7197,7 @@
       </c>
       <c r="G29" s="29" t="inlineStr">
         <is>
-          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
+          <t>Error in expression for Trial Exploratory Objective: study.versions.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -6423,7 +7239,7 @@
       </c>
       <c r="G30" s="29" t="inlineStr">
         <is>
-          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
+          <t>Error in expression for Study Primary Objective; Trial Primary Objective: study.versions.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -6465,7 +7281,7 @@
       </c>
       <c r="G31" s="29" t="inlineStr">
         <is>
-          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
+          <t>Error in expression for Study Secondary Objective; Trial Secondary Objective: study.versions.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -6597,7 +7413,7 @@
       </c>
       <c r="G34" s="30" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Error in expression for Obs Study Population Description: study.versions.studyDesigns[studyType.code="C16084"].populations.description</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -6688,7 +7504,7 @@
       </c>
       <c r="G36" s="29" t="inlineStr">
         <is>
-          <t>[{}, {}]</t>
+          <t>Error in expression for Exploratory Outcome Measure: study.versions.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -6730,7 +7546,7 @@
       </c>
       <c r="G37" s="29" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>Error in expression for Primary Outcome Measure: study.versions.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -6772,7 +7588,7 @@
       </c>
       <c r="G38" s="29" t="inlineStr">
         <is>
-          <t>[{}, {}, {}]</t>
+          <t>Error in expression for Secondary Outcome Measure: study.versions.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -6878,7 +7694,7 @@
       </c>
       <c r="G41" s="29" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t xml:space="preserve">Error in expression for Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment: study.versions.studyDesigns.population.plannedEnrollmentNumber.value </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -6916,7 +7732,7 @@
       </c>
       <c r="G42" s="30" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+          <t>Error in expression for Planned Treatment Duration: study.versions.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -7503,7 +8319,7 @@
       </c>
       <c r="G57" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Error in expression for Official Study Title; Study Title; Trial Title: study.versions.titles[type.code="C207616"].text</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -7594,7 +8410,7 @@
       </c>
       <c r="G59" s="29" t="inlineStr">
         <is>
-          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
+          <t>Error in expression for Investigational Therapy or Treatment: study.versions.studyInterventions[role.code="C41161"].{id: label}</t>
         </is>
       </c>
       <c r="H59" s="40" t="inlineStr">

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3820,11 +3820,7 @@
           <t>Adaptive Design</t>
         </is>
       </c>
-      <c r="G2" s="35" t="inlineStr">
-        <is>
-          <t>Error in expression for Adaptive Design: $exists(study.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
-        </is>
-      </c>
+      <c r="G2" s="35" t="inlineStr"/>
       <c r="H2" s="34" t="inlineStr">
         <is>
           <t> </t>
@@ -3875,8 +3871,7 @@
       </c>
       <c r="G3" s="33" t="inlineStr">
         <is>
-          <t>Error in expression for Planned Minimum Age of Subjects: $min([study.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
-study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode &amp; " " &amp; study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode</t>
+          <t>18  ["Year","Year"]</t>
         </is>
       </c>
       <c r="H3" s="9" t="inlineStr">
@@ -3929,8 +3924,7 @@
       </c>
       <c r="G4" s="33" t="inlineStr">
         <is>
-          <t>Error in expression for Planned Minimum Age of Subjects: $max([study.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
-study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode &amp; " " &amp; study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode</t>
+          <t>70  ["Year","Year"]</t>
         </is>
       </c>
       <c r="H4" s="34" t="inlineStr">
@@ -3973,17 +3967,17 @@
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>BRDNAIND</t>
+          <t>CRMDUR</t>
         </is>
       </c>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>Biospecimen Retention contains DNA Ind</t>
+          <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
       <c r="G5" s="33" t="inlineStr">
         <is>
-          <t>Error in expression for Biospecimen Retention contains DNA Ind: study.versions.studyDesigns.biospecimenRetentions.includesDNA</t>
+          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
         </is>
       </c>
       <c r="H5" s="34" t="inlineStr">
@@ -4026,17 +4020,17 @@
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>BRIND</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>Biospecimen Retention indicator</t>
+          <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
       <c r="G6" s="33" t="inlineStr">
         <is>
-          <t>Error in expression for Biospecimen Retention indicator: study.versions.studyDesigns.biospecimenRetentions.isRetained</t>
+          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
         </is>
       </c>
       <c r="H6" s="34" t="inlineStr">
@@ -4079,17 +4073,17 @@
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>COMPTRT</t>
+          <t>DOSFRM</t>
         </is>
       </c>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>Comparative Treatment Name</t>
+          <t>Dose Form</t>
         </is>
       </c>
       <c r="G7" s="33" t="inlineStr">
         <is>
-          <t>Error in expression for Comparative Treatment Name: study.versions.studyInterventions[role.code="C68609"].{id: label}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="H7" s="34" t="inlineStr">
@@ -4132,17 +4126,17 @@
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>CRMDUR</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>Confirmed Response Minimum Duration</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G8" s="33" t="inlineStr">
         <is>
-          <t>Error in expression for Confirmed Response Minimum Duration: study.versions.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
         </is>
       </c>
       <c r="H8" s="34" t="inlineStr">
@@ -4152,17 +4146,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -4185,17 +4179,17 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>CURTRT</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F9" s="12" t="inlineStr">
         <is>
-          <t>Current Therapy or Treatment</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G9" s="33" t="inlineStr">
         <is>
-          <t>Error in expression for Current Therapy or Treatment: study.versions.studyInterventions[role.code="C165822"].{id: label}</t>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
         </is>
       </c>
       <c r="H9" s="34" t="inlineStr">
@@ -4205,17 +4199,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -4238,17 +4232,17 @@
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="F10" s="12" t="inlineStr">
         <is>
-          <t>Dose Level; Dose per Administration</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="G10" s="33" t="inlineStr">
         <is>
-          <t>Error in expression for Dose Level; Dose per Administration: study.versions.studyInterventions{id: administrations.dose.value}</t>
+          <t>['T1DM', 'T2DM']</t>
         </is>
       </c>
       <c r="H10" s="34" t="inlineStr">
@@ -4291,17 +4285,17 @@
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>DOSFRM</t>
+          <t>INTMODEL</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Dose Form</t>
+          <t>Intervention Model</t>
         </is>
       </c>
       <c r="G11" s="33" t="inlineStr">
         <is>
-          <t>Error in expression for Dose Form: study.versions.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
+          <t>Parallel Study</t>
         </is>
       </c>
       <c r="H11" s="34" t="inlineStr">
@@ -4311,17 +4305,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t> </t>
+          <t>C82639</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t> </t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4344,27 +4338,27 @@
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>DOSFRQ</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Dosing Frequency</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G12" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
         </is>
       </c>
       <c r="H12" s="34" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
+          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -4396,17 +4390,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DOSU</t>
+          <t>LENGTH</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dose Units</t>
+          <t>Trial Length</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4416,17 +4410,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4448,17 +4442,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>INDIC</t>
+          <t>NARMS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+          <t>Planned Number of Arms</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Error in expression for Trial Disease/Condition Indication; Trial Disease/Condition Indication Description: study.versions.studyDesigns.indications.label</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4500,17 +4494,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>INTMODEL</t>
+          <t>NCOHORT</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
+          <t>Number of Groups/Cohorts</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Parallel Study</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4520,17 +4514,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>C82639</t>
+          <t> </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4552,17 +4546,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>OBJEXP</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Trial Exploratory Objective</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
+          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -4572,17 +4566,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4604,17 +4598,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LENGTH</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trial Length</t>
+          <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Error in expression for Trial Length: study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
+          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4656,17 +4650,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NARMS</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Planned Number of Arms</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Error in expression for Planned Number of Arms: $count(study.versions.studyDesigns.arms)</t>
+          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4708,17 +4702,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NCOHORT</t>
+          <t>OUTMSEXP</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Number of Groups/Cohorts</t>
+          <t>Exploratory Outcome Measure</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Error in expression for Number of Groups/Cohorts: $exists(study.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
+          <t>[{}, {}]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4760,17 +4754,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>OBJEXP</t>
+          <t>OUTMSPRI</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trial Exploratory Objective</t>
+          <t>Primary Outcome Measure</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Error in expression for Trial Exploratory Objective: study.versions.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4812,17 +4806,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OBJPRIM</t>
+          <t>OUTMSSEC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
+          <t>Secondary Outcome Measure</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Error in expression for Study Primary Objective; Trial Primary Objective: study.versions.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
+          <t>[{}, {}, {}]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4864,17 +4858,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>PLANSUB</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Error in expression for Study Secondary Objective; Trial Secondary Objective: study.versions.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4916,17 +4910,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>OBSTPOPD</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Obs Study Population Description</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Error in expression for Obs Study Population Description: study.versions.studyDesigns[studyType.code="C16084"].populations.description</t>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4968,17 +4962,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OUTMSEXP</t>
+          <t>ROUTE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Exploratory Outcome Measure</t>
+          <t>Route of Administration</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Error in expression for Exploratory Outcome Measure: study.versions.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4988,17 +4982,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -5020,17 +5014,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>OUTMSPRI</t>
+          <t>SPONSOR</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Primary Outcome Measure</t>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Error in expression for Primary Outcome Measure: study.versions.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
+          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5072,17 +5066,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>OUTMSSEC</t>
+          <t>TBLIND</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Secondary Outcome Measure</t>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Error in expression for Secondary Outcome Measure: study.versions.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
+          <t>Open Label Study</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -5092,17 +5086,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t> </t>
+          <t>C49659</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t> </t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -5124,37 +5118,37 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PLANSUB</t>
+          <t>TCNTRL</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+          <t>Control Type</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error in expression for Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment: study.versions.studyDesigns.population.plannedEnrollmentNumber.value </t>
+          <t>{}</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{}</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -5176,22 +5170,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PTRTDUR</t>
+          <t>TPHASE</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Planned Treatment Duration</t>
+          <t>Trial Phase; Trial Phase Classification</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Error in expression for Planned Treatment Duration: study.versions.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -5228,17 +5222,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ROUTE</t>
+          <t>TRT</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
+          <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5248,56 +5242,21 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>SPONSOR</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t> </t>
@@ -5315,145 +5274,40 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>TBLIND</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Open Label Study</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>C49659</t>
+          <t> </t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>TCNTRL</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Control Type</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t> </t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t> </t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>TITLE</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Official Study Title; Study Title; Trial Title</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Error in expression for Official Study Title; Study Title; Trial Title: study.versions.titles[type.code="C207616"].text</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t> </t>
@@ -5471,41 +5325,6 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>TPHASE</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Trial Phase; Trial Phase Classification</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t> </t>
@@ -5523,41 +5342,6 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>TRT</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Investigational Therapy or Treatment</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Error in expression for Investigational Therapy or Treatment: study.versions.studyInterventions[role.code="C41161"].{id: label}</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t> </t>
@@ -6111,11 +5895,7 @@
           <t>Adaptive Design Indicator</t>
         </is>
       </c>
-      <c r="G2" s="31" t="inlineStr">
-        <is>
-          <t>Error in expression for Adaptive Design: $exists(study.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
-        </is>
-      </c>
+      <c r="G2" s="31" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t> </t>
@@ -6147,8 +5927,7 @@
       </c>
       <c r="G3" s="31" t="inlineStr">
         <is>
-          <t>Error in expression for Planned Minimum Age of Subjects: $min([study.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
-study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode &amp; " " &amp; study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode</t>
+          <t>18  ["Year","Year"]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6182,8 +5961,7 @@
       </c>
       <c r="G4" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Planned Minimum Age of Subjects: $max([study.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
-study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode &amp; " " &amp; study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode</t>
+          <t>70  ["Year","Year"]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6225,7 +6003,7 @@
       </c>
       <c r="G5" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Biospecimen Retention contains DNA Ind: study.versions.studyDesigns.biospecimenRetentions.includesDNA</t>
+          <t> </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6267,7 +6045,7 @@
       </c>
       <c r="G6" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Biospecimen Retention indicator: study.versions.studyDesigns.biospecimenRetentions.isRetained</t>
+          <t> </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6305,7 +6083,7 @@
       <c r="F7" s="14" t="n"/>
       <c r="G7" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Comparative Treatment Name: study.versions.studyInterventions[role.code="C68609"].{id: label}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6431,7 +6209,7 @@
       </c>
       <c r="G10" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Confirmed Response Minimum Duration: study.versions.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
+          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6473,7 +6251,7 @@
       </c>
       <c r="G11" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Current Therapy or Treatment: study.versions.studyInterventions[role.code="C165822"].{id: label}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6549,7 +6327,7 @@
       </c>
       <c r="G13" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Dose Level; Dose per Administration: study.versions.studyInterventions{id: administrations.dose.value}</t>
+          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -6591,7 +6369,7 @@
       </c>
       <c r="G14" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Dose Form: study.versions.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -6879,7 +6657,7 @@
       </c>
       <c r="G21" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Trial Disease/Condition Indication; Trial Disease/Condition Indication Description: study.versions.studyDesigns.indications.label</t>
+          <t>['T1DM', 'T2DM']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7019,7 +6797,7 @@
       </c>
       <c r="G24" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Trial Length: study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7087,7 +6865,7 @@
       </c>
       <c r="G26" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Planned Number of Arms: $count(study.versions.studyDesigns.arms)</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7121,7 +6899,7 @@
       </c>
       <c r="G27" s="30" t="inlineStr">
         <is>
-          <t>Error in expression for Number of Groups/Cohorts: $exists(study.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -7197,7 +6975,7 @@
       </c>
       <c r="G29" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Trial Exploratory Objective: study.versions.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
+          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -7239,7 +7017,7 @@
       </c>
       <c r="G30" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Study Primary Objective; Trial Primary Objective: study.versions.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
+          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -7281,7 +7059,7 @@
       </c>
       <c r="G31" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Study Secondary Objective; Trial Secondary Objective: study.versions.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
+          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -7413,7 +7191,7 @@
       </c>
       <c r="G34" s="30" t="inlineStr">
         <is>
-          <t>Error in expression for Obs Study Population Description: study.versions.studyDesigns[studyType.code="C16084"].populations.description</t>
+          <t> </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -7504,7 +7282,7 @@
       </c>
       <c r="G36" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Exploratory Outcome Measure: study.versions.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
+          <t>[{}, {}]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -7546,7 +7324,7 @@
       </c>
       <c r="G37" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Primary Outcome Measure: study.versions.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -7588,7 +7366,7 @@
       </c>
       <c r="G38" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Secondary Outcome Measure: study.versions.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
+          <t>[{}, {}, {}]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -7694,7 +7472,7 @@
       </c>
       <c r="G41" s="29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error in expression for Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment: study.versions.studyDesigns.population.plannedEnrollmentNumber.value </t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -7732,7 +7510,7 @@
       </c>
       <c r="G42" s="30" t="inlineStr">
         <is>
-          <t>Error in expression for Planned Treatment Duration: study.versions.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -8319,7 +8097,7 @@
       </c>
       <c r="G57" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Official Study Title; Study Title; Trial Title: study.versions.titles[type.code="C207616"].text</t>
+          <t> </t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -8410,7 +8188,7 @@
       </c>
       <c r="G59" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for Investigational Therapy or Treatment: study.versions.studyInterventions[role.code="C41161"].{id: label}</t>
+          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
         </is>
       </c>
       <c r="H59" s="40" t="inlineStr">

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3718,7 +3718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="H12" s="34" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -5251,533 +5251,6 @@
         </is>
       </c>
       <c r="K29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="I30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="I31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="I32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="I33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="I34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="I35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="I36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="I37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="I38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="I39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="I40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="I41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="I42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="I43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="I44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="I45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="I47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="I48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="I49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="I50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="I51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="I52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>C49659</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="I55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="I56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="I57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="I58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="I59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="I60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5901,6 +5374,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="58" customHeight="1">
       <c r="A3" s="15" t="inlineStr">
@@ -5935,6 +5423,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="58" customHeight="1">
       <c r="A4" s="15" t="inlineStr">
@@ -5969,6 +5472,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="58" customHeight="1">
       <c r="A5" s="15" t="inlineStr">
@@ -6011,6 +5529,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="58" customHeight="1">
       <c r="A6" s="15" t="inlineStr">
@@ -6053,6 +5586,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="15" t="inlineStr">
@@ -6091,6 +5639,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="15" t="inlineStr">
@@ -6133,6 +5696,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="15" t="inlineStr">
@@ -6175,6 +5753,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" s="15" t="inlineStr">
@@ -6217,6 +5810,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="43.5" customHeight="1">
       <c r="A11" s="15" t="inlineStr">
@@ -6255,6 +5863,21 @@
         </is>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6290,6 +5913,21 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -6335,6 +5973,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="43.5" customHeight="1">
       <c r="A14" s="15" t="inlineStr">
@@ -6377,6 +6030,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="58" customHeight="1">
       <c r="A15" s="15" t="inlineStr">
@@ -6421,17 +6089,17 @@
       </c>
       <c r="I15" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.code}</t>
+          <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
         </is>
       </c>
       <c r="J15" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K15" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -6478,17 +6146,17 @@
       </c>
       <c r="I16" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.code}</t>
+          <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
         </is>
       </c>
       <c r="J16" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K16" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -6525,6 +6193,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="29" customHeight="1">
       <c r="A18" s="15" t="inlineStr">
@@ -6559,6 +6242,21 @@
         </is>
       </c>
       <c r="H18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6597,6 +6295,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="29" customHeight="1">
       <c r="A20" s="15" t="inlineStr">
@@ -6631,6 +6344,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="58" customHeight="1">
       <c r="A21" s="15" t="inlineStr">
@@ -6665,6 +6393,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="43.5" customHeight="1">
       <c r="A22" s="15" t="inlineStr">
@@ -6701,17 +6444,17 @@
       </c>
       <c r="I22" s="30" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.code</t>
+          <t>C82639</t>
         </is>
       </c>
       <c r="J22" s="30" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystem</t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K22" s="30" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystemVersion</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -6758,17 +6501,17 @@
       </c>
       <c r="I23" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.code}</t>
+          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
         </is>
       </c>
       <c r="J23" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K23" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -6805,6 +6548,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="29" customHeight="1">
       <c r="A25" s="15" t="inlineStr">
@@ -6839,6 +6597,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="29" customHeight="1">
       <c r="A26" s="15" t="inlineStr">
@@ -6873,6 +6646,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="29" customHeight="1">
       <c r="A27" s="15" t="inlineStr">
@@ -6904,6 +6692,21 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -6941,6 +6744,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="43.5" customHeight="1">
       <c r="A29" s="15" t="inlineStr">
@@ -6983,6 +6801,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="43.5" customHeight="1">
       <c r="A30" s="15" t="inlineStr">
@@ -7025,6 +6858,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="43.5" customHeight="1">
       <c r="A31" s="15" t="inlineStr">
@@ -7063,6 +6911,21 @@
         </is>
       </c>
       <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7103,17 +6966,17 @@
       </c>
       <c r="I32" s="32" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J32" s="32" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K32" s="32" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7152,17 +7015,17 @@
       </c>
       <c r="I33" s="30" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J33" s="30" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K33" s="30" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7199,6 +7062,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="43.5" customHeight="1">
       <c r="A35" s="15" t="inlineStr">
@@ -7235,17 +7113,17 @@
       </c>
       <c r="I35" s="30" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J35" s="30" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K35" s="30" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7290,6 +7168,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="29" customHeight="1">
       <c r="A37" s="15" t="inlineStr">
@@ -7332,6 +7225,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="29" customHeight="1">
       <c r="A38" s="15" t="inlineStr">
@@ -7374,6 +7282,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="43.5" customHeight="1">
       <c r="A39" s="15" t="inlineStr">
@@ -7408,6 +7331,21 @@
         </is>
       </c>
       <c r="H39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7446,6 +7384,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="72.5" customHeight="1">
       <c r="A41" s="15" t="inlineStr">
@@ -7480,6 +7433,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="43.5" customHeight="1">
       <c r="A42" s="15" t="inlineStr">
@@ -7514,6 +7482,21 @@
         </is>
       </c>
       <c r="H42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7552,6 +7535,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="15" t="inlineStr">
@@ -7586,6 +7584,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="43.5" customHeight="1">
       <c r="A45" s="15" t="inlineStr">
@@ -7628,6 +7641,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="58" customHeight="1">
       <c r="A46" s="15" t="inlineStr">
@@ -7672,17 +7700,17 @@
       </c>
       <c r="I46" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.code}</t>
+          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
         </is>
       </c>
       <c r="J46" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K46" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -7723,6 +7751,21 @@
         </is>
       </c>
       <c r="H47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7761,6 +7804,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="29" customHeight="1">
       <c r="A49" s="15" t="inlineStr">
@@ -7795,6 +7853,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="29" customHeight="1">
       <c r="A50" s="15" t="inlineStr">
@@ -7829,6 +7902,21 @@
         </is>
       </c>
       <c r="H50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7867,6 +7955,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="29" customHeight="1">
       <c r="A52" s="15" t="inlineStr">
@@ -7901,6 +8004,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="87" customHeight="1">
       <c r="A53" s="15" t="inlineStr">
@@ -7937,17 +8055,17 @@
       </c>
       <c r="I53" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.code</t>
+          <t>C49659</t>
         </is>
       </c>
       <c r="J53" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystem</t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K53" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystemVersion</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -7986,17 +8104,17 @@
       </c>
       <c r="I54" s="30" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J54" s="30" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystem : role[code="C68609"].codeSystem}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="K54" s="30" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystemVersion : role[code="C68609"].codeSystemVersion}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -8033,6 +8151,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="29" customHeight="1">
       <c r="A56" s="15" t="inlineStr">
@@ -8067,6 +8200,21 @@
         </is>
       </c>
       <c r="H56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8105,6 +8253,21 @@
           <t> </t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="29" customHeight="1">
       <c r="A58" s="15" t="inlineStr">
@@ -8141,17 +8304,17 @@
       </c>
       <c r="I58" s="32" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J58" s="32" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K58" s="32" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8192,6 +8355,21 @@
         </is>
       </c>
       <c r="H59" s="40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8226,6 +8404,21 @@
         </is>
       </c>
       <c r="H60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t> </t>
         </is>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -5913,7 +5913,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -6692,7 +6692,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="H58" s="40" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
       <c r="I58" s="32" t="inlineStr">

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3718,7 +3718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -3812,15 +3812,19 @@
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>ADAPT</t>
+          <t>AGEMIN</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>Adaptive Design</t>
-        </is>
-      </c>
-      <c r="G2" s="35" t="inlineStr"/>
+          <t>Planned Minimum Age of Subjects</t>
+        </is>
+      </c>
+      <c r="G2" s="35" t="inlineStr">
+        <is>
+          <t>18  ["Year","Year"]</t>
+        </is>
+      </c>
       <c r="H2" s="34" t="inlineStr">
         <is>
           <t> </t>
@@ -3861,7 +3865,7 @@
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>AGEMIN</t>
+          <t>AGEMAX</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
@@ -3871,7 +3875,7 @@
       </c>
       <c r="G3" s="33" t="inlineStr">
         <is>
-          <t>18  ["Year","Year"]</t>
+          <t>70  ["Year","Year"]</t>
         </is>
       </c>
       <c r="H3" s="9" t="inlineStr">
@@ -3914,17 +3918,17 @@
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>AGEMAX</t>
+          <t>CRMDUR</t>
         </is>
       </c>
       <c r="F4" s="12" t="inlineStr">
         <is>
-          <t>Planned Minimum Age of Subjects</t>
+          <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
       <c r="G4" s="33" t="inlineStr">
         <is>
-          <t>70  ["Year","Year"]</t>
+          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
         </is>
       </c>
       <c r="H4" s="34" t="inlineStr">
@@ -3967,17 +3971,17 @@
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>CRMDUR</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>Confirmed Response Minimum Duration</t>
+          <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
       <c r="G5" s="33" t="inlineStr">
         <is>
-          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
+          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
         </is>
       </c>
       <c r="H5" s="34" t="inlineStr">
@@ -4020,17 +4024,17 @@
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>Dose Level; Dose per Administration</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G6" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
+          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
         </is>
       </c>
       <c r="H6" s="34" t="inlineStr">
@@ -4040,17 +4044,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -4073,17 +4077,17 @@
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>DOSFRM</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>Dose Form</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G7" s="33" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
         </is>
       </c>
       <c r="H7" s="34" t="inlineStr">
@@ -4093,17 +4097,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -4126,17 +4130,17 @@
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>DOSFRQ</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>Dosing Frequency</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="G8" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
+          <t>['T1DM', 'T2DM']</t>
         </is>
       </c>
       <c r="H8" s="34" t="inlineStr">
@@ -4146,17 +4150,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4179,17 +4183,17 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>DOSU</t>
+          <t>INTMODEL</t>
         </is>
       </c>
       <c r="F9" s="12" t="inlineStr">
         <is>
-          <t>Dose Units</t>
+          <t>Intervention Model</t>
         </is>
       </c>
       <c r="G9" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+          <t>Parallel Study</t>
         </is>
       </c>
       <c r="H9" s="34" t="inlineStr">
@@ -4199,17 +4203,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
+          <t>C82639</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4232,17 +4236,17 @@
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>INDIC</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F10" s="12" t="inlineStr">
         <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G10" s="33" t="inlineStr">
         <is>
-          <t>['T1DM', 'T2DM']</t>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
         </is>
       </c>
       <c r="H10" s="34" t="inlineStr">
@@ -4252,17 +4256,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -4285,37 +4289,37 @@
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>INTMODEL</t>
+          <t>LENGTH</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
+          <t>Trial Length</t>
         </is>
       </c>
       <c r="G11" s="33" t="inlineStr">
         <is>
-          <t>Parallel Study</t>
+          <t> </t>
         </is>
       </c>
       <c r="H11" s="34" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>C82639</t>
+          <t> </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4338,17 +4342,17 @@
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>NARMS</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Planned Number of Arms</t>
         </is>
       </c>
       <c r="G12" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H12" s="34" t="inlineStr">
@@ -4358,17 +4362,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4390,22 +4394,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LENGTH</t>
+          <t>NCOHORT</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trial Length</t>
+          <t>Number of Groups/Cohorts</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -4442,17 +4446,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NARMS</t>
+          <t>OBJEXP</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Planned Number of Arms</t>
+          <t>Trial Exploratory Objective</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4494,17 +4498,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NCOHORT</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Number of Groups/Cohorts</t>
+          <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4546,17 +4550,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OBJEXP</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trial Exploratory Objective</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
+          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -4598,17 +4602,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OBJPRIM</t>
+          <t>OUTMSEXP</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
+          <t>Exploratory Outcome Measure</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
+          <t>[{}, {}]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4650,17 +4654,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>OUTMSSEC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Secondary Outcome Measure</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
+          <t>[{}, {}, {}]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4702,17 +4706,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OUTMSEXP</t>
+          <t>PLANSUB</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Exploratory Outcome Measure</t>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[{}, {}]</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4754,17 +4758,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>OUTMSPRI</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Primary Outcome Measure</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4806,17 +4810,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OUTMSSEC</t>
+          <t>ROUTE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Secondary Outcome Measure</t>
+          <t>Route of Administration</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[{}, {}, {}]</t>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4826,17 +4830,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -4858,17 +4862,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PLANSUB</t>
+          <t>SPONSOR</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4910,17 +4914,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PTRTDUR</t>
+          <t>TBLIND</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Planned Treatment Duration</t>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+          <t>Open Label Study</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4930,17 +4934,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t> </t>
+          <t>C49659</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t> </t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4962,37 +4966,37 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ROUTE</t>
+          <t>TPHASE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
+          <t>Trial Phase; Trial Phase Classification</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5014,17 +5018,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SPONSOR</t>
+          <t>TRT</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+          <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
+          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5043,214 +5047,6 @@
         </is>
       </c>
       <c r="K25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>TBLIND</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Open Label Study</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>C49659</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>TCNTRL</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Control Type</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>TPHASE</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Trial Phase; Trial Phase Classification</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>TRT</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Investigational Therapy or Treatment</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5368,7 +5164,11 @@
           <t>Adaptive Design Indicator</t>
         </is>
       </c>
-      <c r="G2" s="31" t="inlineStr"/>
+      <c r="G2" s="31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t> </t>
@@ -6022,7 +5822,7 @@
       </c>
       <c r="G14" s="29" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7217,7 +7017,7 @@
       </c>
       <c r="G37" s="29" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -8094,7 +7894,7 @@
       </c>
       <c r="G54" s="30" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H54" t="inlineStr">

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3928,7 +3928,7 @@
       </c>
       <c r="G4" s="33" t="inlineStr">
         <is>
-          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
+          <t>{'StudyIntervention_1': '1 Day' , 'StudyIntervention_2': '1 Day'}</t>
         </is>
       </c>
       <c r="H4" s="34" t="inlineStr">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="G8" s="33" t="inlineStr">
         <is>
-          <t>['T1DM', 'T2DM']</t>
+          <t>'T1DM', 'T2DM'</t>
         </is>
       </c>
       <c r="H8" s="34" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
+          <t>{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon' , 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
+          <t>{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG' , 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG' , 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[{}, {}]</t>
+          <t>{ , }</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[{}, {}, {}]</t>
+          <t>{ ,  , }</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
+          <t>{'StudyIntervention_1': 'LY900018' , 'StudyIntervention_2': 'GlucaGen'}</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="G10" s="29" t="inlineStr">
         <is>
-          <t>[{'StudyIntervention_1': '1 Day'}, {'StudyIntervention_2': '1 Day'}]</t>
+          <t>{'StudyIntervention_1': '1 Day' , 'StudyIntervention_2': '1 Day'}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="G21" s="29" t="inlineStr">
         <is>
-          <t>['T1DM', 'T2DM']</t>
+          <t>'T1DM', 'T2DM'</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="G29" s="29" t="inlineStr">
         <is>
-          <t>[{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'}, {'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}]</t>
+          <t>{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon' , 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="G31" s="29" t="inlineStr">
         <is>
-          <t>[{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'}, {'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'}, {'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}]</t>
+          <t>{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG' , 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG' , 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="G36" s="29" t="inlineStr">
         <is>
-          <t>[{}, {}]</t>
+          <t>{ , }</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="G38" s="29" t="inlineStr">
         <is>
-          <t>[{}, {}, {}]</t>
+          <t>{ ,  , }</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="G59" s="29" t="inlineStr">
         <is>
-          <t>[{'StudyIntervention_1': 'LY900018'}, {'StudyIntervention_2': 'GlucaGen'}]</t>
+          <t>{'StudyIntervention_1': 'LY900018' , 'StudyIntervention_2': 'GlucaGen'}</t>
         </is>
       </c>
       <c r="H59" s="40" t="inlineStr">

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3718,7 +3718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -3906,10 +3906,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C4" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
@@ -3928,25 +3926,10 @@
       </c>
       <c r="G4" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day' , 'StudyIntervention_2': '1 Day'}</t>
+          <t>'StudyIntervention_1': '1 Day'</t>
         </is>
       </c>
       <c r="H4" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3959,10 +3942,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C5" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
@@ -3971,35 +3952,20 @@
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>CRMDUR</t>
         </is>
       </c>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>Dose Level; Dose per Administration</t>
+          <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
       <c r="G5" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
+          <t xml:space="preserve"> 'StudyIntervention_2': '1 Day</t>
         </is>
       </c>
       <c r="H5" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4012,10 +3978,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C6" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
@@ -4024,37 +3988,22 @@
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>DOSFRQ</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>Dosing Frequency</t>
+          <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
       <c r="G6" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
+          <t>'StudyIntervention_1': 3.</t>
         </is>
       </c>
       <c r="H6" s="34" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -4065,10 +4014,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C7" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
@@ -4077,37 +4024,22 @@
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>DOSU</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>Dose Units</t>
+          <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
       <c r="G7" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 1.</t>
         </is>
       </c>
       <c r="H7" s="34" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -4118,10 +4050,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C8" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
@@ -4130,17 +4060,17 @@
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>INDIC</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G8" s="33" t="inlineStr">
         <is>
-          <t>'T1DM', 'T2DM'</t>
+          <t>'StudyIntervention_1': 'Once</t>
         </is>
       </c>
       <c r="H8" s="34" t="inlineStr">
@@ -4150,17 +4080,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': 'C64576</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4171,10 +4101,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C9" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
@@ -4183,17 +4111,17 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>INTMODEL</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F9" s="12" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G9" s="33" t="inlineStr">
         <is>
-          <t>Parallel Study</t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'Once</t>
         </is>
       </c>
       <c r="H9" s="34" t="inlineStr">
@@ -4203,17 +4131,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C82639</t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'C64576</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4224,10 +4152,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D10" s="9" t="inlineStr">
         <is>
@@ -4236,17 +4162,17 @@
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F10" s="12" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G10" s="33" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
+          <t>'StudyIntervention_1': 'Milligram</t>
         </is>
       </c>
       <c r="H10" s="34" t="inlineStr">
@@ -4256,17 +4182,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
+          <t>'StudyIntervention_1': 'C28253</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t>'StudyIntervention_1': '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4277,10 +4203,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C11" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
@@ -4289,37 +4213,37 @@
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>LENGTH</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Trial Length</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G11" s="33" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'Milligram</t>
         </is>
       </c>
       <c r="H11" s="34" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'C28253</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4342,17 +4266,17 @@
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>NARMS</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Planned Number of Arms</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="G12" s="33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>'T1DM', 'T2DM'</t>
         </is>
       </c>
       <c r="H12" s="34" t="inlineStr">
@@ -4394,17 +4318,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NCOHORT</t>
+          <t>INTMODEL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Number of Groups/Cohorts</t>
+          <t>Intervention Model</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Parallel Study</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4414,17 +4338,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>C82639</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4434,10 +4358,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C14" t="n">
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -4446,17 +4368,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OBJEXP</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trial Exploratory Objective</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon' , 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}</t>
+          <t>'StudyIntervention_1': 'Pharmacologic Substance</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4466,17 +4388,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': 'C1909</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4486,10 +4408,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C15" t="n">
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -4498,17 +4418,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OBJPRIM</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'Pharmacologic Substance</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4518,17 +4438,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'C1909</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4550,22 +4470,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>LENGTH</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Trial Length</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG' , 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG' , 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4602,17 +4522,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OUTMSEXP</t>
+          <t>NARMS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Exploratory Outcome Measure</t>
+          <t>Planned Number of Arms</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{ , }</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4654,17 +4574,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OUTMSSEC</t>
+          <t>NCOHORT</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Secondary Outcome Measure</t>
+          <t>Number of Groups/Cohorts</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{ ,  , }</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4694,10 +4614,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C19" t="n">
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -4706,35 +4624,20 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PLANSUB</t>
+          <t>OBJEXP</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+          <t>Trial Exploratory Objective</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4746,10 +4649,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C20" t="n">
+        <v>2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -4758,35 +4659,20 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PTRTDUR</t>
+          <t>OBJEXP</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Planned Treatment Duration</t>
+          <t>Trial Exploratory Objective</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+          <t xml:space="preserve"> 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4798,10 +4684,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C21" t="n">
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -4810,37 +4694,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ROUTE</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
+          <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+          <t>'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -4850,10 +4719,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C22" t="n">
+        <v>1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -4862,35 +4729,20 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SPONSOR</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
+          <t>'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4902,10 +4754,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C23" t="n">
+        <v>2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -4914,37 +4764,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TBLIND</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Open Label Study</t>
+          <t xml:space="preserve"> 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>C49659</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4954,10 +4789,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C24" t="n">
+        <v>3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -4966,35 +4799,20 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TPHASE</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trial Phase; Trial Phase Classification</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5006,10 +4824,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C25" t="n">
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -5018,35 +4834,592 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>OUTMSEXP</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Exploratory Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>OUTMSEXP</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Exploratory Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>OUTMSSEC</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>OUTMSSEC</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>OUTMSSEC</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>PLANSUB</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>PTRTDUR</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Planned Treatment Duration</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': '1 Day</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>PTRTDUR</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Planned Treatment Duration</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': '1 Day</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'Nasal Route of Administration</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'C38284</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': '2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'Intramuscular Route of Administration</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'C28161</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SPONSOR</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>TBLIND</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Open Label Study</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>C49659</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>TPHASE</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Trial Phase; Trial Phase Classification</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>TRT</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'LY900018' , 'StudyIntervention_2': 'GlucaGen'}</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'LY900018'</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Investigational Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'GlucaGen</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t> </t>
         </is>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-11805" yWindow="-18525" windowWidth="26010" windowHeight="16860" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-9585" yWindow="-19275" windowWidth="24750" windowHeight="17490" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="TS Parameters" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'TS Parameters'!$A$1:$G$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'TS Parameters'!$A$1:$G$59</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -278,7 +278,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -379,6 +379,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -390,9 +396,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -985,30 +988,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="41" t="inlineStr">
+      <c r="A1" s="42" t="inlineStr">
         <is>
           <t>SDTM</t>
         </is>
       </c>
-      <c r="B1" s="42" t="n"/>
-      <c r="C1" s="42" t="n"/>
-      <c r="D1" s="42" t="n"/>
-      <c r="E1" s="43" t="n"/>
-      <c r="F1" s="39" t="inlineStr">
+      <c r="B1" s="43" t="n"/>
+      <c r="C1" s="43" t="n"/>
+      <c r="D1" s="43" t="n"/>
+      <c r="E1" s="44" t="n"/>
+      <c r="F1" s="41" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
       </c>
-      <c r="G1" s="42" t="n"/>
-      <c r="H1" s="42" t="n"/>
-      <c r="I1" s="42" t="n"/>
-      <c r="J1" s="42" t="n"/>
-      <c r="K1" s="42" t="n"/>
-      <c r="L1" s="42" t="n"/>
-      <c r="M1" s="42" t="n"/>
-      <c r="N1" s="42" t="n"/>
-      <c r="O1" s="42" t="n"/>
-      <c r="P1" s="43" t="n"/>
+      <c r="G1" s="43" t="n"/>
+      <c r="H1" s="43" t="n"/>
+      <c r="I1" s="43" t="n"/>
+      <c r="J1" s="43" t="n"/>
+      <c r="K1" s="43" t="n"/>
+      <c r="L1" s="43" t="n"/>
+      <c r="M1" s="43" t="n"/>
+      <c r="N1" s="43" t="n"/>
+      <c r="O1" s="43" t="n"/>
+      <c r="P1" s="44" t="n"/>
     </row>
     <row r="2" ht="21" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -1781,30 +1784,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="41" t="inlineStr">
+      <c r="A1" s="42" t="inlineStr">
         <is>
           <t>SDTM</t>
         </is>
       </c>
-      <c r="B1" s="42" t="n"/>
-      <c r="C1" s="42" t="n"/>
-      <c r="D1" s="42" t="n"/>
-      <c r="E1" s="43" t="n"/>
-      <c r="F1" s="39" t="inlineStr">
+      <c r="B1" s="43" t="n"/>
+      <c r="C1" s="43" t="n"/>
+      <c r="D1" s="43" t="n"/>
+      <c r="E1" s="44" t="n"/>
+      <c r="F1" s="41" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
       </c>
-      <c r="G1" s="42" t="n"/>
-      <c r="H1" s="42" t="n"/>
-      <c r="I1" s="42" t="n"/>
-      <c r="J1" s="42" t="n"/>
-      <c r="K1" s="42" t="n"/>
-      <c r="L1" s="42" t="n"/>
-      <c r="M1" s="42" t="n"/>
-      <c r="N1" s="42" t="n"/>
-      <c r="O1" s="42" t="n"/>
-      <c r="P1" s="43" t="n"/>
+      <c r="G1" s="43" t="n"/>
+      <c r="H1" s="43" t="n"/>
+      <c r="I1" s="43" t="n"/>
+      <c r="J1" s="43" t="n"/>
+      <c r="K1" s="43" t="n"/>
+      <c r="L1" s="43" t="n"/>
+      <c r="M1" s="43" t="n"/>
+      <c r="N1" s="43" t="n"/>
+      <c r="O1" s="43" t="n"/>
+      <c r="P1" s="44" t="n"/>
     </row>
     <row r="2" ht="21" customHeight="1">
       <c r="A2" s="10" t="inlineStr">
@@ -2367,30 +2370,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="41" t="inlineStr">
+      <c r="A1" s="42" t="inlineStr">
         <is>
           <t>SDTM</t>
         </is>
       </c>
-      <c r="B1" s="42" t="n"/>
-      <c r="C1" s="42" t="n"/>
-      <c r="D1" s="42" t="n"/>
-      <c r="E1" s="43" t="n"/>
-      <c r="F1" s="39" t="inlineStr">
+      <c r="B1" s="43" t="n"/>
+      <c r="C1" s="43" t="n"/>
+      <c r="D1" s="43" t="n"/>
+      <c r="E1" s="44" t="n"/>
+      <c r="F1" s="41" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
       </c>
-      <c r="G1" s="42" t="n"/>
-      <c r="H1" s="42" t="n"/>
-      <c r="I1" s="42" t="n"/>
-      <c r="J1" s="42" t="n"/>
-      <c r="K1" s="42" t="n"/>
-      <c r="L1" s="42" t="n"/>
-      <c r="M1" s="42" t="n"/>
-      <c r="N1" s="42" t="n"/>
-      <c r="O1" s="42" t="n"/>
-      <c r="P1" s="43" t="n"/>
+      <c r="G1" s="43" t="n"/>
+      <c r="H1" s="43" t="n"/>
+      <c r="I1" s="43" t="n"/>
+      <c r="J1" s="43" t="n"/>
+      <c r="K1" s="43" t="n"/>
+      <c r="L1" s="43" t="n"/>
+      <c r="M1" s="43" t="n"/>
+      <c r="N1" s="43" t="n"/>
+      <c r="O1" s="43" t="n"/>
+      <c r="P1" s="44" t="n"/>
     </row>
     <row r="2" ht="21" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -3096,30 +3099,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="41" t="inlineStr">
+      <c r="A1" s="42" t="inlineStr">
         <is>
           <t>SDTM</t>
         </is>
       </c>
-      <c r="B1" s="42" t="n"/>
-      <c r="C1" s="42" t="n"/>
-      <c r="D1" s="42" t="n"/>
-      <c r="E1" s="43" t="n"/>
-      <c r="F1" s="39" t="inlineStr">
+      <c r="B1" s="43" t="n"/>
+      <c r="C1" s="43" t="n"/>
+      <c r="D1" s="43" t="n"/>
+      <c r="E1" s="44" t="n"/>
+      <c r="F1" s="41" t="inlineStr">
         <is>
           <t>USDM</t>
         </is>
       </c>
-      <c r="G1" s="42" t="n"/>
-      <c r="H1" s="42" t="n"/>
-      <c r="I1" s="42" t="n"/>
-      <c r="J1" s="42" t="n"/>
-      <c r="K1" s="42" t="n"/>
-      <c r="L1" s="42" t="n"/>
-      <c r="M1" s="42" t="n"/>
-      <c r="N1" s="42" t="n"/>
-      <c r="O1" s="42" t="n"/>
-      <c r="P1" s="43" t="n"/>
+      <c r="G1" s="43" t="n"/>
+      <c r="H1" s="43" t="n"/>
+      <c r="I1" s="43" t="n"/>
+      <c r="J1" s="43" t="n"/>
+      <c r="K1" s="43" t="n"/>
+      <c r="L1" s="43" t="n"/>
+      <c r="M1" s="43" t="n"/>
+      <c r="N1" s="43" t="n"/>
+      <c r="O1" s="43" t="n"/>
+      <c r="P1" s="44" t="n"/>
     </row>
     <row r="2" ht="21" customHeight="1">
       <c r="A2" s="10" t="inlineStr">
@@ -3718,7 +3721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -3812,24 +3815,20 @@
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>AGEMIN</t>
+          <t>ADAPT</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>Planned Minimum Age of Subjects</t>
+          <t>Adaptive Design</t>
         </is>
       </c>
       <c r="G2" s="35" t="inlineStr">
         <is>
-          <t>18  ["Year","Year"]</t>
-        </is>
-      </c>
-      <c r="H2" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H2" s="34" t="n"/>
       <c r="I2" t="inlineStr">
         <is>
           <t> </t>
@@ -3865,7 +3864,7 @@
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>AGEMAX</t>
+          <t>AGEMIN</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
@@ -3875,14 +3874,10 @@
       </c>
       <c r="G3" s="33" t="inlineStr">
         <is>
-          <t>70  ["Year","Year"]</t>
-        </is>
-      </c>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="n"/>
       <c r="I3" t="inlineStr">
         <is>
           <t> </t>
@@ -3906,8 +3901,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C4" s="9" t="n">
-        <v>1</v>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
@@ -3916,20 +3913,35 @@
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>CRMDUR</t>
+          <t>AGEMAX</t>
         </is>
       </c>
       <c r="F4" s="12" t="inlineStr">
         <is>
-          <t>Confirmed Response Minimum Duration</t>
+          <t>Planned Minimum Age of Subjects</t>
         </is>
       </c>
       <c r="G4" s="33" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': '1 Day'</t>
+          <t> </t>
         </is>
       </c>
       <c r="H4" s="34" t="inlineStr">
+        <is>
+          <t>PINF</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3942,8 +3954,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C5" s="9" t="n">
-        <v>2</v>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
@@ -3952,20 +3966,31 @@
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>CRMDUR</t>
+          <t>BRDNAIND</t>
         </is>
       </c>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>Confirmed Response Minimum Duration</t>
+          <t>Biospecimen Retention contains DNA Ind</t>
         </is>
       </c>
       <c r="G5" s="33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': '1 Day</t>
-        </is>
-      </c>
-      <c r="H5" s="34" t="inlineStr">
+          <t> </t>
+        </is>
+      </c>
+      <c r="H5" s="34" t="n"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3978,8 +4003,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C6" s="9" t="n">
-        <v>1</v>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
@@ -3988,20 +4015,31 @@
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>BRIND</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>Dose Level; Dose per Administration</t>
+          <t>Biospecimen Retention indicator</t>
         </is>
       </c>
       <c r="G6" s="33" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': 3.</t>
-        </is>
-      </c>
-      <c r="H6" s="34" t="inlineStr">
+          <t> </t>
+        </is>
+      </c>
+      <c r="H6" s="34" t="n"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4014,8 +4052,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C7" s="9" t="n">
-        <v>2</v>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
@@ -4024,20 +4064,31 @@
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>COMPTRT</t>
         </is>
       </c>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>Dose Level; Dose per Administration</t>
+          <t>Comparative Treatment Name</t>
         </is>
       </c>
       <c r="G7" s="33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 1.</t>
-        </is>
-      </c>
-      <c r="H7" s="34" t="inlineStr">
+          <t> </t>
+        </is>
+      </c>
+      <c r="H7" s="34" t="n"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4050,8 +4101,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C8" s="9" t="n">
-        <v>1</v>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
@@ -4060,37 +4113,33 @@
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>DOSFRQ</t>
+          <t>CONNAME</t>
         </is>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>Dosing Frequency</t>
+          <t>Contact Name</t>
         </is>
       </c>
       <c r="G8" s="33" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': 'Once</t>
-        </is>
-      </c>
-      <c r="H8" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H8" s="34" t="n"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': 'C64576</t>
+          <t> </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': '2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4101,8 +4150,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C9" s="9" t="n">
-        <v>2</v>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
@@ -4111,37 +4162,33 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>DOSFRQ</t>
+          <t>CONROLE</t>
         </is>
       </c>
       <c r="F9" s="12" t="inlineStr">
         <is>
-          <t>Dosing Frequency</t>
+          <t>Contact Role</t>
         </is>
       </c>
       <c r="G9" s="33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'Once</t>
-        </is>
-      </c>
-      <c r="H9" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H9" s="34" t="n"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'C64576</t>
+          <t> </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4152,8 +4199,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C10" s="9" t="n">
-        <v>1</v>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D10" s="9" t="inlineStr">
         <is>
@@ -4162,37 +4211,33 @@
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>DOSU</t>
+          <t>CRMDUR</t>
         </is>
       </c>
       <c r="F10" s="12" t="inlineStr">
         <is>
-          <t>Dose Units</t>
+          <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
       <c r="G10" s="33" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': 'Milligram</t>
-        </is>
-      </c>
-      <c r="H10" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H10" s="34" t="n"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': 'C28253</t>
+          <t> </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': '2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4203,8 +4248,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C11" s="9" t="n">
-        <v>2</v>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
@@ -4213,17 +4260,17 @@
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>DOSU</t>
+          <t>CURTRT</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Dose Units</t>
+          <t>Current Therapy or Treatment</t>
         </is>
       </c>
       <c r="G11" s="33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'Milligram</t>
+          <t>Error in expression for TSVCDVER: ..code.codeSystem</t>
         </is>
       </c>
       <c r="H11" s="34" t="inlineStr">
@@ -4233,17 +4280,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'C28253</t>
+          <t> </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4266,17 +4313,17 @@
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>INDIC</t>
+          <t>DMCIND</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+          <t>Data Monitoring Committee Indicator</t>
         </is>
       </c>
       <c r="G12" s="33" t="inlineStr">
         <is>
-          <t>'T1DM', 'T2DM'</t>
+          <t>Error in expression for TSVCDVER: ..code.codeSystemVersion</t>
         </is>
       </c>
       <c r="H12" s="34" t="inlineStr">
@@ -4318,37 +4365,32 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>INTMODEL</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
+          <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Parallel Study</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>C82639</t>
+          <t> </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4358,8 +4400,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -4368,37 +4412,32 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>DOSFRM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Dose Form</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': 'Pharmacologic Substance</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': 'C1909</t>
+          <t> </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': '2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4408,8 +4447,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>2</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -4418,37 +4459,32 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'Pharmacologic Substance</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'C1909</t>
+          <t> </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4470,22 +4506,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LENGTH</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trial Length</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>NI</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4522,20 +4553,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NARMS</t>
+          <t>EXTTIND</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Planned Number of Arms</t>
+          <t>Extension Trial Indicator</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4574,20 +4600,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NCOHORT</t>
+          <t>FCNTRY</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Number of Groups/Cohorts</t>
+          <t>Planned Country of Investigational Sites</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4614,8 +4635,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -4624,20 +4647,30 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OBJEXP</t>
+          <t>HLTSUBJI</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trial Exploratory Objective</t>
+          <t>Healthy Subject Indicator</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+          <t> </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4649,8 +4682,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>2</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -4659,20 +4694,30 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>OBJEXP</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trial Exploratory Objective</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+          <t> </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4684,8 +4729,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -4694,20 +4741,30 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OBJPRIM</t>
+          <t>INTMODEL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
+          <t>Intervention Model</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+          <t> </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4719,8 +4776,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -4729,20 +4788,30 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+          <t> </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4754,8 +4823,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>2</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -4764,20 +4835,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>LENGTH</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Trial Length</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'</t>
+          <t> </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4789,8 +4875,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>3</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -4799,20 +4887,30 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>MSEUTIND</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Multiple Site EU Site Trial Indicator</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+          <t> </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4824,8 +4922,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>1</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -4834,16 +4934,30 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>OUTMSEXP</t>
+          <t>NARMS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Exploratory Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+          <t>Planned Number of Arms</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4855,8 +4969,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>2</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -4865,16 +4981,30 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>OUTMSEXP</t>
+          <t>NCOHORT</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Exploratory Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
+          <t>Number of Groups/Cohorts</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4886,8 +5016,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>1</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4896,16 +5028,30 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>OUTMSSEC</t>
+          <t>NUMSEUST</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Secondary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
+          <t>Number of Trial Sites EU State</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4917,8 +5063,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>2</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4927,12 +5075,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OUTMSSEC</t>
+          <t>OBJEXP</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Secondary Outcome Measure</t>
+          <t>Trial Exploratory Objective</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -4940,7 +5088,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4952,8 +5110,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>3</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4962,16 +5122,30 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>OUTMSSEC</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Secondary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
+          <t>Study Primary Objective; Trial Primary Objective</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4995,20 +5169,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PLANSUB</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5035,8 +5204,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>1</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -5045,20 +5216,30 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PTRTDUR</t>
+          <t>OBSMODEL</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Planned Treatment Duration</t>
+          <t>Observational Model</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': '1 Day</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+          <t> </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5070,8 +5251,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>2</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -5080,20 +5263,30 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PTRTDUR</t>
+          <t>OBSTIMP</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Planned Treatment Duration</t>
+          <t>Observational Time Perspective</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': '1 Day</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5105,8 +5298,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>1</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -5115,37 +5310,32 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ROUTE</t>
+          <t>OBSTPOPD</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
+          <t>Obs Study Population Description</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': 'Nasal Route of Administration</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': 'C38284</t>
+          <t> </t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': '2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5155,8 +5345,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>2</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -5165,37 +5357,32 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ROUTE</t>
+          <t>OBSTSMM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
+          <t>Observational Study Sampling Method</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'Intramuscular Route of Administration</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'C28161</t>
+          <t> </t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5217,20 +5404,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SPONSOR</t>
+          <t>OUTMSEXP</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+          <t>Exploratory Outcome Measure</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
-        <is>
-          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5269,37 +5451,32 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TBLIND</t>
+          <t>OUTMSPRI</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+          <t>Primary Outcome Measure</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Open Label Study</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>C49659</t>
+          <t> </t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t> </t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5321,22 +5498,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TPHASE</t>
+          <t>OUTMSSEC</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Trial Phase; Trial Phase Classification</t>
+          <t>Secondary Outcome Measure</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>NI</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -5361,8 +5533,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>1</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5371,20 +5545,30 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>PCLAS</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Investigational Therapy or Treatment</t>
+          <t>Pharmacologic Class</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>'StudyIntervention_1': 'LY900018'</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
+          <t> </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5396,8 +5580,10 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>2</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5406,20 +5592,990 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>PIPIND</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Pediatric Investigation Plan Indicator</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>PLANSUB</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>PTRTDUR</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Planned Treatment Duration</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>RANDOM</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Trial is Randomized</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RDIND</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Rare Disease Indicator</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>REGID</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Registry Identifier</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>RTSPCDES</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Retained Biospecimen Description</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SEXPOP</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sex of Participants</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SPONSOR</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SPREFID</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sponsor's Study Reference ID</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SSEUTIND</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Single Site EU State Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>STYPE</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Study Type; Study Type Classification</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>TBLIND</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>TCNTRL</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Control Type</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>THERAREA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Therapeutic Area</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>TINDTP</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Trial Intent Type</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Official Study Title; Study Title; Trial Title</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>TPHASE</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Trial Phase; Trial Phase Classification</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>TRT</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'GlucaGen</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>TTYPE</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Trial Scope; Trial Type</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5436,10 +6592,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -5542,11 +6698,6 @@
           <t> </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t> </t>
@@ -5588,11 +6739,6 @@
       </c>
       <c r="G3" s="31" t="inlineStr">
         <is>
-          <t>18  ["Year","Year"]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
@@ -5637,12 +6783,12 @@
       </c>
       <c r="G4" s="29" t="inlineStr">
         <is>
-          <t>70  ["Year","Year"]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t> </t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H4" s="36" t="inlineStr">
+        <is>
+          <t>PINF</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -5697,11 +6843,6 @@
           <t> </t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t> </t>
@@ -5754,11 +6895,6 @@
           <t> </t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t> </t>
@@ -5807,11 +6943,6 @@
           <t> </t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t> </t>
@@ -5864,11 +6995,6 @@
           <t> </t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t> </t>
@@ -5921,11 +7047,6 @@
           <t> </t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t> </t>
@@ -5975,11 +7096,6 @@
       </c>
       <c r="G10" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day' , 'StudyIntervention_2': '1 Day'}</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
@@ -6032,7 +7148,7 @@
       </c>
       <c r="G11" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Error in expression for TSVCDVER: ..code.codeSystem</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6079,9 +7195,9 @@
           <t>Data Monitoring Committee Indicator</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G12" s="29" t="inlineStr">
+        <is>
+          <t>Error in expression for TSVCDVER: ..code.codeSystemVersion</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -6138,11 +7254,6 @@
       </c>
       <c r="G13" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
@@ -6198,11 +7309,6 @@
           <t> </t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t> </t>
@@ -6252,27 +7358,22 @@
       </c>
       <c r="G15" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
       <c r="I15" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="J15" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="K15" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6309,27 +7410,22 @@
       </c>
       <c r="G16" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
       <c r="I16" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="J16" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="K16" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6356,12 +7452,7 @@
           <t>Extension Trial Indicator</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" s="37" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6410,11 +7501,6 @@
         </is>
       </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6455,15 +7541,10 @@
       <c r="E19" s="15" t="n"/>
       <c r="F19" s="14" t="inlineStr">
         <is>
-          <t>Healthy Subject Indicator Study Population</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+          <t>Healthy Subject Indicator Study Population / Cohort</t>
+        </is>
+      </c>
+      <c r="G19" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6484,35 +7565,30 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="29" customHeight="1">
+    <row r="20" ht="58" customHeight="1">
       <c r="A20" s="15" t="inlineStr">
         <is>
-          <t>Healthy Subject Indicator</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="B20" s="15" t="inlineStr">
         <is>
-          <t>HLTSUBJI</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="C20" s="15" t="inlineStr">
         <is>
-          <t>C98737</t>
+          <t>C112038</t>
         </is>
       </c>
       <c r="D20" s="15" t="n"/>
       <c r="E20" s="15" t="n"/>
       <c r="F20" s="14" t="inlineStr">
         <is>
-          <t>Healthy Subject Indicator Study Cohort</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+          <t>Study design Diagnosis or Condition</t>
+        </is>
+      </c>
+      <c r="G20" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6533,50 +7609,45 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="58" customHeight="1">
+    <row r="21" ht="43.5" customHeight="1">
       <c r="A21" s="15" t="inlineStr">
         <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+          <t>Intervention Model</t>
         </is>
       </c>
       <c r="B21" s="15" t="inlineStr">
         <is>
-          <t>INDIC</t>
+          <t>INTMODEL</t>
         </is>
       </c>
       <c r="C21" s="15" t="inlineStr">
         <is>
-          <t>C112038</t>
+          <t>C98746</t>
         </is>
       </c>
       <c r="D21" s="15" t="n"/>
       <c r="E21" s="15" t="n"/>
       <c r="F21" s="14" t="inlineStr">
         <is>
-          <t>Study design Diagnosis or Condition</t>
-        </is>
-      </c>
-      <c r="G21" s="29" t="inlineStr">
-        <is>
-          <t>'T1DM', 'T2DM'</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
+          <t>Intervention Model</t>
+        </is>
+      </c>
+      <c r="G21" s="30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I21" s="30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J21" s="30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K21" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6585,140 +7656,130 @@
     <row r="22" ht="43.5" customHeight="1">
       <c r="A22" s="15" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="B22" s="15" t="inlineStr">
         <is>
-          <t>INTMODEL</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="C22" s="15" t="inlineStr">
         <is>
-          <t>C98746</t>
-        </is>
-      </c>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
+          <t>C98747</t>
+        </is>
+      </c>
+      <c r="D22" s="15" t="inlineStr">
+        <is>
+          <t>Add unique number if more than 1</t>
+        </is>
+      </c>
+      <c r="E22" s="15" t="inlineStr">
+        <is>
+          <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
+        </is>
+      </c>
       <c r="F22" s="14" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
-        </is>
-      </c>
-      <c r="G22" s="30" t="inlineStr">
-        <is>
-          <t>Parallel Study</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I22" s="30" t="inlineStr">
-        <is>
-          <t>C82639</t>
-        </is>
-      </c>
-      <c r="J22" s="30" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K22" s="30" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="43.5" customHeight="1">
+          <t>Intervention Type</t>
+        </is>
+      </c>
+      <c r="G22" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I22" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J22" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K22" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="58" customHeight="1">
       <c r="A23" s="15" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Trial Length</t>
         </is>
       </c>
       <c r="B23" s="15" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>LENGTH</t>
         </is>
       </c>
       <c r="C23" s="15" t="inlineStr">
         <is>
-          <t>C98747</t>
-        </is>
-      </c>
-      <c r="D23" s="15" t="inlineStr">
-        <is>
-          <t>Add unique number if more than 1</t>
-        </is>
-      </c>
-      <c r="E23" s="15" t="inlineStr">
-        <is>
-          <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
-        </is>
-      </c>
-      <c r="F23" s="14" t="inlineStr">
-        <is>
-          <t>Intervention Type</t>
+          <t>C49697</t>
+        </is>
+      </c>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="13" t="inlineStr">
+        <is>
+          <t>Trial Duration Value + Units</t>
         </is>
       </c>
       <c r="G23" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I23" s="29" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
-        </is>
-      </c>
-      <c r="J23" s="29" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
-        </is>
-      </c>
-      <c r="K23" s="29" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="58" customHeight="1">
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="29" customHeight="1">
       <c r="A24" s="15" t="inlineStr">
         <is>
-          <t>Trial Length</t>
+          <t>Multiple Site EU Site Trial Indicator</t>
         </is>
       </c>
       <c r="B24" s="15" t="inlineStr">
         <is>
-          <t>LENGTH</t>
+          <t>MSEUTIND</t>
         </is>
       </c>
       <c r="C24" s="15" t="inlineStr">
         <is>
-          <t>C49697</t>
+          <t>C127794</t>
         </is>
       </c>
       <c r="D24" s="15" t="n"/>
       <c r="E24" s="15" t="n"/>
-      <c r="F24" s="13" t="inlineStr">
-        <is>
-          <t>Trial Duration Value + Units</t>
-        </is>
-      </c>
-      <c r="G24" s="29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>NI</t>
+      <c r="F24" s="14" t="inlineStr">
+        <is>
+          <t>Multiple Site Eu Site Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -6740,32 +7801,27 @@
     <row r="25" ht="29" customHeight="1">
       <c r="A25" s="15" t="inlineStr">
         <is>
-          <t>Multiple Site EU Site Trial Indicator</t>
+          <t>Planned Number of Arms</t>
         </is>
       </c>
       <c r="B25" s="15" t="inlineStr">
         <is>
-          <t>MSEUTIND</t>
+          <t>NARMS</t>
         </is>
       </c>
       <c r="C25" s="15" t="inlineStr">
         <is>
-          <t>C127794</t>
+          <t>C98771</t>
         </is>
       </c>
       <c r="D25" s="15" t="n"/>
       <c r="E25" s="15" t="n"/>
       <c r="F25" s="14" t="inlineStr">
         <is>
-          <t>Multiple Site Eu Site Trial Indicator</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+          <t>Number of Arms</t>
+        </is>
+      </c>
+      <c r="G25" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6789,32 +7845,27 @@
     <row r="26" ht="29" customHeight="1">
       <c r="A26" s="15" t="inlineStr">
         <is>
-          <t>Planned Number of Arms</t>
+          <t>Number of Groups/Cohorts</t>
         </is>
       </c>
       <c r="B26" s="15" t="inlineStr">
         <is>
-          <t>NARMS</t>
+          <t>NCOHORT</t>
         </is>
       </c>
       <c r="C26" s="15" t="inlineStr">
         <is>
-          <t>C98771</t>
+          <t>C126063</t>
         </is>
       </c>
       <c r="D26" s="15" t="n"/>
       <c r="E26" s="15" t="n"/>
       <c r="F26" s="14" t="inlineStr">
         <is>
-          <t>Number of Arms</t>
-        </is>
-      </c>
-      <c r="G26" s="29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+          <t>Number of Groups/Cohorts</t>
+        </is>
+      </c>
+      <c r="G26" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6838,32 +7889,27 @@
     <row r="27" ht="29" customHeight="1">
       <c r="A27" s="15" t="inlineStr">
         <is>
-          <t>Number of Groups/Cohorts</t>
+          <t>Number of Trial Sites EU State</t>
         </is>
       </c>
       <c r="B27" s="15" t="inlineStr">
         <is>
-          <t>NCOHORT</t>
+          <t>NUMSEUST</t>
         </is>
       </c>
       <c r="C27" s="15" t="inlineStr">
         <is>
-          <t>C126063</t>
+          <t>C1227795</t>
         </is>
       </c>
       <c r="D27" s="15" t="n"/>
       <c r="E27" s="15" t="n"/>
       <c r="F27" s="14" t="inlineStr">
         <is>
-          <t>Number of Groups/Cohorts</t>
-        </is>
-      </c>
-      <c r="G27" s="30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
+          <t>Number of Trial Sites EU State</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6884,35 +7930,38 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="29" customHeight="1">
+    <row r="28" ht="43.5" customHeight="1">
       <c r="A28" s="15" t="inlineStr">
         <is>
-          <t>Number of Trial Sites EU State</t>
+          <t>Trial Exploratory Objective</t>
         </is>
       </c>
       <c r="B28" s="15" t="inlineStr">
         <is>
-          <t>NUMSEUST</t>
+          <t>OBJEXP</t>
         </is>
       </c>
       <c r="C28" s="15" t="inlineStr">
         <is>
-          <t>C1227795</t>
-        </is>
-      </c>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
+          <t>C163559</t>
+        </is>
+      </c>
+      <c r="D28" s="15" t="inlineStr">
+        <is>
+          <t>Add Unique number</t>
+        </is>
+      </c>
+      <c r="E28" s="15" t="inlineStr">
+        <is>
+          <t>combine with the corresponding outcome measures by a common TSGRPID</t>
+        </is>
+      </c>
       <c r="F28" s="14" t="inlineStr">
         <is>
-          <t>Number of Trial Sites EU State</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+          <t>Exploratory Objective</t>
+        </is>
+      </c>
+      <c r="G28" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6936,17 +7985,17 @@
     <row r="29" ht="43.5" customHeight="1">
       <c r="A29" s="15" t="inlineStr">
         <is>
-          <t>Trial Exploratory Objective</t>
+          <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
       <c r="B29" s="15" t="inlineStr">
         <is>
-          <t>OBJEXP</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="C29" s="15" t="inlineStr">
         <is>
-          <t>C163559</t>
+          <t>C85826</t>
         </is>
       </c>
       <c r="D29" s="15" t="inlineStr">
@@ -6961,15 +8010,10 @@
       </c>
       <c r="F29" s="14" t="inlineStr">
         <is>
-          <t>Exploratory Objective</t>
+          <t>Primary Objective</t>
         </is>
       </c>
       <c r="G29" s="29" t="inlineStr">
-        <is>
-          <t>{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon' , 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6993,17 +8037,17 @@
     <row r="30" ht="43.5" customHeight="1">
       <c r="A30" s="15" t="inlineStr">
         <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="B30" s="15" t="inlineStr">
         <is>
-          <t>OBJPRIM</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="C30" s="15" t="inlineStr">
         <is>
-          <t>C85826</t>
+          <t>C85827</t>
         </is>
       </c>
       <c r="D30" s="15" t="inlineStr">
@@ -7018,16 +8062,11 @@
       </c>
       <c r="F30" s="14" t="inlineStr">
         <is>
-          <t>Primary Objective</t>
+          <t>Secondary Objective</t>
         </is>
       </c>
       <c r="G30" s="29" t="inlineStr">
         <is>
-          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
@@ -7047,133 +8086,115 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="43.5" customHeight="1">
+    <row r="31" ht="29" customHeight="1">
       <c r="A31" s="15" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Observational Model</t>
         </is>
       </c>
       <c r="B31" s="15" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>OBSMODEL</t>
         </is>
       </c>
       <c r="C31" s="15" t="inlineStr">
         <is>
-          <t>C85827</t>
-        </is>
-      </c>
-      <c r="D31" s="15" t="inlineStr">
-        <is>
-          <t>Add Unique number</t>
-        </is>
-      </c>
-      <c r="E31" s="15" t="inlineStr">
-        <is>
-          <t>combine with the corresponding outcome measures by a common TSGRPID</t>
-        </is>
-      </c>
+          <t>C126064</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="n"/>
+      <c r="E31" s="15" t="n"/>
       <c r="F31" s="14" t="inlineStr">
         <is>
-          <t>Secondary Objective</t>
-        </is>
-      </c>
-      <c r="G31" s="29" t="inlineStr">
-        <is>
-          <t>{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG' , 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG' , 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="29" customHeight="1">
+          <t>Observational Model</t>
+        </is>
+      </c>
+      <c r="G31" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I31" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J31" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K31" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="43.5" customHeight="1">
       <c r="A32" s="15" t="inlineStr">
         <is>
-          <t>Observational Model</t>
+          <t>Observational Time Perspective</t>
         </is>
       </c>
       <c r="B32" s="15" t="inlineStr">
         <is>
-          <t>OBSMODEL</t>
+          <t>OBSTIMP</t>
         </is>
       </c>
       <c r="C32" s="15" t="inlineStr">
         <is>
-          <t>C126064</t>
+          <t>C126065</t>
         </is>
       </c>
       <c r="D32" s="15" t="n"/>
       <c r="E32" s="15" t="n"/>
       <c r="F32" s="14" t="inlineStr">
         <is>
-          <t>Observational Model</t>
-        </is>
-      </c>
-      <c r="G32" s="32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I32" s="32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J32" s="32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K32" s="32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="43.5" customHeight="1">
+          <t>Observational Time Perspective</t>
+        </is>
+      </c>
+      <c r="G32" s="30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" s="30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J32" s="30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K32" s="30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="29" customHeight="1">
       <c r="A33" s="15" t="inlineStr">
         <is>
-          <t>Observational Time Perspective</t>
+          <t>Obs Study Population Description</t>
         </is>
       </c>
       <c r="B33" s="15" t="inlineStr">
         <is>
-          <t>OBSTIMP</t>
+          <t>OBSTPOPD</t>
         </is>
       </c>
       <c r="C33" s="15" t="inlineStr">
         <is>
-          <t>C126065</t>
+          <t>C126066</t>
         </is>
       </c>
       <c r="D33" s="15" t="n"/>
       <c r="E33" s="15" t="n"/>
       <c r="F33" s="14" t="inlineStr">
         <is>
-          <t>Observational Time Perspective</t>
+          <t>Observational Study Population Description</t>
         </is>
       </c>
       <c r="G33" s="30" t="inlineStr">
@@ -7181,48 +8202,43 @@
           <t> </t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I33" s="30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J33" s="30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K33" s="30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="29" customHeight="1">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="43.5" customHeight="1">
       <c r="A34" s="15" t="inlineStr">
         <is>
-          <t>Obs Study Population Description</t>
+          <t>Observational Study Sampling Method</t>
         </is>
       </c>
       <c r="B34" s="15" t="inlineStr">
         <is>
-          <t>OBSTPOPD</t>
+          <t>OBSTSMM</t>
         </is>
       </c>
       <c r="C34" s="15" t="inlineStr">
         <is>
-          <t>C126066</t>
+          <t>C126067</t>
         </is>
       </c>
       <c r="D34" s="15" t="n"/>
       <c r="E34" s="15" t="n"/>
       <c r="F34" s="14" t="inlineStr">
         <is>
-          <t>Observational Study Population Description</t>
+          <t>Observational Study Sampling Method</t>
         </is>
       </c>
       <c r="G34" s="30" t="inlineStr">
@@ -7230,71 +8246,69 @@
           <t> </t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="43.5" customHeight="1">
+      <c r="I34" s="30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J34" s="30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K34" s="30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="29" customHeight="1">
       <c r="A35" s="15" t="inlineStr">
         <is>
-          <t>Observational Study Sampling Method</t>
+          <t>Exploratory Outcome Measure</t>
         </is>
       </c>
       <c r="B35" s="15" t="inlineStr">
         <is>
-          <t>OBSTSMM</t>
+          <t>OUTMSEXP</t>
         </is>
       </c>
       <c r="C35" s="15" t="inlineStr">
         <is>
-          <t>C126067</t>
-        </is>
-      </c>
-      <c r="D35" s="15" t="n"/>
-      <c r="E35" s="15" t="n"/>
+          <t>C98724</t>
+        </is>
+      </c>
+      <c r="D35" s="15" t="inlineStr">
+        <is>
+          <t>Add unique number</t>
+        </is>
+      </c>
+      <c r="E35" s="15" t="inlineStr">
+        <is>
+          <t>combine with the corresponding objective by a common TSGRPID</t>
+        </is>
+      </c>
       <c r="F35" s="14" t="inlineStr">
         <is>
-          <t>Observational Study Sampling Method</t>
-        </is>
-      </c>
-      <c r="G35" s="30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I35" s="30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J35" s="30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K35" s="30" t="inlineStr">
+          <t>Exploratory Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G35" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7303,17 +8317,17 @@
     <row r="36" ht="29" customHeight="1">
       <c r="A36" s="15" t="inlineStr">
         <is>
-          <t>Exploratory Outcome Measure</t>
+          <t>Primary Outcome Measure</t>
         </is>
       </c>
       <c r="B36" s="15" t="inlineStr">
         <is>
-          <t>OUTMSEXP</t>
+          <t>OUTMSPRI</t>
         </is>
       </c>
       <c r="C36" s="15" t="inlineStr">
         <is>
-          <t>C98724</t>
+          <t>C98772</t>
         </is>
       </c>
       <c r="D36" s="15" t="inlineStr">
@@ -7328,15 +8342,10 @@
       </c>
       <c r="F36" s="14" t="inlineStr">
         <is>
-          <t>Exploratory Outcome Measure</t>
+          <t>Primary Outcome Measure</t>
         </is>
       </c>
       <c r="G36" s="29" t="inlineStr">
-        <is>
-          <t>{ , }</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7360,17 +8369,17 @@
     <row r="37" ht="29" customHeight="1">
       <c r="A37" s="15" t="inlineStr">
         <is>
-          <t>Primary Outcome Measure</t>
+          <t>Secondary Outcome Measure</t>
         </is>
       </c>
       <c r="B37" s="15" t="inlineStr">
         <is>
-          <t>OUTMSPRI</t>
+          <t>OUTMSSEC</t>
         </is>
       </c>
       <c r="C37" s="15" t="inlineStr">
         <is>
-          <t>C98772</t>
+          <t>C98781</t>
         </is>
       </c>
       <c r="D37" s="15" t="inlineStr">
@@ -7385,7 +8394,7 @@
       </c>
       <c r="F37" s="14" t="inlineStr">
         <is>
-          <t>Primary Outcome Measure</t>
+          <t>Secondary Outcome Measure</t>
         </is>
       </c>
       <c r="G37" s="29" t="inlineStr">
@@ -7393,11 +8402,6 @@
           <t> </t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I37" t="inlineStr">
         <is>
           <t> </t>
@@ -7414,44 +8418,35 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="29" customHeight="1">
+    <row r="38" ht="43.5" customHeight="1">
       <c r="A38" s="15" t="inlineStr">
         <is>
-          <t>Secondary Outcome Measure</t>
+          <t>Pharmacologic Class</t>
         </is>
       </c>
       <c r="B38" s="15" t="inlineStr">
         <is>
-          <t>OUTMSSEC</t>
+          <t>PCLAS</t>
         </is>
       </c>
       <c r="C38" s="15" t="inlineStr">
         <is>
-          <t>C98781</t>
-        </is>
-      </c>
-      <c r="D38" s="15" t="inlineStr">
-        <is>
-          <t>Add unique number</t>
-        </is>
-      </c>
+          <t>C98768</t>
+        </is>
+      </c>
+      <c r="D38" s="15" t="n"/>
       <c r="E38" s="15" t="inlineStr">
         <is>
-          <t>combine with the corresponding objective by a common TSGRPID</t>
+          <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
         </is>
       </c>
       <c r="F38" s="14" t="inlineStr">
         <is>
-          <t>Secondary Outcome Measure</t>
+          <t>Pharmacologic Class</t>
         </is>
       </c>
       <c r="G38" s="29" t="inlineStr">
         <is>
-          <t>{ ,  , }</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
@@ -7471,39 +8466,30 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="43.5" customHeight="1">
+    <row r="39" ht="29" customHeight="1">
       <c r="A39" s="15" t="inlineStr">
         <is>
-          <t>Pharmacologic Class</t>
+          <t>Pediatric Investigation Plan Indicator</t>
         </is>
       </c>
       <c r="B39" s="15" t="inlineStr">
         <is>
-          <t>PCLAS</t>
+          <t>PIPIND</t>
         </is>
       </c>
       <c r="C39" s="15" t="inlineStr">
         <is>
-          <t>C98768</t>
-        </is>
-      </c>
-      <c r="D39" s="15" t="n"/>
-      <c r="E39" s="15" t="inlineStr">
-        <is>
-          <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
-        </is>
-      </c>
+          <t>C126069</t>
+        </is>
+      </c>
+      <c r="D39" s="20" t="n"/>
+      <c r="E39" s="20" t="n"/>
       <c r="F39" s="14" t="inlineStr">
         <is>
-          <t>Pharmacologic Class</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+          <t>Pediatric Investigation Plan Indicator</t>
+        </is>
+      </c>
+      <c r="G39" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7524,37 +8510,37 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="29" customHeight="1">
+    <row r="40" ht="72.5" customHeight="1">
       <c r="A40" s="15" t="inlineStr">
         <is>
-          <t>Pediatric Investigation Plan Indicator</t>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
         </is>
       </c>
       <c r="B40" s="15" t="inlineStr">
         <is>
-          <t>PIPIND</t>
+          <t>PLANSUB</t>
         </is>
       </c>
       <c r="C40" s="15" t="inlineStr">
         <is>
-          <t>C126069</t>
+          <t>C49692</t>
         </is>
       </c>
       <c r="D40" s="20" t="n"/>
       <c r="E40" s="20" t="n"/>
       <c r="F40" s="14" t="inlineStr">
         <is>
-          <t>Pediatric Investigation Plan Indicator</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
+          <t>Target Enrollment Number</t>
+        </is>
+      </c>
+      <c r="G40" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -7573,37 +8559,41 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="72.5" customHeight="1">
+    <row r="41" ht="43.5" customHeight="1">
       <c r="A41" s="15" t="inlineStr">
         <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="B41" s="15" t="inlineStr">
         <is>
-          <t>PLANSUB</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="C41" s="15" t="inlineStr">
         <is>
-          <t>C49692</t>
+          <t>C139276</t>
         </is>
       </c>
       <c r="D41" s="20" t="n"/>
-      <c r="E41" s="20" t="n"/>
+      <c r="E41" s="20" t="inlineStr">
+        <is>
+          <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
+        </is>
+      </c>
       <c r="F41" s="14" t="inlineStr">
         <is>
-          <t>Target Enrollment Number</t>
-        </is>
-      </c>
-      <c r="G41" s="29" t="inlineStr">
-        <is>
-          <t>75.0</t>
+          <t>Planned Duration of Intervention Value + Unit</t>
+        </is>
+      </c>
+      <c r="G41" s="30" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -7622,39 +8612,30 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="43.5" customHeight="1">
+    <row r="42" ht="29" customHeight="1">
       <c r="A42" s="15" t="inlineStr">
         <is>
-          <t>Planned Treatment Duration</t>
+          <t>Trial is Randomized</t>
         </is>
       </c>
       <c r="B42" s="15" t="inlineStr">
         <is>
-          <t>PTRTDUR</t>
+          <t>RANDOM</t>
         </is>
       </c>
       <c r="C42" s="15" t="inlineStr">
         <is>
-          <t>C139276</t>
+          <t>C25196</t>
         </is>
       </c>
       <c r="D42" s="20" t="n"/>
-      <c r="E42" s="20" t="inlineStr">
-        <is>
-          <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
-        </is>
-      </c>
+      <c r="E42" s="20" t="n"/>
       <c r="F42" s="14" t="inlineStr">
         <is>
-          <t>Planned Duration of Intervention Value + Unit</t>
-        </is>
-      </c>
-      <c r="G42" s="30" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
+          <t>Randomized Indicator</t>
+        </is>
+      </c>
+      <c r="G42" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7678,32 +8659,27 @@
     <row r="43">
       <c r="A43" s="15" t="inlineStr">
         <is>
-          <t>Trial is Randomized</t>
+          <t>Rare Disease Indicator</t>
         </is>
       </c>
       <c r="B43" s="15" t="inlineStr">
         <is>
-          <t>RANDOM</t>
+          <t>RDIND</t>
         </is>
       </c>
       <c r="C43" s="15" t="inlineStr">
         <is>
-          <t>C25196</t>
+          <t>C126070</t>
         </is>
       </c>
       <c r="D43" s="20" t="n"/>
       <c r="E43" s="20" t="n"/>
       <c r="F43" s="14" t="inlineStr">
         <is>
-          <t>Randomized Indicator</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
+          <t>Rare disease indicator</t>
+        </is>
+      </c>
+      <c r="G43" s="30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7724,27 +8700,35 @@
         </is>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="43.5" customHeight="1">
       <c r="A44" s="15" t="inlineStr">
         <is>
-          <t>Rare Disease Indicator</t>
+          <t>Registry Identifier</t>
         </is>
       </c>
       <c r="B44" s="15" t="inlineStr">
         <is>
-          <t>RDIND</t>
+          <t>REGID</t>
         </is>
       </c>
       <c r="C44" s="15" t="inlineStr">
         <is>
-          <t>C126070</t>
-        </is>
-      </c>
-      <c r="D44" s="20" t="n"/>
-      <c r="E44" s="20" t="n"/>
+          <t>C98714</t>
+        </is>
+      </c>
+      <c r="D44" s="20" t="inlineStr">
+        <is>
+          <t>Add Unique number if more than 1</t>
+        </is>
+      </c>
+      <c r="E44" s="20" t="inlineStr">
+        <is>
+          <t>combine with corresponding organization name in TSVCDREF using a common TSGRPID</t>
+        </is>
+      </c>
       <c r="F44" s="14" t="inlineStr">
         <is>
-          <t>Rare disease indicator</t>
+          <t>Registry Identifier</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -7752,11 +8736,6 @@
           <t> </t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t> </t>
@@ -7773,58 +8752,53 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="43.5" customHeight="1">
+    <row r="45" ht="58" customHeight="1">
       <c r="A45" s="15" t="inlineStr">
         <is>
-          <t>Registry Identifier</t>
+          <t>Route of Administration</t>
         </is>
       </c>
       <c r="B45" s="15" t="inlineStr">
         <is>
-          <t>REGID</t>
+          <t>ROUTE</t>
         </is>
       </c>
       <c r="C45" s="15" t="inlineStr">
         <is>
-          <t>C98714</t>
+          <t>C38114</t>
         </is>
       </c>
       <c r="D45" s="20" t="inlineStr">
         <is>
-          <t>Add Unique number if more than 1</t>
+          <t>Add unique number if more than 1</t>
         </is>
       </c>
       <c r="E45" s="20" t="inlineStr">
         <is>
-          <t>combine with corresponding organization name in TSVCDREF using a common TSGRPID</t>
+          <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
         </is>
       </c>
       <c r="F45" s="14" t="inlineStr">
         <is>
-          <t>Registry Identifier</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G45" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I45" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J45" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K45" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7833,17 +8807,17 @@
     <row r="46" ht="58" customHeight="1">
       <c r="A46" s="15" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
+          <t>Retained Biospecimen Description</t>
         </is>
       </c>
       <c r="B46" s="15" t="inlineStr">
         <is>
-          <t>ROUTE</t>
+          <t>RTSPCDES</t>
         </is>
       </c>
       <c r="C46" s="15" t="inlineStr">
         <is>
-          <t>C38114</t>
+          <t>C126072</t>
         </is>
       </c>
       <c r="D46" s="20" t="inlineStr">
@@ -7853,69 +8827,56 @@
       </c>
       <c r="E46" s="20" t="inlineStr">
         <is>
-          <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
+          <t>If applicable, combine with the corresponding Biospecimen variables BRIND and BRDNAIND by a common unique TSGRPID</t>
         </is>
       </c>
       <c r="F46" s="14" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
-        </is>
-      </c>
-      <c r="G46" s="29" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I46" s="29" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
-        </is>
-      </c>
-      <c r="J46" s="29" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
-        </is>
-      </c>
-      <c r="K46" s="29" t="inlineStr">
-        <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" ht="58" customHeight="1">
+          <t>Retained Biospecimen Description</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="15" t="inlineStr">
         <is>
-          <t>Retained Biospecimen Description</t>
+          <t>Sex of Participants</t>
         </is>
       </c>
       <c r="B47" s="15" t="inlineStr">
         <is>
-          <t>RTSPCDES</t>
+          <t>SEXPOP</t>
         </is>
       </c>
       <c r="C47" s="15" t="inlineStr">
         <is>
-          <t>C126072</t>
-        </is>
-      </c>
-      <c r="D47" s="20" t="inlineStr">
-        <is>
-          <t>Add unique number if more than 1</t>
-        </is>
-      </c>
-      <c r="E47" s="20" t="inlineStr">
-        <is>
-          <t>If applicable, combine with the corresponding Biospecimen variables BRIND and BRDNAIND by a common unique TSGRPID</t>
-        </is>
-      </c>
+          <t>C49696</t>
+        </is>
+      </c>
+      <c r="D47" s="20" t="n"/>
+      <c r="E47" s="20" t="n"/>
       <c r="F47" s="14" t="inlineStr">
         <is>
-          <t>Retained Biospecimen Description</t>
+          <t>Sex of Participants</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -7923,11 +8884,6 @@
           <t> </t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t> </t>
@@ -7944,35 +8900,30 @@
         </is>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="29" customHeight="1">
       <c r="A48" s="15" t="inlineStr">
         <is>
-          <t>Sex of Participants</t>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
         </is>
       </c>
       <c r="B48" s="15" t="inlineStr">
         <is>
-          <t>SEXPOP</t>
+          <t>SPONSOR</t>
         </is>
       </c>
       <c r="C48" s="15" t="inlineStr">
         <is>
-          <t>C49696</t>
+          <t>C70793</t>
         </is>
       </c>
       <c r="D48" s="20" t="n"/>
       <c r="E48" s="20" t="n"/>
-      <c r="F48" s="14" t="inlineStr">
-        <is>
-          <t>Sex of Participants</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="F48" s="19" t="inlineStr">
+        <is>
+          <t>Sponsor Name - Organization</t>
+        </is>
+      </c>
+      <c r="G48" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7996,32 +8947,31 @@
     <row r="49" ht="29" customHeight="1">
       <c r="A49" s="15" t="inlineStr">
         <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+          <t>Sponsor's Study Reference ID</t>
         </is>
       </c>
       <c r="B49" s="15" t="inlineStr">
         <is>
-          <t>SPONSOR</t>
+          <t>SPREFID</t>
         </is>
       </c>
       <c r="C49" s="15" t="inlineStr">
         <is>
-          <t>C70793</t>
-        </is>
-      </c>
-      <c r="D49" s="20" t="n"/>
+          <t>C135009</t>
+        </is>
+      </c>
+      <c r="D49" s="20" t="inlineStr">
+        <is>
+          <t>Add Unique number if more than 1</t>
+        </is>
+      </c>
       <c r="E49" s="20" t="n"/>
-      <c r="F49" s="19" t="inlineStr">
-        <is>
-          <t>Sponsor Name - Organization</t>
-        </is>
-      </c>
-      <c r="G49" s="30" t="inlineStr">
-        <is>
-          <t>Error in expression for Clinical Study Sponsor; Sponsor; Study Sponsor: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="F49" s="14" t="inlineStr">
+        <is>
+          <t>Sponsor's Study Reference ID</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8045,36 +8995,27 @@
     <row r="50" ht="29" customHeight="1">
       <c r="A50" s="15" t="inlineStr">
         <is>
-          <t>Sponsor's Study Reference ID</t>
+          <t>Single Site EU State Trial Indicator</t>
         </is>
       </c>
       <c r="B50" s="15" t="inlineStr">
         <is>
-          <t>SPREFID</t>
+          <t>SSEUTIND</t>
         </is>
       </c>
       <c r="C50" s="15" t="inlineStr">
         <is>
-          <t>C135009</t>
-        </is>
-      </c>
-      <c r="D50" s="20" t="inlineStr">
-        <is>
-          <t>Add Unique number if more than 1</t>
-        </is>
-      </c>
+          <t>C127800</t>
+        </is>
+      </c>
+      <c r="D50" s="20" t="n"/>
       <c r="E50" s="20" t="n"/>
       <c r="F50" s="14" t="inlineStr">
         <is>
-          <t>Sponsor's Study Reference ID</t>
+          <t>Single Site Eu State Trial Indicator</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8098,243 +9039,222 @@
     <row r="51" ht="29" customHeight="1">
       <c r="A51" s="15" t="inlineStr">
         <is>
-          <t>Single Site EU State Trial Indicator</t>
+          <t>Study Type; Study Type Classification</t>
         </is>
       </c>
       <c r="B51" s="15" t="inlineStr">
         <is>
-          <t>SSEUTIND</t>
+          <t>STYPE</t>
         </is>
       </c>
       <c r="C51" s="15" t="inlineStr">
         <is>
-          <t>C127800</t>
+          <t>C142175</t>
         </is>
       </c>
       <c r="D51" s="20" t="n"/>
       <c r="E51" s="20" t="n"/>
       <c r="F51" s="14" t="inlineStr">
         <is>
-          <t>Single Site Eu State Trial Indicator</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="29" customHeight="1">
+          <t>Study Type</t>
+        </is>
+      </c>
+      <c r="G51" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I51" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J51" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K51" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="87" customHeight="1">
       <c r="A52" s="15" t="inlineStr">
         <is>
-          <t>Study Type; Study Type Classification</t>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
         </is>
       </c>
       <c r="B52" s="15" t="inlineStr">
         <is>
-          <t>STYPE</t>
+          <t>TBLIND</t>
         </is>
       </c>
       <c r="C52" s="15" t="inlineStr">
         <is>
-          <t>C142175</t>
+          <t>C49658</t>
         </is>
       </c>
       <c r="D52" s="20" t="n"/>
       <c r="E52" s="20" t="n"/>
       <c r="F52" s="14" t="inlineStr">
         <is>
-          <t>Study Type</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="53" ht="87" customHeight="1">
+          <t>Blinding Schema</t>
+        </is>
+      </c>
+      <c r="G52" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I52" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J52" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K52" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="72.5" customHeight="1">
       <c r="A53" s="15" t="inlineStr">
         <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+          <t>Control Type</t>
         </is>
       </c>
       <c r="B53" s="15" t="inlineStr">
         <is>
-          <t>TBLIND</t>
+          <t>TCNTRL</t>
         </is>
       </c>
       <c r="C53" s="15" t="inlineStr">
         <is>
-          <t>C49658</t>
-        </is>
-      </c>
-      <c r="D53" s="20" t="n"/>
-      <c r="E53" s="20" t="n"/>
+          <t>C49647</t>
+        </is>
+      </c>
+      <c r="D53" s="15" t="n"/>
+      <c r="E53" s="15" t="n"/>
       <c r="F53" s="14" t="inlineStr">
         <is>
-          <t>Blinding Schema</t>
-        </is>
-      </c>
-      <c r="G53" s="29" t="inlineStr">
-        <is>
-          <t>Open Label Study</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I53" s="29" t="inlineStr">
-        <is>
-          <t>C49659</t>
-        </is>
-      </c>
-      <c r="J53" s="29" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K53" s="29" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="54" ht="72.5" customHeight="1">
+          <t>Intervention Control Type</t>
+        </is>
+      </c>
+      <c r="G53" s="30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I53" s="30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J53" s="30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K53" s="30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="29" customHeight="1">
       <c r="A54" s="15" t="inlineStr">
         <is>
-          <t>Control Type</t>
+          <t>Therapeutic Area</t>
         </is>
       </c>
       <c r="B54" s="15" t="inlineStr">
         <is>
-          <t>TCNTRL</t>
+          <t>THERAREA</t>
         </is>
       </c>
       <c r="C54" s="15" t="inlineStr">
         <is>
-          <t>C49647</t>
+          <t>C101302</t>
         </is>
       </c>
       <c r="D54" s="15" t="n"/>
       <c r="E54" s="15" t="n"/>
       <c r="F54" s="14" t="inlineStr">
         <is>
-          <t>Intervention Control Type</t>
-        </is>
-      </c>
-      <c r="G54" s="30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I54" s="30" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="J54" s="30" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="K54" s="30" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
+          <t>Therapeutic Area</t>
+        </is>
+      </c>
+      <c r="G54" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I54" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J54" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K54" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="43.5" customHeight="1">
       <c r="A55" s="15" t="inlineStr">
         <is>
-          <t>Therapeutic Area</t>
+          <t>Trial Intent Type</t>
         </is>
       </c>
       <c r="B55" s="15" t="inlineStr">
         <is>
-          <t>THERAREA</t>
+          <t>TINDTP</t>
         </is>
       </c>
       <c r="C55" s="15" t="inlineStr">
         <is>
-          <t>C101302</t>
-        </is>
-      </c>
-      <c r="D55" s="15" t="n"/>
+          <t>C49652</t>
+        </is>
+      </c>
+      <c r="D55" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Add Unique number if more than 1 </t>
+        </is>
+      </c>
       <c r="E55" s="15" t="n"/>
       <c r="F55" s="14" t="inlineStr">
         <is>
-          <t>Therapeutic Area</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
+          <t>Trial Intent Types</t>
+        </is>
+      </c>
+      <c r="G55" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I55" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J55" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K55" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8343,36 +9263,27 @@
     <row r="56" ht="29" customHeight="1">
       <c r="A56" s="15" t="inlineStr">
         <is>
-          <t>Trial Intent Type</t>
+          <t>Official Study Title; Study Title; Trial Title</t>
         </is>
       </c>
       <c r="B56" s="15" t="inlineStr">
         <is>
-          <t>TINDTP</t>
+          <t>TITLE</t>
         </is>
       </c>
       <c r="C56" s="15" t="inlineStr">
         <is>
-          <t>C49652</t>
-        </is>
-      </c>
-      <c r="D56" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Add Unique number if more than 1 </t>
-        </is>
-      </c>
+          <t>C49802</t>
+        </is>
+      </c>
+      <c r="D56" s="15" t="n"/>
       <c r="E56" s="15" t="n"/>
       <c r="F56" s="14" t="inlineStr">
         <is>
-          <t>Trial Intent Types</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+          <t>Full Title</t>
+        </is>
+      </c>
+      <c r="G56" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8396,96 +9307,104 @@
     <row r="57" ht="29" customHeight="1">
       <c r="A57" s="15" t="inlineStr">
         <is>
-          <t>Official Study Title; Study Title; Trial Title</t>
+          <t>Trial Phase; Trial Phase Classification</t>
         </is>
       </c>
       <c r="B57" s="15" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>TPHASE</t>
         </is>
       </c>
       <c r="C57" s="15" t="inlineStr">
         <is>
-          <t>C49802</t>
+          <t>C48281</t>
         </is>
       </c>
       <c r="D57" s="15" t="n"/>
       <c r="E57" s="15" t="n"/>
       <c r="F57" s="14" t="inlineStr">
         <is>
-          <t>Full Title</t>
-        </is>
-      </c>
-      <c r="G57" s="29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="58" ht="29" customHeight="1">
+          <t>Trial Phase</t>
+        </is>
+      </c>
+      <c r="G57" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H57" s="36" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I57" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J57" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K57" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="43.5" customHeight="1">
       <c r="A58" s="15" t="inlineStr">
         <is>
-          <t>Trial Phase; Trial Phase Classification</t>
+          <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
       <c r="B58" s="15" t="inlineStr">
         <is>
-          <t>TPHASE</t>
+          <t>TRT</t>
         </is>
       </c>
       <c r="C58" s="15" t="inlineStr">
         <is>
-          <t>C48281</t>
-        </is>
-      </c>
-      <c r="D58" s="15" t="n"/>
-      <c r="E58" s="15" t="n"/>
+          <t>C41161</t>
+        </is>
+      </c>
+      <c r="D58" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Add Unique number if more than 1 </t>
+        </is>
+      </c>
+      <c r="E58" s="15" t="inlineStr">
+        <is>
+          <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
+        </is>
+      </c>
       <c r="F58" s="14" t="inlineStr">
         <is>
-          <t>Trial Phase</t>
-        </is>
-      </c>
-      <c r="G58" s="32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H58" s="40" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="I58" s="32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J58" s="32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K58" s="32" t="inlineStr">
+          <t>Investigational Intervention</t>
+        </is>
+      </c>
+      <c r="G58" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H58" s="36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8494,111 +9413,49 @@
     <row r="59" ht="43.5" customHeight="1">
       <c r="A59" s="15" t="inlineStr">
         <is>
-          <t>Investigational Therapy or Treatment</t>
+          <t>Trial Scope; Trial Type</t>
         </is>
       </c>
       <c r="B59" s="15" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>TTYPE</t>
         </is>
       </c>
       <c r="C59" s="15" t="inlineStr">
         <is>
-          <t>C41161</t>
-        </is>
-      </c>
-      <c r="D59" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Add Unique number if more than 1 </t>
-        </is>
-      </c>
-      <c r="E59" s="15" t="inlineStr">
-        <is>
-          <t>If applicable, combine with the corresponding intervention variables by a common TSGRPID</t>
-        </is>
-      </c>
+          <t>C49660</t>
+        </is>
+      </c>
+      <c r="D59" s="15" t="n"/>
+      <c r="E59" s="15" t="n"/>
       <c r="F59" s="14" t="inlineStr">
         <is>
-          <t>Investigational Intervention</t>
+          <t>Trial Type</t>
         </is>
       </c>
       <c r="G59" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'LY900018' , 'StudyIntervention_2': 'GlucaGen'}</t>
-        </is>
-      </c>
-      <c r="H59" s="40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="15" t="inlineStr">
-        <is>
-          <t>Trial Scope; Trial Type</t>
-        </is>
-      </c>
-      <c r="B60" s="15" t="inlineStr">
-        <is>
-          <t>TTYPE</t>
-        </is>
-      </c>
-      <c r="C60" s="15" t="inlineStr">
-        <is>
-          <t>C49660</t>
-        </is>
-      </c>
-      <c r="D60" s="15" t="n"/>
-      <c r="E60" s="15" t="n"/>
-      <c r="F60" s="14" t="inlineStr">
-        <is>
-          <t>Trial Type</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
+          <t> </t>
+        </is>
+      </c>
+      <c r="I59" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J59" s="29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K59" s="29" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G60"/>
+  <autoFilter ref="A1:G59"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3721,7 +3721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -3874,10 +3874,14 @@
       </c>
       <c r="G3" s="33" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H3" s="9" t="n"/>
+          <t>18  ["Year","Year"]</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t> </t>
@@ -3923,12 +3927,12 @@
       </c>
       <c r="G4" s="33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>70  ["Year","Year"]</t>
         </is>
       </c>
       <c r="H4" s="34" t="inlineStr">
         <is>
-          <t>PINF</t>
+          <t> </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -4199,10 +4203,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D10" s="9" t="inlineStr">
         <is>
@@ -4221,21 +4223,10 @@
       </c>
       <c r="G10" s="33" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H10" s="34" t="n"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+          <t>'StudyIntervention_1': '1 Day'</t>
+        </is>
+      </c>
+      <c r="H10" s="34" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4248,10 +4239,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C11" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
@@ -4260,35 +4249,20 @@
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>CURTRT</t>
+          <t>CRMDUR</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Current Therapy or Treatment</t>
+          <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
       <c r="G11" s="33" t="inlineStr">
         <is>
-          <t>Error in expression for TSVCDVER: ..code.codeSystem</t>
+          <t xml:space="preserve"> 'StudyIntervention_2': '1 Day</t>
         </is>
       </c>
       <c r="H11" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4313,24 +4287,20 @@
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>DMCIND</t>
+          <t>CURTRT</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Data Monitoring Committee Indicator</t>
+          <t>Current Therapy or Treatment</t>
         </is>
       </c>
       <c r="G12" s="33" t="inlineStr">
         <is>
-          <t>Error in expression for TSVCDVER: ..code.codeSystemVersion</t>
-        </is>
-      </c>
-      <c r="H12" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H12" s="34" t="n"/>
       <c r="I12" t="inlineStr">
         <is>
           <t> </t>
@@ -4365,12 +4335,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>DMCIND</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dose Level; Dose per Administration</t>
+          <t>Data Monitoring Committee Indicator</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -4400,10 +4370,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C14" t="n">
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -4412,30 +4380,20 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DOSFRM</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dose Form</t>
+          <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
+          <t>'StudyIntervention_1': 3.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4447,10 +4405,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C15" t="n">
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -4459,30 +4415,20 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DOSFRQ</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dosing Frequency</t>
+          <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+          <t xml:space="preserve"> 'StudyIntervention_2': 1.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4506,12 +4452,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DOSU</t>
+          <t>DOSFRM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dose Units</t>
+          <t>Dose Form</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4541,10 +4487,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C17" t="n">
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -4553,32 +4497,37 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EXTTIND</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Extension Trial Indicator</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>'StudyIntervention_1': 'Once</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': 'C64576</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4588,10 +4537,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C18" t="n">
+        <v>2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -4600,32 +4547,37 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FCNTRY</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Planned Country of Investigational Sites</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'Once</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'C64576</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4635,10 +4587,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C19" t="n">
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -4647,32 +4597,37 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>HLTSUBJI</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Healthy Subject Indicator</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>'StudyIntervention_1': 'Milligram</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': 'C28253</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4682,10 +4637,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C20" t="n">
+        <v>2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -4694,32 +4647,37 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>INDIC</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'Milligram</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'C28253</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4741,12 +4699,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>INTMODEL</t>
+          <t>EXTTIND</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
+          <t>Extension Trial Indicator</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4788,12 +4746,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>INTTYPE</t>
+          <t>FCNTRY</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Intervention Type</t>
+          <t>Planned Country of Investigational Sites</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4835,22 +4793,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>LENGTH</t>
+          <t>HLTSUBJI</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trial Length</t>
+          <t>Healthy Subject Indicator</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>NI</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -4887,15 +4840,20 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MSEUTIND</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Multiple Site EU Site Trial Indicator</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
+        <is>
+          <t>'T1DM', 'T2DM'</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4934,32 +4892,37 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NARMS</t>
+          <t>INTMODEL</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Planned Number of Arms</t>
+          <t>Intervention Model</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>Parallel Study</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t> </t>
+          <t>C82639</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t> </t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -4969,10 +4932,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C26" t="n">
+        <v>1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -4981,32 +4942,37 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NCOHORT</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Number of Groups/Cohorts</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>'StudyIntervention_1': 'Pharmacologic Substance</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': 'C1909</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -5016,10 +4982,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C27" t="n">
+        <v>2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -5028,32 +4992,37 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NUMSEUST</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Number of Trial Sites EU State</t>
+          <t>Intervention Type</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'Pharmacologic Substance</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'C1909</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -5075,17 +5044,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OBJEXP</t>
+          <t>LENGTH</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Trial Exploratory Objective</t>
+          <t>Trial Length</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NI</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -5122,12 +5096,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>OBJPRIM</t>
+          <t>MSEUTIND</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
+          <t>Multiple Site EU Site Trial Indicator</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -5169,15 +5143,20 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>OBJSEC</t>
+          <t>NARMS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
+          <t>Planned Number of Arms</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5216,15 +5195,20 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>OBSMODEL</t>
+          <t>NCOHORT</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Observational Model</t>
+          <t>Number of Groups/Cohorts</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5263,12 +5247,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>OBSTIMP</t>
+          <t>NUMSEUST</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Observational Time Perspective</t>
+          <t>Number of Trial Sites EU State</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -5298,10 +5282,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C33" t="n">
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -5310,30 +5292,20 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OBSTPOPD</t>
+          <t>OBJEXP</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Obs Study Population Description</t>
+          <t>Trial Exploratory Objective</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
+          <t>'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5345,10 +5317,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C34" t="n">
+        <v>2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -5357,30 +5327,20 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OBSTSMM</t>
+          <t>OBJEXP</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Observational Study Sampling Method</t>
+          <t>Trial Exploratory Objective</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
+          <t xml:space="preserve"> 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5392,10 +5352,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C35" t="n">
+        <v>1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5404,30 +5362,20 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>OUTMSEXP</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Exploratory Outcome Measure</t>
+          <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
+          <t>'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5439,10 +5387,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C36" t="n">
+        <v>1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5451,30 +5397,20 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>OUTMSPRI</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Primary Outcome Measure</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
+          <t>'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5486,10 +5422,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C37" t="n">
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5498,30 +5432,20 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>OUTMSSEC</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Secondary Outcome Measure</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
+          <t xml:space="preserve"> 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5533,10 +5457,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C38" t="n">
+        <v>3</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5545,30 +5467,20 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PCLAS</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Pharmacologic Class</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
+          <t xml:space="preserve"> 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5592,12 +5504,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PIPIND</t>
+          <t>OBSMODEL</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Pediatric Investigation Plan Indicator</t>
+          <t>Observational Model</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -5639,22 +5551,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PLANSUB</t>
+          <t>OBSTIMP</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+          <t>Observational Time Perspective</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>NI</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5691,22 +5598,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PTRTDUR</t>
+          <t>OBSTPOPD</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Planned Treatment Duration</t>
+          <t>Obs Study Population Description</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NI</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -5743,12 +5645,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>RANDOM</t>
+          <t>OBSTSMM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Trial is Randomized</t>
+          <t>Observational Study Sampling Method</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -5778,10 +5680,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C43" t="n">
+        <v>1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5790,30 +5690,16 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>RDIND</t>
+          <t>OUTMSEXP</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rare Disease Indicator</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
+          <t>Exploratory Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5825,10 +5711,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C44" t="n">
+        <v>2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5837,30 +5721,16 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>REGID</t>
+          <t>OUTMSEXP</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Registry Identifier</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
+          <t>Exploratory Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5884,12 +5754,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ROUTE</t>
+          <t>OUTMSPRI</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
+          <t>Primary Outcome Measure</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -5919,10 +5789,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C46" t="n">
+        <v>1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5931,30 +5799,16 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>RTSPCDES</t>
+          <t>OUTMSSEC</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Retained Biospecimen Description</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5966,10 +5820,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C47" t="n">
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5978,12 +5830,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SEXPOP</t>
+          <t>OUTMSSEC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sex of Participants</t>
+          <t>Secondary Outcome Measure</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -5991,17 +5843,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6013,10 +5855,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C48" t="n">
+        <v>3</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6025,30 +5865,16 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SPONSOR</t>
+          <t>OUTMSSEC</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6072,12 +5898,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SPREFID</t>
+          <t>PCLAS</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Sponsor's Study Reference ID</t>
+          <t>Pharmacologic Class</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -6119,12 +5945,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SSEUTIND</t>
+          <t>PIPIND</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Single Site EU State Trial Indicator</t>
+          <t>Pediatric Investigation Plan Indicator</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -6166,15 +5992,20 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>STYPE</t>
+          <t>PLANSUB</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Study Type; Study Type Classification</t>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6201,10 +6032,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C52" t="n">
+        <v>1</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6213,30 +6042,20 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TBLIND</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
+          <t>'StudyIntervention_1': '1 Day</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6248,10 +6067,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C53" t="n">
+        <v>2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6260,30 +6077,20 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TCNTRL</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Control Type</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
+          <t xml:space="preserve"> 'StudyIntervention_2': '1 Day</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6307,12 +6114,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>THERAREA</t>
+          <t>RANDOM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Therapeutic Area</t>
+          <t>Trial is Randomized</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -6354,12 +6161,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TINDTP</t>
+          <t>RDIND</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Trial Intent Type</t>
+          <t>Rare Disease Indicator</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -6401,12 +6208,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>REGID</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Official Study Title; Study Title; Trial Title</t>
+          <t>Registry Identifier</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -6436,10 +6243,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C57" t="n">
+        <v>1</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6448,37 +6253,37 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TPHASE</t>
+          <t>ROUTE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Trial Phase; Trial Phase Classification</t>
+          <t>Route of Administration</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': 'Nasal Route of Administration</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': 'C38284</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'StudyIntervention_1': '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -6488,10 +6293,8 @@
           <t>TS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C58" t="n">
+        <v>2</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6500,37 +6303,37 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>ROUTE</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Investigational Therapy or Treatment</t>
+          <t>Route of Administration</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'Intramuscular Route of Administration</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t> </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'C28161</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
         </is>
       </c>
     </row>
@@ -6552,32 +6355,691 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>RTSPCDES</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Retained Biospecimen Description</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SEXPOP</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sex of Participants</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SPONSOR</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SPREFID</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sponsor's Study Reference ID</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SSEUTIND</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Single Site EU State Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>STYPE</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Study Type; Study Type Classification</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Interventional Study</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>C98388</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>TBLIND</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Open Label Study</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>C49659</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>TCNTRL</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Control Type</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>THERAREA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Therapeutic Area</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>TINDTP</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Trial Intent Type</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>'Basic Research', 'Device Feasibility Study'</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>'C15714', 'C139174'</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>'http://www.cdisc.org', 'http://www.cdisc.org'</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>'2024-09-27', '2024-09-27'</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Official Study Title; Study Title; Trial Title</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>TPHASE</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Trial Phase; Trial Phase Classification</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Investigational Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'LY900018'</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Investigational Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'GlucaGen</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>TTYPE</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Trial Scope; Trial Type</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Efficacy Study</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>C49666</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -6739,6 +7201,11 @@
       </c>
       <c r="G3" s="31" t="inlineStr">
         <is>
+          <t>18  ["Year","Year"]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -6783,12 +7250,12 @@
       </c>
       <c r="G4" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>70  ["Year","Year"]</t>
         </is>
       </c>
       <c r="H4" s="36" t="inlineStr">
         <is>
-          <t>PINF</t>
+          <t> </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -7096,6 +7563,11 @@
       </c>
       <c r="G10" s="29" t="inlineStr">
         <is>
+          <t>{'StudyIntervention_1': '1 Day' , 'StudyIntervention_2': '1 Day'}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -7147,11 +7619,6 @@
         </is>
       </c>
       <c r="G11" s="29" t="inlineStr">
-        <is>
-          <t>Error in expression for TSVCDVER: ..code.codeSystem</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7197,11 +7664,6 @@
       </c>
       <c r="G12" s="29" t="inlineStr">
         <is>
-          <t>Error in expression for TSVCDVER: ..code.codeSystemVersion</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
           <t> </t>
         </is>
       </c>
@@ -7254,6 +7716,11 @@
       </c>
       <c r="G13" s="29" t="inlineStr">
         <is>
+          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -7358,22 +7825,27 @@
       </c>
       <c r="G15" s="29" t="inlineStr">
         <is>
+          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I15" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
         </is>
       </c>
       <c r="J15" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K15" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -7410,22 +7882,27 @@
       </c>
       <c r="G16" s="29" t="inlineStr">
         <is>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I16" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
         </is>
       </c>
       <c r="J16" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K16" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -7590,6 +8067,11 @@
       </c>
       <c r="G20" s="29" t="inlineStr">
         <is>
+          <t>'T1DM', 'T2DM'</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -7634,22 +8116,27 @@
       </c>
       <c r="G21" s="30" t="inlineStr">
         <is>
+          <t>Parallel Study</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I21" s="30" t="inlineStr">
         <is>
-          <t> </t>
+          <t>C82639</t>
         </is>
       </c>
       <c r="J21" s="30" t="inlineStr">
         <is>
-          <t> </t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K21" s="30" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -7686,22 +8173,27 @@
       </c>
       <c r="G22" s="29" t="inlineStr">
         <is>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I22" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
         </is>
       </c>
       <c r="J22" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K22" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -7823,6 +8315,11 @@
       </c>
       <c r="G25" s="29" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -7867,6 +8364,11 @@
       </c>
       <c r="G26" s="30" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -7963,6 +8465,11 @@
       </c>
       <c r="G28" s="29" t="inlineStr">
         <is>
+          <t>{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon' , 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -8015,6 +8522,11 @@
       </c>
       <c r="G29" s="29" t="inlineStr">
         <is>
+          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -8066,6 +8578,11 @@
         </is>
       </c>
       <c r="G30" s="29" t="inlineStr">
+        <is>
+          <t>{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG' , 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG' , 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8295,6 +8812,11 @@
       </c>
       <c r="G35" s="29" t="inlineStr">
         <is>
+          <t>{ , }</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
@@ -8398,6 +8920,11 @@
         </is>
       </c>
       <c r="G37" s="29" t="inlineStr">
+        <is>
+          <t>{ ,  , }</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -8535,12 +9062,12 @@
       </c>
       <c r="G40" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -8588,12 +9115,12 @@
       </c>
       <c r="G41" s="30" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -8785,22 +9312,27 @@
       </c>
       <c r="G45" s="29" t="inlineStr">
         <is>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I45" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
         </is>
       </c>
       <c r="J45" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K45" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -9061,22 +9593,27 @@
       </c>
       <c r="G51" s="32" t="inlineStr">
         <is>
+          <t>Interventional Study</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I51" s="32" t="inlineStr">
         <is>
-          <t> </t>
+          <t>C98388</t>
         </is>
       </c>
       <c r="J51" s="32" t="inlineStr">
         <is>
-          <t> </t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K51" s="32" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -9105,22 +9642,27 @@
       </c>
       <c r="G52" s="29" t="inlineStr">
         <is>
+          <t>Open Label Study</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I52" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>C49659</t>
         </is>
       </c>
       <c r="J52" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K52" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -9241,22 +9783,27 @@
       </c>
       <c r="G55" s="29" t="inlineStr">
         <is>
+          <t>'Basic Research', 'Device Feasibility Study'</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I55" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'C15714', 'C139174'</t>
         </is>
       </c>
       <c r="J55" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'http://www.cdisc.org', 'http://www.cdisc.org'</t>
         </is>
       </c>
       <c r="K55" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>'2024-09-27', '2024-09-27'</t>
         </is>
       </c>
     </row>
@@ -9386,12 +9933,12 @@
       </c>
       <c r="G58" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>{'StudyIntervention_1': 'LY900018' , 'StudyIntervention_2': 'GlucaGen'}</t>
         </is>
       </c>
       <c r="H58" s="36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t> </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -9435,22 +9982,27 @@
       </c>
       <c r="G59" s="29" t="inlineStr">
         <is>
+          <t>Efficacy Study</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
       <c r="I59" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>C49666</t>
         </is>
       </c>
       <c r="J59" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K59" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -2803,12 +2803,12 @@
     <row r="2" ht="72.5" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>STUDYID</t>
+          <t> </t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>Study Identifier</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
@@ -2836,17 +2836,21 @@
           <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
         </is>
       </c>
-      <c r="H2" s="33" t="n"/>
+      <c r="H2" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="29" customHeight="1">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>DOMAIN</t>
+          <t> </t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>Domain Abbreviation</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
@@ -2868,171 +2872,187 @@
       <c r="G3" s="38" t="n"/>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="4" ht="29" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>IETESTCD</t>
+          <t> </t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_3': '3'</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> insulin aspar</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_3': 'Inclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t>Incl/Excl Criterion Short Name</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_3': '3'</t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> insulin aspar</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_3': 'Inclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>Incl/Excl Criterion Short Name</t>
-        </is>
-      </c>
       <c r="G4" s="39" t="inlineStr">
         <is>
           <t>study.versions.studyDesigns.eligibilityCriteria.{id: identifier}</t>
         </is>
       </c>
-      <c r="H4" s="33" t="n"/>
+      <c r="H4" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="87" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>IETEST</t>
+          <t> </t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_4': '4'</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> or insulin glulisine</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_4': 'Inclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
           <t>Inclusion/Exclusion Criterion</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_4': '4'</t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or insulin glulisine</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_4': 'Inclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>Inclusion/Exclusion Criterion</t>
-        </is>
-      </c>
       <c r="G5" s="41" t="inlineStr">
         <is>
           <t>study.versions.($EligTxt := function($id) {(eligibilityCriterionItems[id=$id].text)}; studyDesigns.eligibilityCriteria{id: $EligTxt(criterionItemId)})</t>
         </is>
       </c>
-      <c r="H5" s="33" t="n"/>
+      <c r="H5" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>IECAT</t>
+          <t> </t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_5': '5'</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> or&lt;/p&gt;\n      &lt;p&gt;[B] continuous subcutaneous insulin infusion (CSII)&lt;/p&gt;    \n    &lt;/ul&gt;\n  &lt;/li&gt;\n  &lt;p&gt;Or&lt;/p&gt;\n  &lt;li&gt;\n    &lt;p&gt;[1b] T2DM based on the WHO diagnostic criteri</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_5': 'Inclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
           <t>Inclusion/Exclusion Category</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_5': '5'</t>
-        </is>
-      </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or&lt;/p&gt;\n      &lt;p&gt;[B] continuous subcutaneous insulin infusion (CSII)&lt;/p&gt;    \n    &lt;/ul&gt;\n  &lt;/li&gt;\n  &lt;p&gt;Or&lt;/p&gt;\n  &lt;li&gt;\n    &lt;p&gt;[1b] T2DM based on the WHO diagnostic criteri</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_5': 'Inclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Inclusion/Exclusion Category</t>
-        </is>
-      </c>
       <c r="G6" s="39" t="inlineStr">
         <is>
           <t>study.versions.studyDesigns.eligibilityCriteria{id: category.decode}</t>
         </is>
       </c>
-      <c r="H6" s="33" t="n"/>
+      <c r="H6" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>IESCAT</t>
+          <t> </t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_6': '6'</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and have received the&lt;/p&gt;\n    &lt;p&gt;following daily insulin therapy with or without oral anti-hyperglycemic medications (OAMs) for at least 1 year&lt;/p&gt;\n    &lt;ul&gt;\n      &lt;p&gt;[A] insulin: long-acting insulin analog (either insulin glargine [U-100 or U-300] or insulin degludec [U-100]) alon</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_6': 'Inclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
           <t>Inclusion/Exclusion Subcategory</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_6': '6'</t>
-        </is>
-      </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> and have received the&lt;/p&gt;\n    &lt;p&gt;following daily insulin therapy with or without oral anti-hyperglycemic medications (OAMs) for at least 1 year&lt;/p&gt;\n    &lt;ul&gt;\n      &lt;p&gt;[A] insulin: long-acting insulin analog (either insulin glargine [U-100 or U-300] or insulin degludec [U-100]) alon</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_6': 'Inclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Inclusion/Exclusion Subcategory</t>
-        </is>
-      </c>
       <c r="G7" s="39" t="inlineStr">
         <is>
           <t>study.versions.studyDesigns.eligibilityCriteria{id: notes.codes.decode}</t>
         </is>
       </c>
-      <c r="H7" s="33" t="n"/>
+      <c r="H7" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>TIRL</t>
+          <t> </t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Criterion Rule</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
@@ -3052,47 +3072,65 @@
       </c>
       <c r="F8" s="4" t="n"/>
       <c r="G8" s="38" t="n"/>
-      <c r="H8" s="33" t="n"/>
+      <c r="H8" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>TIVERS</t>
+          <t> </t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_8': '8'</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> insulin aspar</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_8': 'Inclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
           <t>Protocol Criteria Versions</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_8': '8'</t>
-        </is>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> insulin aspar</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_8': 'Inclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>Protocol Criteria Versions</t>
-        </is>
-      </c>
       <c r="G9" s="38" t="inlineStr">
         <is>
           <t>study.versions.versionIdentifier</t>
         </is>
       </c>
-      <c r="H9" s="33" t="n"/>
+      <c r="H9" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_9': '9'</t>
@@ -3108,8 +3146,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_9': 'Inclusion Criteria</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_10': '10'</t>
@@ -3125,8 +3178,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_10': 'Inclusion Criteria</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_11': '11'</t>
@@ -3142,8 +3210,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_11': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_12': '12'</t>
@@ -3159,8 +3242,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_12': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_13': '13'</t>
@@ -3176,8 +3274,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_13': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_14': '14'</t>
@@ -3193,8 +3306,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_14': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_15': '15'</t>
@@ -3210,8 +3338,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_15': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_16': '16'</t>
@@ -3227,8 +3370,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_16': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_17': '17'</t>
@@ -3244,8 +3402,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_17': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_18': '18'</t>
@@ -3261,8 +3434,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_18': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_19': '19'</t>
@@ -3278,8 +3466,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_19': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_20': '20'</t>
@@ -3295,8 +3498,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_20': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_21': '21'</t>
@@ -3312,8 +3530,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_21': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_22': '22'</t>
@@ -3329,8 +3562,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_22': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_23': '23'</t>
@@ -3346,8 +3594,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_23': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_24': '24'</t>
@@ -3363,8 +3626,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_24': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_25': '25'</t>
@@ -3380,8 +3658,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_25': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_26': '26'</t>
@@ -3397,8 +3690,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_26': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_27': '27'</t>
@@ -3414,8 +3722,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_27': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_28': '28'</t>
@@ -3431,8 +3754,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_28': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_29': '29'</t>
@@ -3448,8 +3786,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_29': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_30': '30'</t>
@@ -3465,8 +3818,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_30': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_31': '31'</t>
@@ -3482,8 +3850,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_31': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_32': '32'</t>
@@ -3499,8 +3882,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_32': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_33': '33'</t>
@@ -3516,8 +3914,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_33': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_34': '34'</t>
@@ -3533,8 +3946,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_34': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_35': '35'</t>
@@ -3550,8 +3978,23 @@
           <t xml:space="preserve"> 'EligibilityCriterion_35': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_36': '36</t>
@@ -3567,515 +4010,1615 @@
           <t xml:space="preserve"> 'EligibilityCriterion_36': 'Exclusion Criteria</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>\n            or&lt;/li&gt;\n          &lt;li&gt;[iii] a woman at least 55 years of age with a diagnosis of menopause prior to starting hormone replacement\n            therapy&lt;/li&gt;\n        &lt;/ul&gt;\n      &lt;/li&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n&lt;/ul&gt;</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_4': '&lt;p&gt;are between 18 and 64 years old for T1D</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t xml:space="preserve"> or between 20 and 70 years old for T2DM at the time of informed consent&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_5': '&lt;p&gt;have a body mass index of 18.5 to 30.0 kg/m 2 for T1D</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t xml:space="preserve"> or 18.5 to 35.0 kg/m 2 for T2DM at the time of screening&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_6': '&lt;p&gt;have a hemoglobin A1c value ≤10% at the time of screening&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_7': '&lt;p&gt;have clinical laboratory test results within normal reference range (except for glycemic parameters) for the population or investigative sit</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t xml:space="preserve"> or results with acceptable deviations that are judged to be not clinically significant by the investigator&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_8': '&lt;p&gt;have venous access sufficient to allow for blood sampling and administration of insulin for IV administration as per the protocol&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_9': '&lt;p&gt;are reliable and willing to make themselves available for the duration of the study and are willing to follow study procedures&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_10': '&lt;p&gt;are able and willing to give signed informed consent&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_11': '&lt;p&gt;are investigative site personnel directly affiliated with this study and their immediate families. Immediate family is defined as a spous</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t xml:space="preserve"> biological or legal guardia</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t xml:space="preserve"> chil</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t xml:space="preserve"> or sibling&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_12': '&lt;p&gt;are Lilly employees&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_13': '&lt;p&gt;are currently enrolled in a clinical trial involving an investigational product or any other type of medical research judged not to be scientifically or medically compatible with this study&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_14': '&lt;p&gt;have participate</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t xml:space="preserve"> within the last 4 month</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t xml:space="preserve"> in a clinical trial involving an investigational product. If the previous investigational product has a long half-lif</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4 months or 5 half-lives (whichever is longer) should have passed from the last dose of investigational product&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_15': '&lt;p&gt;have previously completed or withdrawn from this study or any other study investigating LY90001</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t xml:space="preserve"> and have previously received LY900018&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_16': '&lt;p&gt;have known allergies or sensitivity to LY90001</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t xml:space="preserve"> glucago</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t xml:space="preserve"> related compound</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t xml:space="preserve"> or any components of the formulatio</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t xml:space="preserve"> or history of significant atopy&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_17': '&lt;p&gt;have an abnormality in the 12-lead ECG tha</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t xml:space="preserve"> in the opinion of the investigato</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t xml:space="preserve"> increases the risks associated with participating in the study&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_18': '&lt;p&gt;any significant changes in insulin regimen and/or unstable blood glucose control within the past 3 months prior to screening as assessed by the investigator&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_19': '&lt;p&gt;have received a total daily dose of insulin &amp;gt;1.2 U/kg at the time of screening&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_20': '&lt;p&gt;have poorly controlled hypertension (i</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t xml:space="preserve"> supine systolic BP &amp;gt;165 mm Hg or supine diastolic BP &amp;gt;95 mm Hg) at screenin</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t xml:space="preserve"> or a change in antihypertensive medications within 30 days prior to screening&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_21': '&lt;p&gt;have a history of pheochromocytoma (i</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t xml:space="preserve"> adrenal gland tumor) or insulinoma&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_22': '&lt;p&gt;have a history of an episode of severe hypoglycemia (as defined by an episode that required third party assistance for treatment) in the 1 month prior to screening or have a history of loss of consciousness within the last 2 years induced other than by hypoglycemia&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_23': '&lt;p&gt;have a history of epilepsy or seizure disorder&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_24': '&lt;p&gt;have a history or presence of cardiovascula</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t xml:space="preserve"> respirator</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t xml:space="preserve"> hepati</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t xml:space="preserve"> rena</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t xml:space="preserve"> gastrointestina</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t xml:space="preserve"> endocrine (apart from T1DM or T2DM</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t xml:space="preserve"> hematologica</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t xml:space="preserve"> or neurological disorders capable of significantly altering the absorptio</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t xml:space="preserve"> metabolis</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t xml:space="preserve"> or elimination of drugs; of constituting a risk when taking the investigational product; or of interfering with the interpretation of data&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_25': '&lt;p&gt;have known or ongoing psychiatric disorders tha</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t xml:space="preserve"> in the opinion of the investigato</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t xml:space="preserve"> may preclude the patient from following and completing the protocol&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_26': '&lt;p&gt;regularly use known drugs of abuse and/or show positive findings on urinary drug screening&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_27': '&lt;p&gt;show evidence of human immunodeficiency virus (HIV) infection and/or positive HIV antibodies and/or antigen&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_28': '&lt;p&gt;show evidence of hepatitis C and/or positive hepatitis C antibody&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_29': '&lt;p&gt;show evidence of hepatitis B and/or positive hepatitis B surface antigen&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_30': '&lt;p&gt;show evidence of syphilis and/or are positive for syphilis test&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_31': '&lt;p&gt;are women who are lactating&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_32': '&lt;p&gt;use of daily systemic beta-blocke</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t xml:space="preserve"> indomethaci</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t xml:space="preserve"> warfari</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t xml:space="preserve"> anticholinergic drugs&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_33': '&lt;p&gt;have donated 400 mL or more blood in the last 12 weeks (males) or in the last 16 weeks (females</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t xml:space="preserve"> or any blood donation (including apheresis) within the last 4 week</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t xml:space="preserve"> or total volume of blood donation within 12 months is 1200 mL (males)/800 mL (females) or more at screening&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_34': '&lt;p&gt;have an average weekly alcohol intake that exceeds 21 units per week (males up to age 65) and 14 units per week (males over 65 and females</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t xml:space="preserve"> or are unwilling to stop alcohol consumption from Day -2 to discharge from CRU in each period (1 unit = 12 oz or 360 mL of beer; 5 oz or 150 mL of wine; 1.5 oz or 45 mL of distilled spirits)&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_35': '&lt;p&gt;in the opinion of the investigator or sponso</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t xml:space="preserve"> are unsuitable for inclusion in the study&lt;/p&gt;</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_36': '&lt;p&gt;have pre-proliferative and proliferative retinopathy or maculopathy requiring treatment or not clinically stable in the last 6 month</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t xml:space="preserve"> or patients with active changes in subjective eye symptoms as determined by the investigator if an eye exam has not been performed in the last 6 months. Note: If an eye examination has been performed no more than 6 months before screenin</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t xml:space="preserve"> it will not have to be repeated; howeve</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -2740,7 +2740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -2758,42 +2758,42 @@
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>STUDYID</t>
+          <t xml:space="preserve">Variable Name </t>
         </is>
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t>DOMAIN</t>
+          <t xml:space="preserve">Variable Label </t>
         </is>
       </c>
       <c r="C1" s="10" t="inlineStr">
         <is>
-          <t>IETESTCD</t>
+          <t xml:space="preserve">Type </t>
         </is>
       </c>
       <c r="D1" s="10" t="inlineStr">
         <is>
-          <t>IETEST</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="E1" s="10" t="inlineStr">
         <is>
-          <t>IECAT</t>
+          <t xml:space="preserve">Core </t>
         </is>
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>IESCAT</t>
+          <t>Mapping Name</t>
         </is>
       </c>
       <c r="G1" s="37" t="inlineStr">
         <is>
-          <t>TIRL</t>
+          <t>JSONATA</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
         <is>
-          <t>TIVERS</t>
+          <t>Fixed content</t>
         </is>
       </c>
       <c r="I1" s="27" t="n"/>
@@ -2803,27 +2803,27 @@
     <row r="2" ht="72.5" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>STUDYID</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Study Identifier</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>'EligibilityCriterion_1': '1'</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>'EligibilityCriterion_1': '&lt;p&gt;have had a diagnosis of either:&lt;/p&gt;\n&lt;ul&gt;\n  &lt;li&gt;\n    &lt;p&gt;[1a] T1DM based on the World Health Organization (WHO) diagnostic criteri</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Req</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
@@ -2836,70 +2836,66 @@
           <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
         </is>
       </c>
-      <c r="H2" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H2" s="33" t="n"/>
     </row>
     <row r="3" ht="29" customHeight="1">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>DOMAIN</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Domain Abbreviation</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_2': '2'</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> and have been on the following daily insulin therapy for at least 1 year&lt;/p&gt;\n    &lt;ul&gt;\n      &lt;p&gt;[A] multiple daily injection of long-acting insulin analog (either insulin glargine [U-100 or U-300] or insulin degludec [U-100]) and rapid-acting insulin analog (insulin lispr</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_2': 'Inclusion Criteria</t>
+          <t>Req</t>
         </is>
       </c>
       <c r="F3" s="4" t="n"/>
       <c r="G3" s="38" t="n"/>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TI</t>
         </is>
       </c>
     </row>
     <row r="4" ht="29" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>IETESTCD</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Incl/Excl Criterion Short Name</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_3': '3'</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> insulin aspar</t>
+          <t>Topic</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_3': 'Inclusion Criteria</t>
+          <t>Req</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -2912,36 +2908,32 @@
           <t>study.versions.studyDesigns.eligibilityCriteria.{id: identifier}</t>
         </is>
       </c>
-      <c r="H4" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H4" s="33" t="n"/>
     </row>
     <row r="5" ht="87" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>IETEST</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Inclusion/Exclusion Criterion</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_4': '4'</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> or insulin glulisine</t>
+          <t>Synonym Qualifier</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_4': 'Inclusion Criteria</t>
+          <t>Req</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -2954,36 +2946,32 @@
           <t>study.versions.($EligTxt := function($id) {(eligibilityCriterionItems[id=$id].text)}; studyDesigns.eligibilityCriteria{id: $EligTxt(criterionItemId)})</t>
         </is>
       </c>
-      <c r="H5" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H5" s="33" t="n"/>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>IECAT</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Inclusion/Exclusion Category</t>
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_5': '5'</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> or&lt;/p&gt;\n      &lt;p&gt;[B] continuous subcutaneous insulin infusion (CSII)&lt;/p&gt;    \n    &lt;/ul&gt;\n  &lt;/li&gt;\n  &lt;p&gt;Or&lt;/p&gt;\n  &lt;li&gt;\n    &lt;p&gt;[1b] T2DM based on the WHO diagnostic criteri</t>
+          <t>Grouping Qualifier</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_5': 'Inclusion Criteria</t>
+          <t>Req</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -2996,36 +2984,32 @@
           <t>study.versions.studyDesigns.eligibilityCriteria{id: category.decode}</t>
         </is>
       </c>
-      <c r="H6" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H6" s="33" t="n"/>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>IESCAT</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Inclusion/Exclusion Subcategory</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_6': '6'</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> and have received the&lt;/p&gt;\n    &lt;p&gt;following daily insulin therapy with or without oral anti-hyperglycemic medications (OAMs) for at least 1 year&lt;/p&gt;\n    &lt;ul&gt;\n      &lt;p&gt;[A] insulin: long-acting insulin analog (either insulin glargine [U-100 or U-300] or insulin degludec [U-100]) alon</t>
+          <t>Grouping Qualifier</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_6': 'Inclusion Criteria</t>
+          <t>Perm</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -3038,70 +3022,62 @@
           <t>study.versions.studyDesigns.eligibilityCriteria{id: notes.codes.decode}</t>
         </is>
       </c>
-      <c r="H7" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H7" s="33" t="n"/>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TIRL</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Inclusion/Exclusion Criterion Rule</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_7': '7'</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> or in combination with rapid-acting insulin analog (insulin lispr</t>
+          <t>Rule</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_7': 'Inclusion Criteria</t>
+          <t>Perm</t>
         </is>
       </c>
       <c r="F8" s="4" t="n"/>
       <c r="G8" s="38" t="n"/>
-      <c r="H8" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H8" s="33" t="n"/>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TIVERS</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Protocol Criteria Versions</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_8': '8'</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> insulin aspar</t>
+          <t>Record Qualifier</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_8': 'Inclusion Criteria</t>
+          <t>Perm</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -3114,2535 +3090,7 @@
           <t>study.versions.versionIdentifier</t>
         </is>
       </c>
-      <c r="H9" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_9': '9'</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or insulin glulisine) or CSII&lt;/p&gt;\n      &lt;p&gt;[B] OAM: up to 3 of the following OAMs in accordance with local regulations: metformi</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_9': 'Inclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_10': '10'</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dipeptidyl peptidase-4 inhibito</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_10': 'Inclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_11': '11'</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> sodium glucose cotransporter 2 inhibito</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_11': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_12': '12'</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> sulfonylurea (should not be more than half of maximum approved doses</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_12': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_13': '13'</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> glinide</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_13': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_14': '14'</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> alpha-glucosidase inhibito</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_14': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_15': '15'</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or thiazolidine&lt;/p&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n&lt;/ul&gt;</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_15': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_16': '16'</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_2': '&lt;p&gt;male patients: agree to use an effective method of contraception for the duration of the study and for 28 days following the last study treatment&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_16': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_17': '17'</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_3': '&lt;ul&gt;\n  &lt;li&gt;\n    [3a] women of childbearing potential who are abstinent (if this is complete\n    abstinenc</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_17': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_18': '18'</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> as their preferred and usual lifestyle) or in a same sex\n    relationship (as part of their preferred and usual lifestyle) must agree to\n    either remain abstinent or stay in a same sex relationship without sexual\n    relationships with males. Periodic abstinence (e</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_18': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_19': '19'</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> calenda</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_19': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_20': '20'</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ovulatio</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_20': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_21': '21'</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>\n    symptotherma</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_21': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_22': '22'</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> post-ovulation methods</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_22': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_23': '23'</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> declaration of abstinence just for\n    the duration of a tria</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_23': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_24': '24'</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> and withdrawal are not acceptable methods of\n    contraception.\n  &lt;/li&gt;\n  &lt;li&gt;\n    [3b] otherwis</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_24': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_25': '25'</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> women of childbearing potential participating must agree to use\n    one highly effective method (less than 1% failure rate) of contraceptio</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_25': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_26': '26'</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or a\n    combination of 2 effective methods of contraception for the entirety of the\n    study.\n    &lt;ul&gt;\n      &lt;li&gt;[A] women of childbearing potential participating must test negative for\n        pregnancy prior to initiation of treatment as indicated by a negative serum\n        pregnancy test at the screening visit followed by a negative urine\n        pregnancy test within 24 hours prior to exposure.&lt;/li&gt;\n      &lt;li&gt;[B] either one highly effective method of contraception or a combination\n        of 2 effective methods of contraception will be used. The patient may\n        choose to use a double barrier method of contraception. Barrier protection\n        methods without concomitant use of a spermicide are not a reliable or\n        acceptable method. Thu</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_26': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_27': '27'</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> each barrier method must include use of a\n        spermicide. It should be noted that the use of male and female condoms\n        as a double barrier method is not considered acceptable due to the high\n        failure rate when these methods are combined.&lt;/li&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    [3c] women not of childbearing potential may participat</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_27': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_28': '28'</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> and include those who are:\n    &lt;ul&gt;\n      &lt;li&gt;\n        [A] infertile due to surgical sterilization (hysterectom</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_28': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_29': '29'</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> bilateral\n        oophorectom</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_29': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_30': '30'</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or tubal ligation</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_30': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_31': '31'</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> congenital anomaly such as mullerian\n        agenesis\n      &lt;/li&gt;\n      &lt;li&gt;\n        Or\n        [B] postmenopausa</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_31': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_32': '32'</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> defined as either:\n        &lt;ul&gt;\n          &lt;li&gt;[i] a woman at least 50 years of age with an intact uteru</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_32': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_33': '33'</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> not on hormone therap</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_33': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_34': '34'</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> who has had either:\n          &lt;/li&gt;\n          &lt;ul&gt;\n            &lt;li&gt;[a] cessation of menses for at least 1 yea</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_34': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_35': '35'</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or&lt;/li&gt;\n            &lt;li&gt;[b] at least 6 months of spontaneous amenorrhea with a follicle-stimulating hormone &gt;40 mIU/mL; or&lt;/li&gt;\n          &lt;/ul&gt;\n          &lt;li&gt;[ii] a woman 55 or older not on hormone therap</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_35': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_36': '36</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> who has had at least 6 months of spontaneous amenorrhe</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_36': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>\n            or&lt;/li&gt;\n          &lt;li&gt;[iii] a woman at least 55 years of age with a diagnosis of menopause prior to starting hormone replacement\n            therapy&lt;/li&gt;\n        &lt;/ul&gt;\n      &lt;/li&gt;\n    &lt;/ul&gt;\n  &lt;/li&gt;\n&lt;/ul&gt;</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_4': '&lt;p&gt;are between 18 and 64 years old for T1D</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or between 20 and 70 years old for T2DM at the time of informed consent&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_5': '&lt;p&gt;have a body mass index of 18.5 to 30.0 kg/m 2 for T1D</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or 18.5 to 35.0 kg/m 2 for T2DM at the time of screening&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_6': '&lt;p&gt;have a hemoglobin A1c value ≤10% at the time of screening&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_7': '&lt;p&gt;have clinical laboratory test results within normal reference range (except for glycemic parameters) for the population or investigative sit</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or results with acceptable deviations that are judged to be not clinically significant by the investigator&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_8': '&lt;p&gt;have venous access sufficient to allow for blood sampling and administration of insulin for IV administration as per the protocol&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_9': '&lt;p&gt;are reliable and willing to make themselves available for the duration of the study and are willing to follow study procedures&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_10': '&lt;p&gt;are able and willing to give signed informed consent&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_11': '&lt;p&gt;are investigative site personnel directly affiliated with this study and their immediate families. Immediate family is defined as a spous</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> biological or legal guardia</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> chil</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or sibling&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_12': '&lt;p&gt;are Lilly employees&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_13': '&lt;p&gt;are currently enrolled in a clinical trial involving an investigational product or any other type of medical research judged not to be scientifically or medically compatible with this study&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_14': '&lt;p&gt;have participate</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> within the last 4 month</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> in a clinical trial involving an investigational product. If the previous investigational product has a long half-lif</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4 months or 5 half-lives (whichever is longer) should have passed from the last dose of investigational product&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_15': '&lt;p&gt;have previously completed or withdrawn from this study or any other study investigating LY90001</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> and have previously received LY900018&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_16': '&lt;p&gt;have known allergies or sensitivity to LY90001</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> glucago</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> related compound</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or any components of the formulatio</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or history of significant atopy&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_17': '&lt;p&gt;have an abnormality in the 12-lead ECG tha</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> in the opinion of the investigato</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> increases the risks associated with participating in the study&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_18': '&lt;p&gt;any significant changes in insulin regimen and/or unstable blood glucose control within the past 3 months prior to screening as assessed by the investigator&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_19': '&lt;p&gt;have received a total daily dose of insulin &amp;gt;1.2 U/kg at the time of screening&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_20': '&lt;p&gt;have poorly controlled hypertension (i</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> supine systolic BP &amp;gt;165 mm Hg or supine diastolic BP &amp;gt;95 mm Hg) at screenin</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or a change in antihypertensive medications within 30 days prior to screening&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_21': '&lt;p&gt;have a history of pheochromocytoma (i</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> adrenal gland tumor) or insulinoma&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_22': '&lt;p&gt;have a history of an episode of severe hypoglycemia (as defined by an episode that required third party assistance for treatment) in the 1 month prior to screening or have a history of loss of consciousness within the last 2 years induced other than by hypoglycemia&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_23': '&lt;p&gt;have a history of epilepsy or seizure disorder&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_24': '&lt;p&gt;have a history or presence of cardiovascula</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> respirator</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> hepati</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> rena</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> gastrointestina</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> endocrine (apart from T1DM or T2DM</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> hematologica</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or neurological disorders capable of significantly altering the absorptio</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> metabolis</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or elimination of drugs; of constituting a risk when taking the investigational product; or of interfering with the interpretation of data&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_25': '&lt;p&gt;have known or ongoing psychiatric disorders tha</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> in the opinion of the investigato</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> may preclude the patient from following and completing the protocol&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_26': '&lt;p&gt;regularly use known drugs of abuse and/or show positive findings on urinary drug screening&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_27': '&lt;p&gt;show evidence of human immunodeficiency virus (HIV) infection and/or positive HIV antibodies and/or antigen&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_28': '&lt;p&gt;show evidence of hepatitis C and/or positive hepatitis C antibody&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_29': '&lt;p&gt;show evidence of hepatitis B and/or positive hepatitis B surface antigen&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_30': '&lt;p&gt;show evidence of syphilis and/or are positive for syphilis test&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_31': '&lt;p&gt;are women who are lactating&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_32': '&lt;p&gt;use of daily systemic beta-blocke</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> indomethaci</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> warfari</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> anticholinergic drugs&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_33': '&lt;p&gt;have donated 400 mL or more blood in the last 12 weeks (males) or in the last 16 weeks (females</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or any blood donation (including apheresis) within the last 4 week</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or total volume of blood donation within 12 months is 1200 mL (males)/800 mL (females) or more at screening&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_34': '&lt;p&gt;have an average weekly alcohol intake that exceeds 21 units per week (males up to age 65) and 14 units per week (males over 65 and females</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or are unwilling to stop alcohol consumption from Day -2 to discharge from CRU in each period (1 unit = 12 oz or 360 mL of beer; 5 oz or 150 mL of wine; 1.5 oz or 45 mL of distilled spirits)&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_35': '&lt;p&gt;in the opinion of the investigator or sponso</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> are unsuitable for inclusion in the study&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_36': '&lt;p&gt;have pre-proliferative and proliferative retinopathy or maculopathy requiring treatment or not clinically stable in the last 6 month</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or patients with active changes in subjective eye symptoms as determined by the investigator if an eye exam has not been performed in the last 6 months. Note: If an eye examination has been performed no more than 6 months before screenin</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> it will not have to be repeated; howeve</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> the investigator will need to confirm via interview that there is no change in subjective symptoms.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H9" s="33" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5655,7 +3103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:K3"/>
@@ -5676,405 +3124,3306 @@
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Name </t>
+          <t>STUDYID</t>
         </is>
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Label </t>
+          <t>DOMAIN</t>
         </is>
       </c>
       <c r="C1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type </t>
+          <t>TSSEQ</t>
         </is>
       </c>
       <c r="D1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>TSGRPID</t>
         </is>
       </c>
       <c r="E1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Core </t>
+          <t>TSPARMCD</t>
         </is>
       </c>
       <c r="F1" s="10" t="inlineStr">
         <is>
-          <t>Mapping Name</t>
+          <t>TSPARM</t>
         </is>
       </c>
       <c r="G1" s="10" t="inlineStr">
         <is>
-          <t>JSONATA</t>
+          <t>TSVAL</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
         <is>
-          <t>Fixed content</t>
-        </is>
-      </c>
-      <c r="I1" s="27" t="n"/>
-      <c r="J1" s="27" t="n"/>
-      <c r="K1" s="27" t="n"/>
+          <t>TSVALNF</t>
+        </is>
+      </c>
+      <c r="I1" s="27" t="inlineStr">
+        <is>
+          <t>TSVALCD</t>
+        </is>
+      </c>
+      <c r="J1" s="27" t="inlineStr">
+        <is>
+          <t>TSVCDREF</t>
+        </is>
+      </c>
+      <c r="K1" s="27" t="inlineStr">
+        <is>
+          <t>TSVCDVER</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="93" customHeight="1">
-      <c r="A2" s="9" t="inlineStr">
-        <is>
-          <t>STUDYID</t>
-        </is>
-      </c>
+      <c r="A2" s="9" t="n"/>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>Study Identifier</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t>ADAPT</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>Sponsor Study Identifier</t>
+          <t>Adaptive Design</t>
         </is>
       </c>
       <c r="G2" s="34" t="inlineStr">
         <is>
-          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
+          <t> </t>
         </is>
       </c>
       <c r="H2" s="33" t="n"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="inlineStr">
-        <is>
-          <t>DOMAIN</t>
-        </is>
-      </c>
+      <c r="A3" s="9" t="n"/>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>Domain Abbreviation</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="32" t="n"/>
+          <t>AGEMIN</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Planned Minimum Age of Subjects</t>
+        </is>
+      </c>
+      <c r="G3" s="32" t="inlineStr">
+        <is>
+          <t>18  Year</t>
+        </is>
+      </c>
       <c r="H3" s="9" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="n"/>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
           <t>TS</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="inlineStr">
-        <is>
-          <t>TSSEQ</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="inlineStr">
-        <is>
-          <t>Sequence Number</t>
-        </is>
-      </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>Num</t>
+          <t> </t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F4" s="12" t="n"/>
-      <c r="G4" s="32" t="n"/>
-      <c r="H4" s="33" t="n"/>
+          <t>AGEMAX</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>Planned Minimum Age of Subjects</t>
+        </is>
+      </c>
+      <c r="G4" s="32" t="inlineStr">
+        <is>
+          <t>70  Year</t>
+        </is>
+      </c>
+      <c r="H4" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t>TSGRPID</t>
-        </is>
-      </c>
+      <c r="A5" s="9" t="n"/>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>Group ID</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="32" t="n"/>
+          <t>BRDNAIND</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>Biospecimen Retention contains DNA Ind</t>
+        </is>
+      </c>
+      <c r="G5" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H5" s="33" t="n"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>TSPARMCD</t>
-        </is>
-      </c>
+      <c r="A6" s="9" t="n"/>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>Trial Summary Parameter Short Name</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>Topic</t>
+          <t> </t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F6" s="12" t="n"/>
-      <c r="G6" s="32" t="n"/>
+          <t>BRIND</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>Biospecimen Retention indicator</t>
+        </is>
+      </c>
+      <c r="G6" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H6" s="33" t="n"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="29" customHeight="1">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>TSPARM</t>
-        </is>
-      </c>
+      <c r="A7" s="9" t="n"/>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>Trial Summary Parameter</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>Synonym Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="n"/>
-      <c r="G7" s="32" t="n"/>
+          <t>COMPTRT</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>Comparative Treatment Name</t>
+        </is>
+      </c>
+      <c r="G7" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H7" s="33" t="n"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>TSVAL</t>
-        </is>
-      </c>
+      <c r="A8" s="9" t="n"/>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>Parameter Value</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="n"/>
-      <c r="G8" s="32" t="n"/>
+          <t>CONNAME</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>Contact Name</t>
+        </is>
+      </c>
+      <c r="G8" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H8" s="33" t="n"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
-      <c r="A9" s="9" t="inlineStr">
-        <is>
-          <t>TSVALNF</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>Parameter Value Null Flavor</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="n"/>
-      <c r="G9" s="32" t="n"/>
+          <t>CONROLE</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>Contact Role</t>
+        </is>
+      </c>
+      <c r="G9" s="32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H9" s="33" t="n"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="29" customHeight="1">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>TSVALCD</t>
-        </is>
-      </c>
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>Parameter Value Code</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D10" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="n"/>
-      <c r="G10" s="32" t="n"/>
-      <c r="H10" s="33" t="n"/>
+          <t>CRMDUR</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="inlineStr">
+        <is>
+          <t>Confirmed Response Minimum Duration</t>
+        </is>
+      </c>
+      <c r="G10" s="32" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': '1 Day'</t>
+        </is>
+      </c>
+      <c r="H10" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="29" customHeight="1">
-      <c r="A11" s="9" t="inlineStr">
-        <is>
-          <t>TSVCDREF</t>
-        </is>
-      </c>
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>Name of Reference Terminology</t>
-        </is>
-      </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>CRMDUR</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Name of Reference Terminology</t>
+          <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
       <c r="G11" s="32" t="inlineStr">
         <is>
-          <t>..code.codeSystem</t>
-        </is>
-      </c>
-      <c r="H11" s="33" t="n"/>
+          <t xml:space="preserve"> 'StudyIntervention_2': '1 Day</t>
+        </is>
+      </c>
+      <c r="H11" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="43.5" customHeight="1">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>TSVCDVER</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>Version of the Reference Terminology</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>CURTRT</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Version of Reference Terminology</t>
+          <t>Current Therapy or Treatment</t>
         </is>
       </c>
       <c r="G12" s="32" t="inlineStr">
         <is>
-          <t>..code.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
       <c r="H12" s="33" t="n"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DMCIND</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Data Monitoring Committee Indicator</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DOSE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dose Level; Dose per Administration</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 3.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DOSE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dose Level; Dose per Administration</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 1.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DOSFRM</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Dose Form</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DOSFRQ</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dosing Frequency</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'Once</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'C64576</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': '2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DOSFRQ</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Dosing Frequency</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'Once</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'C64576</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>DOSU</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Dose Units</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'Milligram</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'C28253</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': '2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>DOSU</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Dose Units</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'Milligram</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'C28253</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>EXTTIND</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Extension Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FCNTRY</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Planned Country of Investigational Sites</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HLTSUBJI</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Healthy Subject Indicator</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>INDIC</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>'T1DM', 'T2DM'</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>INTMODEL</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Intervention Model</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Parallel Study</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>C82639</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>INTTYPE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Intervention Type</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'Pharmacologic Substance</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'C1909</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': '2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>INTTYPE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Intervention Type</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'Pharmacologic Substance</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'C1909</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>LENGTH</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Trial Length</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MSEUTIND</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Multiple Site EU Site Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NARMS</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Planned Number of Arms</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NCOHORT</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Number of Groups/Cohorts</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NUMSEUST</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Number of Trial Sites EU State</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>OBJEXP</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Trial Exploratory Objective</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>OBJEXP</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Trial Exploratory Objective</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>OBJPRIM</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Study Primary Objective; Trial Primary Objective</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>OBJSEC</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>OBJSEC</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>OBJSEC</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>OBSMODEL</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Observational Model</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>OBSTIMP</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Observational Time Perspective</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>OBSTPOPD</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Obs Study Population Description</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>OBSTSMM</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Observational Study Sampling Method</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>OUTMSEXP</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Exploratory Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>OUTMSEXP</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Exploratory Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>OUTMSPRI</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Primary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>OUTMSSEC</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>OUTMSSEC</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>OUTMSSEC</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>PCLAS</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Pharmacologic Class</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>PIPIND</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Pediatric Investigation Plan Indicator</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>PLANSUB</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>PTRTDUR</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Planned Treatment Duration</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': '1 Day</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>PTRTDUR</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Planned Treatment Duration</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': '1 Day</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>RANDOM</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Trial is Randomized</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>RDIND</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Rare Disease Indicator</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>REGID</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Registry Identifier</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'Nasal Route of Administration</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'C38284</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': '2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'Intramuscular Route of Administration</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'C28161</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>RTSPCDES</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Retained Biospecimen Description</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SEXPOP</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sex of Participants</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SPONSOR</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SPREFID</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sponsor's Study Reference ID</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SSEUTIND</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Single Site EU State Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>STYPE</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Study Type; Study Type Classification</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Interventional Study</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>C98388</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>TBLIND</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Open Label Study</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>C49659</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>TCNTRL</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Control Type</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>THERAREA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Therapeutic Area</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>TINDTP</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Trial Intent Type</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>'Basic Research', 'Device Feasibility Study'</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>'C15714', 'C139174'</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>'http://www.cdisc.org', 'http://www.cdisc.org'</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>'2024-09-27', '2024-09-27'</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Official Study Title; Study Title; Trial Title</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>TPHASE</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Trial Phase; Trial Phase Classification</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Investigational Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>'StudyIntervention_1': 'LY900018'</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Investigational Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'StudyIntervention_2': 'GlucaGen</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>TTYPE</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Trial Scope; Trial Type</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Efficacy Study</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>C49666</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6141,7 +6490,7 @@
       </c>
       <c r="G1" s="27" t="inlineStr">
         <is>
-          <t>TSVAL JSONATA map</t>
+          <t>Mapping Results</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
@@ -6190,7 +6539,22 @@
       </c>
       <c r="G2" s="30" t="inlineStr">
         <is>
-          <t>$exists(study.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6219,9 +6583,27 @@
       </c>
       <c r="G3" s="28" t="inlineStr">
         <is>
-          <t>$min([study.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
-$distinct(study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode)
- &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode)</t>
+          <t>18  Year</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6250,13 +6632,27 @@
       </c>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>$max([study.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
-$distinct(study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode) &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode)</t>
+          <t>70  Year</t>
         </is>
       </c>
       <c r="H4" s="35" t="inlineStr">
         <is>
-          <t>PINF</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6293,7 +6689,22 @@
       </c>
       <c r="G5" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.biospecimenRetentions.includesDNA</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6330,7 +6741,22 @@
       </c>
       <c r="G6" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.biospecimenRetentions.isRetained</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6363,7 +6789,22 @@
       <c r="F7" s="14" t="n"/>
       <c r="G7" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions[role.code="C68609"].{id: label}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6398,6 +6839,26 @@
           <t>Contact Name</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="15" t="inlineStr">
@@ -6430,6 +6891,26 @@
           <t>Contact Role</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" s="15" t="inlineStr">
@@ -6464,7 +6945,27 @@
       </c>
       <c r="G10" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': '1 Day' , 'StudyIntervention_2': '1 Day'}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6501,7 +7002,22 @@
       </c>
       <c r="G11" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions[role.code="C165822"].{id: label}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6530,7 +7046,22 @@
       </c>
       <c r="G12" s="28" t="inlineStr">
         <is>
-          <t>$exists(study.versions.roles.code[code="C142578"]) ? "Y" : ""</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6567,7 +7098,27 @@
       </c>
       <c r="G13" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.value}</t>
+          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6604,7 +7155,22 @@
       </c>
       <c r="G14" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6641,22 +7207,27 @@
       </c>
       <c r="G15" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I15" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.code}</t>
+          <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
         </is>
       </c>
       <c r="J15" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K15" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -6693,22 +7264,27 @@
       </c>
       <c r="G16" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I16" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.code}</t>
+          <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
         </is>
       </c>
       <c r="J16" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K16" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -6737,7 +7313,22 @@
       </c>
       <c r="G17" s="36" t="inlineStr">
         <is>
-          <t>$exists(study.versions.studyDesigns.characteristics[code="C207613"]) ? "Y" : ""</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6766,6 +7357,26 @@
       <c r="F18" s="14" t="inlineStr">
         <is>
           <t>Planned Country of Investigational Sites</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6794,7 +7405,22 @@
       </c>
       <c r="G19" s="28" t="inlineStr">
         <is>
-          <t>$exists(study.versions.studyDesigns.population[includesHealthySubjects=true]) ? "Y" : ($exists(study.versions.studyDesigns.population.cohorts[includesHealthySubjects=true]) ? "Y" : "")</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6823,7 +7449,27 @@
       </c>
       <c r="G20" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.indications.label</t>
+          <t>'T1DM', 'T2DM'</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6852,22 +7498,27 @@
       </c>
       <c r="G21" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.decode</t>
+          <t>Parallel Study</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I21" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.code</t>
+          <t>C82639</t>
         </is>
       </c>
       <c r="J21" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystem</t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K21" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystemVersion</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -6904,22 +7555,27 @@
       </c>
       <c r="G22" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.decode}</t>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I22" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.code}</t>
+          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
         </is>
       </c>
       <c r="J22" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K22" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -6948,12 +7604,27 @@
       </c>
       <c r="G23" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>NI</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6980,6 +7651,26 @@
           <t>Multiple Site Eu Site Trial Indicator</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="29" customHeight="1">
       <c r="A25" s="15" t="inlineStr">
@@ -7006,7 +7697,27 @@
       </c>
       <c r="G25" s="28" t="inlineStr">
         <is>
-          <t>$count(study.versions.studyDesigns.arms)</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7035,7 +7746,27 @@
       </c>
       <c r="G26" s="29" t="inlineStr">
         <is>
-          <t>$exists(study.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7062,6 +7793,26 @@
           <t>Number of Trial Sites EU State</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="43.5" customHeight="1">
       <c r="A28" s="15" t="inlineStr">
@@ -7096,7 +7847,27 @@
       </c>
       <c r="G28" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
+          <t>{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon' , 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7133,7 +7904,27 @@
       </c>
       <c r="G29" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
+          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7170,7 +7961,27 @@
       </c>
       <c r="G30" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
+          <t>{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG' , 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG' , 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7199,22 +8010,22 @@
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="I31" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J31" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K31" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7243,22 +8054,22 @@
       </c>
       <c r="G32" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="I32" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J32" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K32" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7287,7 +8098,22 @@
       </c>
       <c r="G33" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].populations.description</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7316,22 +8142,22 @@
       </c>
       <c r="G34" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="I34" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J34" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K34" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7368,7 +8194,27 @@
       </c>
       <c r="G35" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
+          <t>{ , }</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7405,7 +8251,22 @@
       </c>
       <c r="G36" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7442,7 +8303,27 @@
       </c>
       <c r="G37" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
+          <t>{ ,  , }</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7475,7 +8356,22 @@
       </c>
       <c r="G38" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions.administrations.administrableProduct[producDesignation.code="C202579"].pharmacologicClass.decode</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7504,7 +8400,22 @@
       </c>
       <c r="G39" s="28" t="inlineStr">
         <is>
-          <t>$exists(study.versions.referenceIdentifiers.type[code="C215674"]) ? "Y" : ""</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7533,12 +8444,27 @@
       </c>
       <c r="G40" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve">study.versions.studyDesigns.population.plannedEnrollmentNumber.value </t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7571,12 +8497,27 @@
       </c>
       <c r="G41" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7605,7 +8546,22 @@
       </c>
       <c r="G42" s="28" t="inlineStr">
         <is>
-          <t>$exists(study.versions.studyDesigns.characteristics[code="C46079"]) ? "Y" : $exists(study.versions.studyDesigns.characteristics[code="C147145"]) ? "Y" : ""</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7634,7 +8590,22 @@
       </c>
       <c r="G43" s="29" t="inlineStr">
         <is>
-          <t>$exists(study.versions.studyDesigns.indications[isRareDisease=true]) ? "Y" : ""</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7669,6 +8640,26 @@
           <t>Registry Identifier</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="58" customHeight="1">
       <c r="A45" s="15" t="inlineStr">
@@ -7703,22 +8694,27 @@
       </c>
       <c r="G45" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I45" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.code}</t>
+          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
         </is>
       </c>
       <c r="J45" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K45" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -7751,6 +8747,26 @@
       <c r="F46" s="14" t="inlineStr">
         <is>
           <t>Retained Biospecimen Description</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7777,6 +8793,26 @@
           <t>Sex of Participants</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="29" customHeight="1">
       <c r="A48" s="15" t="inlineStr">
@@ -7803,7 +8839,22 @@
       </c>
       <c r="G48" s="28" t="inlineStr">
         <is>
-          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];organizations[id=$sponsorIdVal].label;)</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7832,6 +8883,26 @@
       <c r="F49" s="14" t="inlineStr">
         <is>
           <t>Sponsor's Study Reference ID</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7858,6 +8929,26 @@
           <t>Single Site Eu State Trial Indicator</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="29" customHeight="1">
       <c r="A51" s="15" t="inlineStr">
@@ -7884,22 +8975,27 @@
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.studyType.decode</t>
+          <t>Interventional Study</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I51" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.studyType.code</t>
+          <t>C98388</t>
         </is>
       </c>
       <c r="J51" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.studyType.codeSystem</t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K51" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.studyType.codeSystemVersion</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -7928,22 +9024,27 @@
       </c>
       <c r="G52" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.decode</t>
+          <t>Open Label Study</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I52" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.code</t>
+          <t>C49659</t>
         </is>
       </c>
       <c r="J52" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystem</t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K52" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystemVersion</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -7972,22 +9073,22 @@
       </c>
       <c r="G53" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].decode : role[code="C68609"].decode}</t>
+          <t> </t>
         </is>
       </c>
       <c r="I53" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
+          <t> </t>
         </is>
       </c>
       <c r="J53" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystem : role[code="C68609"].codeSystem}</t>
+          <t> </t>
         </is>
       </c>
       <c r="K53" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystemVersion : role[code="C68609"].codeSystemVersion}</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8016,22 +9117,22 @@
       </c>
       <c r="G54" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.therapeuticAreas.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="I54" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.therapeuticAreas.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J54" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.therapeuticAreas.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K54" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.therapeuticAreas.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8064,22 +9165,27 @@
       </c>
       <c r="G55" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.decode</t>
+          <t>'Basic Research', 'Device Feasibility Study'</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I55" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.code</t>
+          <t>'C15714', 'C139174'</t>
         </is>
       </c>
       <c r="J55" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.codeSystem</t>
+          <t>'http://www.cdisc.org', 'http://www.cdisc.org'</t>
         </is>
       </c>
       <c r="K55" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.codeSystemVersion</t>
+          <t>'2024-09-27', '2024-09-27'</t>
         </is>
       </c>
     </row>
@@ -8108,7 +9214,22 @@
       </c>
       <c r="G56" s="28" t="inlineStr">
         <is>
-          <t>study.versions.titles[type.code="C207616"].text</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8137,7 +9258,7 @@
       </c>
       <c r="G57" s="31" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="H57" s="35" t="inlineStr">
@@ -8147,17 +9268,17 @@
       </c>
       <c r="I57" s="31" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J57" s="31" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K57" s="31" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8194,12 +9315,27 @@
       </c>
       <c r="G58" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions[role.code="C41161"].{id: label}</t>
+          <t>{'StudyIntervention_1': 'LY900018' , 'StudyIntervention_2': 'GlucaGen'}</t>
         </is>
       </c>
       <c r="H58" s="35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8228,22 +9364,27 @@
       </c>
       <c r="G59" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.decode</t>
+          <t>Efficacy Study</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I59" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.code</t>
+          <t>C49666</t>
         </is>
       </c>
       <c r="J59" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.codeSystem</t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K59" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.codeSystemVersion</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -2740,7 +2740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -2758,42 +2758,42 @@
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Name </t>
+          <t>STUDYID</t>
         </is>
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Label </t>
+          <t>DOMAIN</t>
         </is>
       </c>
       <c r="C1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type </t>
+          <t>IETESTCD</t>
         </is>
       </c>
       <c r="D1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>IETEST</t>
         </is>
       </c>
       <c r="E1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Core </t>
+          <t>IECAT</t>
         </is>
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Mapping Name</t>
+          <t>IESCAT</t>
         </is>
       </c>
       <c r="G1" s="37" t="inlineStr">
         <is>
-          <t>JSONATA</t>
+          <t>TIRL</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
         <is>
-          <t>Fixed content</t>
+          <t>TIVERS</t>
         </is>
       </c>
       <c r="I1" s="27" t="n"/>
@@ -2803,27 +2803,27 @@
     <row r="2" ht="72.5" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>STUDYID</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>Study Identifier</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>'EligibilityCriterion_1': '01'</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>'EligibilityCriterion_1': '&lt;p&gt;Male and female participants &lt;usdm:tag name="min_age"/&gt; - &lt;usdm:tag name="max_age"/&gt; years of age.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t> </t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
@@ -2836,261 +2836,3137 @@
           <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
         </is>
       </c>
-      <c r="H2" s="33" t="n"/>
+      <c r="H2" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="29" customHeight="1">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>DOMAIN</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>Domain Abbreviation</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_2': '02'</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_2': '&lt;p&gt;Diagnosed with early and/or moderate &lt;usdm:tag name="StudyIndication"/&gt; at least 6 months before study participation.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_2': 'Inclusion Criteria</t>
         </is>
       </c>
       <c r="F3" s="4" t="n"/>
       <c r="G3" s="38" t="n"/>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="4" ht="29" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>IETESTCD</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_3': '03'</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_3': '&lt;p&gt;Able to rea</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_3': 'Inclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t>Incl/Excl Criterion Short Name</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>Topic</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>Incl/Excl Criterion Short Name</t>
-        </is>
-      </c>
       <c r="G4" s="39" t="inlineStr">
         <is>
           <t>study.versions.studyDesigns.eligibilityCriteria.{id: identifier}</t>
         </is>
       </c>
-      <c r="H4" s="33" t="n"/>
+      <c r="H4" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="87" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>IETEST</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_4': '04'</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> understand and to provide written consent.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_4': 'Inclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
           <t>Inclusion/Exclusion Criterion</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>Synonym Qualifier</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>Inclusion/Exclusion Criterion</t>
-        </is>
-      </c>
       <c r="G5" s="41" t="inlineStr">
         <is>
           <t>study.versions.($EligTxt := function($id) {(eligibilityCriterionItems[id=$id].text)}; studyDesigns.eligibilityCriteria{id: $EligTxt(criterionItemId)})</t>
         </is>
       </c>
-      <c r="H5" s="33" t="n"/>
+      <c r="H5" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>IECAT</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_5': '05'</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_4': '&lt;p&gt;Female study participants should not be &lt;usdm:tag name="Pregnant"/&gt; or plan to become pregnant during study participation and for 6 months after last investigational product administration.</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_5': 'Inclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
           <t>Inclusion/Exclusion Category</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t>Grouping Qualifier</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Inclusion/Exclusion Category</t>
-        </is>
-      </c>
       <c r="G6" s="39" t="inlineStr">
         <is>
           <t>study.versions.studyDesigns.eligibilityCriteria{id: category.decode}</t>
         </is>
       </c>
-      <c r="H6" s="33" t="n"/>
+      <c r="H6" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>IESCAT</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_6': '06'</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_5': '&lt;p&gt;Male participants if their sexual partners can become pregnant should use a method of contraception during study participation and for 6 months after the last administration of the investigated product.</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_6': 'Inclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
           <t>Inclusion/Exclusion Subcategory</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>Grouping Qualifier</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Inclusion/Exclusion Subcategory</t>
-        </is>
-      </c>
       <c r="G7" s="39" t="inlineStr">
         <is>
           <t>study.versions.studyDesigns.eligibilityCriteria{id: notes.codes.decode}</t>
         </is>
       </c>
-      <c r="H7" s="33" t="n"/>
+      <c r="H7" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>TIRL</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Criterion Rule</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_7': '07'</t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>Rule</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_6': '&lt;p&gt;Study participant is able and willing to comply with the requirements of this clinical study.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_7': 'Inclusion Criteria</t>
         </is>
       </c>
       <c r="F8" s="4" t="n"/>
       <c r="G8" s="38" t="n"/>
-      <c r="H8" s="33" t="n"/>
+      <c r="H8" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>TIVERS</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_8': '08'</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_7': '&lt;p&gt;Parkinson s disease subjects deemed appropriate for treatment of motor symptoms with a &lt;usdm:tag name="BC1_UDPRS"/&gt; Part III score &gt;&lt;usdm:tag name="BC1_MinValExcl"/&gt;.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_8': 'Inclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
           <t>Protocol Criteria Versions</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Record Qualifier</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>Protocol Criteria Versions</t>
-        </is>
-      </c>
       <c r="G9" s="38" t="inlineStr">
         <is>
           <t>study.versions.versionIdentifier</t>
         </is>
       </c>
-      <c r="H9" s="33" t="n"/>
+      <c r="H9" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_9': '09'</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_8': '&lt;p&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to the office and/or be available by telephone at designated time</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_9': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_10': '10'</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> will monitor administration of prescribed medication</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_10': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_11': '11'</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and will be responsible for the overall care of the patient at home. The caregiver and the patient must be able to communicate in English and willing to comply with 26 weeks of transdermal therapy.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_11': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_12': '12'</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_9': '&lt;p&gt;Persons who have previously completed or withdrawn from this study or any other study investigating xanomeline TTS or the oral formulation of xanomeline.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_12': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_13': '13'</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_10': "&lt;p&gt;Use of any investigational agent or approved Alzheimer's therapeutic medication within 30 days prior to enrollment into the study.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_13': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_14': '14'</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_11': '&lt;p&gt;Serious illness which required hospitalization within 3 months of screening.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_14': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_15': '15'</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_12': '&lt;p&gt;Diagnosis of serious neurological condition</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_15': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_16': '16b'</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Stroke or vascular dementia documented by clinical history and/or radiographic findings interpretable by the investigator as indicative of these disorders&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Seizure disorder other than simple childhood febrile seizures&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe head trauma resulting in protracted loss of consciousness within the last 5 year</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_16': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_17': '17'</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> or multiple episodes of head trauma&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Parkinson\'s disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Multiple sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Amyotrophic lateral sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Myasthenia gravis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_17': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_18': '18'</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_13': '&lt;p&gt;Episode of depression meeting DSM-IV criteria within 3 months of screening.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_18': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_19': '19'</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_14': '&lt;p&gt;A history within the last 5 years of the following:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Schizophrenia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bipolar Disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ethanol or psychoactive drug abuse or dependence. &lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_19': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_20': '20'</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_15': '&lt;p&gt;A history of syncope within the last 5 years.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_20': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_21': '21'</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_16': '&lt;p&gt;Evidence from ECG recording at screening of any of the following conditions :&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Left bundle branch block&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bradycardia ≤50 beats per minute&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sinus pauses &amp;gt;2 seconds&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Second or third degree heart block unless treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Wolff-Parkinson-White syndrome&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sustained supraventricular tachyarrhythmia including SVT≥10 se</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_21': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_22': '22'</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> atrial fibrillatio</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_22': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_23': '23'</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> atrial flutter.&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ventricular tachycardia at a rate of ≥120 beats per minute lasting≥10 seconds.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_23': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_24': '24'</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_17': '&lt;p&gt;A history within the last 5 years of a serious cardiovascular disorde</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_24': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_25': '25'</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Clinically significant arrhythmia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic sick sinus syndrome not treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Congestive heart failure refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Angina except angina controlled with PRN nitroglycerin&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Resting heart rate &amp;lt;50 or &amp;gt;100 beats per minut</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_25': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_26': '26'</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> on physical exam&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled hypertension.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_26': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_27': '27b'</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_18': '&lt;p&gt;A history within the last 5 years of a serious gastrointestinal disorde</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_27': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_28': '28b'</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Chronic peptic/duodenal/gastric/esophageal ulcer that are untreated or refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic diverticular disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Inflammatory bowel disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Pancreatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Hepatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Cirrhosis of the liver.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_28': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_29': '29b'</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_19': '&lt;p&gt;A history within the last 5 years of a serious endocrine disorde</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_29': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_30': '30b'</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled Insulin Dependent Diabetes Mellitus (IDDM)&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Diabetic ketoacidosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hyperthyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hypothyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Other untreated endocrinological disorder&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_30': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_31': '31b</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_20': '&lt;p&gt; A history within the last 5 years of a serious respiratory disorde</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_31': 'Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Asthma with bronchospasm refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Decompensated chronic obstructive pulmonary disease.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_21': '&lt;p&gt;A history within the last 5 years of a serious genitourinary disorde</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Renal failure&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled urinary retention.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_22': '&lt;p&gt;A history within the last 5 years of a serious rheumatologic disorde</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Lupus&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Temporal arteritis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe rheumatoid arthritis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_23': '&lt;p&gt;A known history of human immunodeficiency virus (HIV) within the last 5 years.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_24': '&lt;p&gt;A history within the last 5 years of a serious infectious disease including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;a)  Neurosyphilis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;b)  Meningitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;c)  Encephalitis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_25': '&lt;p&gt;A history within the last 5 years of a primary or recurrent malignant disease with the exception of resected cutaneous squamous cell carcinoma in sit</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> basal cell carcinom</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> cervical carcinoma in sit</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> or in situ prostate cancer with a normal PSA postresection.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_26': '&lt;p&gt;Visua</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> hearin</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> or communication disabilities impairing the ability to participate in the study; (for exampl</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> inability to speak or understand Englis</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> illiteracy).&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_27': "&lt;p&gt;Laboratory test values exceeding the Lilly Reference Range III for the patient's age in any of the following analytes: ↑ creatinin</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑ total bilirubi</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑ SGO</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑ SGP</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑ alkaline phosphatas</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑ GG</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑↓ hemoglobi</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑↓ white blood cell coun</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑↓ platelet coun</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ↑↓ serum sodiu</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> potassiu</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> or calcium.&lt;/p&gt;\n&lt;p&gt;If values exceed these laboratory reference range</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> clinical significance will be judged by the monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significan</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> the patient may be included in the study. This decision will be documented.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_28': '&lt;p&gt;Central laboratory test values below reference range for folat</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and Vitamin B 12</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and outside reference range for thyroid function tests.&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n  &lt;li&gt;\n    &lt;p&gt;Folate reference range 2.0 to 25.0 ng/mL. Patients will be allowed to enroll if their folate levels are above the upper end of the range if patients are taking vitamin supplements.&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Vitamin B 12 reference range 130 to 900 pg/mL. Patients will be allowed to enroll if their B 12 levels are above the upper reference range if patients are taking oral vitamin supplements.&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Thyroid functions&lt;/p&gt;\n    &lt;ol&gt;\n      &lt;li&gt;\n        &lt;p&gt;Thyroid Uptake reference range 25 to 38%. Patients will be allowed to enroll with results of 23 to 51% provided the remainder of the thyroid profile is normal and there are no clinical signs or symptoms of thyroid abnormality.&lt;/p&gt;\n      &lt;/li&gt;\n      &lt;li&gt;\n        &lt;p&gt;TSH reference range 0.32 to 5.0. Patients will be allowed to enroll with results of 0.03 to 6.2 if patients are taking stable doses of exogenous thyroid supplement</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> with normal free thyroid inde</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and show no clinical signs or symptoms of thyroid abnormality.&lt;/p&gt;\n      &lt;/li&gt;\n      &lt;li&gt;\n        &lt;p&gt;Total T4 reference range 4.5 to 12.5. Patients will be allowed to enroll with results of 4.1 to 13.4 if patients are taking stable doses of exogenous thyroid hormon</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> with normal free thyroid inde</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and show no clinical signs or symptoms of thyroid abnormality.&lt;/p&gt;\n      &lt;/li&gt;\n      &lt;li&gt;\n        &lt;p&gt;Free Thyroid Index reference range 1.1 to 4.6.&lt;/p&gt;\n      &lt;/li&gt;\n    &lt;/ol&gt;\n  &lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_29': '&lt;p&gt;Positive syphilis screening.&lt;/p&gt;\n&lt;p&gt;Positive syphilis screening. As determined by positive RPR followed up by confirmatory FTA-Abs. Confirmed patients are excluded unless there is a documented medical history of an alternative disease (for exampl</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> yaws) which caused the lab abnormality.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_30': '&lt;p&gt;Glycosylated hemoglobin (A1C). Required only on patients with known diabetes mellitus or random blood sugar &amp;gt;200 on screening labs. Patients will be excluded if levels are &amp;gt;9.5%&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'EligibilityCriterion_31': '&lt;p&gt;Treatment with the following medications within the specified washout periods prior to enrollment and during the\n  study:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n  &lt;li&gt;\n    &lt;p&gt;Anticonvulsants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depakote&amp;#174; (valproic acid) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilantin&amp;#174; (phenytoin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Felbatol&amp;#174;\n          (felbamate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Klonopin&amp;#174; (clonazepam)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lamictal&amp;#174; (lamotrigine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mysoline&amp;#174; (primidone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Neurontin&amp;#174;\n          (gabapentin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Phenobarbitol&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tegretol&amp;#174; (carbamazepine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Alpha receptor blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aldomet&amp;#174; (methyldopa) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardura&amp;#174;\n          (doxazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Catapres&amp;#174; (clonidine)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hytrin&amp;#174; (terazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Minipress&amp;#174; (prazosin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenex&amp;#174; (guanfacine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wytensin&amp;#174;\n          (guanabenz) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of low doses\n        (2 mg daily) of either Hytrin&lt;/b&gt;&amp;#174; &lt;b&gt;or Cardura&lt;/b&gt;&amp;#174; &lt;b&gt;for relief of\n        urinary retention for patients with prostatic hypertrophy will be considered\n        on a case-by-case basis provided blood pressure is stable and the medication\n        has not had demonstrable effect on dementia symptoms in the opinion of the treating\n        physician. Contact CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Calcium channel blockers\n      that are CNS active including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Calan&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Isoptin&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Verelan&amp;#174; (verapamil) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardizem&amp;#174; (diltiazem) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nimotop&amp;#174;\n          (nimodipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adalat&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Procardia XL&amp;#174;\n          (nifedipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cardene&lt;/b&gt;&amp;#174; &lt;b&gt;(nicardipine</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>\n        Norvasc&lt;/b&gt;&amp;#174; &lt;b</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (amlodipine</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and DynaCirc&lt;/b&gt;&amp;#174; &lt;b&gt;(isradipine) will\n        be allowed during the study. If a patient is taking an excluded calcium channel\n        blocker and is changed to an equivalent dose of an allowed calcium channel blocke</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">\n        enrollment may proceed in as little as 24 hours though 1 week is preferred when\n        possible.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Betapace&amp;#174; (sotalol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Inderal&amp;#174; (propranolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lopressor&amp;#174;\n         </t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toprol XL&amp;#174; (metoprolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Corgard&amp;#174; (nadolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sectral&amp;#174; (acebutolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenormin&amp;#174; (atenolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Visken&amp;#174; (pindolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Beta\n        blocker eye drops for glaucoma will be considered on a case-by-case basis. Call\n        medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta sympathomimetics (unless inhaled) including\n      but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Alupent&amp;#174; tablets\n          (metaproterenol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Brethine&amp;#174; tablets\n          (terbutaline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dopamine &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Proventil Repetabs&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ventolin&amp;#174; tablets (albuterol tablets)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;Parasympathomimetics (cholinergics) (unless opthalmic) including but not limited to\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antilirium&amp;#174; (physostigmine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aricept&amp;#174; (donepezil) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cognex&amp;#174; (tacrine) &lt;/td&gt;\n        &lt;td&gt;1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mestinon&amp;#174; (pyridostigmine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Reglan&amp;#174; (metoclopramide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urecholine&amp;#174;\n         </t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Duvoid (bethanechol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cholinergic eye drops for treatment of glaucoma will be allowed during the study on a case-by-case basis.\n        Please contact the CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Muscle relaxants-centrally active including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Equanil&amp;#174; (meprobamate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Flexeril&amp;#174; (cyclobenzaprine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lioresal&amp;#174; (baclofen) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norflex&amp;#174; (orphenadrine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parafon Forte&amp;#174; (chlorzoxazone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robaxin&amp;#174; (methocarbamol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Skelaxin&amp;#174; (metaxalone)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Soma&amp;#174; (carisoprodol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Monamine oxidase inhibitors (MAOI) including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eldepryl&amp;#174; (selegiline)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nardil&amp;#174; (phenelzine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parnate&amp;#174; (tranylcypromine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Parasympatholytics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antivert&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bonine&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dramamine II&amp;#174; (meclizine)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Artane&amp;#174; (trihexyphenidyl)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bellergal-S&amp;#174; (alkaloids of belladonna and ergotamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bentyl&amp;#174; (dicyclomine) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cogentin&amp;#174; (benztropine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cystospaz&amp;#174</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Levsin&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Levsinex&amp;#174; (hyoscyamine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ditropan&amp;#174;\n          (oxybutynin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Donnatal&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hyosophen&amp;#174;\n          (atropin</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> scopolamin</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> hyoscyamine and phenobarbitol) &lt;/td&gt;\n        &lt;td&gt;1 month &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dramamine&amp;#174; (dimenhydrinate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lomotil&amp;#174</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lonox&amp;#174; (atropin</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> diphenoxylate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pro-Banthine&amp;#174;(propantheline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robinul&amp;#174; (glycopyrrolate)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tigan&amp;#174; (trimethobenzamide) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Transderm-Scop&amp;#174; (scopolamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urispas&amp;#174; (flavoxate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antidepressants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Anafranil&amp;#174; (clomipramine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Asendin&amp;#174;\n          (amoxapine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Desyrel&amp;#174; (trazodone)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Effexor&amp;#174; (venlafaxine) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Elavil&amp;#174; (amitriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ludiomil&amp;#174;\n          (maprotiline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpramin&amp;#174; (desipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pamelor&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aventyl&amp;#174; (nortriptyline)&lt;/td&gt;\n        &lt;td&gt; 1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Paxil&amp;#174; (paroxetine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prozac&amp;#174;\n          (fluoxetine&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Remeron&amp;#174; (mirtazapine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serzone&amp;#174; (nefazodone) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sinequan&amp;#174;\n          (doxepin)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tofranil&amp;#174; (imipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vivactil&amp;#174; (protriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wellbutrin&amp;#174; (bupropion)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zoloft&amp;#174;\n          (sertraline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Systemic corticosteroids including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cortisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Decadron&amp;#174; (dexamethasone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depo-Medrol&amp;#174; (methylprednisolone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prednisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Xanthine derivatives\n      including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aminophylline&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Fioricet&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Esgic&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Phrenilin Forte&amp;#174; (caffein</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> butalbital)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Theo-Dur&amp;#174; (theophylline)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wigraine&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cafergot&amp;#174; (caffein</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ergotamine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H2 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Axid&amp;#174; (nizatidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pepcid&amp;#174; (famotidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tagamet&amp;#174; (cimetidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zantac&amp;#174; (ranitidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;If an H 2 antagonist is needed by the patien</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Axid&lt;/b&gt;&amp;#174; &lt;b&gt;will be&lt;/b&gt; &lt;b&gt;allowed on a case-by-case\n        basis. Please consult CRO&lt;/b&gt; &lt;b&gt;medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Narcotic Analgesics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Darvocet-N\n          100&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (propoxyphene)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Demerol&amp;#174; (meperidine)&lt;/td&gt;\n        &lt;td&gt;1\n          week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilaudid&amp;#174; (hydromorphone)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Duragesic&amp;#174; (fentanyl)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;MS\n          Contin&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Roxanol&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oramorph&amp;#174; (morphine) &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percocet&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Roxicet&amp;#174; (oxycodone with acetaminophen)&lt;/td&gt;\n        &lt;td&gt;3\n          days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percodan&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Roxiprin&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stadol&amp;#174; (butorphanol)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Talacen&amp;#174;\n          (pentazocine)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylenol #2&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> #3&amp;#174;\n         </t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> #4&amp;#174; (codeine and acetaminophen) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylox&amp;#174;\n         </t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Roxilox&amp;#174; (oxycodone)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vicodin&amp;#174</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lorcet&amp;#174; (hydrocodone)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Percocet\n        (oxycodone with acetaminophen) and Tylenol&lt;/b&gt;&amp;#174; &lt;b&gt;with codeine #</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> #</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> #4\n        (acetaminophen + codeine) ARE allowed in the month prior to enrollmen</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> but\n        are not permitted in the 3 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Neuroleptics\n      (antipsychotics) including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Clozaril&amp;#174;\n          (clozapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Haldol&amp;#174; (haloperidol)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Loxitane&amp;#174; (loxapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mellaril&amp;#174; (thioridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Moban&amp;#174;\n          (molindone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Navane&amp;#174; (thiothixene)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Orap&amp;#174; (pimozide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prolixin&amp;#174; (fluphenazine)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Risperdal&amp;#174;\n          (risperidone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stelazine&amp;#174; (trifluoperazine)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Thorazine&amp;#174; (chlorpromazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Trilafon&amp;#174; (perphenazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serentil&amp;#174;\n          (mesoridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of neuroleptics\n        on a daily basis must be discontinued 2 to 4 weeks prior to enrollment. The\n        use of neuroleptics on an as-needed basis is allowable during the screening\n        perio</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> but the last dose must be at least 7 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antianxiety agents including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Atarax&amp;#174; (hydroxyzine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;BuSpar&amp;#174;\n          (buspirone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Librium&amp;#174; (chlordiazepoxide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serax&amp;#174; (oxazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tranxene&amp;#174; (clorazepate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Valium&amp;#174; (diazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vistaril&amp;#174; (hydroxyzine pamoate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Xanax&amp;#174; (alprazolam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Ativan&lt;/b&gt;&amp;#174; &lt;b&gt;(lorazepam) should be discontinued on a daily\n        basis 2 weeks&lt;/b&gt;&lt;/p&gt;\n    &lt;p&gt;&lt;b&gt;prior to enrollment. It may be used on an as-needed\n        basis during the screening perio</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> but is not permitted in the 24 hours prior\n        to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Hypnotics/Sedatives including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ambien&amp;#174; (zolpidem)&lt;/td&gt;\n        &lt;td&gt; 3 days\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dalmane&amp;#174; (flurazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Doral&amp;#174; (quazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Halcion&amp;#174; (triazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nembutal&amp;#174; &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;ProSom&amp;#174; (estazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Restoril&amp;#174;\n          (temazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seconal&amp;#174;&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Chloral Hydrate is allowed on an as-needed basis during screenin</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> but is not permitted in the 24 hours prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H1 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Actifed&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Actifed Plus&amp;#174; (triprolidine) Benadryl&amp;#174;\n         </t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Unisom&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tylenol P.M.&amp;#174; &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;(diphenhydramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Compazine&amp;#174; (prochlorperazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Contac&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Coricidin D&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sinutab&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Novahistine&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alka\n          Seltzer Plus&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Naldecon&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sudafed Plus&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tylenol Cold&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tylenol\n          Cold and Flu&amp;#174; (chlorpheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dimetapp&amp;#174;\n          (brompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Drixoral&amp;#174; (dexbrompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hismanal&amp;#174; (astemizole)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Phenergan&amp;#174;\n          (promethazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seldane&amp;#174; (terfenadine)&lt;/td&gt;\n        &lt;td&gt;1\n          week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tavist&amp;#174; (clemastine fumarate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zyrtec&amp;#174; (cetrizine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Allegra&lt;/b&gt;&amp;#174;\n      &lt;b&gt;(fexofenadine hydrochloride) or Claritin&lt;/b&gt;&amp;#174; &lt;b&gt;(loratadine) may be taken\n        on as-needed basis during screening but must be discontinued within 24 hours\n        of enrollment.&lt;/b&gt;\n    &lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Stimulants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cylert&amp;#174; (pemoline) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ritalin&amp;#174; (methylphenidate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antiarrhythmics including but not limited to the following&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adenocard&amp;#174; (adenosine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cordarone&amp;#174;\n          (amiodarone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ethmozine&amp;#174; (moricizine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mexitil&amp;#174; (mexiletine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpace&amp;#174; (disopyramide)\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Procan&amp;#174; (procainamide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Quinaglute&amp;#174;\n          (quinidine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Rythmol&amp;#174; (propafenone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tambocor&amp;#174;\n          (flecainide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tonocard&amp;#174; (tocainide)&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Requirement of these drugs for control of cardiac arrhythmia indicates that\n        the patient should be excluded from the study. If discontinuation of an antiarrhythmic\n        is considere</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> please discuss case with CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Miscellaneous drugs including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Coenzyme\n          Q&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eskalith&amp;#174;</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lithobid&amp;#174; (lithium)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ginkgo biloba&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin\n        &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lupron&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tamoxifen&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Estrogen supplements are permitted during the stud</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> but dosage must be stable for at least 3 months prior to\n      enrollment.&lt;/p&gt;\n  &lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3103,7 +5979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:K3"/>
@@ -3124,3306 +6000,405 @@
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
+          <t xml:space="preserve">Variable Name </t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Variable Label </t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type </t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="E1" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Core </t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Mapping Name</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>JSONATA</t>
+        </is>
+      </c>
+      <c r="H1" s="27" t="inlineStr">
+        <is>
+          <t>Fixed content</t>
+        </is>
+      </c>
+      <c r="I1" s="27" t="n"/>
+      <c r="J1" s="27" t="n"/>
+      <c r="K1" s="27" t="n"/>
+    </row>
+    <row r="2" ht="93" customHeight="1">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
           <t>STUDYID</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>Study Identifier</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Sponsor Study Identifier</t>
+        </is>
+      </c>
+      <c r="G2" s="34" t="inlineStr">
+        <is>
+          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
+        </is>
+      </c>
+      <c r="H2" s="33" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>DOMAIN</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Domain Abbreviation</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="32" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>TSSEQ</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>Sequence Number</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>Num</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="n"/>
+      <c r="G4" s="32" t="n"/>
+      <c r="H4" s="33" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>TSGRPID</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Group ID</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>Perm</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="32" t="n"/>
+      <c r="H5" s="33" t="n"/>
+    </row>
+    <row r="6" ht="43.5" customHeight="1">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>TSPARMCD</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>Trial Summary Parameter Short Name</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="n"/>
+      <c r="G6" s="32" t="n"/>
+      <c r="H6" s="33" t="n"/>
+    </row>
+    <row r="7" ht="29" customHeight="1">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>TSPARM</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>Trial Summary Parameter</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>Synonym Qualifier</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="n"/>
+      <c r="G7" s="32" t="n"/>
+      <c r="H7" s="33" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>TSVAL</t>
         </is>
       </c>
-      <c r="H1" s="27" t="inlineStr">
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>Parameter Value</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>Result Qualifier</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="n"/>
+      <c r="G8" s="32" t="n"/>
+      <c r="H8" s="33" t="n"/>
+    </row>
+    <row r="9" ht="29" customHeight="1">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>TSVALNF</t>
         </is>
       </c>
-      <c r="I1" s="27" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>Parameter Value Null Flavor</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Result Qualifier</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Perm</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="n"/>
+      <c r="G9" s="32" t="n"/>
+      <c r="H9" s="33" t="n"/>
+    </row>
+    <row r="10" ht="29" customHeight="1">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>TSVALCD</t>
         </is>
       </c>
-      <c r="J1" s="27" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>Parameter Value Code</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Result Qualifier</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="n"/>
+      <c r="G10" s="32" t="n"/>
+      <c r="H10" s="33" t="n"/>
+    </row>
+    <row r="11" ht="29" customHeight="1">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>TSVCDREF</t>
         </is>
       </c>
-      <c r="K1" s="27" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Name of Reference Terminology</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Result Qualifier</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="F11" s="12" t="inlineStr">
+        <is>
+          <t>Name of Reference Terminology</t>
+        </is>
+      </c>
+      <c r="G11" s="32" t="inlineStr">
+        <is>
+          <t>..code.codeSystem</t>
+        </is>
+      </c>
+      <c r="H11" s="33" t="n"/>
+    </row>
+    <row r="12" ht="43.5" customHeight="1">
+      <c r="A12" s="9" t="inlineStr">
         <is>
           <t>TSVCDVER</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="93" customHeight="1">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C2" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
-        <is>
-          <t>ADAPT</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>Adaptive Design</t>
-        </is>
-      </c>
-      <c r="G2" s="34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H2" s="33" t="n"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>AGEMIN</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>Planned Minimum Age of Subjects</t>
-        </is>
-      </c>
-      <c r="G3" s="32" t="inlineStr">
-        <is>
-          <t>18  Year</t>
-        </is>
-      </c>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C4" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>AGEMAX</t>
-        </is>
-      </c>
-      <c r="F4" s="12" t="inlineStr">
-        <is>
-          <t>Planned Minimum Age of Subjects</t>
-        </is>
-      </c>
-      <c r="G4" s="32" t="inlineStr">
-        <is>
-          <t>70  Year</t>
-        </is>
-      </c>
-      <c r="H4" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>BRDNAIND</t>
-        </is>
-      </c>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>Biospecimen Retention contains DNA Ind</t>
-        </is>
-      </c>
-      <c r="G5" s="32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H5" s="33" t="n"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="43.5" customHeight="1">
-      <c r="A6" s="9" t="n"/>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C6" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>BRIND</t>
-        </is>
-      </c>
-      <c r="F6" s="12" t="inlineStr">
-        <is>
-          <t>Biospecimen Retention indicator</t>
-        </is>
-      </c>
-      <c r="G6" s="32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H6" s="33" t="n"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="29" customHeight="1">
-      <c r="A7" s="9" t="n"/>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>COMPTRT</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="inlineStr">
-        <is>
-          <t>Comparative Treatment Name</t>
-        </is>
-      </c>
-      <c r="G7" s="32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H7" s="33" t="n"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="n"/>
-      <c r="B8" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>CONNAME</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="inlineStr">
-        <is>
-          <t>Contact Name</t>
-        </is>
-      </c>
-      <c r="G8" s="32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H8" s="33" t="n"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="29" customHeight="1">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>CONROLE</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>Contact Role</t>
-        </is>
-      </c>
-      <c r="G9" s="32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H9" s="33" t="n"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="29" customHeight="1">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>CRMDUR</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="inlineStr">
-        <is>
-          <t>Confirmed Response Minimum Duration</t>
-        </is>
-      </c>
-      <c r="G10" s="32" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': '1 Day'</t>
-        </is>
-      </c>
-      <c r="H10" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="29" customHeight="1">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C11" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>CRMDUR</t>
-        </is>
-      </c>
-      <c r="F11" s="12" t="inlineStr">
-        <is>
-          <t>Confirmed Response Minimum Duration</t>
-        </is>
-      </c>
-      <c r="G11" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': '1 Day</t>
-        </is>
-      </c>
-      <c r="H11" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="43.5" customHeight="1">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>Version of the Reference Terminology</t>
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Result Qualifier</t>
         </is>
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>CURTRT</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Current Therapy or Treatment</t>
+          <t>Version of Reference Terminology</t>
         </is>
       </c>
       <c r="G12" s="32" t="inlineStr">
         <is>
-          <t> </t>
+          <t>..code.codeSystemVersion</t>
         </is>
       </c>
       <c r="H12" s="33" t="n"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>DMCIND</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Data Monitoring Committee Indicator</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>DOSE</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Dose Level; Dose per Administration</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': 3.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>DOSE</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Dose Level; Dose per Administration</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 1.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>DOSFRM</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Dose Form</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>DOSFRQ</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Dosing Frequency</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': 'Once</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': 'C64576</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': '2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>DOSFRQ</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Dosing Frequency</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'Once</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'C64576</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>DOSU</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Dose Units</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': 'Milligram</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': 'C28253</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': '2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>DOSU</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Dose Units</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'Milligram</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'C28253</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>EXTTIND</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Extension Trial Indicator</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>FCNTRY</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Planned Country of Investigational Sites</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>HLTSUBJI</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Healthy Subject Indicator</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>INDIC</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>'T1DM', 'T2DM'</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>INTMODEL</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Intervention Model</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Parallel Study</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>C82639</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>INTTYPE</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Intervention Type</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': 'Pharmacologic Substance</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': 'C1909</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': '2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>INTTYPE</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Intervention Type</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'Pharmacologic Substance</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'C1909</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>LENGTH</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Trial Length</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>MSEUTIND</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Multiple Site EU Site Trial Indicator</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NARMS</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Planned Number of Arms</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NCOHORT</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Number of Groups/Cohorts</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NUMSEUST</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Number of Trial Sites EU State</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>OBJEXP</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Trial Exploratory Objective</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon'</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>2</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>OBJEXP</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Trial Exploratory Objective</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>OBJPRIM</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>OBJSEC</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG'</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>2</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>OBJSEC</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG'</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>3</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>OBJSEC</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>OBSMODEL</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Observational Model</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>OBSTIMP</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Observational Time Perspective</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>OBSTPOPD</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Obs Study Population Description</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>OBSTSMM</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Observational Study Sampling Method</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>OUTMSEXP</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Exploratory Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>OUTMSEXP</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Exploratory Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>OUTMSPRI</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Primary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>OUTMSSEC</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Secondary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>2</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>OUTMSSEC</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Secondary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>3</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>OUTMSSEC</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Secondary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>PCLAS</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Pharmacologic Class</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>PIPIND</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Pediatric Investigation Plan Indicator</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>PLANSUB</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>PTRTDUR</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Planned Treatment Duration</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': '1 Day</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>2</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>PTRTDUR</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Planned Treatment Duration</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': '1 Day</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>RANDOM</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Trial is Randomized</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>RDIND</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Rare Disease Indicator</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>REGID</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Registry Identifier</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>ROUTE</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Route of Administration</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': 'Nasal Route of Administration</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': 'C38284</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': 'http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': '2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>2</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>ROUTE</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Route of Administration</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'Intramuscular Route of Administration</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'C28161</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': '2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>RTSPCDES</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Retained Biospecimen Description</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>SEXPOP</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sex of Participants</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>SPONSOR</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>SPREFID</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sponsor's Study Reference ID</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>SSEUTIND</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Single Site EU State Trial Indicator</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>STYPE</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Study Type; Study Type Classification</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Interventional Study</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>C98388</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>TBLIND</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Open Label Study</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>C49659</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>TCNTRL</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Control Type</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>THERAREA</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Therapeutic Area</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>TINDTP</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Trial Intent Type</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>'Basic Research', 'Device Feasibility Study'</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>'C15714', 'C139174'</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>'http://www.cdisc.org', 'http://www.cdisc.org'</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>'2024-09-27', '2024-09-27'</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>TITLE</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Official Study Title; Study Title; Trial Title</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>TPHASE</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Trial Phase; Trial Phase Classification</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>TRT</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Investigational Therapy or Treatment</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>'StudyIntervention_1': 'LY900018'</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>2</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>TRT</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Investigational Therapy or Treatment</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'StudyIntervention_2': 'GlucaGen</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>TTYPE</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Trial Scope; Trial Type</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Efficacy Study</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>C49666</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6490,7 +6465,7 @@
       </c>
       <c r="G1" s="27" t="inlineStr">
         <is>
-          <t>Mapping Results</t>
+          <t>TSVAL JSONATA map</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
@@ -6539,22 +6514,7 @@
       </c>
       <c r="G2" s="30" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>$exists(study.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
         </is>
       </c>
     </row>
@@ -6583,27 +6543,9 @@
       </c>
       <c r="G3" s="28" t="inlineStr">
         <is>
-          <t>18  Year</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>$min([study.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
+$distinct(study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode)
+ &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode)</t>
         </is>
       </c>
     </row>
@@ -6632,27 +6574,13 @@
       </c>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>70  Year</t>
+          <t>$max([study.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
+$distinct(study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode) &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode)</t>
         </is>
       </c>
       <c r="H4" s="35" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>PINF</t>
         </is>
       </c>
     </row>
@@ -6689,22 +6617,7 @@
       </c>
       <c r="G5" s="28" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.biospecimenRetentions.includesDNA</t>
         </is>
       </c>
     </row>
@@ -6741,22 +6654,7 @@
       </c>
       <c r="G6" s="28" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.biospecimenRetentions.isRetained</t>
         </is>
       </c>
     </row>
@@ -6789,22 +6687,7 @@
       <c r="F7" s="14" t="n"/>
       <c r="G7" s="28" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions[role.code="C68609"].{id: label}</t>
         </is>
       </c>
     </row>
@@ -6839,26 +6722,6 @@
           <t>Contact Name</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="15" t="inlineStr">
@@ -6891,26 +6754,6 @@
           <t>Contact Role</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" s="15" t="inlineStr">
@@ -6945,27 +6788,7 @@
       </c>
       <c r="G10" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day' , 'StudyIntervention_2': '1 Day'}</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
         </is>
       </c>
     </row>
@@ -7002,22 +6825,7 @@
       </c>
       <c r="G11" s="28" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions[role.code="C165822"].{id: label}</t>
         </is>
       </c>
     </row>
@@ -7046,22 +6854,7 @@
       </c>
       <c r="G12" s="28" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>$exists(study.versions.roles.code[code="C142578"]) ? "Y" : ""</t>
         </is>
       </c>
     </row>
@@ -7098,27 +6891,7 @@
       </c>
       <c r="G13" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: administrations.dose.value}</t>
         </is>
       </c>
     </row>
@@ -7155,22 +6928,7 @@
       </c>
       <c r="G14" s="28" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
         </is>
       </c>
     </row>
@@ -7207,27 +6965,22 @@
       </c>
       <c r="G15" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.decode}</t>
         </is>
       </c>
       <c r="I15" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.code}</t>
         </is>
       </c>
       <c r="J15" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystem}</t>
         </is>
       </c>
       <c r="K15" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -7264,27 +7017,22 @@
       </c>
       <c r="G16" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.decode}</t>
         </is>
       </c>
       <c r="I16" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.code}</t>
         </is>
       </c>
       <c r="J16" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystem}</t>
         </is>
       </c>
       <c r="K16" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -7313,22 +7061,7 @@
       </c>
       <c r="G17" s="36" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>$exists(study.versions.studyDesigns.characteristics[code="C207613"]) ? "Y" : ""</t>
         </is>
       </c>
     </row>
@@ -7357,26 +7090,6 @@
       <c r="F18" s="14" t="inlineStr">
         <is>
           <t>Planned Country of Investigational Sites</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t> </t>
         </is>
       </c>
     </row>
@@ -7405,22 +7118,7 @@
       </c>
       <c r="G19" s="28" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>$exists(study.versions.studyDesigns.population[includesHealthySubjects=true]) ? "Y" : ($exists(study.versions.studyDesigns.population.cohorts[includesHealthySubjects=true]) ? "Y" : "")</t>
         </is>
       </c>
     </row>
@@ -7449,27 +7147,7 @@
       </c>
       <c r="G20" s="28" t="inlineStr">
         <is>
-          <t>'T1DM', 'T2DM'</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.indications.label</t>
         </is>
       </c>
     </row>
@@ -7498,27 +7176,22 @@
       </c>
       <c r="G21" s="29" t="inlineStr">
         <is>
-          <t>Parallel Study</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.decode</t>
         </is>
       </c>
       <c r="I21" s="29" t="inlineStr">
         <is>
-          <t>C82639</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.code</t>
         </is>
       </c>
       <c r="J21" s="29" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystem</t>
         </is>
       </c>
       <c r="K21" s="29" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -7555,27 +7228,22 @@
       </c>
       <c r="G22" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: type.decode}</t>
         </is>
       </c>
       <c r="I22" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
+          <t>study.versions.studyInterventions{id: type.code}</t>
         </is>
       </c>
       <c r="J22" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t>study.versions.studyInterventions{id: type.codeSystem}</t>
         </is>
       </c>
       <c r="K22" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t>study.versions.studyInterventions{id: type.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -7604,27 +7272,12 @@
       </c>
       <c r="G23" s="28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>NI</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t> </t>
         </is>
       </c>
     </row>
@@ -7651,26 +7304,6 @@
           <t>Multiple Site Eu Site Trial Indicator</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="25" ht="29" customHeight="1">
       <c r="A25" s="15" t="inlineStr">
@@ -7697,27 +7330,7 @@
       </c>
       <c r="G25" s="28" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>$count(study.versions.studyDesigns.arms)</t>
         </is>
       </c>
     </row>
@@ -7746,27 +7359,7 @@
       </c>
       <c r="G26" s="29" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>$exists(study.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
         </is>
       </c>
     </row>
@@ -7793,26 +7386,6 @@
           <t>Number of Trial Sites EU State</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="28" ht="43.5" customHeight="1">
       <c r="A28" s="15" t="inlineStr">
@@ -7847,27 +7420,7 @@
       </c>
       <c r="G28" s="28" t="inlineStr">
         <is>
-          <t>{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon' , 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
         </is>
       </c>
     </row>
@@ -7904,27 +7457,7 @@
       </c>
       <c r="G29" s="28" t="inlineStr">
         <is>
-          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
         </is>
       </c>
     </row>
@@ -7961,27 +7494,7 @@
       </c>
       <c r="G30" s="28" t="inlineStr">
         <is>
-          <t>{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG' , 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG' , 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
         </is>
       </c>
     </row>
@@ -8010,22 +7523,22 @@
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.decode</t>
         </is>
       </c>
       <c r="I31" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.code</t>
         </is>
       </c>
       <c r="J31" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystem</t>
         </is>
       </c>
       <c r="K31" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -8054,22 +7567,22 @@
       </c>
       <c r="G32" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.decode</t>
         </is>
       </c>
       <c r="I32" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
         </is>
       </c>
       <c r="J32" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystem</t>
         </is>
       </c>
       <c r="K32" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -8098,22 +7611,7 @@
       </c>
       <c r="G33" s="29" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].populations.description</t>
         </is>
       </c>
     </row>
@@ -8142,22 +7640,22 @@
       </c>
       <c r="G34" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.decode</t>
         </is>
       </c>
       <c r="I34" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
         </is>
       </c>
       <c r="J34" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystem</t>
         </is>
       </c>
       <c r="K34" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -8194,27 +7692,7 @@
       </c>
       <c r="G35" s="28" t="inlineStr">
         <is>
-          <t>{ , }</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
         </is>
       </c>
     </row>
@@ -8251,22 +7729,7 @@
       </c>
       <c r="G36" s="28" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
         </is>
       </c>
     </row>
@@ -8303,27 +7766,7 @@
       </c>
       <c r="G37" s="28" t="inlineStr">
         <is>
-          <t>{ ,  , }</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
         </is>
       </c>
     </row>
@@ -8356,22 +7799,7 @@
       </c>
       <c r="G38" s="28" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions.administrations.administrableProduct[producDesignation.code="C202579"].pharmacologicClass.decode</t>
         </is>
       </c>
     </row>
@@ -8400,22 +7828,7 @@
       </c>
       <c r="G39" s="28" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>$exists(study.versions.referenceIdentifiers.type[code="C215674"]) ? "Y" : ""</t>
         </is>
       </c>
     </row>
@@ -8444,27 +7857,12 @@
       </c>
       <c r="G40" s="28" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t xml:space="preserve">study.versions.studyDesigns.population.plannedEnrollmentNumber.value </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
     </row>
@@ -8497,27 +7895,12 @@
       </c>
       <c r="G41" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+          <t>study.versions.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
     </row>
@@ -8546,22 +7929,7 @@
       </c>
       <c r="G42" s="28" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>$exists(study.versions.studyDesigns.characteristics[code="C46079"]) ? "Y" : $exists(study.versions.studyDesigns.characteristics[code="C147145"]) ? "Y" : ""</t>
         </is>
       </c>
     </row>
@@ -8590,22 +7958,7 @@
       </c>
       <c r="G43" s="29" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>$exists(study.versions.studyDesigns.indications[isRareDisease=true]) ? "Y" : ""</t>
         </is>
       </c>
     </row>
@@ -8640,26 +7993,6 @@
           <t>Registry Identifier</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="45" ht="58" customHeight="1">
       <c r="A45" s="15" t="inlineStr">
@@ -8694,27 +8027,22 @@
       </c>
       <c r="G45" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.decode}</t>
         </is>
       </c>
       <c r="I45" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.code}</t>
         </is>
       </c>
       <c r="J45" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystem}</t>
         </is>
       </c>
       <c r="K45" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -8747,26 +8075,6 @@
       <c r="F46" s="14" t="inlineStr">
         <is>
           <t>Retained Biospecimen Description</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t> </t>
         </is>
       </c>
     </row>
@@ -8793,26 +8101,6 @@
           <t>Sex of Participants</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="48" ht="29" customHeight="1">
       <c r="A48" s="15" t="inlineStr">
@@ -8839,22 +8127,7 @@
       </c>
       <c r="G48" s="28" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];organizations[id=$sponsorIdVal].label;)</t>
         </is>
       </c>
     </row>
@@ -8883,26 +8156,6 @@
       <c r="F49" s="14" t="inlineStr">
         <is>
           <t>Sponsor's Study Reference ID</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t> </t>
         </is>
       </c>
     </row>
@@ -8929,26 +8182,6 @@
           <t>Single Site Eu State Trial Indicator</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="51" ht="29" customHeight="1">
       <c r="A51" s="15" t="inlineStr">
@@ -8975,27 +8208,22 @@
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
-          <t>Interventional Study</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.studyType.decode</t>
         </is>
       </c>
       <c r="I51" s="31" t="inlineStr">
         <is>
-          <t>C98388</t>
+          <t>study.versions.studyDesigns.studyType.code</t>
         </is>
       </c>
       <c r="J51" s="31" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t>study.versions.studyDesigns.studyType.codeSystem</t>
         </is>
       </c>
       <c r="K51" s="31" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>study.versions.studyDesigns.studyType.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -9024,27 +8252,22 @@
       </c>
       <c r="G52" s="28" t="inlineStr">
         <is>
-          <t>Open Label Study</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.decode</t>
         </is>
       </c>
       <c r="I52" s="28" t="inlineStr">
         <is>
-          <t>C49659</t>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.code</t>
         </is>
       </c>
       <c r="J52" s="28" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystem</t>
         </is>
       </c>
       <c r="K52" s="28" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -9073,22 +8296,22 @@
       </c>
       <c r="G53" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].decode : role[code="C68609"].decode}</t>
         </is>
       </c>
       <c r="I53" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
         </is>
       </c>
       <c r="J53" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystem : role[code="C68609"].codeSystem}</t>
         </is>
       </c>
       <c r="K53" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystemVersion : role[code="C68609"].codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -9117,22 +8340,22 @@
       </c>
       <c r="G54" s="28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.therapeuticAreas.decode</t>
         </is>
       </c>
       <c r="I54" s="28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.therapeuticAreas.code</t>
         </is>
       </c>
       <c r="J54" s="28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.therapeuticAreas.codeSystem</t>
         </is>
       </c>
       <c r="K54" s="28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.therapeuticAreas.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -9165,27 +8388,22 @@
       </c>
       <c r="G55" s="28" t="inlineStr">
         <is>
-          <t>'Basic Research', 'Device Feasibility Study'</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.decode</t>
         </is>
       </c>
       <c r="I55" s="28" t="inlineStr">
         <is>
-          <t>'C15714', 'C139174'</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.code</t>
         </is>
       </c>
       <c r="J55" s="28" t="inlineStr">
         <is>
-          <t>'http://www.cdisc.org', 'http://www.cdisc.org'</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.codeSystem</t>
         </is>
       </c>
       <c r="K55" s="28" t="inlineStr">
         <is>
-          <t>'2024-09-27', '2024-09-27'</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -9214,22 +8432,7 @@
       </c>
       <c r="G56" s="28" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.titles[type.code="C207616"].text</t>
         </is>
       </c>
     </row>
@@ -9258,7 +8461,7 @@
       </c>
       <c r="G57" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.decode</t>
         </is>
       </c>
       <c r="H57" s="35" t="inlineStr">
@@ -9268,17 +8471,17 @@
       </c>
       <c r="I57" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.code</t>
         </is>
       </c>
       <c r="J57" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystem</t>
         </is>
       </c>
       <c r="K57" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -9315,27 +8518,12 @@
       </c>
       <c r="G58" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'LY900018' , 'StudyIntervention_2': 'GlucaGen'}</t>
+          <t>study.versions.studyInterventions[role.code="C41161"].{id: label}</t>
         </is>
       </c>
       <c r="H58" s="35" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -9364,27 +8552,22 @@
       </c>
       <c r="G59" s="28" t="inlineStr">
         <is>
-          <t>Efficacy Study</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.decode</t>
         </is>
       </c>
       <c r="I59" s="28" t="inlineStr">
         <is>
-          <t>C49666</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.code</t>
         </is>
       </c>
       <c r="J59" s="28" t="inlineStr">
         <is>
-          <t>http://www.cdisc.org</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.codeSystem</t>
         </is>
       </c>
       <c r="K59" s="28" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.codeSystemVersion</t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -2740,7 +2740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>'EligibilityCriterion_1': '01'</t>
+          <t>'EligibilityCriterion_1': '01</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_2': '02'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_2': '02</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -2889,12 +2889,12 @@
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_3': '03'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_3': '03</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_3': '&lt;p&gt;Able to rea</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_3': '&lt;p&gt;Able to read, understand and to provide written consent.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_4': '04'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_4': '04</t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> understand and to provide written consent.&lt;/p&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_4': '&lt;p&gt;Female study participants should not be &lt;usdm:tag name="Pregnant"/&gt; or plan to become pregnant during study participation and for 6 months after last investigational product administration.</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -2973,12 +2973,12 @@
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_5': '05'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_5': '05</t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_4': '&lt;p&gt;Female study participants should not be &lt;usdm:tag name="Pregnant"/&gt; or plan to become pregnant during study participation and for 6 months after last investigational product administration.</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_5': '&lt;p&gt;Male participants if their sexual partners can become pregnant should use a method of contraception during study participation and for 6 months after the last administration of the investigated product.</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_6': '06'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_6': '06</t>
         </is>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_5': '&lt;p&gt;Male participants if their sexual partners can become pregnant should use a method of contraception during study participation and for 6 months after the last administration of the investigated product.</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_6': '&lt;p&gt;Study participant is able and willing to comply with the requirements of this clinical study.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
@@ -3057,12 +3057,12 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_7': '07'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_7': '07</t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_6': '&lt;p&gt;Study participant is able and willing to comply with the requirements of this clinical study.&lt;/p&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_7': '&lt;p&gt;Parkinson s disease subjects deemed appropriate for treatment of motor symptoms with a &lt;usdm:tag name="BC1_UDPRS"/&gt; Part III score &gt;&lt;usdm:tag name="BC1_MinValExcl"/&gt;.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
@@ -3091,12 +3091,12 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_8': '08'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_8': '08</t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_7': '&lt;p&gt;Parkinson s disease subjects deemed appropriate for treatment of motor symptoms with a &lt;usdm:tag name="BC1_UDPRS"/&gt; Part III score &gt;&lt;usdm:tag name="BC1_MinValExcl"/&gt;.&lt;/p&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_8': '&lt;p&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to the office and/or be available by telephone at designated times, will monitor administration of prescribed medications, and will be responsible for the overall care of the patient at home. The caregiver and the patient must be able to communicate in English and willing to comply with 26 weeks of transdermal therapy.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
@@ -3133,12 +3133,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_9': '09'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_9': '09</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_8': '&lt;p&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to the office and/or be available by telephone at designated time</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_9': '&lt;p&gt;Persons who have previously completed or withdrawn from this study or any other study investigating xanomeline TTS or the oral formulation of xanomeline.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_10': '10'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_10': '10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> will monitor administration of prescribed medication</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_10': "&lt;p&gt;Use of any investigational agent or approved Alzheimer's therapeutic medication within 30 days prior to enrollment into the study.&lt;/p&gt;"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3197,12 +3197,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_11': '11'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_11': '11</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> and will be responsible for the overall care of the patient at home. The caregiver and the patient must be able to communicate in English and willing to comply with 26 weeks of transdermal therapy.&lt;/p&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_12': '&lt;p&gt;Diagnosis of serious neurological conditions, including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Stroke or vascular dementia documented by clinical history and/or radiographic findings interpretable by the investigator as indicative of these disorders&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Seizure disorder other than simple childhood febrile seizures&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe head trauma resulting in protracted loss of consciousness within the last 5 years, or multiple episodes of head trauma&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Parkinson\'s disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Multiple sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Amyotrophic lateral sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Myasthenia gravis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3229,12 +3229,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_12': '12'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_12': '12</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_9': '&lt;p&gt;Persons who have previously completed or withdrawn from this study or any other study investigating xanomeline TTS or the oral formulation of xanomeline.&lt;/p&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_13': '&lt;p&gt;Episode of depression meeting DSM-IV criteria within 3 months of screening.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3261,12 +3261,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_13': '13'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_13': '13</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_10': "&lt;p&gt;Use of any investigational agent or approved Alzheimer's therapeutic medication within 30 days prior to enrollment into the study.&lt;/p&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_14': '&lt;p&gt;A history within the last 5 years of the following:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Schizophrenia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bipolar Disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ethanol or psychoactive drug abuse or dependence. &lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_14': '14'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_14': '14</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_11': '&lt;p&gt;Serious illness which required hospitalization within 3 months of screening.&lt;/p&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_15': '&lt;p&gt;A history of syncope within the last 5 years.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3325,12 +3325,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_15': '15'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_15': '15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_12': '&lt;p&gt;Diagnosis of serious neurological condition</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_16': '&lt;p&gt;Evidence from ECG recording at screening of any of the following conditions :&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Left bundle branch block&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bradycardia ≤50 beats per minute&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sinus pauses &amp;gt;2 seconds&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Second or third degree heart block unless treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Wolff-Parkinson-White syndrome&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sustained supraventricular tachyarrhythmia including SVT≥10 sec, atrial fibrillation, atrial flutter.&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ventricular tachycardia at a rate of ≥120 beats per minute lasting≥10 seconds.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3357,12 +3357,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_16': '16b'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_16': '16b</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Stroke or vascular dementia documented by clinical history and/or radiographic findings interpretable by the investigator as indicative of these disorders&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Seizure disorder other than simple childhood febrile seizures&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe head trauma resulting in protracted loss of consciousness within the last 5 year</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_17': '&lt;p&gt;A history within the last 5 years of a serious cardiovascular disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Clinically significant arrhythmia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic sick sinus syndrome not treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Congestive heart failure refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Angina except angina controlled with PRN nitroglycerin&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Resting heart rate &amp;lt;50 or &amp;gt;100 beats per minute, on physical exam&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled hypertension.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_17': '17'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_17': '17</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> or multiple episodes of head trauma&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Parkinson\'s disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Multiple sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Amyotrophic lateral sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Myasthenia gravis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_18': '&lt;p&gt;A history within the last 5 years of a serious gastrointestinal disorder, including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Chronic peptic/duodenal/gastric/esophageal ulcer that are untreated or refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic diverticular disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Inflammatory bowel disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Pancreatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Hepatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Cirrhosis of the liver.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_18': '18'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_18': '18</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_13': '&lt;p&gt;Episode of depression meeting DSM-IV criteria within 3 months of screening.&lt;/p&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_19': '&lt;p&gt;A history within the last 5 years of a serious endocrine disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled Insulin Dependent Diabetes Mellitus (IDDM)&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Diabetic ketoacidosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hyperthyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hypothyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Other untreated endocrinological disorder&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_19': '19'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_19': '19</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_14': '&lt;p&gt;A history within the last 5 years of the following:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Schizophrenia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bipolar Disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ethanol or psychoactive drug abuse or dependence. &lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_20': '&lt;p&gt; A history within the last 5 years of a serious respiratory disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Asthma with bronchospasm refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Decompensated chronic obstructive pulmonary disease.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3485,12 +3485,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_20': '20'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_20': '20</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_15': '&lt;p&gt;A history of syncope within the last 5 years.&lt;/p&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_21': '&lt;p&gt;A history within the last 5 years of a serious genitourinary disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Renal failure&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled urinary retention.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3517,12 +3517,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_21': '21'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_21': '21</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_16': '&lt;p&gt;Evidence from ECG recording at screening of any of the following conditions :&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Left bundle branch block&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bradycardia ≤50 beats per minute&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sinus pauses &amp;gt;2 seconds&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Second or third degree heart block unless treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Wolff-Parkinson-White syndrome&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sustained supraventricular tachyarrhythmia including SVT≥10 se</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_22': '&lt;p&gt;A history within the last 5 years of a serious rheumatologic disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Lupus&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Temporal arteritis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe rheumatoid arthritis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_22': '22'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_22': '22</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> atrial fibrillatio</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_23': '&lt;p&gt;A known history of human immunodeficiency virus (HIV) within the last 5 years.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_23': '23'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_23': '23</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> atrial flutter.&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ventricular tachycardia at a rate of ≥120 beats per minute lasting≥10 seconds.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_24': '&lt;p&gt;A history within the last 5 years of a serious infectious disease including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;a)  Neurosyphilis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;b)  Meningitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;c)  Encephalitis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3613,12 +3613,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_24': '24'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_24': '24</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_17': '&lt;p&gt;A history within the last 5 years of a serious cardiovascular disorde</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_25': '&lt;p&gt;A history within the last 5 years of a primary or recurrent malignant disease with the exception of resected cutaneous squamous cell carcinoma in situ, basal cell carcinoma, cervical carcinoma in situ, or in situ prostate cancer with a normal PSA postresection.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3645,12 +3645,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_25': '25'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_25': '25</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Clinically significant arrhythmia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic sick sinus syndrome not treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Congestive heart failure refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Angina except angina controlled with PRN nitroglycerin&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Resting heart rate &amp;lt;50 or &amp;gt;100 beats per minut</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_26': '&lt;p&gt;Visual, hearing, or communication disabilities impairing the ability to participate in the study; (for example, inability to speak or understand English, illiteracy).&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3677,12 +3677,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_26': '26'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_26': '26</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> on physical exam&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled hypertension.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_27': "&lt;p&gt;Laboratory test values exceeding the Lilly Reference Range III for the patient's age in any of the following analytes: ↑ creatinine, ↑ total bilirubin, ↑ SGOT, ↑ SGPT, ↑ alkaline phosphatase, ↑ GGT, ↑↓ hemoglobin, ↑↓ white blood cell count, ↑↓ platelet count, ↑↓ serum sodium, potassium, or calcium.&lt;/p&gt;\n&lt;p&gt;If values exceed these laboratory reference ranges, clinical significance will be judged by the monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significant, the patient may be included in the study. This decision will be documented.&lt;/p&gt;"</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3709,12 +3709,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_27': '27b'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_27': '27b</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_18': '&lt;p&gt;A history within the last 5 years of a serious gastrointestinal disorde</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_29': '&lt;p&gt;Positive syphilis screening.&lt;/p&gt;\n&lt;p&gt;Positive syphilis screening. As determined by positive RPR followed up by confirmatory FTA-Abs. Confirmed patients are excluded unless there is a documented medical history of an alternative disease (for example, yaws) which caused the lab abnormality.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_28': '28b'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_28': '28b</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Chronic peptic/duodenal/gastric/esophageal ulcer that are untreated or refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic diverticular disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Inflammatory bowel disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Pancreatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Hepatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Cirrhosis of the liver.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_30': '&lt;p&gt;Glycosylated hemoglobin (A1C). Required only on patients with known diabetes mellitus or random blood sugar &amp;gt;200 on screening labs. Patients will be excluded if levels are &amp;gt;9.5%&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3773,12 +3773,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_29': '29b'</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_29': '29b</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_19': '&lt;p&gt;A history within the last 5 years of a serious endocrine disorde</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_31': '&lt;p&gt;Treatment with the following medications within the specified washout periods prior to enrollment and during the\n  study:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n  &lt;li&gt;\n    &lt;p&gt;Anticonvulsants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depakote&amp;#174; (valproic acid) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilantin&amp;#174; (phenytoin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Felbatol&amp;#174;\n          (felbamate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Klonopin&amp;#174; (clonazepam)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lamictal&amp;#174; (lamotrigine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mysoline&amp;#174; (primidone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Neurontin&amp;#174;\n          (gabapentin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Phenobarbitol&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tegretol&amp;#174; (carbamazepine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Alpha receptor blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aldomet&amp;#174; (methyldopa) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardura&amp;#174;\n          (doxazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Catapres&amp;#174; (clonidine)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hytrin&amp;#174; (terazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Minipress&amp;#174; (prazosin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenex&amp;#174; (guanfacine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wytensin&amp;#174;\n          (guanabenz) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of low doses\n        (2 mg daily) of either Hytrin&lt;/b&gt;&amp;#174; &lt;b&gt;or Cardura&lt;/b&gt;&amp;#174; &lt;b&gt;for relief of\n        urinary retention for patients with prostatic hypertrophy will be considered\n        on a case-by-case basis provided blood pressure is stable and the medication\n        has not had demonstrable effect on dementia symptoms in the opinion of the treating\n        physician. Contact CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Calcium channel blockers\n      that are CNS active including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Calan&amp;#174; , Isoptin&amp;#174; , Verelan&amp;#174; (verapamil) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardizem&amp;#174; (diltiazem) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nimotop&amp;#174;\n          (nimodipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adalat&amp;#174; , Procardia XL&amp;#174;\n          (nifedipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cardene&lt;/b&gt;&amp;#174; &lt;b&gt;(nicardipine),\n        Norvasc&lt;/b&gt;&amp;#174; &lt;b&gt;, (amlodipine), and DynaCirc&lt;/b&gt;&amp;#174; &lt;b&gt;(isradipine) will\n        be allowed during the study. If a patient is taking an excluded calcium channel\n        blocker and is changed to an equivalent dose of an allowed calcium channel blocker,\n        enrollment may proceed in as little as 24 hours though 1 week is preferred when\n        possible.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Betapace&amp;#174; (sotalol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Inderal&amp;#174; (propranolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lopressor&amp;#174;\n          , Toprol XL&amp;#174; (metoprolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Corgard&amp;#174; (nadolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sectral&amp;#174; (acebutolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenormin&amp;#174; (atenolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Visken&amp;#174; (pindolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Beta\n        blocker eye drops for glaucoma will be considered on a case-by-case basis. Call\n        medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta sympathomimetics (unless inhaled) including\n      but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Alupent&amp;#174; tablets\n          (metaproterenol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Brethine&amp;#174; tablets\n          (terbutaline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dopamine &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Proventil Repetabs&amp;#174; , Ventolin&amp;#174; tablets (albuterol tablets)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;Parasympathomimetics (cholinergics) (unless opthalmic) including but not limited to\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antilirium&amp;#174; (physostigmine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aricept&amp;#174; (donepezil) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cognex&amp;#174; (tacrine) &lt;/td&gt;\n        &lt;td&gt;1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mestinon&amp;#174; (pyridostigmine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Reglan&amp;#174; (metoclopramide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urecholine&amp;#174;\n          , Duvoid (bethanechol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cholinergic eye drops for treatment of glaucoma will be allowed during the study on a case-by-case basis.\n        Please contact the CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Muscle relaxants-centrally active including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Equanil&amp;#174; (meprobamate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Flexeril&amp;#174; (cyclobenzaprine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lioresal&amp;#174; (baclofen) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norflex&amp;#174; (orphenadrine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parafon Forte&amp;#174; (chlorzoxazone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robaxin&amp;#174; (methocarbamol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Skelaxin&amp;#174; (metaxalone)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Soma&amp;#174; (carisoprodol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Monamine oxidase inhibitors (MAOI) including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eldepryl&amp;#174; (selegiline)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nardil&amp;#174; (phenelzine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parnate&amp;#174; (tranylcypromine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Parasympatholytics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antivert&amp;#174; , Bonine&amp;#174; , Dramamine II&amp;#174; (meclizine)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Artane&amp;#174; (trihexyphenidyl)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bellergal-S&amp;#174; (alkaloids of belladonna and ergotamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bentyl&amp;#174; (dicyclomine) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cogentin&amp;#174; (benztropine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cystospaz&amp;#174;, Levsin&amp;#174; , Levsinex&amp;#174; (hyoscyamine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ditropan&amp;#174;\n          (oxybutynin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Donnatal&amp;#174; , Hyosophen&amp;#174;\n          (atropine, scopolamine, hyoscyamine and phenobarbitol) &lt;/td&gt;\n        &lt;td&gt;1 month &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dramamine&amp;#174; (dimenhydrinate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lomotil&amp;#174;, Lonox&amp;#174; (atropine, diphenoxylate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pro-Banthine&amp;#174;(propantheline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robinul&amp;#174; (glycopyrrolate)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tigan&amp;#174; (trimethobenzamide) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Transderm-Scop&amp;#174; (scopolamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urispas&amp;#174; (flavoxate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antidepressants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Anafranil&amp;#174; (clomipramine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Asendin&amp;#174;\n          (amoxapine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Desyrel&amp;#174; (trazodone)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Effexor&amp;#174; (venlafaxine) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Elavil&amp;#174; (amitriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ludiomil&amp;#174;\n          (maprotiline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpramin&amp;#174; (desipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pamelor&amp;#174; , Aventyl&amp;#174; (nortriptyline)&lt;/td&gt;\n        &lt;td&gt; 1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Paxil&amp;#174; (paroxetine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prozac&amp;#174;\n          (fluoxetine&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Remeron&amp;#174; (mirtazapine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serzone&amp;#174; (nefazodone) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sinequan&amp;#174;\n          (doxepin)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tofranil&amp;#174; (imipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vivactil&amp;#174; (protriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wellbutrin&amp;#174; (bupropion)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zoloft&amp;#174;\n          (sertraline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Systemic corticosteroids including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cortisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Decadron&amp;#174; (dexamethasone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depo-Medrol&amp;#174; (methylprednisolone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prednisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Xanthine derivatives\n      including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aminophylline&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Fioricet&amp;#174; , Esgic&amp;#174; , Phrenilin Forte&amp;#174; (caffeine, butalbital)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Theo-Dur&amp;#174; (theophylline)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wigraine&amp;#174; , Cafergot&amp;#174; (caffeine, ergotamine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H2 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Axid&amp;#174; (nizatidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pepcid&amp;#174; (famotidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tagamet&amp;#174; (cimetidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zantac&amp;#174; (ranitidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;If an H 2 antagonist is needed by the patient, Axid&lt;/b&gt;&amp;#174; &lt;b&gt;will be&lt;/b&gt; &lt;b&gt;allowed on a case-by-case\n        basis. Please consult CRO&lt;/b&gt; &lt;b&gt;medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Narcotic Analgesics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Darvocet-N\n          100&amp;#174; , (propoxyphene)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Demerol&amp;#174; (meperidine)&lt;/td&gt;\n        &lt;td&gt;1\n          week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilaudid&amp;#174; (hydromorphone)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Duragesic&amp;#174; (fentanyl)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;MS\n          Contin&amp;#174; , Roxanol&amp;#174; , Oramorph&amp;#174; (morphine) &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percocet&amp;#174; , Roxicet&amp;#174; (oxycodone with acetaminophen)&lt;/td&gt;\n        &lt;td&gt;3\n          days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percodan&amp;#174; , Roxiprin&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stadol&amp;#174; (butorphanol)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Talacen&amp;#174;\n          (pentazocine)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylenol #2&amp;#174; , #3&amp;#174;\n          , #4&amp;#174; (codeine and acetaminophen) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylox&amp;#174;\n          , Roxilox&amp;#174; (oxycodone)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vicodin&amp;#174;, Lorcet&amp;#174; (hydrocodone)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Percocet\n        (oxycodone with acetaminophen) and Tylenol&lt;/b&gt;&amp;#174; &lt;b&gt;with codeine #2, #3, #4\n        (acetaminophen + codeine) ARE allowed in the month prior to enrollment, but\n        are not permitted in the 3 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Neuroleptics\n      (antipsychotics) including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Clozaril&amp;#174;\n          (clozapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Haldol&amp;#174; (haloperidol)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Loxitane&amp;#174; (loxapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mellaril&amp;#174; (thioridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Moban&amp;#174;\n          (molindone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Navane&amp;#174; (thiothixene)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Orap&amp;#174; (pimozide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prolixin&amp;#174; (fluphenazine)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Risperdal&amp;#174;\n          (risperidone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stelazine&amp;#174; (trifluoperazine)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Thorazine&amp;#174; (chlorpromazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Trilafon&amp;#174; (perphenazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serentil&amp;#174;\n          (mesoridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of neuroleptics\n        on a daily basis must be discontinued 2 to 4 weeks prior to enrollment. The\n        use of neuroleptics on an as-needed basis is allowable during the screening\n        period, but the last dose must be at least 7 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antianxiety agents including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Atarax&amp;#174; (hydroxyzine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;BuSpar&amp;#174;\n          (buspirone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Librium&amp;#174; (chlordiazepoxide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serax&amp;#174; (oxazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tranxene&amp;#174; (clorazepate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Valium&amp;#174; (diazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vistaril&amp;#174; (hydroxyzine pamoate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Xanax&amp;#174; (alprazolam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Ativan&lt;/b&gt;&amp;#174; &lt;b&gt;(lorazepam) should be discontinued on a daily\n        basis 2 weeks&lt;/b&gt;&lt;/p&gt;\n    &lt;p&gt;&lt;b&gt;prior to enrollment. It may be used on an as-needed\n        basis during the screening period, but is not permitted in the 24 hours prior\n        to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Hypnotics/Sedatives including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ambien&amp;#174; (zolpidem)&lt;/td&gt;\n        &lt;td&gt; 3 days\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dalmane&amp;#174; (flurazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Doral&amp;#174; (quazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Halcion&amp;#174; (triazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nembutal&amp;#174; &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;ProSom&amp;#174; (estazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Restoril&amp;#174;\n          (temazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seconal&amp;#174;&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Chloral Hydrate is allowed on an as-needed basis during screening, but is not permitted in the 24 hours prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H1 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Actifed&amp;#174; , Actifed Plus&amp;#174; (triprolidine) Benadryl&amp;#174;\n          , Unisom&amp;#174; , Tylenol P.M.&amp;#174; &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;(diphenhydramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Compazine&amp;#174; (prochlorperazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Contac&amp;#174; , Coricidin D&amp;#174; , Sinutab&amp;#174; , Novahistine&amp;#174; , Alka\n          Seltzer Plus&amp;#174; , Naldecon&amp;#174; , Sudafed Plus&amp;#174; , Tylenol Cold&amp;#174; , Tylenol\n          Cold and Flu&amp;#174; (chlorpheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dimetapp&amp;#174;\n          (brompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Drixoral&amp;#174; (dexbrompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hismanal&amp;#174; (astemizole)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Phenergan&amp;#174;\n          (promethazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seldane&amp;#174; (terfenadine)&lt;/td&gt;\n        &lt;td&gt;1\n          week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tavist&amp;#174; (clemastine fumarate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zyrtec&amp;#174; (cetrizine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Allegra&lt;/b&gt;&amp;#174;\n      &lt;b&gt;(fexofenadine hydrochloride) or Claritin&lt;/b&gt;&amp;#174; &lt;b&gt;(loratadine) may be taken\n        on as-needed basis during screening but must be discontinued within 24 hours\n        of enrollment.&lt;/b&gt;\n    &lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Stimulants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cylert&amp;#174; (pemoline) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ritalin&amp;#174; (methylphenidate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antiarrhythmics including but not limited to the following&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adenocard&amp;#174; (adenosine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cordarone&amp;#174;\n          (amiodarone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ethmozine&amp;#174; (moricizine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mexitil&amp;#174; (mexiletine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpace&amp;#174; (disopyramide)\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Procan&amp;#174; (procainamide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Quinaglute&amp;#174;\n          (quinidine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Rythmol&amp;#174; (propafenone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tambocor&amp;#174;\n          (flecainide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tonocard&amp;#174; (tocainide)&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Requirement of these drugs for control of cardiac arrhythmia indicates that\n        the patient should be excluded from the study. If discontinuation of an antiarrhythmic\n        is considered, please discuss case with CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Miscellaneous drugs including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Coenzyme\n          Q&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eskalith&amp;#174; , Lithobid&amp;#174; (lithium)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ginkgo biloba&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin\n        &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lupron&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tamoxifen&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Estrogen supplements are permitted during the study, but dosage must be stable for at least 3 months prior to\n      enrollment.&lt;/p&gt;\n  &lt;/li&gt;\n&lt;/ol&gt;</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3805,12 +3805,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_30': '30b'</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled Insulin Dependent Diabetes Mellitus (IDDM)&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Diabetic ketoacidosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hyperthyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hypothyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Other untreated endocrinological disorder&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+          <t xml:space="preserve"> 'EligibilityCriterion_30': '30b</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3840,2129 +3835,12 @@
           <t xml:space="preserve"> 'EligibilityCriterion_31': '31b</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_20': '&lt;p&gt; A history within the last 5 years of a serious respiratory disorde</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'EligibilityCriterion_31': 'Exclusion Criteria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Asthma with bronchospasm refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Decompensated chronic obstructive pulmonary disease.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_21': '&lt;p&gt;A history within the last 5 years of a serious genitourinary disorde</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Renal failure&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled urinary retention.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_22': '&lt;p&gt;A history within the last 5 years of a serious rheumatologic disorde</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Lupus&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Temporal arteritis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe rheumatoid arthritis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_23': '&lt;p&gt;A known history of human immunodeficiency virus (HIV) within the last 5 years.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_24': '&lt;p&gt;A history within the last 5 years of a serious infectious disease including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;a)  Neurosyphilis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;b)  Meningitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;c)  Encephalitis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_25': '&lt;p&gt;A history within the last 5 years of a primary or recurrent malignant disease with the exception of resected cutaneous squamous cell carcinoma in sit</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> basal cell carcinom</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> cervical carcinoma in sit</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or in situ prostate cancer with a normal PSA postresection.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_26': '&lt;p&gt;Visua</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> hearin</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or communication disabilities impairing the ability to participate in the study; (for exampl</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> inability to speak or understand Englis</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> illiteracy).&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_27': "&lt;p&gt;Laboratory test values exceeding the Lilly Reference Range III for the patient's age in any of the following analytes: ↑ creatinin</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ↑ total bilirubi</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ↑ SGO</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ↑ SGP</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ↑ alkaline phosphatas</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ↑ GG</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ↑↓ hemoglobi</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ↑↓ white blood cell coun</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ↑↓ platelet coun</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ↑↓ serum sodiu</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> potassiu</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or calcium.&lt;/p&gt;\n&lt;p&gt;If values exceed these laboratory reference range</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> clinical significance will be judged by the monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significan</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> the patient may be included in the study. This decision will be documented.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_28': '&lt;p&gt;Central laboratory test values below reference range for folat</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> and Vitamin B 12</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> and outside reference range for thyroid function tests.&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n  &lt;li&gt;\n    &lt;p&gt;Folate reference range 2.0 to 25.0 ng/mL. Patients will be allowed to enroll if their folate levels are above the upper end of the range if patients are taking vitamin supplements.&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Vitamin B 12 reference range 130 to 900 pg/mL. Patients will be allowed to enroll if their B 12 levels are above the upper reference range if patients are taking oral vitamin supplements.&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Thyroid functions&lt;/p&gt;\n    &lt;ol&gt;\n      &lt;li&gt;\n        &lt;p&gt;Thyroid Uptake reference range 25 to 38%. Patients will be allowed to enroll with results of 23 to 51% provided the remainder of the thyroid profile is normal and there are no clinical signs or symptoms of thyroid abnormality.&lt;/p&gt;\n      &lt;/li&gt;\n      &lt;li&gt;\n        &lt;p&gt;TSH reference range 0.32 to 5.0. Patients will be allowed to enroll with results of 0.03 to 6.2 if patients are taking stable doses of exogenous thyroid supplement</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> with normal free thyroid inde</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> and show no clinical signs or symptoms of thyroid abnormality.&lt;/p&gt;\n      &lt;/li&gt;\n      &lt;li&gt;\n        &lt;p&gt;Total T4 reference range 4.5 to 12.5. Patients will be allowed to enroll with results of 4.1 to 13.4 if patients are taking stable doses of exogenous thyroid hormon</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> with normal free thyroid inde</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> and show no clinical signs or symptoms of thyroid abnormality.&lt;/p&gt;\n      &lt;/li&gt;\n      &lt;li&gt;\n        &lt;p&gt;Free Thyroid Index reference range 1.1 to 4.6.&lt;/p&gt;\n      &lt;/li&gt;\n    &lt;/ol&gt;\n  &lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_29': '&lt;p&gt;Positive syphilis screening.&lt;/p&gt;\n&lt;p&gt;Positive syphilis screening. As determined by positive RPR followed up by confirmatory FTA-Abs. Confirmed patients are excluded unless there is a documented medical history of an alternative disease (for exampl</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> yaws) which caused the lab abnormality.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_30': '&lt;p&gt;Glycosylated hemoglobin (A1C). Required only on patients with known diabetes mellitus or random blood sugar &amp;gt;200 on screening labs. Patients will be excluded if levels are &amp;gt;9.5%&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_31': '&lt;p&gt;Treatment with the following medications within the specified washout periods prior to enrollment and during the\n  study:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n  &lt;li&gt;\n    &lt;p&gt;Anticonvulsants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depakote&amp;#174; (valproic acid) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilantin&amp;#174; (phenytoin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Felbatol&amp;#174;\n          (felbamate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Klonopin&amp;#174; (clonazepam)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lamictal&amp;#174; (lamotrigine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mysoline&amp;#174; (primidone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Neurontin&amp;#174;\n          (gabapentin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Phenobarbitol&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tegretol&amp;#174; (carbamazepine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Alpha receptor blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aldomet&amp;#174; (methyldopa) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardura&amp;#174;\n          (doxazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Catapres&amp;#174; (clonidine)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hytrin&amp;#174; (terazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Minipress&amp;#174; (prazosin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenex&amp;#174; (guanfacine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wytensin&amp;#174;\n          (guanabenz) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of low doses\n        (2 mg daily) of either Hytrin&lt;/b&gt;&amp;#174; &lt;b&gt;or Cardura&lt;/b&gt;&amp;#174; &lt;b&gt;for relief of\n        urinary retention for patients with prostatic hypertrophy will be considered\n        on a case-by-case basis provided blood pressure is stable and the medication\n        has not had demonstrable effect on dementia symptoms in the opinion of the treating\n        physician. Contact CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Calcium channel blockers\n      that are CNS active including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Calan&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Isoptin&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Verelan&amp;#174; (verapamil) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardizem&amp;#174; (diltiazem) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nimotop&amp;#174;\n          (nimodipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adalat&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Procardia XL&amp;#174;\n          (nifedipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cardene&lt;/b&gt;&amp;#174; &lt;b&gt;(nicardipine</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>\n        Norvasc&lt;/b&gt;&amp;#174; &lt;b</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (amlodipine</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> and DynaCirc&lt;/b&gt;&amp;#174; &lt;b&gt;(isradipine) will\n        be allowed during the study. If a patient is taking an excluded calcium channel\n        blocker and is changed to an equivalent dose of an allowed calcium channel blocke</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">\n        enrollment may proceed in as little as 24 hours though 1 week is preferred when\n        possible.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Betapace&amp;#174; (sotalol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Inderal&amp;#174; (propranolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lopressor&amp;#174;\n         </t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Toprol XL&amp;#174; (metoprolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Corgard&amp;#174; (nadolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sectral&amp;#174; (acebutolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenormin&amp;#174; (atenolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Visken&amp;#174; (pindolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Beta\n        blocker eye drops for glaucoma will be considered on a case-by-case basis. Call\n        medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta sympathomimetics (unless inhaled) including\n      but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Alupent&amp;#174; tablets\n          (metaproterenol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Brethine&amp;#174; tablets\n          (terbutaline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dopamine &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Proventil Repetabs&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ventolin&amp;#174; tablets (albuterol tablets)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;Parasympathomimetics (cholinergics) (unless opthalmic) including but not limited to\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antilirium&amp;#174; (physostigmine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aricept&amp;#174; (donepezil) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cognex&amp;#174; (tacrine) &lt;/td&gt;\n        &lt;td&gt;1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mestinon&amp;#174; (pyridostigmine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Reglan&amp;#174; (metoclopramide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urecholine&amp;#174;\n         </t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Duvoid (bethanechol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cholinergic eye drops for treatment of glaucoma will be allowed during the study on a case-by-case basis.\n        Please contact the CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Muscle relaxants-centrally active including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Equanil&amp;#174; (meprobamate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Flexeril&amp;#174; (cyclobenzaprine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lioresal&amp;#174; (baclofen) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norflex&amp;#174; (orphenadrine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parafon Forte&amp;#174; (chlorzoxazone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robaxin&amp;#174; (methocarbamol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Skelaxin&amp;#174; (metaxalone)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Soma&amp;#174; (carisoprodol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Monamine oxidase inhibitors (MAOI) including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eldepryl&amp;#174; (selegiline)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nardil&amp;#174; (phenelzine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parnate&amp;#174; (tranylcypromine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Parasympatholytics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antivert&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bonine&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Dramamine II&amp;#174; (meclizine)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Artane&amp;#174; (trihexyphenidyl)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bellergal-S&amp;#174; (alkaloids of belladonna and ergotamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bentyl&amp;#174; (dicyclomine) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cogentin&amp;#174; (benztropine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cystospaz&amp;#174</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Levsin&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Levsinex&amp;#174; (hyoscyamine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ditropan&amp;#174;\n          (oxybutynin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Donnatal&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Hyosophen&amp;#174;\n          (atropin</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> scopolamin</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> hyoscyamine and phenobarbitol) &lt;/td&gt;\n        &lt;td&gt;1 month &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dramamine&amp;#174; (dimenhydrinate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lomotil&amp;#174</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Lonox&amp;#174; (atropin</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> diphenoxylate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pro-Banthine&amp;#174;(propantheline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robinul&amp;#174; (glycopyrrolate)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tigan&amp;#174; (trimethobenzamide) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Transderm-Scop&amp;#174; (scopolamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urispas&amp;#174; (flavoxate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antidepressants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Anafranil&amp;#174; (clomipramine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Asendin&amp;#174;\n          (amoxapine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Desyrel&amp;#174; (trazodone)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Effexor&amp;#174; (venlafaxine) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Elavil&amp;#174; (amitriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ludiomil&amp;#174;\n          (maprotiline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpramin&amp;#174; (desipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pamelor&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Aventyl&amp;#174; (nortriptyline)&lt;/td&gt;\n        &lt;td&gt; 1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Paxil&amp;#174; (paroxetine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prozac&amp;#174;\n          (fluoxetine&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Remeron&amp;#174; (mirtazapine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serzone&amp;#174; (nefazodone) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sinequan&amp;#174;\n          (doxepin)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tofranil&amp;#174; (imipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vivactil&amp;#174; (protriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wellbutrin&amp;#174; (bupropion)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zoloft&amp;#174;\n          (sertraline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Systemic corticosteroids including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cortisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Decadron&amp;#174; (dexamethasone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depo-Medrol&amp;#174; (methylprednisolone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prednisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Xanthine derivatives\n      including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aminophylline&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Fioricet&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Esgic&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Phrenilin Forte&amp;#174; (caffein</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> butalbital)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Theo-Dur&amp;#174; (theophylline)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wigraine&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cafergot&amp;#174; (caffein</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ergotamine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H2 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Axid&amp;#174; (nizatidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pepcid&amp;#174; (famotidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tagamet&amp;#174; (cimetidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zantac&amp;#174; (ranitidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;If an H 2 antagonist is needed by the patien</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Axid&lt;/b&gt;&amp;#174; &lt;b&gt;will be&lt;/b&gt; &lt;b&gt;allowed on a case-by-case\n        basis. Please consult CRO&lt;/b&gt; &lt;b&gt;medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Narcotic Analgesics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Darvocet-N\n          100&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (propoxyphene)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Demerol&amp;#174; (meperidine)&lt;/td&gt;\n        &lt;td&gt;1\n          week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilaudid&amp;#174; (hydromorphone)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Duragesic&amp;#174; (fentanyl)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;MS\n          Contin&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Roxanol&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Oramorph&amp;#174; (morphine) &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percocet&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Roxicet&amp;#174; (oxycodone with acetaminophen)&lt;/td&gt;\n        &lt;td&gt;3\n          days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percodan&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Roxiprin&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stadol&amp;#174; (butorphanol)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Talacen&amp;#174;\n          (pentazocine)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylenol #2&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> #3&amp;#174;\n         </t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> #4&amp;#174; (codeine and acetaminophen) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylox&amp;#174;\n         </t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Roxilox&amp;#174; (oxycodone)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vicodin&amp;#174</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Lorcet&amp;#174; (hydrocodone)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Percocet\n        (oxycodone with acetaminophen) and Tylenol&lt;/b&gt;&amp;#174; &lt;b&gt;with codeine #</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> #</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> #4\n        (acetaminophen + codeine) ARE allowed in the month prior to enrollmen</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> but\n        are not permitted in the 3 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Neuroleptics\n      (antipsychotics) including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Clozaril&amp;#174;\n          (clozapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Haldol&amp;#174; (haloperidol)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Loxitane&amp;#174; (loxapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mellaril&amp;#174; (thioridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Moban&amp;#174;\n          (molindone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Navane&amp;#174; (thiothixene)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Orap&amp;#174; (pimozide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prolixin&amp;#174; (fluphenazine)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Risperdal&amp;#174;\n          (risperidone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stelazine&amp;#174; (trifluoperazine)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Thorazine&amp;#174; (chlorpromazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Trilafon&amp;#174; (perphenazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serentil&amp;#174;\n          (mesoridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of neuroleptics\n        on a daily basis must be discontinued 2 to 4 weeks prior to enrollment. The\n        use of neuroleptics on an as-needed basis is allowable during the screening\n        perio</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> but the last dose must be at least 7 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antianxiety agents including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Atarax&amp;#174; (hydroxyzine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;BuSpar&amp;#174;\n          (buspirone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Librium&amp;#174; (chlordiazepoxide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serax&amp;#174; (oxazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tranxene&amp;#174; (clorazepate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Valium&amp;#174; (diazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vistaril&amp;#174; (hydroxyzine pamoate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Xanax&amp;#174; (alprazolam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Ativan&lt;/b&gt;&amp;#174; &lt;b&gt;(lorazepam) should be discontinued on a daily\n        basis 2 weeks&lt;/b&gt;&lt;/p&gt;\n    &lt;p&gt;&lt;b&gt;prior to enrollment. It may be used on an as-needed\n        basis during the screening perio</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> but is not permitted in the 24 hours prior\n        to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Hypnotics/Sedatives including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ambien&amp;#174; (zolpidem)&lt;/td&gt;\n        &lt;td&gt; 3 days\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dalmane&amp;#174; (flurazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Doral&amp;#174; (quazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Halcion&amp;#174; (triazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nembutal&amp;#174; &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;ProSom&amp;#174; (estazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Restoril&amp;#174;\n          (temazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seconal&amp;#174;&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Chloral Hydrate is allowed on an as-needed basis during screenin</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> but is not permitted in the 24 hours prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H1 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Actifed&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Actifed Plus&amp;#174; (triprolidine) Benadryl&amp;#174;\n         </t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Unisom&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tylenol P.M.&amp;#174; &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;(diphenhydramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Compazine&amp;#174; (prochlorperazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Contac&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Coricidin D&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sinutab&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Novahistine&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Alka\n          Seltzer Plus&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Naldecon&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sudafed Plus&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tylenol Cold&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tylenol\n          Cold and Flu&amp;#174; (chlorpheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dimetapp&amp;#174;\n          (brompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Drixoral&amp;#174; (dexbrompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hismanal&amp;#174; (astemizole)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Phenergan&amp;#174;\n          (promethazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seldane&amp;#174; (terfenadine)&lt;/td&gt;\n        &lt;td&gt;1\n          week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tavist&amp;#174; (clemastine fumarate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zyrtec&amp;#174; (cetrizine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Allegra&lt;/b&gt;&amp;#174;\n      &lt;b&gt;(fexofenadine hydrochloride) or Claritin&lt;/b&gt;&amp;#174; &lt;b&gt;(loratadine) may be taken\n        on as-needed basis during screening but must be discontinued within 24 hours\n        of enrollment.&lt;/b&gt;\n    &lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Stimulants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cylert&amp;#174; (pemoline) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ritalin&amp;#174; (methylphenidate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antiarrhythmics including but not limited to the following&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adenocard&amp;#174; (adenosine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cordarone&amp;#174;\n          (amiodarone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ethmozine&amp;#174; (moricizine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mexitil&amp;#174; (mexiletine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpace&amp;#174; (disopyramide)\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Procan&amp;#174; (procainamide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Quinaglute&amp;#174;\n          (quinidine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Rythmol&amp;#174; (propafenone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tambocor&amp;#174;\n          (flecainide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tonocard&amp;#174; (tocainide)&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Requirement of these drugs for control of cardiac arrhythmia indicates that\n        the patient should be excluded from the study. If discontinuation of an antiarrhythmic\n        is considere</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> please discuss case with CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Miscellaneous drugs including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Coenzyme\n          Q&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eskalith&amp;#174;</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Lithobid&amp;#174; (lithium)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ginkgo biloba&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin\n        &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lupron&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tamoxifen&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Estrogen supplements are permitted during the stud</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> but dosage must be stable for at least 3 months prior to\n      enrollment.&lt;/p&gt;\n  &lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
         <is>
           <t> </t>
         </is>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -2740,7 +2740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -2758,42 +2758,42 @@
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>STUDYID</t>
+          <t xml:space="preserve">Variable Name </t>
         </is>
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t>DOMAIN</t>
+          <t xml:space="preserve">Variable Label </t>
         </is>
       </c>
       <c r="C1" s="10" t="inlineStr">
         <is>
-          <t>IETESTCD</t>
+          <t xml:space="preserve">Type </t>
         </is>
       </c>
       <c r="D1" s="10" t="inlineStr">
         <is>
-          <t>IETEST</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="E1" s="10" t="inlineStr">
         <is>
-          <t>IECAT</t>
+          <t xml:space="preserve">Core </t>
         </is>
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>IESCAT</t>
+          <t>Mapping Name</t>
         </is>
       </c>
       <c r="G1" s="37" t="inlineStr">
         <is>
-          <t>TIRL</t>
+          <t>JSONATA</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
         <is>
-          <t>TIVERS</t>
+          <t>Fixed content</t>
         </is>
       </c>
       <c r="I1" s="27" t="n"/>
@@ -2803,27 +2803,27 @@
     <row r="2" ht="72.5" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>STUDYID</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Study Identifier</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>'EligibilityCriterion_1': '01</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>'EligibilityCriterion_1': '&lt;p&gt;Male and female participants &lt;usdm:tag name="min_age"/&gt; - &lt;usdm:tag name="max_age"/&gt; years of age.&lt;/p&gt;</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Req</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
@@ -2836,70 +2836,66 @@
           <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
         </is>
       </c>
-      <c r="H2" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H2" s="33" t="n"/>
     </row>
     <row r="3" ht="29" customHeight="1">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>DOMAIN</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Domain Abbreviation</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_2': '02</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_2': '&lt;p&gt;Diagnosed with early and/or moderate &lt;usdm:tag name="StudyIndication"/&gt; at least 6 months before study participation.&lt;/p&gt;</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_2': 'Inclusion Criteria</t>
+          <t>Req</t>
         </is>
       </c>
       <c r="F3" s="4" t="n"/>
       <c r="G3" s="38" t="n"/>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>TI</t>
         </is>
       </c>
     </row>
     <row r="4" ht="29" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>IETESTCD</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Incl/Excl Criterion Short Name</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_3': '03</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_3': '&lt;p&gt;Able to read, understand and to provide written consent.&lt;/p&gt;</t>
+          <t>Topic</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_3': 'Inclusion Criteria</t>
+          <t>Req</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -2912,36 +2908,32 @@
           <t>study.versions.studyDesigns.eligibilityCriteria.{id: identifier}</t>
         </is>
       </c>
-      <c r="H4" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H4" s="33" t="n"/>
     </row>
     <row r="5" ht="87" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>IETEST</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Inclusion/Exclusion Criterion</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_4': '04</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_4': '&lt;p&gt;Female study participants should not be &lt;usdm:tag name="Pregnant"/&gt; or plan to become pregnant during study participation and for 6 months after last investigational product administration.</t>
+          <t>Synonym Qualifier</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_4': 'Inclusion Criteria</t>
+          <t>Req</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -2954,36 +2946,32 @@
           <t>study.versions.($EligTxt := function($id) {(eligibilityCriterionItems[id=$id].text)}; studyDesigns.eligibilityCriteria{id: $EligTxt(criterionItemId)})</t>
         </is>
       </c>
-      <c r="H5" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H5" s="33" t="n"/>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>IECAT</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Inclusion/Exclusion Category</t>
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_5': '05</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_5': '&lt;p&gt;Male participants if their sexual partners can become pregnant should use a method of contraception during study participation and for 6 months after the last administration of the investigated product.</t>
+          <t>Grouping Qualifier</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_5': 'Inclusion Criteria</t>
+          <t>Req</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -2996,36 +2984,32 @@
           <t>study.versions.studyDesigns.eligibilityCriteria{id: category.decode}</t>
         </is>
       </c>
-      <c r="H6" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H6" s="33" t="n"/>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>IESCAT</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Inclusion/Exclusion Subcategory</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_6': '06</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_6': '&lt;p&gt;Study participant is able and willing to comply with the requirements of this clinical study.&lt;/p&gt;</t>
+          <t>Grouping Qualifier</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_6': 'Inclusion Criteria</t>
+          <t>Perm</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -3038,70 +3022,62 @@
           <t>study.versions.studyDesigns.eligibilityCriteria{id: notes.codes.decode}</t>
         </is>
       </c>
-      <c r="H7" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H7" s="33" t="n"/>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>TIRL</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Inclusion/Exclusion Criterion Rule</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_7': '07</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_7': '&lt;p&gt;Parkinson s disease subjects deemed appropriate for treatment of motor symptoms with a &lt;usdm:tag name="BC1_UDPRS"/&gt; Part III score &gt;&lt;usdm:tag name="BC1_MinValExcl"/&gt;.&lt;/p&gt;</t>
+          <t>Rule</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_7': 'Inclusion Criteria</t>
+          <t>Perm</t>
         </is>
       </c>
       <c r="F8" s="4" t="n"/>
       <c r="G8" s="38" t="n"/>
-      <c r="H8" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H8" s="33" t="n"/>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>TIVERS</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Protocol Criteria Versions</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_8': '08</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_8': '&lt;p&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to the office and/or be available by telephone at designated times, will monitor administration of prescribed medications, and will be responsible for the overall care of the patient at home. The caregiver and the patient must be able to communicate in English and willing to comply with 26 weeks of transdermal therapy.&lt;/p&gt;</t>
+          <t>Record Qualifier</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_8': 'Inclusion Criteria</t>
+          <t>Perm</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -3114,737 +3090,7 @@
           <t>study.versions.versionIdentifier</t>
         </is>
       </c>
-      <c r="H9" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_9': '09</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_9': '&lt;p&gt;Persons who have previously completed or withdrawn from this study or any other study investigating xanomeline TTS or the oral formulation of xanomeline.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_9': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_10': '10</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_10': "&lt;p&gt;Use of any investigational agent or approved Alzheimer's therapeutic medication within 30 days prior to enrollment into the study.&lt;/p&gt;"</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_10': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_11': '11</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_12': '&lt;p&gt;Diagnosis of serious neurological conditions, including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Stroke or vascular dementia documented by clinical history and/or radiographic findings interpretable by the investigator as indicative of these disorders&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Seizure disorder other than simple childhood febrile seizures&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe head trauma resulting in protracted loss of consciousness within the last 5 years, or multiple episodes of head trauma&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Parkinson\'s disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Multiple sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Amyotrophic lateral sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Myasthenia gravis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_11': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_12': '12</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_13': '&lt;p&gt;Episode of depression meeting DSM-IV criteria within 3 months of screening.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_12': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_13': '13</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_14': '&lt;p&gt;A history within the last 5 years of the following:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Schizophrenia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bipolar Disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ethanol or psychoactive drug abuse or dependence. &lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_13': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_14': '14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_15': '&lt;p&gt;A history of syncope within the last 5 years.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_14': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_15': '15</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_16': '&lt;p&gt;Evidence from ECG recording at screening of any of the following conditions :&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Left bundle branch block&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bradycardia ≤50 beats per minute&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sinus pauses &amp;gt;2 seconds&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Second or third degree heart block unless treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Wolff-Parkinson-White syndrome&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sustained supraventricular tachyarrhythmia including SVT≥10 sec, atrial fibrillation, atrial flutter.&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ventricular tachycardia at a rate of ≥120 beats per minute lasting≥10 seconds.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_15': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_16': '16b</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_17': '&lt;p&gt;A history within the last 5 years of a serious cardiovascular disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Clinically significant arrhythmia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic sick sinus syndrome not treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Congestive heart failure refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Angina except angina controlled with PRN nitroglycerin&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Resting heart rate &amp;lt;50 or &amp;gt;100 beats per minute, on physical exam&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled hypertension.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_16': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_17': '17</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_18': '&lt;p&gt;A history within the last 5 years of a serious gastrointestinal disorder, including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Chronic peptic/duodenal/gastric/esophageal ulcer that are untreated or refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic diverticular disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Inflammatory bowel disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Pancreatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Hepatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Cirrhosis of the liver.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_17': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_18': '18</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_19': '&lt;p&gt;A history within the last 5 years of a serious endocrine disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled Insulin Dependent Diabetes Mellitus (IDDM)&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Diabetic ketoacidosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hyperthyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hypothyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Other untreated endocrinological disorder&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_18': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_19': '19</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_20': '&lt;p&gt; A history within the last 5 years of a serious respiratory disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Asthma with bronchospasm refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Decompensated chronic obstructive pulmonary disease.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_19': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_20': '20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_21': '&lt;p&gt;A history within the last 5 years of a serious genitourinary disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Renal failure&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled urinary retention.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_20': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_21': '21</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_22': '&lt;p&gt;A history within the last 5 years of a serious rheumatologic disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Lupus&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Temporal arteritis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe rheumatoid arthritis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_21': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_22': '22</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_23': '&lt;p&gt;A known history of human immunodeficiency virus (HIV) within the last 5 years.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_22': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_23': '23</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_24': '&lt;p&gt;A history within the last 5 years of a serious infectious disease including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;a)  Neurosyphilis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;b)  Meningitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;c)  Encephalitis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_23': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_24': '24</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_25': '&lt;p&gt;A history within the last 5 years of a primary or recurrent malignant disease with the exception of resected cutaneous squamous cell carcinoma in situ, basal cell carcinoma, cervical carcinoma in situ, or in situ prostate cancer with a normal PSA postresection.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_24': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_25': '25</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_26': '&lt;p&gt;Visual, hearing, or communication disabilities impairing the ability to participate in the study; (for example, inability to speak or understand English, illiteracy).&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_25': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_26': '26</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_27': "&lt;p&gt;Laboratory test values exceeding the Lilly Reference Range III for the patient's age in any of the following analytes: ↑ creatinine, ↑ total bilirubin, ↑ SGOT, ↑ SGPT, ↑ alkaline phosphatase, ↑ GGT, ↑↓ hemoglobin, ↑↓ white blood cell count, ↑↓ platelet count, ↑↓ serum sodium, potassium, or calcium.&lt;/p&gt;\n&lt;p&gt;If values exceed these laboratory reference ranges, clinical significance will be judged by the monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significant, the patient may be included in the study. This decision will be documented.&lt;/p&gt;"</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_26': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_27': '27b</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_29': '&lt;p&gt;Positive syphilis screening.&lt;/p&gt;\n&lt;p&gt;Positive syphilis screening. As determined by positive RPR followed up by confirmatory FTA-Abs. Confirmed patients are excluded unless there is a documented medical history of an alternative disease (for example, yaws) which caused the lab abnormality.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_27': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_28': '28b</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_30': '&lt;p&gt;Glycosylated hemoglobin (A1C). Required only on patients with known diabetes mellitus or random blood sugar &amp;gt;200 on screening labs. Patients will be excluded if levels are &amp;gt;9.5%&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_28': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_29': '29b</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_31': '&lt;p&gt;Treatment with the following medications within the specified washout periods prior to enrollment and during the\n  study:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n  &lt;li&gt;\n    &lt;p&gt;Anticonvulsants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depakote&amp;#174; (valproic acid) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilantin&amp;#174; (phenytoin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Felbatol&amp;#174;\n          (felbamate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Klonopin&amp;#174; (clonazepam)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lamictal&amp;#174; (lamotrigine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mysoline&amp;#174; (primidone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Neurontin&amp;#174;\n          (gabapentin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Phenobarbitol&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tegretol&amp;#174; (carbamazepine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Alpha receptor blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aldomet&amp;#174; (methyldopa) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardura&amp;#174;\n          (doxazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Catapres&amp;#174; (clonidine)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hytrin&amp;#174; (terazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Minipress&amp;#174; (prazosin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenex&amp;#174; (guanfacine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wytensin&amp;#174;\n          (guanabenz) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of low doses\n        (2 mg daily) of either Hytrin&lt;/b&gt;&amp;#174; &lt;b&gt;or Cardura&lt;/b&gt;&amp;#174; &lt;b&gt;for relief of\n        urinary retention for patients with prostatic hypertrophy will be considered\n        on a case-by-case basis provided blood pressure is stable and the medication\n        has not had demonstrable effect on dementia symptoms in the opinion of the treating\n        physician. Contact CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Calcium channel blockers\n      that are CNS active including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Calan&amp;#174; , Isoptin&amp;#174; , Verelan&amp;#174; (verapamil) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardizem&amp;#174; (diltiazem) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nimotop&amp;#174;\n          (nimodipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adalat&amp;#174; , Procardia XL&amp;#174;\n          (nifedipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cardene&lt;/b&gt;&amp;#174; &lt;b&gt;(nicardipine),\n        Norvasc&lt;/b&gt;&amp;#174; &lt;b&gt;, (amlodipine), and DynaCirc&lt;/b&gt;&amp;#174; &lt;b&gt;(isradipine) will\n        be allowed during the study. If a patient is taking an excluded calcium channel\n        blocker and is changed to an equivalent dose of an allowed calcium channel blocker,\n        enrollment may proceed in as little as 24 hours though 1 week is preferred when\n        possible.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Betapace&amp;#174; (sotalol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Inderal&amp;#174; (propranolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lopressor&amp;#174;\n          , Toprol XL&amp;#174; (metoprolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Corgard&amp;#174; (nadolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sectral&amp;#174; (acebutolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenormin&amp;#174; (atenolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Visken&amp;#174; (pindolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Beta\n        blocker eye drops for glaucoma will be considered on a case-by-case basis. Call\n        medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta sympathomimetics (unless inhaled) including\n      but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Alupent&amp;#174; tablets\n          (metaproterenol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Brethine&amp;#174; tablets\n          (terbutaline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dopamine &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Proventil Repetabs&amp;#174; , Ventolin&amp;#174; tablets (albuterol tablets)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;Parasympathomimetics (cholinergics) (unless opthalmic) including but not limited to\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antilirium&amp;#174; (physostigmine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aricept&amp;#174; (donepezil) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cognex&amp;#174; (tacrine) &lt;/td&gt;\n        &lt;td&gt;1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mestinon&amp;#174; (pyridostigmine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Reglan&amp;#174; (metoclopramide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urecholine&amp;#174;\n          , Duvoid (bethanechol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cholinergic eye drops for treatment of glaucoma will be allowed during the study on a case-by-case basis.\n        Please contact the CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Muscle relaxants-centrally active including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Equanil&amp;#174; (meprobamate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Flexeril&amp;#174; (cyclobenzaprine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lioresal&amp;#174; (baclofen) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norflex&amp;#174; (orphenadrine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parafon Forte&amp;#174; (chlorzoxazone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robaxin&amp;#174; (methocarbamol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Skelaxin&amp;#174; (metaxalone)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Soma&amp;#174; (carisoprodol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Monamine oxidase inhibitors (MAOI) including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eldepryl&amp;#174; (selegiline)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nardil&amp;#174; (phenelzine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parnate&amp;#174; (tranylcypromine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Parasympatholytics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antivert&amp;#174; , Bonine&amp;#174; , Dramamine II&amp;#174; (meclizine)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Artane&amp;#174; (trihexyphenidyl)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bellergal-S&amp;#174; (alkaloids of belladonna and ergotamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bentyl&amp;#174; (dicyclomine) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cogentin&amp;#174; (benztropine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cystospaz&amp;#174;, Levsin&amp;#174; , Levsinex&amp;#174; (hyoscyamine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ditropan&amp;#174;\n          (oxybutynin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Donnatal&amp;#174; , Hyosophen&amp;#174;\n          (atropine, scopolamine, hyoscyamine and phenobarbitol) &lt;/td&gt;\n        &lt;td&gt;1 month &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dramamine&amp;#174; (dimenhydrinate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lomotil&amp;#174;, Lonox&amp;#174; (atropine, diphenoxylate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pro-Banthine&amp;#174;(propantheline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robinul&amp;#174; (glycopyrrolate)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tigan&amp;#174; (trimethobenzamide) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Transderm-Scop&amp;#174; (scopolamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urispas&amp;#174; (flavoxate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antidepressants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Anafranil&amp;#174; (clomipramine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Asendin&amp;#174;\n          (amoxapine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Desyrel&amp;#174; (trazodone)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Effexor&amp;#174; (venlafaxine) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Elavil&amp;#174; (amitriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ludiomil&amp;#174;\n          (maprotiline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpramin&amp;#174; (desipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pamelor&amp;#174; , Aventyl&amp;#174; (nortriptyline)&lt;/td&gt;\n        &lt;td&gt; 1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Paxil&amp;#174; (paroxetine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prozac&amp;#174;\n          (fluoxetine&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Remeron&amp;#174; (mirtazapine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serzone&amp;#174; (nefazodone) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sinequan&amp;#174;\n          (doxepin)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tofranil&amp;#174; (imipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vivactil&amp;#174; (protriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wellbutrin&amp;#174; (bupropion)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zoloft&amp;#174;\n          (sertraline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Systemic corticosteroids including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cortisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Decadron&amp;#174; (dexamethasone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depo-Medrol&amp;#174; (methylprednisolone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prednisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Xanthine derivatives\n      including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aminophylline&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Fioricet&amp;#174; , Esgic&amp;#174; , Phrenilin Forte&amp;#174; (caffeine, butalbital)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Theo-Dur&amp;#174; (theophylline)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wigraine&amp;#174; , Cafergot&amp;#174; (caffeine, ergotamine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H2 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Axid&amp;#174; (nizatidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pepcid&amp;#174; (famotidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tagamet&amp;#174; (cimetidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zantac&amp;#174; (ranitidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;If an H 2 antagonist is needed by the patient, Axid&lt;/b&gt;&amp;#174; &lt;b&gt;will be&lt;/b&gt; &lt;b&gt;allowed on a case-by-case\n        basis. Please consult CRO&lt;/b&gt; &lt;b&gt;medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Narcotic Analgesics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Darvocet-N\n          100&amp;#174; , (propoxyphene)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Demerol&amp;#174; (meperidine)&lt;/td&gt;\n        &lt;td&gt;1\n          week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilaudid&amp;#174; (hydromorphone)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Duragesic&amp;#174; (fentanyl)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;MS\n          Contin&amp;#174; , Roxanol&amp;#174; , Oramorph&amp;#174; (morphine) &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percocet&amp;#174; , Roxicet&amp;#174; (oxycodone with acetaminophen)&lt;/td&gt;\n        &lt;td&gt;3\n          days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percodan&amp;#174; , Roxiprin&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stadol&amp;#174; (butorphanol)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Talacen&amp;#174;\n          (pentazocine)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylenol #2&amp;#174; , #3&amp;#174;\n          , #4&amp;#174; (codeine and acetaminophen) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylox&amp;#174;\n          , Roxilox&amp;#174; (oxycodone)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vicodin&amp;#174;, Lorcet&amp;#174; (hydrocodone)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Percocet\n        (oxycodone with acetaminophen) and Tylenol&lt;/b&gt;&amp;#174; &lt;b&gt;with codeine #2, #3, #4\n        (acetaminophen + codeine) ARE allowed in the month prior to enrollment, but\n        are not permitted in the 3 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Neuroleptics\n      (antipsychotics) including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Clozaril&amp;#174;\n          (clozapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Haldol&amp;#174; (haloperidol)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Loxitane&amp;#174; (loxapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mellaril&amp;#174; (thioridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Moban&amp;#174;\n          (molindone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Navane&amp;#174; (thiothixene)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Orap&amp;#174; (pimozide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prolixin&amp;#174; (fluphenazine)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Risperdal&amp;#174;\n          (risperidone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stelazine&amp;#174; (trifluoperazine)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Thorazine&amp;#174; (chlorpromazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Trilafon&amp;#174; (perphenazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serentil&amp;#174;\n          (mesoridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of neuroleptics\n        on a daily basis must be discontinued 2 to 4 weeks prior to enrollment. The\n        use of neuroleptics on an as-needed basis is allowable during the screening\n        period, but the last dose must be at least 7 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antianxiety agents including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Atarax&amp;#174; (hydroxyzine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;BuSpar&amp;#174;\n          (buspirone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Librium&amp;#174; (chlordiazepoxide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serax&amp;#174; (oxazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tranxene&amp;#174; (clorazepate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Valium&amp;#174; (diazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vistaril&amp;#174; (hydroxyzine pamoate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Xanax&amp;#174; (alprazolam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Ativan&lt;/b&gt;&amp;#174; &lt;b&gt;(lorazepam) should be discontinued on a daily\n        basis 2 weeks&lt;/b&gt;&lt;/p&gt;\n    &lt;p&gt;&lt;b&gt;prior to enrollment. It may be used on an as-needed\n        basis during the screening period, but is not permitted in the 24 hours prior\n        to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Hypnotics/Sedatives including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ambien&amp;#174; (zolpidem)&lt;/td&gt;\n        &lt;td&gt; 3 days\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dalmane&amp;#174; (flurazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Doral&amp;#174; (quazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Halcion&amp;#174; (triazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nembutal&amp;#174; &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;ProSom&amp;#174; (estazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Restoril&amp;#174;\n          (temazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seconal&amp;#174;&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Chloral Hydrate is allowed on an as-needed basis during screening, but is not permitted in the 24 hours prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H1 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Actifed&amp;#174; , Actifed Plus&amp;#174; (triprolidine) Benadryl&amp;#174;\n          , Unisom&amp;#174; , Tylenol P.M.&amp;#174; &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;(diphenhydramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Compazine&amp;#174; (prochlorperazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Contac&amp;#174; , Coricidin D&amp;#174; , Sinutab&amp;#174; , Novahistine&amp;#174; , Alka\n          Seltzer Plus&amp;#174; , Naldecon&amp;#174; , Sudafed Plus&amp;#174; , Tylenol Cold&amp;#174; , Tylenol\n          Cold and Flu&amp;#174; (chlorpheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dimetapp&amp;#174;\n          (brompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Drixoral&amp;#174; (dexbrompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hismanal&amp;#174; (astemizole)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Phenergan&amp;#174;\n          (promethazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seldane&amp;#174; (terfenadine)&lt;/td&gt;\n        &lt;td&gt;1\n          week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tavist&amp;#174; (clemastine fumarate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zyrtec&amp;#174; (cetrizine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Allegra&lt;/b&gt;&amp;#174;\n      &lt;b&gt;(fexofenadine hydrochloride) or Claritin&lt;/b&gt;&amp;#174; &lt;b&gt;(loratadine) may be taken\n        on as-needed basis during screening but must be discontinued within 24 hours\n        of enrollment.&lt;/b&gt;\n    &lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Stimulants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cylert&amp;#174; (pemoline) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ritalin&amp;#174; (methylphenidate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antiarrhythmics including but not limited to the following&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adenocard&amp;#174; (adenosine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cordarone&amp;#174;\n          (amiodarone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ethmozine&amp;#174; (moricizine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mexitil&amp;#174; (mexiletine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpace&amp;#174; (disopyramide)\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Procan&amp;#174; (procainamide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Quinaglute&amp;#174;\n          (quinidine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Rythmol&amp;#174; (propafenone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tambocor&amp;#174;\n          (flecainide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tonocard&amp;#174; (tocainide)&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Requirement of these drugs for control of cardiac arrhythmia indicates that\n        the patient should be excluded from the study. If discontinuation of an antiarrhythmic\n        is considered, please discuss case with CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Miscellaneous drugs including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Coenzyme\n          Q&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eskalith&amp;#174; , Lithobid&amp;#174; (lithium)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ginkgo biloba&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin\n        &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lupron&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tamoxifen&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Estrogen supplements are permitted during the study, but dosage must be stable for at least 3 months prior to\n      enrollment.&lt;/p&gt;\n  &lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_29': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_30': '30b</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_30': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_31': '31b</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 'EligibilityCriterion_31': 'Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H9" s="33" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3857,7 +3103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:K3"/>
@@ -3878,405 +3124,2228 @@
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Name </t>
+          <t>STUDYID</t>
         </is>
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Label </t>
+          <t>DOMAIN</t>
         </is>
       </c>
       <c r="C1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type </t>
+          <t>TSSEQ</t>
         </is>
       </c>
       <c r="D1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>TSGRPID</t>
         </is>
       </c>
       <c r="E1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Core </t>
+          <t>TSPARMCD</t>
         </is>
       </c>
       <c r="F1" s="10" t="inlineStr">
         <is>
-          <t>Mapping Name</t>
+          <t>TSPARM</t>
         </is>
       </c>
       <c r="G1" s="10" t="inlineStr">
         <is>
-          <t>JSONATA</t>
+          <t>TSVAL</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
         <is>
-          <t>Fixed content</t>
-        </is>
-      </c>
-      <c r="I1" s="27" t="n"/>
-      <c r="J1" s="27" t="n"/>
-      <c r="K1" s="27" t="n"/>
+          <t>TSVALNF</t>
+        </is>
+      </c>
+      <c r="I1" s="27" t="inlineStr">
+        <is>
+          <t>TSVALCD</t>
+        </is>
+      </c>
+      <c r="J1" s="27" t="inlineStr">
+        <is>
+          <t>TSVCDREF</t>
+        </is>
+      </c>
+      <c r="K1" s="27" t="inlineStr">
+        <is>
+          <t>TSVCDVER</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="93" customHeight="1">
-      <c r="A2" s="9" t="inlineStr">
-        <is>
-          <t>STUDYID</t>
-        </is>
-      </c>
+      <c r="A2" s="9" t="n"/>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>Study Identifier</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t>ADAPT</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>Sponsor Study Identifier</t>
-        </is>
-      </c>
-      <c r="G2" s="34" t="inlineStr">
-        <is>
-          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
-        </is>
-      </c>
-      <c r="H2" s="33" t="n"/>
+          <t>Adaptive Design</t>
+        </is>
+      </c>
+      <c r="G2" s="34" t="inlineStr"/>
+      <c r="H2" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="inlineStr">
-        <is>
-          <t>DOMAIN</t>
-        </is>
-      </c>
+      <c r="A3" s="9" t="n"/>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>Domain Abbreviation</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="32" t="n"/>
+          <t>AGEMIN</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Planned Minimum Age of Subjects</t>
+        </is>
+      </c>
+      <c r="G3" s="32" t="inlineStr">
+        <is>
+          <t>18  Year</t>
+        </is>
+      </c>
       <c r="H3" s="9" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="n"/>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
           <t>TS</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="inlineStr">
-        <is>
-          <t>TSSEQ</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="inlineStr">
-        <is>
-          <t>Sequence Number</t>
-        </is>
-      </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>Num</t>
+          <t> </t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F4" s="12" t="n"/>
-      <c r="G4" s="32" t="n"/>
-      <c r="H4" s="33" t="n"/>
+          <t>AGEMAX</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>Planned Minimum Age of Subjects</t>
+        </is>
+      </c>
+      <c r="G4" s="32" t="inlineStr">
+        <is>
+          <t>70  Year</t>
+        </is>
+      </c>
+      <c r="H4" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t>TSGRPID</t>
-        </is>
-      </c>
+      <c r="A5" s="9" t="n"/>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>Group ID</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="32" t="n"/>
-      <c r="H5" s="33" t="n"/>
+          <t>BRDNAIND</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>Biospecimen Retention contains DNA Ind</t>
+        </is>
+      </c>
+      <c r="G5" s="32" t="inlineStr"/>
+      <c r="H5" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>TSPARMCD</t>
-        </is>
-      </c>
+      <c r="A6" s="9" t="n"/>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>Trial Summary Parameter Short Name</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>Topic</t>
+          <t> </t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F6" s="12" t="n"/>
-      <c r="G6" s="32" t="n"/>
-      <c r="H6" s="33" t="n"/>
+          <t>BRIND</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>Biospecimen Retention indicator</t>
+        </is>
+      </c>
+      <c r="G6" s="32" t="inlineStr"/>
+      <c r="H6" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="29" customHeight="1">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>TSPARM</t>
-        </is>
-      </c>
+      <c r="A7" s="9" t="n"/>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>Trial Summary Parameter</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>Synonym Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="n"/>
-      <c r="G7" s="32" t="n"/>
-      <c r="H7" s="33" t="n"/>
+          <t>COMPTRT</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>Comparative Treatment Name</t>
+        </is>
+      </c>
+      <c r="G7" s="32" t="inlineStr"/>
+      <c r="H7" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>TSVAL</t>
-        </is>
-      </c>
+      <c r="A8" s="9" t="n"/>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>Parameter Value</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="n"/>
-      <c r="G8" s="32" t="n"/>
-      <c r="H8" s="33" t="n"/>
+          <t>CONNAME</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>Contact Name</t>
+        </is>
+      </c>
+      <c r="G8" s="32" t="inlineStr"/>
+      <c r="H8" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
-      <c r="A9" s="9" t="inlineStr">
-        <is>
-          <t>TSVALNF</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>Parameter Value Null Flavor</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="n"/>
-      <c r="G9" s="32" t="n"/>
-      <c r="H9" s="33" t="n"/>
+          <t>CONROLE</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>Contact Role</t>
+        </is>
+      </c>
+      <c r="G9" s="32" t="inlineStr"/>
+      <c r="H9" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="29" customHeight="1">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>TSVALCD</t>
-        </is>
-      </c>
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>Parameter Value Code</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D10" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="n"/>
-      <c r="G10" s="32" t="n"/>
-      <c r="H10" s="33" t="n"/>
+          <t>CRMDUR</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="inlineStr">
+        <is>
+          <t>Confirmed Response Minimum Duration</t>
+        </is>
+      </c>
+      <c r="G10" s="32" t="inlineStr"/>
+      <c r="H10" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="29" customHeight="1">
-      <c r="A11" s="9" t="inlineStr">
-        <is>
-          <t>TSVCDREF</t>
-        </is>
-      </c>
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>Name of Reference Terminology</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>CURTRT</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Name of Reference Terminology</t>
-        </is>
-      </c>
-      <c r="G11" s="32" t="inlineStr">
-        <is>
-          <t>..code.codeSystem</t>
-        </is>
-      </c>
-      <c r="H11" s="33" t="n"/>
+          <t>Current Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G11" s="32" t="inlineStr"/>
+      <c r="H11" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="43.5" customHeight="1">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>TSVCDVER</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>Version of the Reference Terminology</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>DMCIND</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Version of Reference Terminology</t>
-        </is>
-      </c>
-      <c r="G12" s="32" t="inlineStr">
-        <is>
-          <t>..code.codeSystemVersion</t>
-        </is>
-      </c>
-      <c r="H12" s="33" t="n"/>
+          <t>Data Monitoring Committee Indicator</t>
+        </is>
+      </c>
+      <c r="G12" s="32" t="inlineStr"/>
+      <c r="H12" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>StudyIntervention_1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DOSE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dose Level; Dose per Administration</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DOSFRM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dose Form</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>StudyIntervention_1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DOSFRQ</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dosing Frequency</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>StudyIntervention_2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DOSFRQ</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Dosing Frequency</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>StudyIntervention_1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DOSU</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dose Units</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>StudyIntervention_2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DOSU</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Dose Units</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>EXTTIND</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Extension Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FCNTRY</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Planned Country of Investigational Sites</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HLTSUBJI</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Healthy Subject Indicator</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>INDIC</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>'T1DM', 'T2DM'</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>INTMODEL</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Intervention Model</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Parallel Study</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>C82639</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>StudyIntervention_1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>INTTYPE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Intervention Type</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>StudyIntervention_2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>INTTYPE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Intervention Type</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>LENGTH</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Trial Length</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MSEUTIND</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Multiple Site EU Site Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NARMS</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Planned Number of Arms</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NCOHORT</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Number of Groups/Cohorts</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NUMSEUST</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Number of Trial Sites EU State</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Objective_5</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>OBJEXP</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Trial Exploratory Objective</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Objective_1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>OBJPRIM</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Study Primary Objective; Trial Primary Objective</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Objective_2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>OBJSEC</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>OBSMODEL</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Observational Model</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>OBSTIMP</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Observational Time Perspective</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>OBSTPOPD</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Obs Study Population Description</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>OBSTSMM</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Observational Study Sampling Method</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>OUTMSEXP</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Exploratory Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>OUTMSPRI</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Primary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>OUTMSSEC</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ,  ,</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>PCLAS</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Pharmacologic Class</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>PIPIND</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Pediatric Investigation Plan Indicator</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>PLANSUB</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>StudyIntervention_1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>PTRTDUR</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Planned Treatment Duration</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>StudyIntervention_2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>PTRTDUR</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Planned Treatment Duration</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>RANDOM</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Trial is Randomized</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>RDIND</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Rare Disease Indicator</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>REGID</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Registry Identifier</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>StudyIntervention_1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>StudyIntervention_2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>RTSPCDES</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Retained Biospecimen Description</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SEXPOP</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sex of Participants</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SPONSOR</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SPREFID</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sponsor's Study Reference ID</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SSEUTIND</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Single Site EU State Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>STYPE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Study Type; Study Type Classification</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Interventional Study</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>C98388</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>TBLIND</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Open Label Study</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>C49659</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TCNTRL</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Control Type</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>THERAREA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Therapeutic Area</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>TINDTP</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Trial Intent Type</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>'Basic Research', 'Device Feasibility Study'</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>'C15714', 'C139174'</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>'2024-09-27', '2024-09-27'</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Official Study Title; Study Title; Trial Title</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>TPHASE</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Trial Phase; Trial Phase Classification</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>StudyIntervention_1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Investigational Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>TTYPE</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Trial Scope; Trial Type</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Efficacy Study</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>C49666</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4343,7 +5412,7 @@
       </c>
       <c r="G1" s="27" t="inlineStr">
         <is>
-          <t>TSVAL JSONATA map</t>
+          <t>Mapping Results</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
@@ -4390,9 +5459,25 @@
           <t>Adaptive Design Indicator</t>
         </is>
       </c>
-      <c r="G2" s="30" t="inlineStr">
-        <is>
-          <t>$exists(study.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
+      <c r="G2" s="30" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4421,9 +5506,27 @@
       </c>
       <c r="G3" s="28" t="inlineStr">
         <is>
-          <t>$min([study.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
-$distinct(study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode)
- &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode)</t>
+          <t>18  Year</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4452,13 +5555,27 @@
       </c>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>$max([study.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
-$distinct(study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode) &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode)</t>
+          <t>70  Year</t>
         </is>
       </c>
       <c r="H4" s="35" t="inlineStr">
         <is>
-          <t>PINF</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4493,9 +5610,25 @@
           <t>Biospecimen retention contains DNA indicator</t>
         </is>
       </c>
-      <c r="G5" s="28" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns.biospecimenRetentions.includesDNA</t>
+      <c r="G5" s="28" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4530,9 +5663,25 @@
           <t>Biospecimen retention indicator</t>
         </is>
       </c>
-      <c r="G6" s="28" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns.biospecimenRetentions.isRetained</t>
+      <c r="G6" s="28" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4563,9 +5712,25 @@
         </is>
       </c>
       <c r="F7" s="14" t="n"/>
-      <c r="G7" s="28" t="inlineStr">
-        <is>
-          <t>study.versions.studyInterventions[role.code="C68609"].{id: label}</t>
+      <c r="G7" s="28" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4600,6 +5765,27 @@
           <t>Contact Name</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="15" t="inlineStr">
@@ -4632,6 +5818,27 @@
           <t>Contact Role</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" s="15" t="inlineStr">
@@ -4666,7 +5873,27 @@
       </c>
       <c r="G10" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': '1 Day' , 'StudyIntervention_2': '1 Day'}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4701,9 +5928,25 @@
           <t>Background treatment</t>
         </is>
       </c>
-      <c r="G11" s="28" t="inlineStr">
-        <is>
-          <t>study.versions.studyInterventions[role.code="C165822"].{id: label}</t>
+      <c r="G11" s="28" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4730,9 +5973,25 @@
           <t>Data Monitoring Committee Indicator</t>
         </is>
       </c>
-      <c r="G12" s="28" t="inlineStr">
-        <is>
-          <t>$exists(study.versions.roles.code[code="C142578"]) ? "Y" : ""</t>
+      <c r="G12" s="28" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4769,7 +6028,27 @@
       </c>
       <c r="G13" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.value}</t>
+          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4804,9 +6083,25 @@
           <t>Dose Form</t>
         </is>
       </c>
-      <c r="G14" s="28" t="inlineStr">
-        <is>
-          <t>study.versions.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
+      <c r="G14" s="28" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4843,22 +6138,27 @@
       </c>
       <c r="G15" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I15" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.code}</t>
+          <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
         </is>
       </c>
       <c r="J15" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K15" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -4895,22 +6195,27 @@
       </c>
       <c r="G16" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I16" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.code}</t>
+          <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
         </is>
       </c>
       <c r="J16" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K16" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -4937,9 +6242,25 @@
           <t>Extension Trial Indicator</t>
         </is>
       </c>
-      <c r="G17" s="36" t="inlineStr">
-        <is>
-          <t>$exists(study.versions.studyDesigns.characteristics[code="C207613"]) ? "Y" : ""</t>
+      <c r="G17" s="36" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4968,6 +6289,27 @@
       <c r="F18" s="14" t="inlineStr">
         <is>
           <t>Planned Country of Investigational Sites</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4994,9 +6336,25 @@
           <t>Healthy Subject Indicator Study Population / Cohort</t>
         </is>
       </c>
-      <c r="G19" s="28" t="inlineStr">
-        <is>
-          <t>$exists(study.versions.studyDesigns.population[includesHealthySubjects=true]) ? "Y" : ($exists(study.versions.studyDesigns.population.cohorts[includesHealthySubjects=true]) ? "Y" : "")</t>
+      <c r="G19" s="28" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5025,7 +6383,27 @@
       </c>
       <c r="G20" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.indications.label</t>
+          <t>'T1DM', 'T2DM'</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5054,22 +6432,23 @@
       </c>
       <c r="G21" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.decode</t>
+          <t>Parallel Study</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I21" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.code</t>
-        </is>
-      </c>
-      <c r="J21" s="29" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystem</t>
-        </is>
-      </c>
+          <t>C82639</t>
+        </is>
+      </c>
+      <c r="J21" s="29" t="inlineStr"/>
       <c r="K21" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystemVersion</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -5106,22 +6485,27 @@
       </c>
       <c r="G22" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.decode}</t>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I22" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.code}</t>
+          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
         </is>
       </c>
       <c r="J22" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K22" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -5148,14 +6532,25 @@
           <t>Trial Duration Value + Units</t>
         </is>
       </c>
-      <c r="G23" s="28" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
-        </is>
-      </c>
+      <c r="G23" s="28" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5182,6 +6577,27 @@
           <t>Multiple Site Eu Site Trial Indicator</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="29" customHeight="1">
       <c r="A25" s="15" t="inlineStr">
@@ -5206,9 +6622,25 @@
           <t>Number of Arms</t>
         </is>
       </c>
-      <c r="G25" s="28" t="inlineStr">
-        <is>
-          <t>$count(study.versions.studyDesigns.arms)</t>
+      <c r="G25" s="28" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5235,9 +6667,25 @@
           <t>Number of Groups/Cohorts</t>
         </is>
       </c>
-      <c r="G26" s="29" t="inlineStr">
-        <is>
-          <t>$exists(study.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
+      <c r="G26" s="29" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5264,6 +6712,27 @@
           <t>Number of Trial Sites EU State</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="43.5" customHeight="1">
       <c r="A28" s="15" t="inlineStr">
@@ -5298,7 +6767,27 @@
       </c>
       <c r="G28" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
+          <t>{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon' , 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5335,7 +6824,27 @@
       </c>
       <c r="G29" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
+          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5372,7 +6881,27 @@
       </c>
       <c r="G30" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
+          <t>{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG' , 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG' , 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5399,24 +6928,25 @@
           <t>Observational Model</t>
         </is>
       </c>
-      <c r="G31" s="31" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.decode</t>
+      <c r="G31" s="31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I31" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J31" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K31" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5443,24 +6973,25 @@
           <t>Observational Time Perspective</t>
         </is>
       </c>
-      <c r="G32" s="29" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.decode</t>
+      <c r="G32" s="29" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I32" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J32" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K32" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5487,9 +7018,25 @@
           <t>Observational Study Population Description</t>
         </is>
       </c>
-      <c r="G33" s="29" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].populations.description</t>
+      <c r="G33" s="29" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5516,24 +7063,25 @@
           <t>Observational Study Sampling Method</t>
         </is>
       </c>
-      <c r="G34" s="29" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.decode</t>
+      <c r="G34" s="29" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I34" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J34" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K34" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5570,7 +7118,27 @@
       </c>
       <c r="G35" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
+          <t>{ , }</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5605,9 +7173,25 @@
           <t>Primary Outcome Measure</t>
         </is>
       </c>
-      <c r="G36" s="28" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
+      <c r="G36" s="28" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5644,7 +7228,27 @@
       </c>
       <c r="G37" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
+          <t>{ ,  , }</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5675,9 +7279,25 @@
           <t>Pharmacologic Class</t>
         </is>
       </c>
-      <c r="G38" s="28" t="inlineStr">
-        <is>
-          <t>study.versions.studyInterventions.administrations.administrableProduct[producDesignation.code="C202579"].pharmacologicClass.decode</t>
+      <c r="G38" s="28" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5704,9 +7324,25 @@
           <t>Pediatric Investigation Plan Indicator</t>
         </is>
       </c>
-      <c r="G39" s="28" t="inlineStr">
-        <is>
-          <t>$exists(study.versions.referenceIdentifiers.type[code="C215674"]) ? "Y" : ""</t>
+      <c r="G39" s="28" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5735,12 +7371,27 @@
       </c>
       <c r="G40" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve">study.versions.studyDesigns.population.plannedEnrollmentNumber.value </t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5773,12 +7424,27 @@
       </c>
       <c r="G41" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5805,9 +7471,25 @@
           <t>Randomized Indicator</t>
         </is>
       </c>
-      <c r="G42" s="28" t="inlineStr">
-        <is>
-          <t>$exists(study.versions.studyDesigns.characteristics[code="C46079"]) ? "Y" : $exists(study.versions.studyDesigns.characteristics[code="C147145"]) ? "Y" : ""</t>
+      <c r="G42" s="28" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5834,9 +7516,25 @@
           <t>Rare disease indicator</t>
         </is>
       </c>
-      <c r="G43" s="29" t="inlineStr">
-        <is>
-          <t>$exists(study.versions.studyDesigns.indications[isRareDisease=true]) ? "Y" : ""</t>
+      <c r="G43" s="29" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5871,6 +7569,27 @@
           <t>Registry Identifier</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="58" customHeight="1">
       <c r="A45" s="15" t="inlineStr">
@@ -5905,22 +7624,27 @@
       </c>
       <c r="G45" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I45" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.code}</t>
+          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
         </is>
       </c>
       <c r="J45" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K45" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -5953,6 +7677,27 @@
       <c r="F46" s="14" t="inlineStr">
         <is>
           <t>Retained Biospecimen Description</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5979,6 +7724,27 @@
           <t>Sex of Participants</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="29" customHeight="1">
       <c r="A48" s="15" t="inlineStr">
@@ -6003,9 +7769,25 @@
           <t>Sponsor Name - Organization</t>
         </is>
       </c>
-      <c r="G48" s="28" t="inlineStr">
-        <is>
-          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];organizations[id=$sponsorIdVal].label;)</t>
+      <c r="G48" s="28" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6034,6 +7816,27 @@
       <c r="F49" s="14" t="inlineStr">
         <is>
           <t>Sponsor's Study Reference ID</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6060,6 +7863,27 @@
           <t>Single Site Eu State Trial Indicator</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="29" customHeight="1">
       <c r="A51" s="15" t="inlineStr">
@@ -6086,22 +7910,23 @@
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.studyType.decode</t>
+          <t>Interventional Study</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I51" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.studyType.code</t>
-        </is>
-      </c>
-      <c r="J51" s="31" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns.studyType.codeSystem</t>
-        </is>
-      </c>
+          <t>C98388</t>
+        </is>
+      </c>
+      <c r="J51" s="31" t="inlineStr"/>
       <c r="K51" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.studyType.codeSystemVersion</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -6130,22 +7955,23 @@
       </c>
       <c r="G52" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.decode</t>
+          <t>Open Label Study</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I52" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.code</t>
-        </is>
-      </c>
-      <c r="J52" s="28" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystem</t>
-        </is>
-      </c>
+          <t>C49659</t>
+        </is>
+      </c>
+      <c r="J52" s="28" t="inlineStr"/>
       <c r="K52" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystemVersion</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
@@ -6172,24 +7998,25 @@
           <t>Intervention Control Type</t>
         </is>
       </c>
-      <c r="G53" s="29" t="inlineStr">
-        <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].decode : role[code="C68609"].decode}</t>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I53" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
+          <t> </t>
         </is>
       </c>
       <c r="J53" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystem : role[code="C68609"].codeSystem}</t>
+          <t> </t>
         </is>
       </c>
       <c r="K53" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystemVersion : role[code="C68609"].codeSystemVersion}</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6216,24 +8043,25 @@
           <t>Therapeutic Area</t>
         </is>
       </c>
-      <c r="G54" s="28" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns.therapeuticAreas.decode</t>
+      <c r="G54" s="28" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I54" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.therapeuticAreas.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J54" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.therapeuticAreas.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K54" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.therapeuticAreas.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6266,22 +8094,23 @@
       </c>
       <c r="G55" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.decode</t>
+          <t>'Basic Research', 'Device Feasibility Study'</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I55" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.code</t>
-        </is>
-      </c>
-      <c r="J55" s="28" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.codeSystem</t>
-        </is>
-      </c>
+          <t>'C15714', 'C139174'</t>
+        </is>
+      </c>
+      <c r="J55" s="28" t="inlineStr"/>
       <c r="K55" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.codeSystemVersion</t>
+          <t>'2024-09-27', '2024-09-27'</t>
         </is>
       </c>
     </row>
@@ -6308,9 +8137,25 @@
           <t>Full Title</t>
         </is>
       </c>
-      <c r="G56" s="28" t="inlineStr">
-        <is>
-          <t>study.versions.titles[type.code="C207616"].text</t>
+      <c r="G56" s="28" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6337,29 +8182,25 @@
           <t>Trial Phase</t>
         </is>
       </c>
-      <c r="G57" s="31" t="inlineStr">
-        <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.decode</t>
-        </is>
-      </c>
+      <c r="G57" s="31" t="inlineStr"/>
       <c r="H57" s="35" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I57" s="31" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J57" s="31" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K57" s="31" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6396,12 +8237,27 @@
       </c>
       <c r="G58" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions[role.code="C41161"].{id: label}</t>
+          <t>{'StudyIntervention_1': 'LY900018' , 'StudyIntervention_2': 'GlucaGen'}</t>
         </is>
       </c>
       <c r="H58" s="35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6430,22 +8286,23 @@
       </c>
       <c r="G59" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.decode</t>
+          <t>Efficacy Study</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I59" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.code</t>
-        </is>
-      </c>
-      <c r="J59" s="28" t="inlineStr">
-        <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.codeSystem</t>
-        </is>
-      </c>
+          <t>C49666</t>
+        </is>
+      </c>
+      <c r="J59" s="28" t="inlineStr"/>
       <c r="K59" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.codeSystemVersion</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -3483,7 +3483,11 @@
           <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
-      <c r="G10" s="32" t="inlineStr"/>
+      <c r="G10" s="32" t="inlineStr">
+        <is>
+          <t>1 Day</t>
+        </is>
+      </c>
       <c r="H10" s="33" t="inlineStr">
         <is>
           <t> </t>
@@ -3582,7 +3586,11 @@
           <t>Dose Level; Dose per Administration</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>.0</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t> </t>
@@ -3646,15 +3654,31 @@
           <t>Dosing Frequency</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Once</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>C64576</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
@@ -3680,15 +3704,31 @@
           <t>Dosing Frequency</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Once</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>C64576</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
@@ -3714,15 +3754,31 @@
           <t>Dose Units</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Milligram</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>C28253</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
@@ -3748,15 +3804,31 @@
           <t>Dose Units</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Milligram</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>C28253</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
@@ -3935,7 +4007,11 @@
           <t>C82639</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>www.cdisc.org</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>2024-09-27</t>
@@ -3966,15 +4042,31 @@
           <t>Intervention Type</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pharmacologic Substance</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>C1909</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
@@ -4000,15 +4092,31 @@
           <t>Intervention Type</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Pharmacologic Substance</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>C1909</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
@@ -4199,7 +4307,11 @@
           <t>Trial Exploratory Objective</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Explore the formation of anti-glucagon antibodies to glucagon</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t> </t>
@@ -4230,7 +4342,11 @@
           <t>Study Primary Objective; Trial Primary Objective</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t> </t>
@@ -4261,7 +4377,11 @@
           <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
           <t> </t>
@@ -4622,7 +4742,11 @@
           <t>Planned Treatment Duration</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1 Day</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t> </t>
@@ -4653,7 +4777,11 @@
           <t>Planned Treatment Duration</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1 Day</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t> </t>
@@ -4783,15 +4911,31 @@
           <t>Route of Administration</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Nasal Route of Administration</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>C38284</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
@@ -4817,15 +4961,31 @@
           <t>Route of Administration</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Intramuscular Route of Administration</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>C28161</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
@@ -5033,7 +5193,11 @@
           <t>C98388</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>www.cdisc.org</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>2024-09-27</t>
@@ -5081,7 +5245,11 @@
           <t>C49659</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>www.cdisc.org</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>2024-09-27</t>
@@ -5195,7 +5363,11 @@
           <t>'C15714', 'C139174'</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>www.cdisc.org', 'http://www.cdisc.org'</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>'2024-09-27', '2024-09-27'</t>
@@ -5292,7 +5464,11 @@
           <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>LY900018</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
           <t> </t>
@@ -5340,7 +5516,11 @@
           <t>C49666</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>www.cdisc.org</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>2024-09-27</t>
@@ -6445,7 +6625,11 @@
           <t>C82639</t>
         </is>
       </c>
-      <c r="J21" s="29" t="inlineStr"/>
+      <c r="J21" s="29" t="inlineStr">
+        <is>
+          <t>www.cdisc.org</t>
+        </is>
+      </c>
       <c r="K21" s="29" t="inlineStr">
         <is>
           <t>2024-09-27</t>
@@ -7923,7 +8107,11 @@
           <t>C98388</t>
         </is>
       </c>
-      <c r="J51" s="31" t="inlineStr"/>
+      <c r="J51" s="31" t="inlineStr">
+        <is>
+          <t>www.cdisc.org</t>
+        </is>
+      </c>
       <c r="K51" s="31" t="inlineStr">
         <is>
           <t>2024-09-27</t>
@@ -7968,7 +8156,11 @@
           <t>C49659</t>
         </is>
       </c>
-      <c r="J52" s="28" t="inlineStr"/>
+      <c r="J52" s="28" t="inlineStr">
+        <is>
+          <t>www.cdisc.org</t>
+        </is>
+      </c>
       <c r="K52" s="28" t="inlineStr">
         <is>
           <t>2024-09-27</t>
@@ -8107,7 +8299,11 @@
           <t>'C15714', 'C139174'</t>
         </is>
       </c>
-      <c r="J55" s="28" t="inlineStr"/>
+      <c r="J55" s="28" t="inlineStr">
+        <is>
+          <t>www.cdisc.org', 'http://www.cdisc.org'</t>
+        </is>
+      </c>
       <c r="K55" s="28" t="inlineStr">
         <is>
           <t>'2024-09-27', '2024-09-27'</t>
@@ -8299,7 +8495,11 @@
           <t>C49666</t>
         </is>
       </c>
-      <c r="J59" s="28" t="inlineStr"/>
+      <c r="J59" s="28" t="inlineStr">
+        <is>
+          <t>www.cdisc.org</t>
+        </is>
+      </c>
       <c r="K59" s="28" t="inlineStr">
         <is>
           <t>2024-09-27</t>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -2740,7 +2740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -2758,42 +2758,42 @@
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Name </t>
+          <t>STUDYID</t>
         </is>
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Label </t>
+          <t>DOMAIN</t>
         </is>
       </c>
       <c r="C1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type </t>
+          <t>IETESTCD</t>
         </is>
       </c>
       <c r="D1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>IETEST</t>
         </is>
       </c>
       <c r="E1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Core </t>
+          <t>IECAT</t>
         </is>
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Mapping Name</t>
+          <t>IESCAT</t>
         </is>
       </c>
       <c r="G1" s="37" t="inlineStr">
         <is>
-          <t>JSONATA</t>
+          <t>TIRL</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
         <is>
-          <t>Fixed content</t>
+          <t>TIVERS</t>
         </is>
       </c>
       <c r="I1" s="27" t="n"/>
@@ -2803,294 +2803,1294 @@
     <row r="2" ht="72.5" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>STUDYID</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>Study Identifier</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>&lt;p&gt;Male and female participants &lt;usdm:tag name="min_age"/&gt; - &lt;usdm:tag name="max_age"/&gt; years of age.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t>Inclusion Criteria</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>Sponsor Study Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="G2" s="34" t="inlineStr">
         <is>
-          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
-        </is>
-      </c>
-      <c r="H2" s="33" t="n"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H2" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="29" customHeight="1">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>DOMAIN</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>Domain Abbreviation</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>&lt;p&gt;Diagnosed with early and/or moderate &lt;usdm:tag name="StudyIndication"/&gt; at least 6 months before study participation.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="38" t="n"/>
+          <t>Inclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G3" s="38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="4" ht="29" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>IETESTCD</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>Incl/Excl Criterion Short Name</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>Topic</t>
+          <t>&lt;p&gt;Able to read, understand and to provide written consent.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t>Inclusion Criteria</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>Incl/Excl Criterion Short Name</t>
+          <t> </t>
         </is>
       </c>
       <c r="G4" s="39" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.eligibilityCriteria.{id: identifier}</t>
-        </is>
-      </c>
-      <c r="H4" s="33" t="n"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H4" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="87" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>IETEST</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Criterion</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>Synonym Qualifier</t>
+          <t>&lt;p&gt;Female study participants should not be &lt;usdm:tag name="Pregnant"/&gt; or plan to become pregnant during study participation and for 6 months after last investigational product administration.</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t>Inclusion Criteria</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Criterion</t>
+          <t> </t>
         </is>
       </c>
       <c r="G5" s="41" t="inlineStr">
         <is>
-          <t>study.versions.($EligTxt := function($id) {(eligibilityCriterionItems[id=$id].text)}; studyDesigns.eligibilityCriteria{id: $EligTxt(criterionItemId)})</t>
-        </is>
-      </c>
-      <c r="H5" s="33" t="n"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H5" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>IECAT</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Category</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>Grouping Qualifier</t>
+          <t>&lt;p&gt;Male participants if their sexual partners can become pregnant should use a method of contraception during study participation and for 6 months after the last administration of the investigated product.</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t>Inclusion Criteria</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Category</t>
+          <t> </t>
         </is>
       </c>
       <c r="G6" s="39" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.eligibilityCriteria{id: category.decode}</t>
-        </is>
-      </c>
-      <c r="H6" s="33" t="n"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H6" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>IESCAT</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Subcategory</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>Grouping Qualifier</t>
+          <t>&lt;p&gt;Study participant is able and willing to comply with the requirements of this clinical study.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
+          <t>Inclusion Criteria</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Subcategory</t>
+          <t> </t>
         </is>
       </c>
       <c r="G7" s="39" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.eligibilityCriteria{id: notes.codes.decode}</t>
-        </is>
-      </c>
-      <c r="H7" s="33" t="n"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H7" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>TIRL</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Criterion Rule</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>Rule</t>
+          <t>&lt;p&gt;Parkinson s disease subjects deemed appropriate for treatment of motor symptoms with a &lt;usdm:tag name="BC1_UDPRS"/&gt; Part III score &gt;&lt;usdm:tag name="BC1_MinValExcl"/&gt;.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="38" t="n"/>
-      <c r="H8" s="33" t="n"/>
+          <t>Inclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G8" s="38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H8" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>TIVERS</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>Protocol Criteria Versions</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>Record Qualifier</t>
+          <t>&lt;p&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to the office and/or be available by telephone at designated times, will monitor administration of prescribed medications, and will be responsible for the overall care of the patient at home. The caregiver and the patient must be able to communicate in English and willing to comply with 26 weeks of transdermal therapy.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
+          <t>Inclusion Criteria</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>Protocol Criteria Versions</t>
+          <t> </t>
         </is>
       </c>
       <c r="G9" s="38" t="inlineStr">
         <is>
-          <t>study.versions.versionIdentifier</t>
-        </is>
-      </c>
-      <c r="H9" s="33" t="n"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H9" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Persons who have previously completed or withdrawn from this study or any other study investigating xanomeline TTS or the oral formulation of xanomeline.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Use of any investigational agent or approved Alzheimer's therapeutic medication within 30 days prior to enrollment into the study.&lt;/p&gt;"</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Diagnosis of serious neurological conditions, including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Stroke or vascular dementia documented by clinical history and/or radiographic findings interpretable by the investigator as indicative of these disorders&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Seizure disorder other than simple childhood febrile seizures&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe head trauma resulting in protracted loss of consciousness within the last 5 years, or multiple episodes of head trauma&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Parkinson\'s disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Multiple sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Amyotrophic lateral sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Myasthenia gravis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Episode of depression meeting DSM-IV criteria within 3 months of screening.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of the following:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Schizophrenia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bipolar Disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ethanol or psychoactive drug abuse or dependence. &lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history of syncope within the last 5 years.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16b</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Evidence from ECG recording at screening of any of the following conditions :&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Left bundle branch block&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bradycardia ≤50 beats per minute&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sinus pauses &amp;gt;2 seconds&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Second or third degree heart block unless treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Wolff-Parkinson-White syndrome&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sustained supraventricular tachyarrhythmia including SVT≥10 sec, atrial fibrillation, atrial flutter.&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ventricular tachycardia at a rate of ≥120 beats per minute lasting≥10 seconds.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of a serious cardiovascular disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Clinically significant arrhythmia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic sick sinus syndrome not treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Congestive heart failure refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Angina except angina controlled with PRN nitroglycerin&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Resting heart rate &amp;lt;50 or &amp;gt;100 beats per minute, on physical exam&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled hypertension.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of a serious gastrointestinal disorder, including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Chronic peptic/duodenal/gastric/esophageal ulcer that are untreated or refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic diverticular disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Inflammatory bowel disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Pancreatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Hepatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Cirrhosis of the liver.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of a serious endocrine disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled Insulin Dependent Diabetes Mellitus (IDDM)&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Diabetic ketoacidosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hyperthyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hypothyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Other untreated endocrinological disorder&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; A history within the last 5 years of a serious respiratory disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Asthma with bronchospasm refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Decompensated chronic obstructive pulmonary disease.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of a serious genitourinary disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Renal failure&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled urinary retention.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of a serious rheumatologic disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Lupus&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Temporal arteritis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe rheumatoid arthritis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A known history of human immunodeficiency virus (HIV) within the last 5 years.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of a serious infectious disease including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;a)  Neurosyphilis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;b)  Meningitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;c)  Encephalitis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of a primary or recurrent malignant disease with the exception of resected cutaneous squamous cell carcinoma in situ, basal cell carcinoma, cervical carcinoma in situ, or in situ prostate cancer with a normal PSA postresection.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Visual, hearing, or communication disabilities impairing the ability to participate in the study; (for example, inability to speak or understand English, illiteracy).&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>27b</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Laboratory test values exceeding the Lilly Reference Range III for the patient's age in any of the following analytes: ↑ creatinine, ↑ total bilirubin, ↑ SGOT, ↑ SGPT, ↑ alkaline phosphatase, ↑ GGT, ↑↓ hemoglobin, ↑↓ white blood cell count, ↑↓ platelet count, ↑↓ serum sodium, potassium, or calcium.&lt;/p&gt;\n&lt;p&gt;If values exceed these laboratory reference ranges, clinical significance will be judged by the monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significant, the patient may be included in the study. This decision will be documented.&lt;/p&gt;"</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>28b</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>29b</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Positive syphilis screening.&lt;/p&gt;\n&lt;p&gt;Positive syphilis screening. As determined by positive RPR followed up by confirmatory FTA-Abs. Confirmed patients are excluded unless there is a documented medical history of an alternative disease (for example, yaws) which caused the lab abnormality.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>30b</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Glycosylated hemoglobin (A1C). Required only on patients with known diabetes mellitus or random blood sugar &amp;gt;200 on screening labs. Patients will be excluded if levels are &amp;gt;9.5%&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CB0321</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>31b</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Treatment with the following medications within the specified washout periods prior to enrollment and during the\n  study:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n  &lt;li&gt;\n    &lt;p&gt;Anticonvulsants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depakote&amp;#174; (valproic acid) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilantin&amp;#174; (phenytoin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Felbatol&amp;#174;\n          (felbamate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Klonopin&amp;#174; (clonazepam)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lamictal&amp;#174; (lamotrigine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mysoline&amp;#174; (primidone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Neurontin&amp;#174;\n          (gabapentin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Phenobarbitol&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tegretol&amp;#174; (carbamazepine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Alpha receptor blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aldomet&amp;#174; (methyldopa) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardura&amp;#174;\n          (doxazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Catapres&amp;#174; (clonidine)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hytrin&amp;#174; (terazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Minipress&amp;#174; (prazosin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenex&amp;#174; (guanfacine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wytensin&amp;#174;\n          (guanabenz) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of low doses\n        (2 mg daily) of either Hytrin&lt;/b&gt;&amp;#174; &lt;b&gt;or Cardura&lt;/b&gt;&amp;#174; &lt;b&gt;for relief of\n        urinary retention for patients with prostatic hypertrophy will be considered\n        on a case-by-case basis provided blood pressure is stable and the medication\n        has not had demonstrable effect on dementia symptoms in the opinion of the treating\n        physician. Contact CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Calcium channel blockers\n      that are CNS active including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Calan&amp;#174; , Isoptin&amp;#174; , Verelan&amp;#174; (verapamil) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardizem&amp;#174; (diltiazem) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nimotop&amp;#174;\n          (nimodipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adalat&amp;#174; , Procardia XL&amp;#174;\n          (nifedipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cardene&lt;/b&gt;&amp;#174; &lt;b&gt;(nicardipine),\n        Norvasc&lt;/b&gt;&amp;#174; &lt;b&gt;, (amlodipine), and DynaCirc&lt;/b&gt;&amp;#174; &lt;b&gt;(isradipine) will\n        be allowed during the study. If a patient is taking an excluded calcium channel\n        blocker and is changed to an equivalent dose of an allowed calcium channel blocker,\n        enrollment may proceed in as little as 24 hours though 1 week is preferred when\n        possible.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Betapace&amp;#174; (sotalol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Inderal&amp;#174; (propranolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lopressor&amp;#174;\n          , Toprol XL&amp;#174; (metoprolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Corgard&amp;#174; (nadolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sectral&amp;#174; (acebutolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenormin&amp;#174; (atenolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Visken&amp;#174; (pindolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Beta\n        blocker eye drops for glaucoma will be considered on a case-by-case basis. Call\n        medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta sympathomimetics (unless inhaled) including\n      but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Alupent&amp;#174; tablets\n          (metaproterenol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Brethine&amp;#174; tablets\n          (terbutaline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dopamine &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Proventil Repetabs&amp;#174; , Ventolin&amp;#174; tablets (albuterol tablets)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;Parasympathomimetics (cholinergics) (unless opthalmic) including but not limited to\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antilirium&amp;#174; (physostigmine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aricept&amp;#174; (donepezil) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cognex&amp;#174; (tacrine) &lt;/td&gt;\n        &lt;td&gt;1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mestinon&amp;#174; (pyridostigmine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Reglan&amp;#174; (metoclopramide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urecholine&amp;#174;\n          , Duvoid (bethanechol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cholinergic eye drops for treatment of glaucoma will be allowed during the study on a case-by-case basis.\n        Please contact the CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Muscle relaxants-centrally active including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Equanil&amp;#174; (meprobamate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Flexeril&amp;#174; (cyclobenzaprine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lioresal&amp;#174; (baclofen) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norflex&amp;#174; (orphenadrine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parafon Forte&amp;#174; (chlorzoxazone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robaxin&amp;#174; (methocarbamol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Skelaxin&amp;#174; (metaxalone)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Soma&amp;#174; (carisoprodol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Monamine oxidase inhibitors (MAOI) including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eldepryl&amp;#174; (selegiline)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nardil&amp;#174; (phenelzine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parnate&amp;#174; (tranylcypromine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Parasympatholytics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antivert&amp;#174; , Bonine&amp;#174; , Dramamine II&amp;#174; (meclizine)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Artane&amp;#174; (trihexyphenidyl)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bellergal-S&amp;#174; (alkaloids of belladonna and ergotamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bentyl&amp;#174; (dicyclomine) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cogentin&amp;#174; (benztropine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cystospaz&amp;#174;, Levsin&amp;#174; , Levsinex&amp;#174; (hyoscyamine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ditropan&amp;#174;\n          (oxybutynin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Donnatal&amp;#174; , Hyosophen&amp;#174;\n          (atropine, scopolamine, hyoscyamine and phenobarbitol) &lt;/td&gt;\n        &lt;td&gt;1 month &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dramamine&amp;#174; (dimenhydrinate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lomotil&amp;#174;, Lonox&amp;#174; (atropine, diphenoxylate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pro-Banthine&amp;#174;(propantheline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robinul&amp;#174; (glycopyrrolate)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tigan&amp;#174; (trimethobenzamide) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Transderm-Scop&amp;#174; (scopolamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urispas&amp;#174; (flavoxate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antidepressants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Anafranil&amp;#174; (clomipramine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Asendin&amp;#174;\n          (amoxapine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Desyrel&amp;#174; (trazodone)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Effexor&amp;#174; (venlafaxine) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Elavil&amp;#174; (amitriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ludiomil&amp;#174;\n          (maprotiline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpramin&amp;#174; (desipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pamelor&amp;#174; , Aventyl&amp;#174; (nortriptyline)&lt;/td&gt;\n        &lt;td&gt; 1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Paxil&amp;#174; (paroxetine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prozac&amp;#174;\n          (fluoxetine&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Remeron&amp;#174; (mirtazapine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serzone&amp;#174; (nefazodone) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sinequan&amp;#174;\n          (doxepin)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tofranil&amp;#174; (imipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vivactil&amp;#174; (protriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wellbutrin&amp;#174; (bupropion)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zoloft&amp;#174;\n          (sertraline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Systemic corticosteroids including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cortisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Decadron&amp;#174; (dexamethasone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depo-Medrol&amp;#174; (methylprednisolone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prednisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Xanthine derivatives\n      including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aminophylline&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Fioricet&amp;#174; , Esgic&amp;#174; , Phrenilin Forte&amp;#174; (caffeine, butalbital)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Theo-Dur&amp;#174; (theophylline)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wigraine&amp;#174; , Cafergot&amp;#174; (caffeine, ergotamine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H2 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Axid&amp;#174; (nizatidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pepcid&amp;#174; (famotidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tagamet&amp;#174; (cimetidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zantac&amp;#174; (ranitidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;If an H 2 antagonist is needed by the patient, Axid&lt;/b&gt;&amp;#174; &lt;b&gt;will be&lt;/b&gt; &lt;b&gt;allowed on a case-by-case\n        basis. Please consult CRO&lt;/b&gt; &lt;b&gt;medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Narcotic Analgesics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Darvocet-N\n          100&amp;#174; , (propoxyphene)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Demerol&amp;#174; (meperidine)&lt;/td&gt;\n        &lt;td&gt;1\n          week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilaudid&amp;#174; (hydromorphone)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Duragesic&amp;#174; (fentanyl)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;MS\n          Contin&amp;#174; , Roxanol&amp;#174; , Oramorph&amp;#174; (morphine) &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percocet&amp;#174; , Roxicet&amp;#174; (oxycodone with acetaminophen)&lt;/td&gt;\n        &lt;td&gt;3\n          days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percodan&amp;#174; , Roxiprin&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stadol&amp;#174; (butorphanol)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Talacen&amp;#174;\n          (pentazocine)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylenol #2&amp;#174; , #3&amp;#174;\n          , #4&amp;#174; (codeine and acetaminophen) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylox&amp;#174;\n          , Roxilox&amp;#174; (oxycodone)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vicodin&amp;#174;, Lorcet&amp;#174; (hydrocodone)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Percocet\n        (oxycodone with acetaminophen) and Tylenol&lt;/b&gt;&amp;#174; &lt;b&gt;with codeine #2, #3, #4\n        (acetaminophen + codeine) ARE allowed in the month prior to enrollment, but\n        are not permitted in the 3 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Neuroleptics\n      (antipsychotics) including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Clozaril&amp;#174;\n          (clozapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Haldol&amp;#174; (haloperidol)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Loxitane&amp;#174; (loxapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mellaril&amp;#174; (thioridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Moban&amp;#174;\n          (molindone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Navane&amp;#174; (thiothixene)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Orap&amp;#174; (pimozide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prolixin&amp;#174; (fluphenazine)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Risperdal&amp;#174;\n          (risperidone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stelazine&amp;#174; (trifluoperazine)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Thorazine&amp;#174; (chlorpromazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Trilafon&amp;#174; (perphenazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serentil&amp;#174;\n          (mesoridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of neuroleptics\n        on a daily basis must be discontinued 2 to 4 weeks prior to enrollment. The\n        use of neuroleptics on an as-needed basis is allowable during the screening\n        period, but the last dose must be at least 7 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antianxiety agents including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Atarax&amp;#174; (hydroxyzine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;BuSpar&amp;#174;\n          (buspirone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Librium&amp;#174; (chlordiazepoxide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serax&amp;#174; (oxazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tranxene&amp;#174; (clorazepate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Valium&amp;#174; (diazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vistaril&amp;#174; (hydroxyzine pamoate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Xanax&amp;#174; (alprazolam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Ativan&lt;/b&gt;&amp;#174; &lt;b&gt;(lorazepam) should be discontinued on a daily\n        basis 2 weeks&lt;/b&gt;&lt;/p&gt;\n    &lt;p&gt;&lt;b&gt;prior to enrollment. It may be used on an as-needed\n        basis during the screening period, but is not permitted in the 24 hours prior\n        to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Hypnotics/Sedatives including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ambien&amp;#174; (zolpidem)&lt;/td&gt;\n        &lt;td&gt; 3 days\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dalmane&amp;#174; (flurazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Doral&amp;#174; (quazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Halcion&amp;#174; (triazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nembutal&amp;#174; &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;ProSom&amp;#174; (estazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Restoril&amp;#174;\n          (temazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seconal&amp;#174;&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Chloral Hydrate is allowed on an as-needed basis during screening, but is not permitted in the 24 hours prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H1 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Actifed&amp;#174; , Actifed Plus&amp;#174; (triprolidine) Benadryl&amp;#174;\n          , Unisom&amp;#174; , Tylenol P.M.&amp;#174; &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;(diphenhydramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Compazine&amp;#174; (prochlorperazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Contac&amp;#174; , Coricidin D&amp;#174; , Sinutab&amp;#174; , Novahistine&amp;#174; , Alka\n          Seltzer Plus&amp;#174; , Naldecon&amp;#174; , Sudafed Plus&amp;#174; , Tylenol Cold&amp;#174; , Tylenol\n          Cold and Flu&amp;#174; (chlorpheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dimetapp&amp;#174;\n          (brompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Drixoral&amp;#174; (dexbrompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hismanal&amp;#174; (astemizole)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Phenergan&amp;#174;\n          (promethazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seldane&amp;#174; (terfenadine)&lt;/td&gt;\n        &lt;td&gt;1\n          week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tavist&amp;#174; (clemastine fumarate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zyrtec&amp;#174; (cetrizine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Allegra&lt;/b&gt;&amp;#174;\n      &lt;b&gt;(fexofenadine hydrochloride) or Claritin&lt;/b&gt;&amp;#174; &lt;b&gt;(loratadine) may be taken\n        on as-needed basis during screening but must be discontinued within 24 hours\n        of enrollment.&lt;/b&gt;\n    &lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Stimulants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cylert&amp;#174; (pemoline) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ritalin&amp;#174; (methylphenidate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antiarrhythmics including but not limited to the following&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adenocard&amp;#174; (adenosine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cordarone&amp;#174;\n          (amiodarone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ethmozine&amp;#174; (moricizine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mexitil&amp;#174; (mexiletine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpace&amp;#174; (disopyramide)\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Procan&amp;#174; (procainamide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Quinaglute&amp;#174;\n          (quinidine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Rythmol&amp;#174; (propafenone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tambocor&amp;#174;\n          (flecainide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tonocard&amp;#174; (tocainide)&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Requirement of these drugs for control of cardiac arrhythmia indicates that\n        the patient should be excluded from the study. If discontinuation of an antiarrhythmic\n        is considered, please discuss case with CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Miscellaneous drugs including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Coenzyme\n          Q&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eskalith&amp;#174; , Lithobid&amp;#174; (lithium)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ginkgo biloba&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin\n        &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lupron&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tamoxifen&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Estrogen supplements are permitted during the study, but dosage must be stable for at least 3 months prior to\n      enrollment.&lt;/p&gt;\n  &lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3103,7 +4103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:K3"/>
@@ -3124,2408 +4124,405 @@
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
+          <t xml:space="preserve">Variable Name </t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Variable Label </t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type </t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="E1" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Core </t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Mapping Name</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>JSONATA</t>
+        </is>
+      </c>
+      <c r="H1" s="27" t="inlineStr">
+        <is>
+          <t>Fixed content</t>
+        </is>
+      </c>
+      <c r="I1" s="27" t="n"/>
+      <c r="J1" s="27" t="n"/>
+      <c r="K1" s="27" t="n"/>
+    </row>
+    <row r="2" ht="93" customHeight="1">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
           <t>STUDYID</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>Study Identifier</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Sponsor Study Identifier</t>
+        </is>
+      </c>
+      <c r="G2" s="34" t="inlineStr">
+        <is>
+          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
+        </is>
+      </c>
+      <c r="H2" s="33" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>DOMAIN</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Domain Abbreviation</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="32" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>TSSEQ</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>Sequence Number</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>Num</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="n"/>
+      <c r="G4" s="32" t="n"/>
+      <c r="H4" s="33" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>TSGRPID</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Group ID</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>Perm</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="32" t="n"/>
+      <c r="H5" s="33" t="n"/>
+    </row>
+    <row r="6" ht="43.5" customHeight="1">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>TSPARMCD</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>Trial Summary Parameter Short Name</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="n"/>
+      <c r="G6" s="32" t="n"/>
+      <c r="H6" s="33" t="n"/>
+    </row>
+    <row r="7" ht="29" customHeight="1">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>TSPARM</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>Trial Summary Parameter</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>Synonym Qualifier</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="n"/>
+      <c r="G7" s="32" t="n"/>
+      <c r="H7" s="33" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>TSVAL</t>
         </is>
       </c>
-      <c r="H1" s="27" t="inlineStr">
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>Parameter Value</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>Result Qualifier</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="n"/>
+      <c r="G8" s="32" t="n"/>
+      <c r="H8" s="33" t="n"/>
+    </row>
+    <row r="9" ht="29" customHeight="1">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>TSVALNF</t>
         </is>
       </c>
-      <c r="I1" s="27" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>Parameter Value Null Flavor</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Result Qualifier</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Perm</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="n"/>
+      <c r="G9" s="32" t="n"/>
+      <c r="H9" s="33" t="n"/>
+    </row>
+    <row r="10" ht="29" customHeight="1">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>TSVALCD</t>
         </is>
       </c>
-      <c r="J1" s="27" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>Parameter Value Code</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Result Qualifier</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="n"/>
+      <c r="G10" s="32" t="n"/>
+      <c r="H10" s="33" t="n"/>
+    </row>
+    <row r="11" ht="29" customHeight="1">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>TSVCDREF</t>
         </is>
       </c>
-      <c r="K1" s="27" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Name of Reference Terminology</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Result Qualifier</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="F11" s="12" t="inlineStr">
+        <is>
+          <t>Name of Reference Terminology</t>
+        </is>
+      </c>
+      <c r="G11" s="32" t="inlineStr">
+        <is>
+          <t>..code.codeSystem</t>
+        </is>
+      </c>
+      <c r="H11" s="33" t="n"/>
+    </row>
+    <row r="12" ht="43.5" customHeight="1">
+      <c r="A12" s="9" t="inlineStr">
         <is>
           <t>TSVCDVER</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="93" customHeight="1">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C2" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
-        <is>
-          <t>ADAPT</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>Adaptive Design</t>
-        </is>
-      </c>
-      <c r="G2" s="34" t="inlineStr"/>
-      <c r="H2" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>AGEMIN</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>Planned Minimum Age of Subjects</t>
-        </is>
-      </c>
-      <c r="G3" s="32" t="inlineStr">
-        <is>
-          <t>18  Year</t>
-        </is>
-      </c>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C4" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>AGEMAX</t>
-        </is>
-      </c>
-      <c r="F4" s="12" t="inlineStr">
-        <is>
-          <t>Planned Minimum Age of Subjects</t>
-        </is>
-      </c>
-      <c r="G4" s="32" t="inlineStr">
-        <is>
-          <t>70  Year</t>
-        </is>
-      </c>
-      <c r="H4" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>BRDNAIND</t>
-        </is>
-      </c>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>Biospecimen Retention contains DNA Ind</t>
-        </is>
-      </c>
-      <c r="G5" s="32" t="inlineStr"/>
-      <c r="H5" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="43.5" customHeight="1">
-      <c r="A6" s="9" t="n"/>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C6" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>BRIND</t>
-        </is>
-      </c>
-      <c r="F6" s="12" t="inlineStr">
-        <is>
-          <t>Biospecimen Retention indicator</t>
-        </is>
-      </c>
-      <c r="G6" s="32" t="inlineStr"/>
-      <c r="H6" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="29" customHeight="1">
-      <c r="A7" s="9" t="n"/>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>COMPTRT</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="inlineStr">
-        <is>
-          <t>Comparative Treatment Name</t>
-        </is>
-      </c>
-      <c r="G7" s="32" t="inlineStr"/>
-      <c r="H7" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="n"/>
-      <c r="B8" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>CONNAME</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="inlineStr">
-        <is>
-          <t>Contact Name</t>
-        </is>
-      </c>
-      <c r="G8" s="32" t="inlineStr"/>
-      <c r="H8" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="29" customHeight="1">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>CONROLE</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>Contact Role</t>
-        </is>
-      </c>
-      <c r="G9" s="32" t="inlineStr"/>
-      <c r="H9" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="29" customHeight="1">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>StudyIntervention_1</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>CRMDUR</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="inlineStr">
-        <is>
-          <t>Confirmed Response Minimum Duration</t>
-        </is>
-      </c>
-      <c r="G10" s="32" t="inlineStr">
-        <is>
-          <t>1 Day</t>
-        </is>
-      </c>
-      <c r="H10" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="29" customHeight="1">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>CURTRT</t>
-        </is>
-      </c>
-      <c r="F11" s="12" t="inlineStr">
-        <is>
-          <t>Current Therapy or Treatment</t>
-        </is>
-      </c>
-      <c r="G11" s="32" t="inlineStr"/>
-      <c r="H11" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="43.5" customHeight="1">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>Version of the Reference Terminology</t>
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Result Qualifier</t>
         </is>
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>DMCIND</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Data Monitoring Committee Indicator</t>
-        </is>
-      </c>
-      <c r="G12" s="32" t="inlineStr"/>
-      <c r="H12" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>StudyIntervention_1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>DOSE</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Dose Level; Dose per Administration</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>.0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>DOSFRM</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Dose Form</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>StudyIntervention_1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>DOSFRQ</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Dosing Frequency</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Once</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>C64576</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>StudyIntervention_2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>DOSFRQ</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Dosing Frequency</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Once</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>C64576</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>StudyIntervention_1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>DOSU</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Dose Units</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Milligram</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>C28253</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>StudyIntervention_2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>DOSU</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Dose Units</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Milligram</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>C28253</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>EXTTIND</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Extension Trial Indicator</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>FCNTRY</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Planned Country of Investigational Sites</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>HLTSUBJI</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Healthy Subject Indicator</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>INDIC</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>'T1DM', 'T2DM'</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>INTMODEL</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Intervention Model</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Parallel Study</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>C82639</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>StudyIntervention_1</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>INTTYPE</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Intervention Type</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Pharmacologic Substance</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>C1909</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>StudyIntervention_2</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>INTTYPE</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Intervention Type</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Pharmacologic Substance</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>C1909</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>LENGTH</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Trial Length</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>MSEUTIND</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Multiple Site EU Site Trial Indicator</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NARMS</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Planned Number of Arms</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NCOHORT</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Number of Groups/Cohorts</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NUMSEUST</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Number of Trial Sites EU State</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Objective_5</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>OBJEXP</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Trial Exploratory Objective</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Explore the formation of anti-glucagon antibodies to glucagon</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Objective_1</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>OBJPRIM</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Objective_2</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>OBJSEC</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>OBSMODEL</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Observational Model</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>OBSTIMP</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Observational Time Perspective</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>OBSTPOPD</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Obs Study Population Description</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>OBSTSMM</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Observational Study Sampling Method</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>OUTMSEXP</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Exploratory Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ,</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>OUTMSPRI</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Primary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>OUTMSSEC</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Secondary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ,  ,</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>PCLAS</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Pharmacologic Class</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>PIPIND</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Pediatric Investigation Plan Indicator</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>PLANSUB</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>StudyIntervention_1</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>PTRTDUR</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Planned Treatment Duration</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>1 Day</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>2</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>StudyIntervention_2</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>PTRTDUR</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Planned Treatment Duration</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>1 Day</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>RANDOM</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Trial is Randomized</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>RDIND</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Rare Disease Indicator</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>REGID</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Registry Identifier</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>StudyIntervention_1</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>ROUTE</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Route of Administration</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Nasal Route of Administration</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>C38284</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>2</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>StudyIntervention_2</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>ROUTE</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Route of Administration</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Intramuscular Route of Administration</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>C28161</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>http://www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>RTSPCDES</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Retained Biospecimen Description</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>SEXPOP</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sex of Participants</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>SPONSOR</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>SPREFID</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sponsor's Study Reference ID</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>SSEUTIND</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Single Site EU State Trial Indicator</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>STYPE</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Study Type; Study Type Classification</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Interventional Study</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>C98388</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>TBLIND</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Open Label Study</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>C49659</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>TCNTRL</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Control Type</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>THERAREA</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Therapeutic Area</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>TINDTP</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Trial Intent Type</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>'Basic Research', 'Device Feasibility Study'</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>'C15714', 'C139174'</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>www.cdisc.org', 'http://www.cdisc.org'</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>'2024-09-27', '2024-09-27'</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>TITLE</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Official Study Title; Study Title; Trial Title</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>TPHASE</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Trial Phase; Trial Phase Classification</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>StudyIntervention_1</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>TRT</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Investigational Therapy or Treatment</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>LY900018</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>TTYPE</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Trial Scope; Trial Type</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Efficacy Study</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>C49666</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>www.cdisc.org</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
+          <t>Version of Reference Terminology</t>
+        </is>
+      </c>
+      <c r="G12" s="32" t="inlineStr">
+        <is>
+          <t>..code.codeSystemVersion</t>
+        </is>
+      </c>
+      <c r="H12" s="33" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5592,7 +4589,7 @@
       </c>
       <c r="G1" s="27" t="inlineStr">
         <is>
-          <t>Mapping Results</t>
+          <t>TSVAL JSONATA map</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
@@ -5639,25 +4636,9 @@
           <t>Adaptive Design Indicator</t>
         </is>
       </c>
-      <c r="G2" s="30" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G2" s="30" t="inlineStr">
+        <is>
+          <t>$exists(study.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
         </is>
       </c>
     </row>
@@ -5686,27 +4667,9 @@
       </c>
       <c r="G3" s="28" t="inlineStr">
         <is>
-          <t>18  Year</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>$min([study.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
+$distinct(study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode)
+ &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode)</t>
         </is>
       </c>
     </row>
@@ -5735,27 +4698,13 @@
       </c>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>70  Year</t>
+          <t>$max([study.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
+$distinct(study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode) &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode)</t>
         </is>
       </c>
       <c r="H4" s="35" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>PINF</t>
         </is>
       </c>
     </row>
@@ -5790,25 +4739,9 @@
           <t>Biospecimen retention contains DNA indicator</t>
         </is>
       </c>
-      <c r="G5" s="28" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G5" s="28" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns.biospecimenRetentions.includesDNA</t>
         </is>
       </c>
     </row>
@@ -5843,25 +4776,9 @@
           <t>Biospecimen retention indicator</t>
         </is>
       </c>
-      <c r="G6" s="28" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G6" s="28" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns.biospecimenRetentions.isRetained</t>
         </is>
       </c>
     </row>
@@ -5892,25 +4809,9 @@
         </is>
       </c>
       <c r="F7" s="14" t="n"/>
-      <c r="G7" s="28" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G7" s="28" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions[role.code="C68609"].{id: label}</t>
         </is>
       </c>
     </row>
@@ -5945,27 +4846,6 @@
           <t>Contact Name</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="15" t="inlineStr">
@@ -5998,27 +4878,6 @@
           <t>Contact Role</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" s="15" t="inlineStr">
@@ -6053,27 +4912,7 @@
       </c>
       <c r="G10" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day' , 'StudyIntervention_2': '1 Day'}</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
         </is>
       </c>
     </row>
@@ -6108,25 +4947,9 @@
           <t>Background treatment</t>
         </is>
       </c>
-      <c r="G11" s="28" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G11" s="28" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions[role.code="C165822"].{id: label}</t>
         </is>
       </c>
     </row>
@@ -6153,25 +4976,9 @@
           <t>Data Monitoring Committee Indicator</t>
         </is>
       </c>
-      <c r="G12" s="28" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G12" s="28" t="inlineStr">
+        <is>
+          <t>$exists(study.versions.roles.code[code="C142578"]) ? "Y" : ""</t>
         </is>
       </c>
     </row>
@@ -6208,27 +5015,7 @@
       </c>
       <c r="G13" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 3.0, 'StudyIntervention_2': 1.0}</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: administrations.dose.value}</t>
         </is>
       </c>
     </row>
@@ -6263,25 +5050,9 @@
           <t>Dose Form</t>
         </is>
       </c>
-      <c r="G14" s="28" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G14" s="28" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
         </is>
       </c>
     </row>
@@ -6318,27 +5089,22 @@
       </c>
       <c r="G15" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Once', 'StudyIntervention_2': 'Once'}</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.decode}</t>
         </is>
       </c>
       <c r="I15" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C64576', 'StudyIntervention_2': 'C64576'}</t>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.code}</t>
         </is>
       </c>
       <c r="J15" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystem}</t>
         </is>
       </c>
       <c r="K15" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -6375,27 +5141,22 @@
       </c>
       <c r="G16" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Milligram', 'StudyIntervention_2': 'Milligram'}</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.decode}</t>
         </is>
       </c>
       <c r="I16" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C28253', 'StudyIntervention_2': 'C28253'}</t>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.code}</t>
         </is>
       </c>
       <c r="J16" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystem}</t>
         </is>
       </c>
       <c r="K16" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -6422,25 +5183,9 @@
           <t>Extension Trial Indicator</t>
         </is>
       </c>
-      <c r="G17" s="36" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G17" s="36" t="inlineStr">
+        <is>
+          <t>$exists(study.versions.studyDesigns.characteristics[code="C207613"]) ? "Y" : ""</t>
         </is>
       </c>
     </row>
@@ -6469,27 +5214,6 @@
       <c r="F18" s="14" t="inlineStr">
         <is>
           <t>Planned Country of Investigational Sites</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t> </t>
         </is>
       </c>
     </row>
@@ -6516,25 +5240,9 @@
           <t>Healthy Subject Indicator Study Population / Cohort</t>
         </is>
       </c>
-      <c r="G19" s="28" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G19" s="28" t="inlineStr">
+        <is>
+          <t>$exists(study.versions.studyDesigns.population[includesHealthySubjects=true]) ? "Y" : ($exists(study.versions.studyDesigns.population.cohorts[includesHealthySubjects=true]) ? "Y" : "")</t>
         </is>
       </c>
     </row>
@@ -6563,27 +5271,7 @@
       </c>
       <c r="G20" s="28" t="inlineStr">
         <is>
-          <t>'T1DM', 'T2DM'</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.indications.label</t>
         </is>
       </c>
     </row>
@@ -6612,27 +5300,22 @@
       </c>
       <c r="G21" s="29" t="inlineStr">
         <is>
-          <t>Parallel Study</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.decode</t>
         </is>
       </c>
       <c r="I21" s="29" t="inlineStr">
         <is>
-          <t>C82639</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.code</t>
         </is>
       </c>
       <c r="J21" s="29" t="inlineStr">
         <is>
-          <t>www.cdisc.org</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystem</t>
         </is>
       </c>
       <c r="K21" s="29" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -6669,27 +5352,22 @@
       </c>
       <c r="G22" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Pharmacologic Substance', 'StudyIntervention_2': 'Pharmacologic Substance'}</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: type.decode}</t>
         </is>
       </c>
       <c r="I22" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C1909', 'StudyIntervention_2': 'C1909'}</t>
+          <t>study.versions.studyInterventions{id: type.code}</t>
         </is>
       </c>
       <c r="J22" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t>study.versions.studyInterventions{id: type.codeSystem}</t>
         </is>
       </c>
       <c r="K22" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t>study.versions.studyInterventions{id: type.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -6716,25 +5394,14 @@
           <t>Trial Duration Value + Units</t>
         </is>
       </c>
-      <c r="G23" s="28" t="inlineStr"/>
+      <c r="G23" s="28" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
     </row>
@@ -6761,27 +5428,6 @@
           <t>Multiple Site Eu Site Trial Indicator</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="25" ht="29" customHeight="1">
       <c r="A25" s="15" t="inlineStr">
@@ -6806,25 +5452,9 @@
           <t>Number of Arms</t>
         </is>
       </c>
-      <c r="G25" s="28" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G25" s="28" t="inlineStr">
+        <is>
+          <t>$count(study.versions.studyDesigns.arms)</t>
         </is>
       </c>
     </row>
@@ -6851,25 +5481,9 @@
           <t>Number of Groups/Cohorts</t>
         </is>
       </c>
-      <c r="G26" s="29" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G26" s="29" t="inlineStr">
+        <is>
+          <t>$exists(study.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
         </is>
       </c>
     </row>
@@ -6896,27 +5510,6 @@
           <t>Number of Trial Sites EU State</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="28" ht="43.5" customHeight="1">
       <c r="A28" s="15" t="inlineStr">
@@ -6951,27 +5544,7 @@
       </c>
       <c r="G28" s="28" t="inlineStr">
         <is>
-          <t>{'Objective_5': 'Explore the formation of anti-glucagon antibodies to glucagon' , 'Objective_6': 'To evaluate the recovery from clinical symptoms of hypoglycemia'}</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
         </is>
       </c>
     </row>
@@ -7008,27 +5581,7 @@
       </c>
       <c r="G29" s="28" t="inlineStr">
         <is>
-          <t>{'Objective_1': 'To demonstrate that 3 mg LY900018 is non-inferior to 1 mg IMG for the proportion of patients achieving treatment success from insulin-induced hypoglycemia using a non-inferiority margin of 10%'}</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
         </is>
       </c>
     </row>
@@ -7065,27 +5618,7 @@
       </c>
       <c r="G30" s="28" t="inlineStr">
         <is>
-          <t>{'Objective_2': 'To compare the safety and tolerability of 3 mg LY900018 with 1 mg IMG' , 'Objective_3': 'To characterize the PK profile of 3 mg LY900018\ncompared to 1 mg IMG' , 'Objective_4': 'To characterize the PD profile of 3 mg LY900018\ncompared to 1 mg IMG'}</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
         </is>
       </c>
     </row>
@@ -7112,25 +5645,24 @@
           <t>Observational Model</t>
         </is>
       </c>
-      <c r="G31" s="31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G31" s="31" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.decode</t>
         </is>
       </c>
       <c r="I31" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.code</t>
         </is>
       </c>
       <c r="J31" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystem</t>
         </is>
       </c>
       <c r="K31" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -7157,25 +5689,24 @@
           <t>Observational Time Perspective</t>
         </is>
       </c>
-      <c r="G32" s="29" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G32" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.decode</t>
         </is>
       </c>
       <c r="I32" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
         </is>
       </c>
       <c r="J32" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystem</t>
         </is>
       </c>
       <c r="K32" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -7202,25 +5733,9 @@
           <t>Observational Study Population Description</t>
         </is>
       </c>
-      <c r="G33" s="29" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G33" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].populations.description</t>
         </is>
       </c>
     </row>
@@ -7247,25 +5762,24 @@
           <t>Observational Study Sampling Method</t>
         </is>
       </c>
-      <c r="G34" s="29" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G34" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.decode</t>
         </is>
       </c>
       <c r="I34" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
         </is>
       </c>
       <c r="J34" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystem</t>
         </is>
       </c>
       <c r="K34" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -7302,27 +5816,7 @@
       </c>
       <c r="G35" s="28" t="inlineStr">
         <is>
-          <t>{ , }</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
         </is>
       </c>
     </row>
@@ -7357,25 +5851,9 @@
           <t>Primary Outcome Measure</t>
         </is>
       </c>
-      <c r="G36" s="28" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G36" s="28" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
         </is>
       </c>
     </row>
@@ -7412,27 +5890,7 @@
       </c>
       <c r="G37" s="28" t="inlineStr">
         <is>
-          <t>{ ,  , }</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
         </is>
       </c>
     </row>
@@ -7463,25 +5921,9 @@
           <t>Pharmacologic Class</t>
         </is>
       </c>
-      <c r="G38" s="28" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G38" s="28" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions.administrations.administrableProduct[producDesignation.code="C202579"].pharmacologicClass.decode</t>
         </is>
       </c>
     </row>
@@ -7508,25 +5950,9 @@
           <t>Pediatric Investigation Plan Indicator</t>
         </is>
       </c>
-      <c r="G39" s="28" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G39" s="28" t="inlineStr">
+        <is>
+          <t>$exists(study.versions.referenceIdentifiers.type[code="C215674"]) ? "Y" : ""</t>
         </is>
       </c>
     </row>
@@ -7555,27 +5981,12 @@
       </c>
       <c r="G40" s="28" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t xml:space="preserve">study.versions.studyDesigns.population.plannedEnrollmentNumber.value </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
     </row>
@@ -7608,27 +6019,12 @@
       </c>
       <c r="G41" s="29" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '1 Day', 'StudyIntervention_2': '1 Day'}</t>
+          <t>study.versions.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
     </row>
@@ -7655,25 +6051,9 @@
           <t>Randomized Indicator</t>
         </is>
       </c>
-      <c r="G42" s="28" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G42" s="28" t="inlineStr">
+        <is>
+          <t>$exists(study.versions.studyDesigns.characteristics[code="C46079"]) ? "Y" : $exists(study.versions.studyDesigns.characteristics[code="C147145"]) ? "Y" : ""</t>
         </is>
       </c>
     </row>
@@ -7700,25 +6080,9 @@
           <t>Rare disease indicator</t>
         </is>
       </c>
-      <c r="G43" s="29" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G43" s="29" t="inlineStr">
+        <is>
+          <t>$exists(study.versions.studyDesigns.indications[isRareDisease=true]) ? "Y" : ""</t>
         </is>
       </c>
     </row>
@@ -7753,27 +6117,6 @@
           <t>Registry Identifier</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="45" ht="58" customHeight="1">
       <c r="A45" s="15" t="inlineStr">
@@ -7808,27 +6151,22 @@
       </c>
       <c r="G45" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'Nasal Route of Administration', 'StudyIntervention_2': 'Intramuscular Route of Administration'}</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.decode}</t>
         </is>
       </c>
       <c r="I45" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'C38284', 'StudyIntervention_2': 'C28161'}</t>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.code}</t>
         </is>
       </c>
       <c r="J45" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'http://www.cdisc.org', 'StudyIntervention_2': 'http://www.cdisc.org'}</t>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystem}</t>
         </is>
       </c>
       <c r="K45" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': '2024-09-27', 'StudyIntervention_2': '2024-09-27'}</t>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -7861,27 +6199,6 @@
       <c r="F46" s="14" t="inlineStr">
         <is>
           <t>Retained Biospecimen Description</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t> </t>
         </is>
       </c>
     </row>
@@ -7908,27 +6225,6 @@
           <t>Sex of Participants</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="48" ht="29" customHeight="1">
       <c r="A48" s="15" t="inlineStr">
@@ -7953,25 +6249,9 @@
           <t>Sponsor Name - Organization</t>
         </is>
       </c>
-      <c r="G48" s="28" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G48" s="28" t="inlineStr">
+        <is>
+          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];organizations[id=$sponsorIdVal].label;)</t>
         </is>
       </c>
     </row>
@@ -8000,27 +6280,6 @@
       <c r="F49" s="14" t="inlineStr">
         <is>
           <t>Sponsor's Study Reference ID</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t> </t>
         </is>
       </c>
     </row>
@@ -8047,27 +6306,6 @@
           <t>Single Site Eu State Trial Indicator</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="51" ht="29" customHeight="1">
       <c r="A51" s="15" t="inlineStr">
@@ -8094,27 +6332,22 @@
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
-          <t>Interventional Study</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.studyType.decode</t>
         </is>
       </c>
       <c r="I51" s="31" t="inlineStr">
         <is>
-          <t>C98388</t>
+          <t>study.versions.studyDesigns.studyType.code</t>
         </is>
       </c>
       <c r="J51" s="31" t="inlineStr">
         <is>
-          <t>www.cdisc.org</t>
+          <t>study.versions.studyDesigns.studyType.codeSystem</t>
         </is>
       </c>
       <c r="K51" s="31" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>study.versions.studyDesigns.studyType.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -8143,27 +6376,22 @@
       </c>
       <c r="G52" s="28" t="inlineStr">
         <is>
-          <t>Open Label Study</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.decode</t>
         </is>
       </c>
       <c r="I52" s="28" t="inlineStr">
         <is>
-          <t>C49659</t>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.code</t>
         </is>
       </c>
       <c r="J52" s="28" t="inlineStr">
         <is>
-          <t>www.cdisc.org</t>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystem</t>
         </is>
       </c>
       <c r="K52" s="28" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -8190,25 +6418,24 @@
           <t>Intervention Control Type</t>
         </is>
       </c>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G53" s="29" t="inlineStr">
+        <is>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].decode : role[code="C68609"].decode}</t>
         </is>
       </c>
       <c r="I53" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
         </is>
       </c>
       <c r="J53" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystem : role[code="C68609"].codeSystem}</t>
         </is>
       </c>
       <c r="K53" s="29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystemVersion : role[code="C68609"].codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -8235,25 +6462,24 @@
           <t>Therapeutic Area</t>
         </is>
       </c>
-      <c r="G54" s="28" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G54" s="28" t="inlineStr">
+        <is>
+          <t>study.versions.studyDesigns.therapeuticAreas.decode</t>
         </is>
       </c>
       <c r="I54" s="28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.therapeuticAreas.code</t>
         </is>
       </c>
       <c r="J54" s="28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.therapeuticAreas.codeSystem</t>
         </is>
       </c>
       <c r="K54" s="28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.therapeuticAreas.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -8286,27 +6512,22 @@
       </c>
       <c r="G55" s="28" t="inlineStr">
         <is>
-          <t>'Basic Research', 'Device Feasibility Study'</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.decode</t>
         </is>
       </c>
       <c r="I55" s="28" t="inlineStr">
         <is>
-          <t>'C15714', 'C139174'</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.code</t>
         </is>
       </c>
       <c r="J55" s="28" t="inlineStr">
         <is>
-          <t>www.cdisc.org', 'http://www.cdisc.org'</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.codeSystem</t>
         </is>
       </c>
       <c r="K55" s="28" t="inlineStr">
         <is>
-          <t>'2024-09-27', '2024-09-27'</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -8333,25 +6554,9 @@
           <t>Full Title</t>
         </is>
       </c>
-      <c r="G56" s="28" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="G56" s="28" t="inlineStr">
+        <is>
+          <t>study.versions.titles[type.code="C207616"].text</t>
         </is>
       </c>
     </row>
@@ -8378,25 +6583,29 @@
           <t>Trial Phase</t>
         </is>
       </c>
-      <c r="G57" s="31" t="inlineStr"/>
+      <c r="G57" s="31" t="inlineStr">
+        <is>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.decode</t>
+        </is>
+      </c>
       <c r="H57" s="35" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
       <c r="I57" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.code</t>
         </is>
       </c>
       <c r="J57" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystem</t>
         </is>
       </c>
       <c r="K57" s="31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -8433,27 +6642,12 @@
       </c>
       <c r="G58" s="28" t="inlineStr">
         <is>
-          <t>{'StudyIntervention_1': 'LY900018' , 'StudyIntervention_2': 'GlucaGen'}</t>
+          <t>study.versions.studyInterventions[role.code="C41161"].{id: label}</t>
         </is>
       </c>
       <c r="H58" s="35" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -8482,27 +6676,22 @@
       </c>
       <c r="G59" s="28" t="inlineStr">
         <is>
-          <t>Efficacy Study</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.decode</t>
         </is>
       </c>
       <c r="I59" s="28" t="inlineStr">
         <is>
-          <t>C49666</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.code</t>
         </is>
       </c>
       <c r="J59" s="28" t="inlineStr">
         <is>
-          <t>www.cdisc.org</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.codeSystem</t>
         </is>
       </c>
       <c r="K59" s="28" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.codeSystemVersion</t>
         </is>
       </c>
     </row>

--- a/Output/sdtm_mapping_results.xlsx
+++ b/Output/sdtm_mapping_results.xlsx
@@ -2740,7 +2740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -2803,7 +2803,7 @@
     <row r="2" ht="72.5" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>Error in expression for TIVERS: study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
@@ -2813,27 +2813,27 @@
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>tudy.versions.studyDesigns.eligibilityCriteria.{id: identifier}</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Male and female participants &lt;usdm:tag name="min_age"/&gt; - &lt;usdm:tag name="max_age"/&gt; years of age.&lt;/p&gt;</t>
+          <t>tudy.versions.($EligTxt := function($id) {(eligibilityCriterionItems[id=$id].text)}; studyDesigns.eligibilityCriteria{id: $EligTxt(criterionItemId)})</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>tudy.versions.studyDesigns.eligibilityCriteria{id: category.decode}</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>tudy.versions.studyDesigns.eligibilityCriteria{id: notes.codes.decode}</t>
         </is>
       </c>
       <c r="G2" s="34" t="inlineStr">
         <is>
-          <t> </t>
+          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
         </is>
       </c>
       <c r="H2" s="33" t="inlineStr">
@@ -2845,1252 +2845,256 @@
     <row r="3" ht="29" customHeight="1">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>DOMAIN</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
+          <t>Domain Abbreviation</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Char</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="38" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
           <t>TI</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Diagnosed with early and/or moderate &lt;usdm:tag name="StudyIndication"/&gt; at least 6 months before study participation.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Inclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G3" s="38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t> </t>
         </is>
       </c>
     </row>
     <row r="4" ht="29" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>IETESTCD</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Incl/Excl Criterion Short Name</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Able to read, understand and to provide written consent.&lt;/p&gt;</t>
+          <t>Topic</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>Req</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Incl/Excl Criterion Short Name</t>
         </is>
       </c>
       <c r="G4" s="39" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H4" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>study.versions.studyDesigns.eligibilityCriteria.{id: identifier}</t>
+        </is>
+      </c>
+      <c r="H4" s="33" t="n"/>
     </row>
     <row r="5" ht="87" customHeight="1">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>IETEST</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Inclusion/Exclusion Criterion</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Female study participants should not be &lt;usdm:tag name="Pregnant"/&gt; or plan to become pregnant during study participation and for 6 months after last investigational product administration.</t>
+          <t>Synonym Qualifier</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>Req</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Inclusion/Exclusion Criterion</t>
         </is>
       </c>
       <c r="G5" s="41" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H5" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>study.versions.($EligTxt := function($id) {(eligibilityCriterionItems[id=$id].text)}; studyDesigns.eligibilityCriteria{id: $EligTxt(criterionItemId)})</t>
+        </is>
+      </c>
+      <c r="H5" s="33" t="n"/>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>IECAT</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Inclusion/Exclusion Category</t>
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Male participants if their sexual partners can become pregnant should use a method of contraception during study participation and for 6 months after the last administration of the investigated product.</t>
+          <t>Grouping Qualifier</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>Req</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Inclusion/Exclusion Category</t>
         </is>
       </c>
       <c r="G6" s="39" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H6" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>study.versions.studyDesigns.eligibilityCriteria{id: category.decode}</t>
+        </is>
+      </c>
+      <c r="H6" s="33" t="n"/>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>IESCAT</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Inclusion/Exclusion Subcategory</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Study participant is able and willing to comply with the requirements of this clinical study.&lt;/p&gt;</t>
+          <t>Grouping Qualifier</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>Perm</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Inclusion/Exclusion Subcategory</t>
         </is>
       </c>
       <c r="G7" s="39" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H7" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>study.versions.studyDesigns.eligibilityCriteria{id: notes.codes.decode}</t>
+        </is>
+      </c>
+      <c r="H7" s="33" t="n"/>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>TIRL</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Inclusion/Exclusion Criterion Rule</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Parkinson s disease subjects deemed appropriate for treatment of motor symptoms with a &lt;usdm:tag name="BC1_UDPRS"/&gt; Part III score &gt;&lt;usdm:tag name="BC1_MinValExcl"/&gt;.&lt;/p&gt;</t>
+          <t>Rule</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G8" s="38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H8" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>Perm</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="38" t="n"/>
+      <c r="H8" s="33" t="n"/>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>CB0321</t>
+          <t>TIVERS</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Protocol Criteria Versions</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to the office and/or be available by telephone at designated times, will monitor administration of prescribed medications, and will be responsible for the overall care of the patient at home. The caregiver and the patient must be able to communicate in English and willing to comply with 26 weeks of transdermal therapy.&lt;/p&gt;</t>
+          <t>Record Qualifier</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Inclusion Criteria</t>
+          <t>Perm</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Protocol Criteria Versions</t>
         </is>
       </c>
       <c r="G9" s="38" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H9" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Persons who have previously completed or withdrawn from this study or any other study investigating xanomeline TTS or the oral formulation of xanomeline.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Use of any investigational agent or approved Alzheimer's therapeutic medication within 30 days prior to enrollment into the study.&lt;/p&gt;"</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Diagnosis of serious neurological conditions, including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Stroke or vascular dementia documented by clinical history and/or radiographic findings interpretable by the investigator as indicative of these disorders&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Seizure disorder other than simple childhood febrile seizures&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe head trauma resulting in protracted loss of consciousness within the last 5 years, or multiple episodes of head trauma&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Parkinson\'s disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Multiple sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Amyotrophic lateral sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Myasthenia gravis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Episode of depression meeting DSM-IV criteria within 3 months of screening.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;A history within the last 5 years of the following:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Schizophrenia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bipolar Disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ethanol or psychoactive drug abuse or dependence. &lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;A history of syncope within the last 5 years.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>16b</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Evidence from ECG recording at screening of any of the following conditions :&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Left bundle branch block&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bradycardia ≤50 beats per minute&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sinus pauses &amp;gt;2 seconds&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Second or third degree heart block unless treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Wolff-Parkinson-White syndrome&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sustained supraventricular tachyarrhythmia including SVT≥10 sec, atrial fibrillation, atrial flutter.&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ventricular tachycardia at a rate of ≥120 beats per minute lasting≥10 seconds.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;A history within the last 5 years of a serious cardiovascular disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Clinically significant arrhythmia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic sick sinus syndrome not treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Congestive heart failure refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Angina except angina controlled with PRN nitroglycerin&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Resting heart rate &amp;lt;50 or &amp;gt;100 beats per minute, on physical exam&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled hypertension.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;A history within the last 5 years of a serious gastrointestinal disorder, including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Chronic peptic/duodenal/gastric/esophageal ulcer that are untreated or refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic diverticular disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Inflammatory bowel disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Pancreatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Hepatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Cirrhosis of the liver.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;A history within the last 5 years of a serious endocrine disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled Insulin Dependent Diabetes Mellitus (IDDM)&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Diabetic ketoacidosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hyperthyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hypothyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Other untreated endocrinological disorder&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; A history within the last 5 years of a serious respiratory disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Asthma with bronchospasm refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Decompensated chronic obstructive pulmonary disease.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;A history within the last 5 years of a serious genitourinary disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Renal failure&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled urinary retention.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;A history within the last 5 years of a serious rheumatologic disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Lupus&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Temporal arteritis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe rheumatoid arthritis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;A known history of human immunodeficiency virus (HIV) within the last 5 years.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;A history within the last 5 years of a serious infectious disease including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;a)  Neurosyphilis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;b)  Meningitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;c)  Encephalitis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;A history within the last 5 years of a primary or recurrent malignant disease with the exception of resected cutaneous squamous cell carcinoma in situ, basal cell carcinoma, cervical carcinoma in situ, or in situ prostate cancer with a normal PSA postresection.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Visual, hearing, or communication disabilities impairing the ability to participate in the study; (for example, inability to speak or understand English, illiteracy).&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>27b</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Laboratory test values exceeding the Lilly Reference Range III for the patient's age in any of the following analytes: ↑ creatinine, ↑ total bilirubin, ↑ SGOT, ↑ SGPT, ↑ alkaline phosphatase, ↑ GGT, ↑↓ hemoglobin, ↑↓ white blood cell count, ↑↓ platelet count, ↑↓ serum sodium, potassium, or calcium.&lt;/p&gt;\n&lt;p&gt;If values exceed these laboratory reference ranges, clinical significance will be judged by the monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significant, the patient may be included in the study. This decision will be documented.&lt;/p&gt;"</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>28b</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>29b</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Positive syphilis screening.&lt;/p&gt;\n&lt;p&gt;Positive syphilis screening. As determined by positive RPR followed up by confirmatory FTA-Abs. Confirmed patients are excluded unless there is a documented medical history of an alternative disease (for example, yaws) which caused the lab abnormality.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>30b</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Glycosylated hemoglobin (A1C). Required only on patients with known diabetes mellitus or random blood sugar &amp;gt;200 on screening labs. Patients will be excluded if levels are &amp;gt;9.5%&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>CB0321</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>TI</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>31b</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Treatment with the following medications within the specified washout periods prior to enrollment and during the\n  study:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n  &lt;li&gt;\n    &lt;p&gt;Anticonvulsants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depakote&amp;#174; (valproic acid) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilantin&amp;#174; (phenytoin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Felbatol&amp;#174;\n          (felbamate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Klonopin&amp;#174; (clonazepam)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lamictal&amp;#174; (lamotrigine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mysoline&amp;#174; (primidone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Neurontin&amp;#174;\n          (gabapentin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Phenobarbitol&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tegretol&amp;#174; (carbamazepine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Alpha receptor blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aldomet&amp;#174; (methyldopa) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardura&amp;#174;\n          (doxazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Catapres&amp;#174; (clonidine)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hytrin&amp;#174; (terazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Minipress&amp;#174; (prazosin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenex&amp;#174; (guanfacine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wytensin&amp;#174;\n          (guanabenz) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of low doses\n        (2 mg daily) of either Hytrin&lt;/b&gt;&amp;#174; &lt;b&gt;or Cardura&lt;/b&gt;&amp;#174; &lt;b&gt;for relief of\n        urinary retention for patients with prostatic hypertrophy will be considered\n        on a case-by-case basis provided blood pressure is stable and the medication\n        has not had demonstrable effect on dementia symptoms in the opinion of the treating\n        physician. Contact CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Calcium channel blockers\n      that are CNS active including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Calan&amp;#174; , Isoptin&amp;#174; , Verelan&amp;#174; (verapamil) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardizem&amp;#174; (diltiazem) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nimotop&amp;#174;\n          (nimodipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adalat&amp;#174; , Procardia XL&amp;#174;\n          (nifedipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cardene&lt;/b&gt;&amp;#174; &lt;b&gt;(nicardipine),\n        Norvasc&lt;/b&gt;&amp;#174; &lt;b&gt;, (amlodipine), and DynaCirc&lt;/b&gt;&amp;#174; &lt;b&gt;(isradipine) will\n        be allowed during the study. If a patient is taking an excluded calcium channel\n        blocker and is changed to an equivalent dose of an allowed calcium channel blocker,\n        enrollment may proceed in as little as 24 hours though 1 week is preferred when\n        possible.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Betapace&amp;#174; (sotalol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Inderal&amp;#174; (propranolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lopressor&amp;#174;\n          , Toprol XL&amp;#174; (metoprolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Corgard&amp;#174; (nadolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sectral&amp;#174; (acebutolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenormin&amp;#174; (atenolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Visken&amp;#174; (pindolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Beta\n        blocker eye drops for glaucoma will be considered on a case-by-case basis. Call\n        medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta sympathomimetics (unless inhaled) including\n      but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Alupent&amp;#174; tablets\n          (metaproterenol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Brethine&amp;#174; tablets\n          (terbutaline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dopamine &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Proventil Repetabs&amp;#174; , Ventolin&amp;#174; tablets (albuterol tablets)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;Parasympathomimetics (cholinergics) (unless opthalmic) including but not limited to\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antilirium&amp;#174; (physostigmine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aricept&amp;#174; (donepezil) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cognex&amp;#174; (tacrine) &lt;/td&gt;\n        &lt;td&gt;1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mestinon&amp;#174; (pyridostigmine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Reglan&amp;#174; (metoclopramide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urecholine&amp;#174;\n          , Duvoid (bethanechol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cholinergic eye drops for treatment of glaucoma will be allowed during the study on a case-by-case basis.\n        Please contact the CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Muscle relaxants-centrally active including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Equanil&amp;#174; (meprobamate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Flexeril&amp;#174; (cyclobenzaprine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lioresal&amp;#174; (baclofen) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norflex&amp;#174; (orphenadrine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parafon Forte&amp;#174; (chlorzoxazone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robaxin&amp;#174; (methocarbamol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Skelaxin&amp;#174; (metaxalone)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Soma&amp;#174; (carisoprodol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Monamine oxidase inhibitors (MAOI) including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eldepryl&amp;#174; (selegiline)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nardil&amp;#174; (phenelzine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parnate&amp;#174; (tranylcypromine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Parasympatholytics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antivert&amp;#174; , Bonine&amp;#174; , Dramamine II&amp;#174; (meclizine)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Artane&amp;#174; (trihexyphenidyl)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bellergal-S&amp;#174; (alkaloids of belladonna and ergotamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bentyl&amp;#174; (dicyclomine) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cogentin&amp;#174; (benztropine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cystospaz&amp;#174;, Levsin&amp;#174; , Levsinex&amp;#174; (hyoscyamine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ditropan&amp;#174;\n          (oxybutynin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Donnatal&amp;#174; , Hyosophen&amp;#174;\n          (atropine, scopolamine, hyoscyamine and phenobarbitol) &lt;/td&gt;\n        &lt;td&gt;1 month &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dramamine&amp;#174; (dimenhydrinate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lomotil&amp;#174;, Lonox&amp;#174; (atropine, diphenoxylate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pro-Banthine&amp;#174;(propantheline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robinul&amp;#174; (glycopyrrolate)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tigan&amp;#174; (trimethobenzamide) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Transderm-Scop&amp;#174; (scopolamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urispas&amp;#174; (flavoxate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antidepressants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Anafranil&amp;#174; (clomipramine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Asendin&amp;#174;\n          (amoxapine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Desyrel&amp;#174; (trazodone)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Effexor&amp;#174; (venlafaxine) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Elavil&amp;#174; (amitriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ludiomil&amp;#174;\n          (maprotiline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpramin&amp;#174; (desipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pamelor&amp;#174; , Aventyl&amp;#174; (nortriptyline)&lt;/td&gt;\n        &lt;td&gt; 1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Paxil&amp;#174; (paroxetine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prozac&amp;#174;\n          (fluoxetine&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Remeron&amp;#174; (mirtazapine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serzone&amp;#174; (nefazodone) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sinequan&amp;#174;\n          (doxepin)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tofranil&amp;#174; (imipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vivactil&amp;#174; (protriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wellbutrin&amp;#174; (bupropion)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zoloft&amp;#174;\n          (sertraline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Systemic corticosteroids including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cortisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Decadron&amp;#174; (dexamethasone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depo-Medrol&amp;#174; (methylprednisolone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prednisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Xanthine derivatives\n      including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aminophylline&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Fioricet&amp;#174; , Esgic&amp;#174; , Phrenilin Forte&amp;#174; (caffeine, butalbital)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Theo-Dur&amp;#174; (theophylline)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wigraine&amp;#174; , Cafergot&amp;#174; (caffeine, ergotamine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H2 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Axid&amp;#174; (nizatidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pepcid&amp;#174; (famotidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tagamet&amp;#174; (cimetidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zantac&amp;#174; (ranitidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;If an H 2 antagonist is needed by the patient, Axid&lt;/b&gt;&amp;#174; &lt;b&gt;will be&lt;/b&gt; &lt;b&gt;allowed on a case-by-case\n        basis. Please consult CRO&lt;/b&gt; &lt;b&gt;medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Narcotic Analgesics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Darvocet-N\n          100&amp;#174; , (propoxyphene)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Demerol&amp;#174; (meperidine)&lt;/td&gt;\n        &lt;td&gt;1\n          week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilaudid&amp;#174; (hydromorphone)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Duragesic&amp;#174; (fentanyl)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;MS\n          Contin&amp;#174; , Roxanol&amp;#174; , Oramorph&amp;#174; (morphine) &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percocet&amp;#174; , Roxicet&amp;#174; (oxycodone with acetaminophen)&lt;/td&gt;\n        &lt;td&gt;3\n          days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percodan&amp;#174; , Roxiprin&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stadol&amp;#174; (butorphanol)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Talacen&amp;#174;\n          (pentazocine)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylenol #2&amp;#174; , #3&amp;#174;\n          , #4&amp;#174; (codeine and acetaminophen) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylox&amp;#174;\n          , Roxilox&amp;#174; (oxycodone)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vicodin&amp;#174;, Lorcet&amp;#174; (hydrocodone)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Percocet\n        (oxycodone with acetaminophen) and Tylenol&lt;/b&gt;&amp;#174; &lt;b&gt;with codeine #2, #3, #4\n        (acetaminophen + codeine) ARE allowed in the month prior to enrollment, but\n        are not permitted in the 3 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Neuroleptics\n      (antipsychotics) including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Clozaril&amp;#174;\n          (clozapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Haldol&amp;#174; (haloperidol)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Loxitane&amp;#174; (loxapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mellaril&amp;#174; (thioridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Moban&amp;#174;\n          (molindone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Navane&amp;#174; (thiothixene)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Orap&amp;#174; (pimozide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prolixin&amp;#174; (fluphenazine)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Risperdal&amp;#174;\n          (risperidone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stelazine&amp;#174; (trifluoperazine)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Thorazine&amp;#174; (chlorpromazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Trilafon&amp;#174; (perphenazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serentil&amp;#174;\n          (mesoridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of neuroleptics\n        on a daily basis must be discontinued 2 to 4 weeks prior to enrollment. The\n        use of neuroleptics on an as-needed basis is allowable during the screening\n        period, but the last dose must be at least 7 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antianxiety agents including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Atarax&amp;#174; (hydroxyzine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;BuSpar&amp;#174;\n          (buspirone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Librium&amp;#174; (chlordiazepoxide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serax&amp;#174; (oxazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tranxene&amp;#174; (clorazepate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Valium&amp;#174; (diazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vistaril&amp;#174; (hydroxyzine pamoate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Xanax&amp;#174; (alprazolam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Ativan&lt;/b&gt;&amp;#174; &lt;b&gt;(lorazepam) should be discontinued on a daily\n        basis 2 weeks&lt;/b&gt;&lt;/p&gt;\n    &lt;p&gt;&lt;b&gt;prior to enrollment. It may be used on an as-needed\n        basis during the screening period, but is not permitted in the 24 hours prior\n        to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Hypnotics/Sedatives including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ambien&amp;#174; (zolpidem)&lt;/td&gt;\n        &lt;td&gt; 3 days\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dalmane&amp;#174; (flurazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Doral&amp;#174; (quazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Halcion&amp;#174; (triazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nembutal&amp;#174; &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;ProSom&amp;#174; (estazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Restoril&amp;#174;\n          (temazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seconal&amp;#174;&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Chloral Hydrate is allowed on an as-needed basis during screening, but is not permitted in the 24 hours prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H1 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Actifed&amp;#174; , Actifed Plus&amp;#174; (triprolidine) Benadryl&amp;#174;\n          , Unisom&amp;#174; , Tylenol P.M.&amp;#174; &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;(diphenhydramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Compazine&amp;#174; (prochlorperazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Contac&amp;#174; , Coricidin D&amp;#174; , Sinutab&amp;#174; , Novahistine&amp;#174; , Alka\n          Seltzer Plus&amp;#174; , Naldecon&amp;#174; , Sudafed Plus&amp;#174; , Tylenol Cold&amp;#174; , Tylenol\n          Cold and Flu&amp;#174; (chlorpheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dimetapp&amp;#174;\n          (brompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Drixoral&amp;#174; (dexbrompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hismanal&amp;#174; (astemizole)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Phenergan&amp;#174;\n          (promethazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seldane&amp;#174; (terfenadine)&lt;/td&gt;\n        &lt;td&gt;1\n          week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tavist&amp;#174; (clemastine fumarate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zyrtec&amp;#174; (cetrizine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Allegra&lt;/b&gt;&amp;#174;\n      &lt;b&gt;(fexofenadine hydrochloride) or Claritin&lt;/b&gt;&amp;#174; &lt;b&gt;(loratadine) may be taken\n        on as-needed basis during screening but must be discontinued within 24 hours\n        of enrollment.&lt;/b&gt;\n    &lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Stimulants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cylert&amp;#174; (pemoline) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ritalin&amp;#174; (methylphenidate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antiarrhythmics including but not limited to the following&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adenocard&amp;#174; (adenosine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cordarone&amp;#174;\n          (amiodarone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ethmozine&amp;#174; (moricizine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mexitil&amp;#174; (mexiletine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpace&amp;#174; (disopyramide)\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Procan&amp;#174; (procainamide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Quinaglute&amp;#174;\n          (quinidine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Rythmol&amp;#174; (propafenone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tambocor&amp;#174;\n          (flecainide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tonocard&amp;#174; (tocainide)&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Requirement of these drugs for control of cardiac arrhythmia indicates that\n        the patient should be excluded from the study. If discontinuation of an antiarrhythmic\n        is considered, please discuss case with CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Miscellaneous drugs including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Coenzyme\n          Q&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eskalith&amp;#174; , Lithobid&amp;#174; (lithium)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ginkgo biloba&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin\n        &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lupron&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tamoxifen&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Estrogen supplements are permitted during the study, but dosage must be stable for at least 3 months prior to\n      enrollment.&lt;/p&gt;\n  &lt;/li&gt;\n&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Exclusion Criteria</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>study.versions.versionIdentifier</t>
+        </is>
+      </c>
+      <c r="H9" s="33" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
